--- a/BAP_System/Templates/Template_Report.xlsx
+++ b/BAP_System/Templates/Template_Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YLID-891277.YLID\source\repos\Hasan-bawawi\BAP_YLID\BAP_System\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC439AC-7EF2-4307-9195-949C7DC42A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ECD3C6-89F6-4149-8CC9-1371C52178AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC08ACA1-4939-4722-B220-55A3A0227BB7}"/>
   </bookViews>
@@ -8646,7 +8646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="841">
+  <cellXfs count="837">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10411,10 +10411,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="59" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="26" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -10768,6 +10764,32 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11119,50 +11141,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="45" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="221" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="219" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F17BDBF2-004E-41D3-AAE6-46FCA1D43676}"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="84">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -11204,13 +11192,6 @@
       <font>
         <color indexed="10"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -11795,7 +11776,7 @@
       <sheetName val="VLVSheet"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="12">
           <cell r="L12" t="str">
             <v>YUS</v>
@@ -11812,45 +11793,27 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="7">
-          <cell r="J7" t="str">
-            <v>N202301</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16">
-        <row r="73">
-          <cell r="E73" t="str">
-            <v xml:space="preserve">OPCO BP Expenses allocation / Year to date for FIN_Seg_PL </v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="27">
-          <cell r="H27" t="str">
-            <v>01</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12212,8 +12175,8 @@
   </sheetPr>
   <dimension ref="A1:FX285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F99" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AG117" sqref="AG117:AH117"/>
+    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -13412,84 +13375,84 @@
       <c r="ES17" s="11"/>
     </row>
     <row r="18" spans="1:152" customFormat="1" ht="18" customHeight="1">
-      <c r="F18" s="713" t="str">
+      <c r="F18" s="719" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH18),"",BH18),IF(ISBLANK(DJ18),"",DJ18))</f>
         <v>Account</v>
       </c>
-      <c r="G18" s="723"/>
-      <c r="H18" s="733" t="s">
+      <c r="G18" s="729"/>
+      <c r="H18" s="739" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="723" t="str">
+      <c r="I18" s="729" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK18),"",BK18),IF(ISBLANK(DM18),"",DM18))</f>
         <v>Grand Total</v>
       </c>
-      <c r="J18" s="736" t="str">
+      <c r="J18" s="742" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BL18),"",BL18),IF(ISBLANK(DN18),"",DN18))</f>
         <v>Elimination of
 Inter-business 
 transaction</v>
       </c>
-      <c r="K18" s="713" t="str">
+      <c r="K18" s="719" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM18),"",BM18),IF(ISBLANK(DO18),"",DO18))</f>
         <v>Air Freight Forwarding</v>
       </c>
-      <c r="L18" s="714"/>
-      <c r="M18" s="714"/>
-      <c r="N18" s="714"/>
-      <c r="O18" s="723"/>
-      <c r="P18" s="713" t="str">
+      <c r="L18" s="720"/>
+      <c r="M18" s="720"/>
+      <c r="N18" s="720"/>
+      <c r="O18" s="729"/>
+      <c r="P18" s="719" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BR18),"",BR18),IF(ISBLANK(DT18),"",DT18))</f>
         <v>Ocean Freight Forwarding</v>
       </c>
-      <c r="Q18" s="714"/>
-      <c r="R18" s="714"/>
-      <c r="S18" s="714"/>
-      <c r="T18" s="714"/>
-      <c r="U18" s="713" t="str">
+      <c r="Q18" s="720"/>
+      <c r="R18" s="720"/>
+      <c r="S18" s="720"/>
+      <c r="T18" s="720"/>
+      <c r="U18" s="719" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BW18),"",BW18),IF(ISBLANK(DY18),"",DY18))</f>
         <v>SCS</v>
       </c>
-      <c r="V18" s="714"/>
-      <c r="W18" s="714"/>
-      <c r="X18" s="714"/>
-      <c r="Y18" s="717" t="str">
+      <c r="V18" s="720"/>
+      <c r="W18" s="720"/>
+      <c r="X18" s="720"/>
+      <c r="Y18" s="723" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CA18),"",CA18),IF(ISBLANK(EC18),"",EC18))</f>
         <v>Contract Logistics &amp; Transport</v>
       </c>
-      <c r="Z18" s="718"/>
-      <c r="AA18" s="718"/>
-      <c r="AB18" s="719"/>
-      <c r="AC18" s="723" t="str">
+      <c r="Z18" s="724"/>
+      <c r="AA18" s="724"/>
+      <c r="AB18" s="725"/>
+      <c r="AC18" s="729" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE18),"",CE18),IF(ISBLANK(EG18),"",EG18))</f>
         <v>Other business</v>
       </c>
-      <c r="AD18" s="726" t="s">
+      <c r="AD18" s="732" t="s">
         <v>607</v>
       </c>
       <c r="AE18" s="22"/>
-      <c r="AF18" s="728" t="str">
+      <c r="AF18" s="734" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH18),"",CH18),IF(ISBLANK(EJ18),"",EJ18))</f>
         <v>Regional Shared Service Center
 (RSSC)</v>
       </c>
-      <c r="AG18" s="728" t="str">
+      <c r="AG18" s="734" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI18),"",CI18),IF(ISBLANK(EK18),"",EK18))</f>
         <v>GHQ arm</v>
       </c>
       <c r="AH18" s="22"/>
-      <c r="AI18" s="742" t="s">
+      <c r="AI18" s="748" t="s">
         <v>608</v>
       </c>
-      <c r="AK18" s="733" t="str">
+      <c r="AK18" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CM18),"",CM18),IF(ISBLANK(EO18),"",EO18))</f>
         <v>A/C name</v>
       </c>
-      <c r="AL18" s="733" t="str">
+      <c r="AL18" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CN18),"",CN18),IF(ISBLANK(EP18),"",EP18))</f>
         <v>Code</v>
       </c>
-      <c r="AM18" s="744" t="str">
+      <c r="AM18" s="750" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CO18),"",CO18),IF(ISBLANK(EQ18),"",EQ18))</f>
         <v>Amount</v>
       </c>
@@ -13497,69 +13460,69 @@
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
       <c r="BG18" s="1"/>
-      <c r="BH18" s="713" t="s">
+      <c r="BH18" s="719" t="s">
         <v>43</v>
       </c>
-      <c r="BI18" s="723"/>
-      <c r="BJ18" s="733" t="s">
+      <c r="BI18" s="729"/>
+      <c r="BJ18" s="739" t="s">
         <v>42</v>
       </c>
-      <c r="BK18" s="723" t="s">
+      <c r="BK18" s="729" t="s">
         <v>44</v>
       </c>
-      <c r="BL18" s="736" t="s">
+      <c r="BL18" s="742" t="s">
         <v>45</v>
       </c>
-      <c r="BM18" s="713" t="s">
+      <c r="BM18" s="719" t="s">
         <v>46</v>
       </c>
-      <c r="BN18" s="714"/>
-      <c r="BO18" s="714"/>
-      <c r="BP18" s="714"/>
-      <c r="BQ18" s="723"/>
-      <c r="BR18" s="713" t="s">
+      <c r="BN18" s="720"/>
+      <c r="BO18" s="720"/>
+      <c r="BP18" s="720"/>
+      <c r="BQ18" s="729"/>
+      <c r="BR18" s="719" t="s">
         <v>47</v>
       </c>
-      <c r="BS18" s="714"/>
-      <c r="BT18" s="714"/>
-      <c r="BU18" s="714"/>
-      <c r="BV18" s="714"/>
-      <c r="BW18" s="713" t="s">
+      <c r="BS18" s="720"/>
+      <c r="BT18" s="720"/>
+      <c r="BU18" s="720"/>
+      <c r="BV18" s="720"/>
+      <c r="BW18" s="719" t="s">
         <v>48</v>
       </c>
-      <c r="BX18" s="714"/>
-      <c r="BY18" s="714"/>
-      <c r="BZ18" s="714"/>
-      <c r="CA18" s="717" t="s">
+      <c r="BX18" s="720"/>
+      <c r="BY18" s="720"/>
+      <c r="BZ18" s="720"/>
+      <c r="CA18" s="723" t="s">
         <v>49</v>
       </c>
-      <c r="CB18" s="718"/>
-      <c r="CC18" s="718"/>
-      <c r="CD18" s="719"/>
+      <c r="CB18" s="724"/>
+      <c r="CC18" s="724"/>
+      <c r="CD18" s="725"/>
       <c r="CE18" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="CF18" s="762" t="s">
+      <c r="CF18" s="768" t="s">
         <v>51</v>
       </c>
       <c r="CG18" s="24"/>
-      <c r="CH18" s="728" t="s">
+      <c r="CH18" s="734" t="s">
         <v>52</v>
       </c>
-      <c r="CI18" s="728" t="s">
+      <c r="CI18" s="734" t="s">
         <v>53</v>
       </c>
       <c r="CJ18" s="24"/>
-      <c r="CK18" s="749" t="s">
+      <c r="CK18" s="755" t="s">
         <v>54</v>
       </c>
-      <c r="CM18" s="733" t="s">
+      <c r="CM18" s="739" t="s">
         <v>55</v>
       </c>
-      <c r="CN18" s="733" t="s">
+      <c r="CN18" s="739" t="s">
         <v>42</v>
       </c>
-      <c r="CO18" s="752" t="s">
+      <c r="CO18" s="758" t="s">
         <v>56</v>
       </c>
       <c r="CP18" s="2"/>
@@ -13575,69 +13538,69 @@
       <c r="DG18" s="1"/>
       <c r="DH18" s="1"/>
       <c r="DI18" s="1"/>
-      <c r="DJ18" s="713" t="s">
+      <c r="DJ18" s="719" t="s">
         <v>406</v>
       </c>
-      <c r="DK18" s="765"/>
-      <c r="DL18" s="769" t="s">
+      <c r="DK18" s="771"/>
+      <c r="DL18" s="775" t="s">
         <v>42</v>
       </c>
-      <c r="DM18" s="723" t="s">
+      <c r="DM18" s="729" t="s">
         <v>407</v>
       </c>
-      <c r="DN18" s="736" t="s">
+      <c r="DN18" s="742" t="s">
         <v>408</v>
       </c>
-      <c r="DO18" s="713" t="s">
+      <c r="DO18" s="719" t="s">
         <v>409</v>
       </c>
-      <c r="DP18" s="714"/>
-      <c r="DQ18" s="714"/>
-      <c r="DR18" s="714"/>
-      <c r="DS18" s="723"/>
-      <c r="DT18" s="714" t="s">
+      <c r="DP18" s="720"/>
+      <c r="DQ18" s="720"/>
+      <c r="DR18" s="720"/>
+      <c r="DS18" s="729"/>
+      <c r="DT18" s="720" t="s">
         <v>410</v>
       </c>
-      <c r="DU18" s="714"/>
-      <c r="DV18" s="714"/>
-      <c r="DW18" s="714"/>
-      <c r="DX18" s="714"/>
-      <c r="DY18" s="713" t="s">
+      <c r="DU18" s="720"/>
+      <c r="DV18" s="720"/>
+      <c r="DW18" s="720"/>
+      <c r="DX18" s="720"/>
+      <c r="DY18" s="719" t="s">
         <v>411</v>
       </c>
-      <c r="DZ18" s="714"/>
-      <c r="EA18" s="714"/>
-      <c r="EB18" s="723"/>
-      <c r="EC18" s="713" t="s">
+      <c r="DZ18" s="720"/>
+      <c r="EA18" s="720"/>
+      <c r="EB18" s="729"/>
+      <c r="EC18" s="719" t="s">
         <v>412</v>
       </c>
-      <c r="ED18" s="714"/>
-      <c r="EE18" s="758"/>
-      <c r="EF18" s="759"/>
-      <c r="EG18" s="733" t="s">
+      <c r="ED18" s="720"/>
+      <c r="EE18" s="764"/>
+      <c r="EF18" s="765"/>
+      <c r="EG18" s="739" t="s">
         <v>413</v>
       </c>
-      <c r="EH18" s="762" t="s">
+      <c r="EH18" s="768" t="s">
         <v>414</v>
       </c>
       <c r="EI18" s="24"/>
-      <c r="EJ18" s="728" t="s">
+      <c r="EJ18" s="734" t="s">
         <v>52</v>
       </c>
-      <c r="EK18" s="728" t="s">
+      <c r="EK18" s="734" t="s">
         <v>53</v>
       </c>
       <c r="EL18" s="24"/>
-      <c r="EM18" s="749" t="s">
+      <c r="EM18" s="755" t="s">
         <v>54</v>
       </c>
-      <c r="EO18" s="733" t="s">
+      <c r="EO18" s="739" t="s">
         <v>55</v>
       </c>
-      <c r="EP18" s="733" t="s">
+      <c r="EP18" s="739" t="s">
         <v>42</v>
       </c>
-      <c r="EQ18" s="752" t="s">
+      <c r="EQ18" s="758" t="s">
         <v>56</v>
       </c>
       <c r="ER18" s="2"/>
@@ -13645,91 +13608,91 @@
       <c r="ET18" s="2"/>
     </row>
     <row r="19" spans="1:152" customFormat="1" ht="18" customHeight="1">
-      <c r="F19" s="731"/>
-      <c r="G19" s="732"/>
-      <c r="H19" s="734"/>
-      <c r="I19" s="724" t="str">
+      <c r="F19" s="737"/>
+      <c r="G19" s="738"/>
+      <c r="H19" s="740"/>
+      <c r="I19" s="730" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN19),"",BN19),IF(ISBLANK(DL19),"",DL19))</f>
         <v/>
       </c>
-      <c r="J19" s="737" t="str">
+      <c r="J19" s="743" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BO19),"",BO19),IF(ISBLANK(DM19),"",DM19))</f>
         <v/>
       </c>
-      <c r="K19" s="715"/>
-      <c r="L19" s="716"/>
-      <c r="M19" s="716"/>
-      <c r="N19" s="716"/>
-      <c r="O19" s="739"/>
-      <c r="P19" s="715"/>
-      <c r="Q19" s="716"/>
-      <c r="R19" s="716"/>
-      <c r="S19" s="716"/>
-      <c r="T19" s="716"/>
-      <c r="U19" s="715"/>
-      <c r="V19" s="716"/>
-      <c r="W19" s="716"/>
-      <c r="X19" s="716"/>
-      <c r="Y19" s="720"/>
-      <c r="Z19" s="721"/>
-      <c r="AA19" s="721"/>
-      <c r="AB19" s="722"/>
-      <c r="AC19" s="724" t="str">
+      <c r="K19" s="721"/>
+      <c r="L19" s="722"/>
+      <c r="M19" s="722"/>
+      <c r="N19" s="722"/>
+      <c r="O19" s="745"/>
+      <c r="P19" s="721"/>
+      <c r="Q19" s="722"/>
+      <c r="R19" s="722"/>
+      <c r="S19" s="722"/>
+      <c r="T19" s="722"/>
+      <c r="U19" s="721"/>
+      <c r="V19" s="722"/>
+      <c r="W19" s="722"/>
+      <c r="X19" s="722"/>
+      <c r="Y19" s="726"/>
+      <c r="Z19" s="727"/>
+      <c r="AA19" s="727"/>
+      <c r="AB19" s="728"/>
+      <c r="AC19" s="730" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CJ19),"",CJ19),IF(ISBLANK(#REF!),"",#REF!))</f>
         <v/>
       </c>
-      <c r="AD19" s="727" t="str">
+      <c r="AD19" s="733" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK19),"",CK19),IF(ISBLANK(EG19),"",EG19))</f>
         <v/>
       </c>
       <c r="AE19" s="26"/>
-      <c r="AF19" s="729"/>
-      <c r="AG19" s="729"/>
+      <c r="AF19" s="735"/>
+      <c r="AG19" s="735"/>
       <c r="AH19" s="26"/>
-      <c r="AI19" s="743" t="str">
+      <c r="AI19" s="749" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CM19),"",CM19),IF(ISBLANK(EL19),"",EL19))</f>
         <v/>
       </c>
-      <c r="AK19" s="740"/>
-      <c r="AL19" s="740"/>
-      <c r="AM19" s="745"/>
+      <c r="AK19" s="746"/>
+      <c r="AL19" s="746"/>
+      <c r="AM19" s="751"/>
       <c r="AO19" s="4"/>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
       <c r="BG19" s="1"/>
-      <c r="BH19" s="747"/>
-      <c r="BI19" s="748"/>
-      <c r="BJ19" s="734"/>
-      <c r="BK19" s="724"/>
-      <c r="BL19" s="737"/>
-      <c r="BM19" s="715"/>
-      <c r="BN19" s="716"/>
-      <c r="BO19" s="716"/>
-      <c r="BP19" s="716"/>
-      <c r="BQ19" s="739"/>
-      <c r="BR19" s="715"/>
-      <c r="BS19" s="716"/>
-      <c r="BT19" s="716"/>
-      <c r="BU19" s="716"/>
-      <c r="BV19" s="716"/>
-      <c r="BW19" s="715"/>
-      <c r="BX19" s="716"/>
-      <c r="BY19" s="716"/>
-      <c r="BZ19" s="716"/>
-      <c r="CA19" s="720"/>
-      <c r="CB19" s="721"/>
-      <c r="CC19" s="721"/>
-      <c r="CD19" s="722"/>
+      <c r="BH19" s="753"/>
+      <c r="BI19" s="754"/>
+      <c r="BJ19" s="740"/>
+      <c r="BK19" s="730"/>
+      <c r="BL19" s="743"/>
+      <c r="BM19" s="721"/>
+      <c r="BN19" s="722"/>
+      <c r="BO19" s="722"/>
+      <c r="BP19" s="722"/>
+      <c r="BQ19" s="745"/>
+      <c r="BR19" s="721"/>
+      <c r="BS19" s="722"/>
+      <c r="BT19" s="722"/>
+      <c r="BU19" s="722"/>
+      <c r="BV19" s="722"/>
+      <c r="BW19" s="721"/>
+      <c r="BX19" s="722"/>
+      <c r="BY19" s="722"/>
+      <c r="BZ19" s="722"/>
+      <c r="CA19" s="726"/>
+      <c r="CB19" s="727"/>
+      <c r="CC19" s="727"/>
+      <c r="CD19" s="728"/>
       <c r="CE19" s="211"/>
-      <c r="CF19" s="763"/>
+      <c r="CF19" s="769"/>
       <c r="CG19" s="212"/>
-      <c r="CH19" s="729"/>
-      <c r="CI19" s="729"/>
+      <c r="CH19" s="735"/>
+      <c r="CI19" s="735"/>
       <c r="CJ19" s="212"/>
-      <c r="CK19" s="750"/>
-      <c r="CM19" s="740"/>
-      <c r="CN19" s="740"/>
-      <c r="CO19" s="753"/>
+      <c r="CK19" s="756"/>
+      <c r="CM19" s="746"/>
+      <c r="CN19" s="746"/>
+      <c r="CO19" s="759"/>
       <c r="CP19" s="2"/>
       <c r="CQ19" s="2"/>
       <c r="CY19" s="1"/>
@@ -13743,56 +13706,56 @@
       <c r="DG19" s="1"/>
       <c r="DH19" s="1"/>
       <c r="DI19" s="1"/>
-      <c r="DJ19" s="766"/>
-      <c r="DK19" s="767"/>
-      <c r="DL19" s="770"/>
-      <c r="DM19" s="724"/>
-      <c r="DN19" s="737"/>
-      <c r="DO19" s="715"/>
-      <c r="DP19" s="716"/>
-      <c r="DQ19" s="716"/>
-      <c r="DR19" s="716"/>
-      <c r="DS19" s="739"/>
-      <c r="DT19" s="716"/>
-      <c r="DU19" s="716"/>
-      <c r="DV19" s="716"/>
-      <c r="DW19" s="716"/>
-      <c r="DX19" s="716"/>
-      <c r="DY19" s="715"/>
-      <c r="DZ19" s="716"/>
-      <c r="EA19" s="716"/>
-      <c r="EB19" s="739"/>
-      <c r="EC19" s="760"/>
-      <c r="ED19" s="761"/>
-      <c r="EE19" s="761"/>
-      <c r="EF19" s="725"/>
-      <c r="EG19" s="740"/>
-      <c r="EH19" s="763"/>
+      <c r="DJ19" s="772"/>
+      <c r="DK19" s="773"/>
+      <c r="DL19" s="776"/>
+      <c r="DM19" s="730"/>
+      <c r="DN19" s="743"/>
+      <c r="DO19" s="721"/>
+      <c r="DP19" s="722"/>
+      <c r="DQ19" s="722"/>
+      <c r="DR19" s="722"/>
+      <c r="DS19" s="745"/>
+      <c r="DT19" s="722"/>
+      <c r="DU19" s="722"/>
+      <c r="DV19" s="722"/>
+      <c r="DW19" s="722"/>
+      <c r="DX19" s="722"/>
+      <c r="DY19" s="721"/>
+      <c r="DZ19" s="722"/>
+      <c r="EA19" s="722"/>
+      <c r="EB19" s="745"/>
+      <c r="EC19" s="766"/>
+      <c r="ED19" s="767"/>
+      <c r="EE19" s="767"/>
+      <c r="EF19" s="731"/>
+      <c r="EG19" s="746"/>
+      <c r="EH19" s="769"/>
       <c r="EI19" s="212"/>
-      <c r="EJ19" s="729"/>
-      <c r="EK19" s="729"/>
+      <c r="EJ19" s="735"/>
+      <c r="EK19" s="735"/>
       <c r="EL19" s="212"/>
-      <c r="EM19" s="750"/>
-      <c r="EO19" s="740"/>
-      <c r="EP19" s="740"/>
-      <c r="EQ19" s="753"/>
+      <c r="EM19" s="756"/>
+      <c r="EO19" s="746"/>
+      <c r="EP19" s="746"/>
+      <c r="EQ19" s="759"/>
       <c r="ER19" s="2"/>
       <c r="ES19" s="2"/>
       <c r="ET19" s="2"/>
     </row>
     <row r="20" spans="1:152" customFormat="1" ht="43.5" customHeight="1">
-      <c r="F20" s="755" t="str">
+      <c r="F20" s="761" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH20),"",BH20),IF(ISBLANK(DJ20),"",DJ20))</f>
         <v>&lt;NOTE&gt; FOR FINANCIAL ACCOUNTING PURPOSE  (INPUT TAB)                                                                      "Reclassified fixed costs in IFF" are to be reported, if any</v>
       </c>
-      <c r="G20" s="756"/>
-      <c r="H20" s="735"/>
-      <c r="I20" s="725" t="str">
+      <c r="G20" s="762"/>
+      <c r="H20" s="741"/>
+      <c r="I20" s="731" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN20),"",BN20),IF(ISBLANK(DL20),"",DL20))</f>
         <v>Elimination of 
 Intra-AFF transaction</v>
       </c>
-      <c r="J20" s="738" t="str">
+      <c r="J20" s="744" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BO20),"",BO20),IF(ISBLANK(DM20),"",DM20))</f>
         <v>Export</v>
       </c>
@@ -13873,36 +13836,36 @@
         <v>Land 
 Transport</v>
       </c>
-      <c r="AC20" s="725" t="str">
+      <c r="AC20" s="731" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CJ20),"",CJ20),IF(ISBLANK(#REF!),"",#REF!))</f>
         <v/>
       </c>
-      <c r="AD20" s="727" t="str">
+      <c r="AD20" s="733" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK20),"",CK20),IF(ISBLANK(EG20),"",EG20))</f>
         <v/>
       </c>
       <c r="AE20" s="26"/>
-      <c r="AF20" s="730"/>
-      <c r="AG20" s="730"/>
+      <c r="AF20" s="736"/>
+      <c r="AG20" s="736"/>
       <c r="AH20" s="26"/>
-      <c r="AI20" s="743" t="str">
+      <c r="AI20" s="749" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CM20),"",CM20),IF(ISBLANK(EL20),"",EL20))</f>
         <v/>
       </c>
-      <c r="AK20" s="741"/>
-      <c r="AL20" s="741"/>
-      <c r="AM20" s="746"/>
+      <c r="AK20" s="747"/>
+      <c r="AL20" s="747"/>
+      <c r="AM20" s="752"/>
       <c r="AO20" s="4"/>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
       <c r="BG20" s="1"/>
-      <c r="BH20" s="757" t="s">
+      <c r="BH20" s="763" t="s">
         <v>57</v>
       </c>
-      <c r="BI20" s="739"/>
-      <c r="BJ20" s="735"/>
-      <c r="BK20" s="725"/>
-      <c r="BL20" s="738"/>
+      <c r="BI20" s="745"/>
+      <c r="BJ20" s="741"/>
+      <c r="BK20" s="731"/>
+      <c r="BL20" s="744"/>
       <c r="BM20" s="23" t="s">
         <v>58</v>
       </c>
@@ -13958,15 +13921,15 @@
         <v>72</v>
       </c>
       <c r="CE20" s="211"/>
-      <c r="CF20" s="764"/>
+      <c r="CF20" s="770"/>
       <c r="CG20" s="212"/>
-      <c r="CH20" s="730"/>
-      <c r="CI20" s="730"/>
+      <c r="CH20" s="736"/>
+      <c r="CI20" s="736"/>
       <c r="CJ20" s="212"/>
-      <c r="CK20" s="751"/>
-      <c r="CM20" s="741"/>
-      <c r="CN20" s="741"/>
-      <c r="CO20" s="754"/>
+      <c r="CK20" s="757"/>
+      <c r="CM20" s="747"/>
+      <c r="CN20" s="747"/>
+      <c r="CO20" s="760"/>
       <c r="CP20" s="2"/>
       <c r="CQ20" s="2"/>
       <c r="CY20" s="1"/>
@@ -13980,11 +13943,11 @@
       <c r="DG20" s="1"/>
       <c r="DH20" s="1"/>
       <c r="DI20" s="1"/>
-      <c r="DJ20" s="768"/>
-      <c r="DK20" s="767"/>
-      <c r="DL20" s="771"/>
-      <c r="DM20" s="725"/>
-      <c r="DN20" s="738"/>
+      <c r="DJ20" s="774"/>
+      <c r="DK20" s="773"/>
+      <c r="DL20" s="777"/>
+      <c r="DM20" s="731"/>
+      <c r="DN20" s="744"/>
       <c r="DO20" s="23" t="s">
         <v>415</v>
       </c>
@@ -14039,16 +14002,16 @@
       <c r="EF20" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="EG20" s="741"/>
-      <c r="EH20" s="764"/>
+      <c r="EG20" s="747"/>
+      <c r="EH20" s="770"/>
       <c r="EI20" s="212"/>
-      <c r="EJ20" s="730"/>
-      <c r="EK20" s="730"/>
+      <c r="EJ20" s="736"/>
+      <c r="EK20" s="736"/>
       <c r="EL20" s="212"/>
-      <c r="EM20" s="751"/>
-      <c r="EO20" s="741"/>
-      <c r="EP20" s="741"/>
-      <c r="EQ20" s="754"/>
+      <c r="EM20" s="757"/>
+      <c r="EO20" s="747"/>
+      <c r="EP20" s="747"/>
+      <c r="EQ20" s="760"/>
       <c r="ER20" s="2"/>
       <c r="ES20" s="2"/>
       <c r="ET20" s="2"/>
@@ -14104,15 +14067,15 @@
       <c r="AA21" s="217"/>
       <c r="AB21" s="217"/>
       <c r="AC21" s="217"/>
-      <c r="AD21" s="611"/>
-      <c r="AE21" s="670"/>
-      <c r="AF21" s="651"/>
-      <c r="AG21" s="627"/>
+      <c r="AD21" s="610"/>
+      <c r="AE21" s="669"/>
+      <c r="AF21" s="650"/>
+      <c r="AG21" s="626"/>
       <c r="AH21" s="221"/>
       <c r="AI21" s="217"/>
-      <c r="AK21" s="599"/>
-      <c r="AL21" s="600"/>
-      <c r="AM21" s="601"/>
+      <c r="AK21" s="598"/>
+      <c r="AL21" s="599"/>
+      <c r="AM21" s="600"/>
       <c r="AO21" s="4"/>
       <c r="AQ21" s="29"/>
       <c r="BE21" s="1"/>
@@ -14205,8 +14168,8 @@
         <v>0</v>
       </c>
       <c r="L22" s="230"/>
-      <c r="M22" s="597"/>
-      <c r="N22" s="596"/>
+      <c r="M22" s="596"/>
+      <c r="N22" s="836"/>
       <c r="O22" s="232"/>
       <c r="P22" s="229">
         <f t="shared" si="2"/>
@@ -14216,24 +14179,24 @@
       <c r="R22" s="233"/>
       <c r="S22" s="232"/>
       <c r="T22" s="234"/>
-      <c r="U22" s="682"/>
-      <c r="V22" s="682"/>
-      <c r="W22" s="682"/>
-      <c r="X22" s="682"/>
-      <c r="Y22" s="680"/>
-      <c r="Z22" s="682"/>
-      <c r="AA22" s="682"/>
-      <c r="AB22" s="682"/>
-      <c r="AC22" s="682"/>
-      <c r="AD22" s="611"/>
-      <c r="AE22" s="670"/>
-      <c r="AF22" s="686"/>
-      <c r="AG22" s="631"/>
+      <c r="U22" s="681"/>
+      <c r="V22" s="681"/>
+      <c r="W22" s="681"/>
+      <c r="X22" s="681"/>
+      <c r="Y22" s="679"/>
+      <c r="Z22" s="681"/>
+      <c r="AA22" s="681"/>
+      <c r="AB22" s="681"/>
+      <c r="AC22" s="681"/>
+      <c r="AD22" s="610"/>
+      <c r="AE22" s="669"/>
+      <c r="AF22" s="685"/>
+      <c r="AG22" s="630"/>
       <c r="AH22" s="221"/>
-      <c r="AI22" s="677"/>
-      <c r="AK22" s="602"/>
-      <c r="AL22" s="603"/>
-      <c r="AM22" s="604"/>
+      <c r="AI22" s="676"/>
+      <c r="AK22" s="601"/>
+      <c r="AL22" s="602"/>
+      <c r="AM22" s="603"/>
       <c r="AO22" s="4"/>
       <c r="AQ22" s="29"/>
       <c r="BE22" s="1"/>
@@ -14322,7 +14285,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="243"/>
-      <c r="M23" s="598"/>
+      <c r="M23" s="597"/>
       <c r="N23" s="245"/>
       <c r="O23" s="241"/>
       <c r="P23" s="242">
@@ -14332,25 +14295,25 @@
       <c r="Q23" s="246"/>
       <c r="R23" s="247"/>
       <c r="S23" s="245"/>
-      <c r="T23" s="693"/>
-      <c r="U23" s="690"/>
-      <c r="V23" s="690"/>
-      <c r="W23" s="690"/>
-      <c r="X23" s="690"/>
-      <c r="Y23" s="691"/>
-      <c r="Z23" s="692"/>
-      <c r="AA23" s="692"/>
-      <c r="AB23" s="692"/>
-      <c r="AC23" s="692"/>
-      <c r="AD23" s="688"/>
-      <c r="AE23" s="670"/>
-      <c r="AF23" s="689"/>
-      <c r="AG23" s="634"/>
+      <c r="T23" s="692"/>
+      <c r="U23" s="689"/>
+      <c r="V23" s="689"/>
+      <c r="W23" s="689"/>
+      <c r="X23" s="689"/>
+      <c r="Y23" s="690"/>
+      <c r="Z23" s="691"/>
+      <c r="AA23" s="691"/>
+      <c r="AB23" s="691"/>
+      <c r="AC23" s="691"/>
+      <c r="AD23" s="687"/>
+      <c r="AE23" s="669"/>
+      <c r="AF23" s="688"/>
+      <c r="AG23" s="633"/>
       <c r="AH23" s="221"/>
-      <c r="AI23" s="678"/>
-      <c r="AK23" s="605"/>
-      <c r="AL23" s="606"/>
-      <c r="AM23" s="607"/>
+      <c r="AI23" s="677"/>
+      <c r="AK23" s="604"/>
+      <c r="AL23" s="605"/>
+      <c r="AM23" s="606"/>
       <c r="AO23" s="4"/>
       <c r="AQ23" s="29"/>
       <c r="BE23" s="1"/>
@@ -14449,7 +14412,7 @@
       <c r="Q24" s="246"/>
       <c r="R24" s="263"/>
       <c r="S24" s="262"/>
-      <c r="T24" s="693"/>
+      <c r="T24" s="692"/>
       <c r="U24" s="264">
         <f>SUM(V24:X24)</f>
         <v>0</v>
@@ -14468,12 +14431,12 @@
       <c r="AD24" s="263"/>
       <c r="AE24" s="221"/>
       <c r="AF24" s="267"/>
-      <c r="AG24" s="598"/>
+      <c r="AG24" s="597"/>
       <c r="AH24" s="221"/>
-      <c r="AI24" s="678"/>
-      <c r="AK24" s="605"/>
-      <c r="AL24" s="606"/>
-      <c r="AM24" s="607"/>
+      <c r="AI24" s="677"/>
+      <c r="AK24" s="604"/>
+      <c r="AL24" s="605"/>
+      <c r="AM24" s="606"/>
       <c r="AO24" s="4"/>
       <c r="AQ24" s="29"/>
       <c r="BE24" s="1"/>
@@ -14572,7 +14535,7 @@
       <c r="Q25" s="246"/>
       <c r="R25" s="263"/>
       <c r="S25" s="262"/>
-      <c r="T25" s="693"/>
+      <c r="T25" s="692"/>
       <c r="U25" s="264">
         <f>SUM(V25:X25)</f>
         <v>0</v>
@@ -14593,10 +14556,10 @@
       <c r="AF25" s="287"/>
       <c r="AG25" s="261"/>
       <c r="AH25" s="221"/>
-      <c r="AI25" s="678"/>
-      <c r="AK25" s="605"/>
-      <c r="AL25" s="606"/>
-      <c r="AM25" s="607"/>
+      <c r="AI25" s="677"/>
+      <c r="AK25" s="604"/>
+      <c r="AL25" s="605"/>
+      <c r="AM25" s="606"/>
       <c r="AO25" s="4"/>
       <c r="AQ25" s="29"/>
       <c r="BE25" s="1"/>
@@ -14695,7 +14658,7 @@
       <c r="Q26" s="294"/>
       <c r="R26" s="295"/>
       <c r="S26" s="293"/>
-      <c r="T26" s="694"/>
+      <c r="T26" s="693"/>
       <c r="U26" s="296">
         <f>SUM(V26:X26)</f>
         <v>0</v>
@@ -14717,9 +14680,9 @@
       <c r="AG26" s="301"/>
       <c r="AH26" s="221"/>
       <c r="AI26" s="302"/>
-      <c r="AK26" s="608"/>
-      <c r="AL26" s="609"/>
-      <c r="AM26" s="610"/>
+      <c r="AK26" s="607"/>
+      <c r="AL26" s="608"/>
+      <c r="AM26" s="609"/>
       <c r="AO26" s="4"/>
       <c r="AQ26" s="46" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CS26),"",CS26),IF(ISBLANK(EU26),"",EU26))</f>
@@ -15073,15 +15036,15 @@
       <c r="AA28" s="217"/>
       <c r="AB28" s="217"/>
       <c r="AC28" s="217"/>
-      <c r="AD28" s="611"/>
-      <c r="AE28" s="670"/>
-      <c r="AF28" s="686"/>
-      <c r="AG28" s="631"/>
+      <c r="AD28" s="610"/>
+      <c r="AE28" s="669"/>
+      <c r="AF28" s="685"/>
+      <c r="AG28" s="630"/>
       <c r="AH28" s="221"/>
       <c r="AI28" s="217"/>
-      <c r="AK28" s="599"/>
-      <c r="AL28" s="600"/>
-      <c r="AM28" s="611"/>
+      <c r="AK28" s="598"/>
+      <c r="AL28" s="599"/>
+      <c r="AM28" s="610"/>
       <c r="AO28" s="4"/>
       <c r="AQ28" s="52"/>
       <c r="AR28" s="321"/>
@@ -15177,34 +15140,34 @@
       </c>
       <c r="L29" s="326"/>
       <c r="M29" s="217"/>
-      <c r="N29" s="700"/>
-      <c r="O29" s="611"/>
+      <c r="N29" s="699"/>
+      <c r="O29" s="610"/>
       <c r="P29" s="218">
         <f>SUM(Q29:T29)</f>
         <v>0</v>
       </c>
       <c r="Q29" s="326"/>
       <c r="R29" s="217"/>
-      <c r="S29" s="695"/>
-      <c r="T29" s="696"/>
-      <c r="U29" s="697"/>
-      <c r="V29" s="697"/>
-      <c r="W29" s="697"/>
-      <c r="X29" s="698"/>
-      <c r="Y29" s="699"/>
-      <c r="Z29" s="698"/>
-      <c r="AA29" s="698"/>
-      <c r="AB29" s="698"/>
-      <c r="AC29" s="698"/>
-      <c r="AD29" s="611"/>
-      <c r="AE29" s="670"/>
-      <c r="AF29" s="686"/>
-      <c r="AG29" s="631"/>
+      <c r="S29" s="694"/>
+      <c r="T29" s="695"/>
+      <c r="U29" s="696"/>
+      <c r="V29" s="696"/>
+      <c r="W29" s="696"/>
+      <c r="X29" s="697"/>
+      <c r="Y29" s="698"/>
+      <c r="Z29" s="697"/>
+      <c r="AA29" s="697"/>
+      <c r="AB29" s="697"/>
+      <c r="AC29" s="697"/>
+      <c r="AD29" s="610"/>
+      <c r="AE29" s="669"/>
+      <c r="AF29" s="685"/>
+      <c r="AG29" s="630"/>
       <c r="AH29" s="221"/>
-      <c r="AI29" s="677"/>
-      <c r="AK29" s="599"/>
-      <c r="AL29" s="600"/>
-      <c r="AM29" s="611"/>
+      <c r="AI29" s="676"/>
+      <c r="AK29" s="598"/>
+      <c r="AL29" s="599"/>
+      <c r="AM29" s="610"/>
       <c r="AO29" s="4"/>
       <c r="AQ29" s="52"/>
       <c r="AR29" s="321"/>
@@ -15372,16 +15335,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="612">
+      <c r="AD30" s="611">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="670"/>
-      <c r="AF30" s="685">
+      <c r="AE30" s="669"/>
+      <c r="AF30" s="684">
         <f>SUM(AF28:AF29)</f>
         <v>0</v>
       </c>
-      <c r="AG30" s="597">
+      <c r="AG30" s="596">
         <f>SUM(AG28:AG29)</f>
         <v>0</v>
       </c>
@@ -15390,9 +15353,9 @@
         <f>SUM(AI28:AI29)</f>
         <v>0</v>
       </c>
-      <c r="AK30" s="602"/>
-      <c r="AL30" s="603"/>
-      <c r="AM30" s="612"/>
+      <c r="AK30" s="601"/>
+      <c r="AL30" s="602"/>
+      <c r="AM30" s="611"/>
       <c r="AO30" s="4"/>
       <c r="AQ30" s="52"/>
       <c r="AR30" s="321"/>
@@ -15578,9 +15541,9 @@
         <f>AI27-AI30</f>
         <v>0</v>
       </c>
-      <c r="AK31" s="602"/>
-      <c r="AL31" s="603"/>
-      <c r="AM31" s="612"/>
+      <c r="AK31" s="601"/>
+      <c r="AL31" s="602"/>
+      <c r="AM31" s="611"/>
       <c r="AO31" s="4"/>
       <c r="AQ31" s="52"/>
       <c r="AR31" s="321"/>
@@ -15700,15 +15663,15 @@
       <c r="AA32" s="232"/>
       <c r="AB32" s="232"/>
       <c r="AC32" s="232"/>
-      <c r="AD32" s="683"/>
-      <c r="AE32" s="670"/>
-      <c r="AF32" s="684"/>
-      <c r="AG32" s="644"/>
+      <c r="AD32" s="682"/>
+      <c r="AE32" s="669"/>
+      <c r="AF32" s="683"/>
+      <c r="AG32" s="643"/>
       <c r="AH32" s="221"/>
       <c r="AI32" s="217"/>
-      <c r="AK32" s="613"/>
-      <c r="AL32" s="614"/>
-      <c r="AM32" s="615"/>
+      <c r="AK32" s="612"/>
+      <c r="AL32" s="613"/>
+      <c r="AM32" s="614"/>
       <c r="AO32" s="4"/>
       <c r="AQ32" s="52"/>
       <c r="AR32" s="321"/>
@@ -15829,15 +15792,15 @@
       <c r="AA33" s="232"/>
       <c r="AB33" s="232"/>
       <c r="AC33" s="232"/>
-      <c r="AD33" s="683"/>
-      <c r="AE33" s="670"/>
-      <c r="AF33" s="684"/>
-      <c r="AG33" s="644"/>
+      <c r="AD33" s="682"/>
+      <c r="AE33" s="669"/>
+      <c r="AF33" s="683"/>
+      <c r="AG33" s="643"/>
       <c r="AH33" s="221"/>
       <c r="AI33" s="217"/>
-      <c r="AK33" s="613"/>
-      <c r="AL33" s="614"/>
-      <c r="AM33" s="615"/>
+      <c r="AK33" s="612"/>
+      <c r="AL33" s="613"/>
+      <c r="AM33" s="614"/>
       <c r="AO33" s="4"/>
       <c r="AQ33" s="52"/>
       <c r="AR33" s="321"/>
@@ -15954,15 +15917,15 @@
       <c r="AA34" s="232"/>
       <c r="AB34" s="232"/>
       <c r="AC34" s="232"/>
-      <c r="AD34" s="683"/>
-      <c r="AE34" s="670"/>
-      <c r="AF34" s="684"/>
-      <c r="AG34" s="644"/>
+      <c r="AD34" s="682"/>
+      <c r="AE34" s="669"/>
+      <c r="AF34" s="683"/>
+      <c r="AG34" s="643"/>
       <c r="AH34" s="221"/>
       <c r="AI34" s="217"/>
-      <c r="AK34" s="613"/>
-      <c r="AL34" s="614"/>
-      <c r="AM34" s="615"/>
+      <c r="AK34" s="612"/>
+      <c r="AL34" s="613"/>
+      <c r="AM34" s="614"/>
       <c r="AO34" s="4"/>
       <c r="AQ34" s="52"/>
       <c r="AR34" s="321"/>
@@ -16079,15 +16042,15 @@
       <c r="AA35" s="232"/>
       <c r="AB35" s="232"/>
       <c r="AC35" s="232"/>
-      <c r="AD35" s="612"/>
-      <c r="AE35" s="670"/>
-      <c r="AF35" s="685"/>
-      <c r="AG35" s="597"/>
+      <c r="AD35" s="611"/>
+      <c r="AE35" s="669"/>
+      <c r="AF35" s="684"/>
+      <c r="AG35" s="596"/>
       <c r="AH35" s="221"/>
       <c r="AI35" s="217"/>
-      <c r="AK35" s="616"/>
-      <c r="AL35" s="617"/>
-      <c r="AM35" s="618"/>
+      <c r="AK35" s="615"/>
+      <c r="AL35" s="616"/>
+      <c r="AM35" s="617"/>
       <c r="AO35" s="4"/>
       <c r="AQ35" s="52"/>
       <c r="AR35" s="321"/>
@@ -16204,15 +16167,15 @@
       <c r="AA36" s="232"/>
       <c r="AB36" s="232"/>
       <c r="AC36" s="232"/>
-      <c r="AD36" s="612"/>
-      <c r="AE36" s="670"/>
-      <c r="AF36" s="685"/>
-      <c r="AG36" s="597"/>
+      <c r="AD36" s="611"/>
+      <c r="AE36" s="669"/>
+      <c r="AF36" s="684"/>
+      <c r="AG36" s="596"/>
       <c r="AH36" s="221"/>
       <c r="AI36" s="217"/>
-      <c r="AK36" s="616"/>
-      <c r="AL36" s="617"/>
-      <c r="AM36" s="618"/>
+      <c r="AK36" s="615"/>
+      <c r="AL36" s="616"/>
+      <c r="AM36" s="617"/>
       <c r="AO36" s="4"/>
       <c r="AQ36" s="52"/>
       <c r="AR36" s="321"/>
@@ -16329,15 +16292,15 @@
       <c r="AA37" s="232"/>
       <c r="AB37" s="232"/>
       <c r="AC37" s="232"/>
-      <c r="AD37" s="612"/>
-      <c r="AE37" s="670"/>
-      <c r="AF37" s="685"/>
-      <c r="AG37" s="597"/>
+      <c r="AD37" s="611"/>
+      <c r="AE37" s="669"/>
+      <c r="AF37" s="684"/>
+      <c r="AG37" s="596"/>
       <c r="AH37" s="221"/>
       <c r="AI37" s="217"/>
-      <c r="AK37" s="616"/>
-      <c r="AL37" s="617"/>
-      <c r="AM37" s="618"/>
+      <c r="AK37" s="615"/>
+      <c r="AL37" s="616"/>
+      <c r="AM37" s="617"/>
       <c r="AO37" s="4"/>
       <c r="AQ37" s="52"/>
       <c r="AR37" s="321"/>
@@ -16454,15 +16417,15 @@
       <c r="AA38" s="348"/>
       <c r="AB38" s="348"/>
       <c r="AC38" s="348"/>
-      <c r="AD38" s="611"/>
-      <c r="AE38" s="670"/>
-      <c r="AF38" s="686"/>
-      <c r="AG38" s="631"/>
+      <c r="AD38" s="610"/>
+      <c r="AE38" s="669"/>
+      <c r="AF38" s="685"/>
+      <c r="AG38" s="630"/>
       <c r="AH38" s="221"/>
       <c r="AI38" s="217"/>
-      <c r="AK38" s="619"/>
-      <c r="AL38" s="620"/>
-      <c r="AM38" s="621"/>
+      <c r="AK38" s="618"/>
+      <c r="AL38" s="619"/>
+      <c r="AM38" s="620"/>
       <c r="AO38" s="4"/>
       <c r="AQ38" s="52"/>
       <c r="AR38" s="321"/>
@@ -16627,16 +16590,16 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD39" s="612">
+      <c r="AD39" s="611">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AE39" s="670"/>
-      <c r="AF39" s="685">
+      <c r="AE39" s="669"/>
+      <c r="AF39" s="684">
         <f>SUM(AF32:AF38)</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="597">
+      <c r="AG39" s="596">
         <f>SUM(AG32:AG38)</f>
         <v>0</v>
       </c>
@@ -16645,9 +16608,9 @@
         <f>SUM(AI32:AI38)</f>
         <v>0</v>
       </c>
-      <c r="AK39" s="602"/>
-      <c r="AL39" s="603"/>
-      <c r="AM39" s="612"/>
+      <c r="AK39" s="601"/>
+      <c r="AL39" s="602"/>
+      <c r="AM39" s="611"/>
       <c r="AO39" s="4"/>
       <c r="AQ39" s="52"/>
       <c r="AR39" s="321"/>
@@ -16764,15 +16727,15 @@
       <c r="AA40" s="356"/>
       <c r="AB40" s="356"/>
       <c r="AC40" s="356"/>
-      <c r="AD40" s="683"/>
-      <c r="AE40" s="670"/>
-      <c r="AF40" s="684"/>
-      <c r="AG40" s="644"/>
+      <c r="AD40" s="682"/>
+      <c r="AE40" s="669"/>
+      <c r="AF40" s="683"/>
+      <c r="AG40" s="643"/>
       <c r="AH40" s="221"/>
       <c r="AI40" s="217"/>
-      <c r="AK40" s="613"/>
-      <c r="AL40" s="614"/>
-      <c r="AM40" s="615"/>
+      <c r="AK40" s="612"/>
+      <c r="AL40" s="613"/>
+      <c r="AM40" s="614"/>
       <c r="AO40" s="4"/>
       <c r="AQ40" s="52"/>
       <c r="AR40" s="321"/>
@@ -16889,15 +16852,15 @@
       <c r="AA41" s="232"/>
       <c r="AB41" s="232"/>
       <c r="AC41" s="232"/>
-      <c r="AD41" s="612"/>
-      <c r="AE41" s="670"/>
-      <c r="AF41" s="685"/>
-      <c r="AG41" s="597"/>
+      <c r="AD41" s="611"/>
+      <c r="AE41" s="669"/>
+      <c r="AF41" s="684"/>
+      <c r="AG41" s="596"/>
       <c r="AH41" s="221"/>
       <c r="AI41" s="217"/>
-      <c r="AK41" s="616"/>
-      <c r="AL41" s="617"/>
-      <c r="AM41" s="618"/>
+      <c r="AK41" s="615"/>
+      <c r="AL41" s="616"/>
+      <c r="AM41" s="617"/>
       <c r="AO41" s="4"/>
       <c r="AQ41" s="52"/>
       <c r="AR41" s="321"/>
@@ -17014,15 +16977,15 @@
       <c r="AA42" s="232"/>
       <c r="AB42" s="232"/>
       <c r="AC42" s="232"/>
-      <c r="AD42" s="612"/>
-      <c r="AE42" s="670"/>
-      <c r="AF42" s="685"/>
-      <c r="AG42" s="597"/>
+      <c r="AD42" s="611"/>
+      <c r="AE42" s="669"/>
+      <c r="AF42" s="684"/>
+      <c r="AG42" s="596"/>
       <c r="AH42" s="221"/>
       <c r="AI42" s="217"/>
-      <c r="AK42" s="616"/>
-      <c r="AL42" s="617"/>
-      <c r="AM42" s="618"/>
+      <c r="AK42" s="615"/>
+      <c r="AL42" s="616"/>
+      <c r="AM42" s="617"/>
       <c r="AO42" s="4"/>
       <c r="AQ42" s="52"/>
       <c r="AR42" s="321"/>
@@ -17139,15 +17102,15 @@
       <c r="AA43" s="232"/>
       <c r="AB43" s="232"/>
       <c r="AC43" s="232"/>
-      <c r="AD43" s="612"/>
-      <c r="AE43" s="670"/>
-      <c r="AF43" s="685"/>
-      <c r="AG43" s="597"/>
+      <c r="AD43" s="611"/>
+      <c r="AE43" s="669"/>
+      <c r="AF43" s="684"/>
+      <c r="AG43" s="596"/>
       <c r="AH43" s="221"/>
       <c r="AI43" s="217"/>
-      <c r="AK43" s="616"/>
-      <c r="AL43" s="617"/>
-      <c r="AM43" s="618"/>
+      <c r="AK43" s="615"/>
+      <c r="AL43" s="616"/>
+      <c r="AM43" s="617"/>
       <c r="AO43" s="4"/>
       <c r="AQ43" s="52"/>
       <c r="AR43" s="321"/>
@@ -17264,15 +17227,15 @@
       <c r="AA44" s="232"/>
       <c r="AB44" s="232"/>
       <c r="AC44" s="232"/>
-      <c r="AD44" s="612"/>
-      <c r="AE44" s="670"/>
-      <c r="AF44" s="685"/>
-      <c r="AG44" s="597"/>
+      <c r="AD44" s="611"/>
+      <c r="AE44" s="669"/>
+      <c r="AF44" s="684"/>
+      <c r="AG44" s="596"/>
       <c r="AH44" s="221"/>
       <c r="AI44" s="217"/>
-      <c r="AK44" s="616"/>
-      <c r="AL44" s="617"/>
-      <c r="AM44" s="618"/>
+      <c r="AK44" s="615"/>
+      <c r="AL44" s="616"/>
+      <c r="AM44" s="617"/>
       <c r="AO44" s="4"/>
       <c r="AQ44" s="52"/>
       <c r="AR44" s="321"/>
@@ -17389,15 +17352,15 @@
       <c r="AA45" s="232"/>
       <c r="AB45" s="232"/>
       <c r="AC45" s="232"/>
-      <c r="AD45" s="612"/>
-      <c r="AE45" s="670"/>
-      <c r="AF45" s="685"/>
-      <c r="AG45" s="597"/>
+      <c r="AD45" s="611"/>
+      <c r="AE45" s="669"/>
+      <c r="AF45" s="684"/>
+      <c r="AG45" s="596"/>
       <c r="AH45" s="221"/>
       <c r="AI45" s="217"/>
-      <c r="AK45" s="616"/>
-      <c r="AL45" s="617"/>
-      <c r="AM45" s="618"/>
+      <c r="AK45" s="615"/>
+      <c r="AL45" s="616"/>
+      <c r="AM45" s="617"/>
       <c r="AO45" s="4"/>
       <c r="AQ45" s="52"/>
       <c r="AR45" s="321"/>
@@ -17514,15 +17477,15 @@
       <c r="AA46" s="232"/>
       <c r="AB46" s="232"/>
       <c r="AC46" s="232"/>
-      <c r="AD46" s="612"/>
-      <c r="AE46" s="670"/>
-      <c r="AF46" s="685"/>
-      <c r="AG46" s="597"/>
+      <c r="AD46" s="611"/>
+      <c r="AE46" s="669"/>
+      <c r="AF46" s="684"/>
+      <c r="AG46" s="596"/>
       <c r="AH46" s="221"/>
       <c r="AI46" s="217"/>
-      <c r="AK46" s="616"/>
-      <c r="AL46" s="617"/>
-      <c r="AM46" s="618"/>
+      <c r="AK46" s="615"/>
+      <c r="AL46" s="616"/>
+      <c r="AM46" s="617"/>
       <c r="AO46" s="4"/>
       <c r="AQ46" s="52"/>
       <c r="AR46" s="321"/>
@@ -17639,15 +17602,15 @@
       <c r="AA47" s="232"/>
       <c r="AB47" s="232"/>
       <c r="AC47" s="232"/>
-      <c r="AD47" s="612"/>
-      <c r="AE47" s="670"/>
-      <c r="AF47" s="685"/>
-      <c r="AG47" s="597"/>
+      <c r="AD47" s="611"/>
+      <c r="AE47" s="669"/>
+      <c r="AF47" s="684"/>
+      <c r="AG47" s="596"/>
       <c r="AH47" s="221"/>
       <c r="AI47" s="217"/>
-      <c r="AK47" s="616"/>
-      <c r="AL47" s="617"/>
-      <c r="AM47" s="618"/>
+      <c r="AK47" s="615"/>
+      <c r="AL47" s="616"/>
+      <c r="AM47" s="617"/>
       <c r="AO47" s="4"/>
       <c r="AQ47" s="52"/>
       <c r="AR47" s="321"/>
@@ -17764,15 +17727,15 @@
       <c r="AA48" s="232"/>
       <c r="AB48" s="232"/>
       <c r="AC48" s="232"/>
-      <c r="AD48" s="612"/>
-      <c r="AE48" s="670"/>
-      <c r="AF48" s="685"/>
-      <c r="AG48" s="597"/>
+      <c r="AD48" s="611"/>
+      <c r="AE48" s="669"/>
+      <c r="AF48" s="684"/>
+      <c r="AG48" s="596"/>
       <c r="AH48" s="221"/>
       <c r="AI48" s="217"/>
-      <c r="AK48" s="616"/>
-      <c r="AL48" s="617"/>
-      <c r="AM48" s="618"/>
+      <c r="AK48" s="615"/>
+      <c r="AL48" s="616"/>
+      <c r="AM48" s="617"/>
       <c r="AO48" s="4"/>
       <c r="AQ48" s="52"/>
       <c r="AR48" s="321"/>
@@ -17889,15 +17852,15 @@
       <c r="AA49" s="232"/>
       <c r="AB49" s="232"/>
       <c r="AC49" s="232"/>
-      <c r="AD49" s="612"/>
-      <c r="AE49" s="670"/>
-      <c r="AF49" s="685"/>
-      <c r="AG49" s="597"/>
+      <c r="AD49" s="611"/>
+      <c r="AE49" s="669"/>
+      <c r="AF49" s="684"/>
+      <c r="AG49" s="596"/>
       <c r="AH49" s="221"/>
       <c r="AI49" s="217"/>
-      <c r="AK49" s="616"/>
-      <c r="AL49" s="617"/>
-      <c r="AM49" s="618"/>
+      <c r="AK49" s="615"/>
+      <c r="AL49" s="616"/>
+      <c r="AM49" s="617"/>
       <c r="AO49" s="4"/>
       <c r="AQ49" s="52"/>
       <c r="AR49" s="321"/>
@@ -18015,15 +17978,15 @@
       <c r="AA50" s="348"/>
       <c r="AB50" s="348"/>
       <c r="AC50" s="348"/>
-      <c r="AD50" s="611"/>
-      <c r="AE50" s="670"/>
-      <c r="AF50" s="686"/>
-      <c r="AG50" s="631"/>
+      <c r="AD50" s="610"/>
+      <c r="AE50" s="669"/>
+      <c r="AF50" s="685"/>
+      <c r="AG50" s="630"/>
       <c r="AH50" s="221"/>
       <c r="AI50" s="348"/>
-      <c r="AK50" s="619"/>
-      <c r="AL50" s="620"/>
-      <c r="AM50" s="621"/>
+      <c r="AK50" s="618"/>
+      <c r="AL50" s="619"/>
+      <c r="AM50" s="620"/>
       <c r="AO50" s="4"/>
       <c r="AQ50" s="52"/>
       <c r="AR50" s="321"/>
@@ -18188,16 +18151,16 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AD51" s="612">
+      <c r="AD51" s="611">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE51" s="670"/>
-      <c r="AF51" s="685">
+      <c r="AE51" s="669"/>
+      <c r="AF51" s="684">
         <f>SUM(AF40:AF50)</f>
         <v>0</v>
       </c>
-      <c r="AG51" s="597">
+      <c r="AG51" s="596">
         <f>SUM(AG40:AG50)</f>
         <v>0</v>
       </c>
@@ -18206,9 +18169,9 @@
         <f>SUM(AI40:AI50)</f>
         <v>0</v>
       </c>
-      <c r="AK51" s="602"/>
-      <c r="AL51" s="603"/>
-      <c r="AM51" s="612"/>
+      <c r="AK51" s="601"/>
+      <c r="AL51" s="602"/>
+      <c r="AM51" s="611"/>
       <c r="AO51" s="4"/>
       <c r="AQ51" s="52"/>
       <c r="AR51" s="321"/>
@@ -18373,16 +18336,16 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD52" s="612">
+      <c r="AD52" s="611">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE52" s="687"/>
-      <c r="AF52" s="685">
+      <c r="AE52" s="686"/>
+      <c r="AF52" s="684">
         <f>AF39+AF51</f>
         <v>0</v>
       </c>
-      <c r="AG52" s="597">
+      <c r="AG52" s="596">
         <f>AG39+AG51</f>
         <v>0</v>
       </c>
@@ -18391,9 +18354,9 @@
         <f>AI39+AI51</f>
         <v>0</v>
       </c>
-      <c r="AK52" s="622"/>
-      <c r="AL52" s="623"/>
-      <c r="AM52" s="624"/>
+      <c r="AK52" s="621"/>
+      <c r="AL52" s="622"/>
+      <c r="AM52" s="623"/>
       <c r="AO52" s="4"/>
       <c r="AQ52" s="52"/>
       <c r="AR52" s="321"/>
@@ -18558,16 +18521,16 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AD53" s="612">
+      <c r="AD53" s="611">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE53" s="687"/>
-      <c r="AF53" s="685">
+      <c r="AE53" s="686"/>
+      <c r="AF53" s="684">
         <f>AF52+AF30</f>
         <v>0</v>
       </c>
-      <c r="AG53" s="597">
+      <c r="AG53" s="596">
         <f>AG52+AG30</f>
         <v>0</v>
       </c>
@@ -18946,12 +18909,12 @@
       <c r="AD55" s="412"/>
       <c r="AE55" s="221"/>
       <c r="AF55" s="361"/>
-      <c r="AG55" s="831"/>
-      <c r="AH55" s="832"/>
-      <c r="AI55" s="831"/>
-      <c r="AK55" s="625"/>
-      <c r="AL55" s="626"/>
-      <c r="AM55" s="627"/>
+      <c r="AG55" s="713"/>
+      <c r="AH55" s="714"/>
+      <c r="AI55" s="713"/>
+      <c r="AK55" s="624"/>
+      <c r="AL55" s="625"/>
+      <c r="AM55" s="626"/>
       <c r="AO55" s="4"/>
       <c r="AQ55" s="52"/>
       <c r="AR55" s="321"/>
@@ -19075,12 +19038,12 @@
       <c r="AD56" s="412"/>
       <c r="AE56" s="221"/>
       <c r="AF56" s="361"/>
-      <c r="AG56" s="831"/>
-      <c r="AH56" s="832"/>
-      <c r="AI56" s="831"/>
-      <c r="AK56" s="628"/>
-      <c r="AL56" s="603"/>
-      <c r="AM56" s="597"/>
+      <c r="AG56" s="713"/>
+      <c r="AH56" s="714"/>
+      <c r="AI56" s="713"/>
+      <c r="AK56" s="627"/>
+      <c r="AL56" s="602"/>
+      <c r="AM56" s="596"/>
       <c r="AO56" s="4"/>
       <c r="AQ56" s="52"/>
       <c r="AR56" s="321"/>
@@ -19200,12 +19163,12 @@
       <c r="AD57" s="412"/>
       <c r="AE57" s="221"/>
       <c r="AF57" s="361"/>
-      <c r="AG57" s="831"/>
-      <c r="AH57" s="832"/>
-      <c r="AI57" s="831"/>
-      <c r="AK57" s="629"/>
-      <c r="AL57" s="630"/>
-      <c r="AM57" s="631"/>
+      <c r="AG57" s="713"/>
+      <c r="AH57" s="714"/>
+      <c r="AI57" s="713"/>
+      <c r="AK57" s="628"/>
+      <c r="AL57" s="629"/>
+      <c r="AM57" s="630"/>
       <c r="AO57" s="4"/>
       <c r="AQ57" s="52"/>
       <c r="AR57" s="321"/>
@@ -19325,12 +19288,12 @@
       <c r="AD58" s="412"/>
       <c r="AE58" s="221"/>
       <c r="AF58" s="361"/>
-      <c r="AG58" s="831"/>
-      <c r="AH58" s="832"/>
-      <c r="AI58" s="831"/>
-      <c r="AK58" s="629"/>
-      <c r="AL58" s="630"/>
-      <c r="AM58" s="631"/>
+      <c r="AG58" s="713"/>
+      <c r="AH58" s="714"/>
+      <c r="AI58" s="713"/>
+      <c r="AK58" s="628"/>
+      <c r="AL58" s="629"/>
+      <c r="AM58" s="630"/>
       <c r="AO58" s="4"/>
       <c r="AQ58" s="52"/>
       <c r="AR58" s="321"/>
@@ -19450,12 +19413,12 @@
       <c r="AD59" s="412"/>
       <c r="AE59" s="221"/>
       <c r="AF59" s="361"/>
-      <c r="AG59" s="831"/>
-      <c r="AH59" s="832"/>
-      <c r="AI59" s="831"/>
-      <c r="AK59" s="628"/>
-      <c r="AL59" s="603"/>
-      <c r="AM59" s="597"/>
+      <c r="AG59" s="713"/>
+      <c r="AH59" s="714"/>
+      <c r="AI59" s="713"/>
+      <c r="AK59" s="627"/>
+      <c r="AL59" s="602"/>
+      <c r="AM59" s="596"/>
       <c r="AO59" s="4"/>
       <c r="AQ59" s="52"/>
       <c r="AR59" s="321"/>
@@ -19575,12 +19538,12 @@
       <c r="AD60" s="412"/>
       <c r="AE60" s="221"/>
       <c r="AF60" s="361"/>
-      <c r="AG60" s="831"/>
-      <c r="AH60" s="832"/>
-      <c r="AI60" s="831"/>
-      <c r="AK60" s="629"/>
-      <c r="AL60" s="630"/>
-      <c r="AM60" s="631"/>
+      <c r="AG60" s="713"/>
+      <c r="AH60" s="714"/>
+      <c r="AI60" s="713"/>
+      <c r="AK60" s="628"/>
+      <c r="AL60" s="629"/>
+      <c r="AM60" s="630"/>
       <c r="AO60" s="4"/>
       <c r="AQ60" s="52"/>
       <c r="AR60" s="321"/>
@@ -19700,12 +19663,12 @@
       <c r="AD61" s="412"/>
       <c r="AE61" s="221"/>
       <c r="AF61" s="361"/>
-      <c r="AG61" s="831"/>
-      <c r="AH61" s="832"/>
-      <c r="AI61" s="831"/>
-      <c r="AK61" s="629"/>
-      <c r="AL61" s="630"/>
-      <c r="AM61" s="631"/>
+      <c r="AG61" s="713"/>
+      <c r="AH61" s="714"/>
+      <c r="AI61" s="713"/>
+      <c r="AK61" s="628"/>
+      <c r="AL61" s="629"/>
+      <c r="AM61" s="630"/>
       <c r="AO61" s="4"/>
       <c r="AQ61" s="52"/>
       <c r="AR61" s="321"/>
@@ -19825,12 +19788,12 @@
       <c r="AD62" s="412"/>
       <c r="AE62" s="221"/>
       <c r="AF62" s="361"/>
-      <c r="AG62" s="831"/>
-      <c r="AH62" s="832"/>
-      <c r="AI62" s="831"/>
-      <c r="AK62" s="629"/>
-      <c r="AL62" s="630"/>
-      <c r="AM62" s="631"/>
+      <c r="AG62" s="713"/>
+      <c r="AH62" s="714"/>
+      <c r="AI62" s="713"/>
+      <c r="AK62" s="628"/>
+      <c r="AL62" s="629"/>
+      <c r="AM62" s="630"/>
       <c r="AO62" s="4"/>
       <c r="AQ62" s="52"/>
       <c r="AR62" s="321"/>
@@ -19950,12 +19913,12 @@
       <c r="AD63" s="412"/>
       <c r="AE63" s="221"/>
       <c r="AF63" s="361"/>
-      <c r="AG63" s="831"/>
-      <c r="AH63" s="832"/>
-      <c r="AI63" s="831"/>
-      <c r="AK63" s="629"/>
-      <c r="AL63" s="630"/>
-      <c r="AM63" s="631"/>
+      <c r="AG63" s="713"/>
+      <c r="AH63" s="714"/>
+      <c r="AI63" s="713"/>
+      <c r="AK63" s="628"/>
+      <c r="AL63" s="629"/>
+      <c r="AM63" s="630"/>
       <c r="AO63" s="4"/>
       <c r="AQ63" s="52"/>
       <c r="AR63" s="321"/>
@@ -20075,12 +20038,12 @@
       <c r="AD64" s="412"/>
       <c r="AE64" s="221"/>
       <c r="AF64" s="361"/>
-      <c r="AG64" s="831"/>
-      <c r="AH64" s="832"/>
-      <c r="AI64" s="831"/>
-      <c r="AK64" s="629"/>
-      <c r="AL64" s="630"/>
-      <c r="AM64" s="631"/>
+      <c r="AG64" s="713"/>
+      <c r="AH64" s="714"/>
+      <c r="AI64" s="713"/>
+      <c r="AK64" s="628"/>
+      <c r="AL64" s="629"/>
+      <c r="AM64" s="630"/>
       <c r="AO64" s="4"/>
       <c r="AQ64" s="52"/>
       <c r="AR64" s="321"/>
@@ -20197,15 +20160,15 @@
       <c r="AA65" s="348"/>
       <c r="AB65" s="348"/>
       <c r="AC65" s="348"/>
-      <c r="AD65" s="830"/>
+      <c r="AD65" s="712"/>
       <c r="AE65" s="221"/>
       <c r="AF65" s="348"/>
-      <c r="AG65" s="830"/>
-      <c r="AH65" s="832"/>
-      <c r="AI65" s="830"/>
-      <c r="AK65" s="632"/>
-      <c r="AL65" s="633"/>
-      <c r="AM65" s="634"/>
+      <c r="AG65" s="712"/>
+      <c r="AH65" s="714"/>
+      <c r="AI65" s="712"/>
+      <c r="AK65" s="631"/>
+      <c r="AL65" s="632"/>
+      <c r="AM65" s="633"/>
       <c r="AO65" s="4"/>
       <c r="AQ65" s="52"/>
       <c r="AR65" s="321"/>
@@ -20296,24 +20259,24 @@
         <v>0</v>
       </c>
       <c r="L66" s="323"/>
-      <c r="M66" s="831"/>
-      <c r="N66" s="831"/>
+      <c r="M66" s="713"/>
+      <c r="N66" s="713"/>
       <c r="O66" s="380"/>
       <c r="P66" s="339">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q66" s="323"/>
-      <c r="R66" s="831"/>
-      <c r="S66" s="831"/>
+      <c r="R66" s="713"/>
+      <c r="S66" s="713"/>
       <c r="T66" s="380"/>
       <c r="U66" s="339">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V66" s="323"/>
-      <c r="W66" s="831"/>
-      <c r="X66" s="831"/>
+      <c r="W66" s="713"/>
+      <c r="X66" s="713"/>
       <c r="Y66" s="339">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -20322,15 +20285,15 @@
       <c r="AA66" s="361"/>
       <c r="AB66" s="361"/>
       <c r="AC66" s="361"/>
-      <c r="AD66" s="673"/>
-      <c r="AE66" s="670"/>
-      <c r="AF66" s="673"/>
-      <c r="AG66" s="673"/>
-      <c r="AH66" s="670"/>
-      <c r="AI66" s="673"/>
-      <c r="AK66" s="635"/>
-      <c r="AL66" s="636"/>
-      <c r="AM66" s="637"/>
+      <c r="AD66" s="672"/>
+      <c r="AE66" s="669"/>
+      <c r="AF66" s="672"/>
+      <c r="AG66" s="672"/>
+      <c r="AH66" s="669"/>
+      <c r="AI66" s="672"/>
+      <c r="AK66" s="634"/>
+      <c r="AL66" s="635"/>
+      <c r="AM66" s="636"/>
       <c r="AO66" s="4"/>
       <c r="AQ66" s="52"/>
       <c r="AR66" s="321"/>
@@ -20480,15 +20443,15 @@
         <f>IF([1]COVER!$J$13="F",0,AC68-AC66)</f>
         <v>0</v>
       </c>
-      <c r="AD67" s="675"/>
-      <c r="AE67" s="670"/>
-      <c r="AF67" s="675"/>
-      <c r="AG67" s="675"/>
-      <c r="AH67" s="670"/>
-      <c r="AI67" s="675"/>
-      <c r="AK67" s="635"/>
-      <c r="AL67" s="636"/>
-      <c r="AM67" s="637"/>
+      <c r="AD67" s="674"/>
+      <c r="AE67" s="669"/>
+      <c r="AF67" s="674"/>
+      <c r="AG67" s="674"/>
+      <c r="AH67" s="669"/>
+      <c r="AI67" s="674"/>
+      <c r="AK67" s="634"/>
+      <c r="AL67" s="635"/>
+      <c r="AM67" s="636"/>
       <c r="AO67" s="4"/>
       <c r="AQ67" s="52"/>
       <c r="AR67" s="321"/>
@@ -20671,9 +20634,9 @@
         <f>SUM(AI55:AI65)</f>
         <v>0</v>
       </c>
-      <c r="AK68" s="635"/>
-      <c r="AL68" s="636"/>
-      <c r="AM68" s="637"/>
+      <c r="AK68" s="634"/>
+      <c r="AL68" s="635"/>
+      <c r="AM68" s="636"/>
       <c r="AO68" s="4"/>
       <c r="AQ68" s="52"/>
       <c r="AR68" s="321"/>
@@ -20823,15 +20786,15 @@
         <f>SUM(AC70:AC72)</f>
         <v>0</v>
       </c>
-      <c r="AD69" s="683"/>
-      <c r="AE69" s="670"/>
-      <c r="AF69" s="684"/>
-      <c r="AG69" s="644"/>
-      <c r="AH69" s="670"/>
-      <c r="AI69" s="676"/>
-      <c r="AK69" s="635"/>
-      <c r="AL69" s="638"/>
-      <c r="AM69" s="637"/>
+      <c r="AD69" s="682"/>
+      <c r="AE69" s="669"/>
+      <c r="AF69" s="683"/>
+      <c r="AG69" s="643"/>
+      <c r="AH69" s="669"/>
+      <c r="AI69" s="675"/>
+      <c r="AK69" s="634"/>
+      <c r="AL69" s="637"/>
+      <c r="AM69" s="636"/>
       <c r="AO69" s="4"/>
       <c r="AQ69" s="52"/>
       <c r="AR69" s="321"/>
@@ -20924,40 +20887,40 @@
       </c>
       <c r="L70" s="323"/>
       <c r="M70" s="217"/>
-      <c r="N70" s="679"/>
-      <c r="O70" s="680"/>
+      <c r="N70" s="678"/>
+      <c r="O70" s="679"/>
       <c r="P70" s="218">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q70" s="323"/>
       <c r="R70" s="217"/>
-      <c r="S70" s="679"/>
-      <c r="T70" s="681"/>
-      <c r="U70" s="682">
+      <c r="S70" s="678"/>
+      <c r="T70" s="680"/>
+      <c r="U70" s="681">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V70" s="681"/>
-      <c r="W70" s="682"/>
-      <c r="X70" s="681"/>
-      <c r="Y70" s="682">
+      <c r="V70" s="680"/>
+      <c r="W70" s="681"/>
+      <c r="X70" s="680"/>
+      <c r="Y70" s="681">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Z70" s="681"/>
-      <c r="AA70" s="682"/>
-      <c r="AB70" s="682"/>
-      <c r="AC70" s="682"/>
-      <c r="AD70" s="612"/>
-      <c r="AE70" s="670"/>
-      <c r="AF70" s="685"/>
-      <c r="AG70" s="597"/>
-      <c r="AH70" s="670"/>
-      <c r="AI70" s="677"/>
-      <c r="AK70" s="639"/>
-      <c r="AL70" s="640"/>
-      <c r="AM70" s="641"/>
+      <c r="Z70" s="680"/>
+      <c r="AA70" s="681"/>
+      <c r="AB70" s="681"/>
+      <c r="AC70" s="681"/>
+      <c r="AD70" s="611"/>
+      <c r="AE70" s="669"/>
+      <c r="AF70" s="684"/>
+      <c r="AG70" s="596"/>
+      <c r="AH70" s="669"/>
+      <c r="AI70" s="676"/>
+      <c r="AK70" s="638"/>
+      <c r="AL70" s="639"/>
+      <c r="AM70" s="640"/>
       <c r="AO70" s="4"/>
       <c r="AQ70" s="52"/>
       <c r="AR70" s="321"/>
@@ -21050,40 +21013,40 @@
       </c>
       <c r="L71" s="225"/>
       <c r="M71" s="217"/>
-      <c r="N71" s="679"/>
-      <c r="O71" s="680"/>
+      <c r="N71" s="678"/>
+      <c r="O71" s="679"/>
       <c r="P71" s="218">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q71" s="323"/>
       <c r="R71" s="217"/>
-      <c r="S71" s="679"/>
-      <c r="T71" s="681"/>
-      <c r="U71" s="682">
+      <c r="S71" s="678"/>
+      <c r="T71" s="680"/>
+      <c r="U71" s="681">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V71" s="681"/>
-      <c r="W71" s="682"/>
-      <c r="X71" s="681"/>
-      <c r="Y71" s="682">
+      <c r="V71" s="680"/>
+      <c r="W71" s="681"/>
+      <c r="X71" s="680"/>
+      <c r="Y71" s="681">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Z71" s="681"/>
-      <c r="AA71" s="682"/>
-      <c r="AB71" s="682"/>
-      <c r="AC71" s="682"/>
-      <c r="AD71" s="612"/>
-      <c r="AE71" s="670"/>
-      <c r="AF71" s="685"/>
-      <c r="AG71" s="597"/>
-      <c r="AH71" s="670"/>
-      <c r="AI71" s="677"/>
-      <c r="AK71" s="628"/>
-      <c r="AL71" s="603"/>
-      <c r="AM71" s="597"/>
+      <c r="Z71" s="680"/>
+      <c r="AA71" s="681"/>
+      <c r="AB71" s="681"/>
+      <c r="AC71" s="681"/>
+      <c r="AD71" s="611"/>
+      <c r="AE71" s="669"/>
+      <c r="AF71" s="684"/>
+      <c r="AG71" s="596"/>
+      <c r="AH71" s="669"/>
+      <c r="AI71" s="676"/>
+      <c r="AK71" s="627"/>
+      <c r="AL71" s="602"/>
+      <c r="AM71" s="596"/>
       <c r="AO71" s="4"/>
       <c r="AQ71" s="52"/>
       <c r="AR71" s="402"/>
@@ -21201,16 +21164,16 @@
       <c r="AA72" s="232"/>
       <c r="AB72" s="232"/>
       <c r="AC72" s="232"/>
-      <c r="AD72" s="612"/>
-      <c r="AE72" s="670"/>
-      <c r="AF72" s="685"/>
-      <c r="AG72" s="597"/>
-      <c r="AH72" s="670"/>
-      <c r="AI72" s="677"/>
+      <c r="AD72" s="611"/>
+      <c r="AE72" s="669"/>
+      <c r="AF72" s="684"/>
+      <c r="AG72" s="596"/>
+      <c r="AH72" s="669"/>
+      <c r="AI72" s="676"/>
       <c r="AJ72" s="78"/>
-      <c r="AK72" s="642"/>
-      <c r="AL72" s="643"/>
-      <c r="AM72" s="644"/>
+      <c r="AK72" s="641"/>
+      <c r="AL72" s="642"/>
+      <c r="AM72" s="643"/>
       <c r="AO72" s="4"/>
       <c r="AQ72" s="52"/>
       <c r="AR72" s="402"/>
@@ -21328,15 +21291,15 @@
       <c r="AA73" s="378"/>
       <c r="AB73" s="378"/>
       <c r="AC73" s="378"/>
-      <c r="AD73" s="833"/>
+      <c r="AD73" s="715"/>
       <c r="AE73" s="221"/>
       <c r="AF73" s="378"/>
-      <c r="AG73" s="833"/>
-      <c r="AH73" s="832"/>
-      <c r="AI73" s="833"/>
-      <c r="AK73" s="645"/>
-      <c r="AL73" s="646"/>
-      <c r="AM73" s="647"/>
+      <c r="AG73" s="715"/>
+      <c r="AH73" s="714"/>
+      <c r="AI73" s="715"/>
+      <c r="AK73" s="644"/>
+      <c r="AL73" s="645"/>
+      <c r="AM73" s="646"/>
       <c r="AO73" s="4"/>
       <c r="AQ73" s="52"/>
       <c r="AR73" s="321"/>
@@ -21457,11 +21420,11 @@
       <c r="AE74" s="221"/>
       <c r="AF74" s="217"/>
       <c r="AG74" s="219"/>
-      <c r="AH74" s="832"/>
+      <c r="AH74" s="714"/>
       <c r="AI74" s="219"/>
-      <c r="AK74" s="629"/>
-      <c r="AL74" s="630"/>
-      <c r="AM74" s="631"/>
+      <c r="AK74" s="628"/>
+      <c r="AL74" s="629"/>
+      <c r="AM74" s="630"/>
       <c r="AO74" s="4"/>
       <c r="AQ74" s="52"/>
       <c r="AR74" s="321"/>
@@ -21582,11 +21545,11 @@
       <c r="AE75" s="221"/>
       <c r="AF75" s="217"/>
       <c r="AG75" s="219"/>
-      <c r="AH75" s="832"/>
+      <c r="AH75" s="714"/>
       <c r="AI75" s="219"/>
-      <c r="AK75" s="629"/>
-      <c r="AL75" s="630"/>
-      <c r="AM75" s="631"/>
+      <c r="AK75" s="628"/>
+      <c r="AL75" s="629"/>
+      <c r="AM75" s="630"/>
       <c r="AO75" s="4"/>
       <c r="AQ75" s="52"/>
       <c r="AR75" s="321"/>
@@ -21707,11 +21670,11 @@
       <c r="AE76" s="221"/>
       <c r="AF76" s="217"/>
       <c r="AG76" s="219"/>
-      <c r="AH76" s="832"/>
+      <c r="AH76" s="714"/>
       <c r="AI76" s="219"/>
-      <c r="AK76" s="629"/>
-      <c r="AL76" s="630"/>
-      <c r="AM76" s="631"/>
+      <c r="AK76" s="628"/>
+      <c r="AL76" s="629"/>
+      <c r="AM76" s="630"/>
       <c r="AO76" s="4"/>
       <c r="AQ76" s="52"/>
       <c r="AR76" s="321"/>
@@ -21832,11 +21795,11 @@
       <c r="AE77" s="221"/>
       <c r="AF77" s="217"/>
       <c r="AG77" s="219"/>
-      <c r="AH77" s="832"/>
+      <c r="AH77" s="714"/>
       <c r="AI77" s="219"/>
-      <c r="AK77" s="629"/>
-      <c r="AL77" s="630"/>
-      <c r="AM77" s="631"/>
+      <c r="AK77" s="628"/>
+      <c r="AL77" s="629"/>
+      <c r="AM77" s="630"/>
       <c r="AO77" s="4"/>
       <c r="AQ77" s="52"/>
       <c r="AR77" s="321"/>
@@ -21957,11 +21920,11 @@
       <c r="AE78" s="221"/>
       <c r="AF78" s="217"/>
       <c r="AG78" s="219"/>
-      <c r="AH78" s="832"/>
+      <c r="AH78" s="714"/>
       <c r="AI78" s="219"/>
-      <c r="AK78" s="629"/>
-      <c r="AL78" s="630"/>
-      <c r="AM78" s="631"/>
+      <c r="AK78" s="628"/>
+      <c r="AL78" s="629"/>
+      <c r="AM78" s="630"/>
       <c r="AO78" s="4"/>
       <c r="AQ78" s="52"/>
       <c r="AR78" s="321"/>
@@ -22082,11 +22045,11 @@
       <c r="AE79" s="221"/>
       <c r="AF79" s="217"/>
       <c r="AG79" s="219"/>
-      <c r="AH79" s="832"/>
+      <c r="AH79" s="714"/>
       <c r="AI79" s="219"/>
-      <c r="AK79" s="629"/>
-      <c r="AL79" s="630"/>
-      <c r="AM79" s="631"/>
+      <c r="AK79" s="628"/>
+      <c r="AL79" s="629"/>
+      <c r="AM79" s="630"/>
       <c r="AO79" s="4"/>
       <c r="AQ79" s="52"/>
       <c r="AR79" s="321"/>
@@ -22207,11 +22170,11 @@
       <c r="AE80" s="221"/>
       <c r="AF80" s="217"/>
       <c r="AG80" s="219"/>
-      <c r="AH80" s="832"/>
+      <c r="AH80" s="714"/>
       <c r="AI80" s="219"/>
-      <c r="AK80" s="629"/>
-      <c r="AL80" s="630"/>
-      <c r="AM80" s="631"/>
+      <c r="AK80" s="628"/>
+      <c r="AL80" s="629"/>
+      <c r="AM80" s="630"/>
       <c r="AO80" s="4"/>
       <c r="AQ80" s="52"/>
       <c r="AR80" s="321"/>
@@ -22332,11 +22295,11 @@
       <c r="AE81" s="221"/>
       <c r="AF81" s="217"/>
       <c r="AG81" s="219"/>
-      <c r="AH81" s="832"/>
+      <c r="AH81" s="714"/>
       <c r="AI81" s="219"/>
-      <c r="AK81" s="648"/>
-      <c r="AL81" s="649"/>
-      <c r="AM81" s="597"/>
+      <c r="AK81" s="647"/>
+      <c r="AL81" s="648"/>
+      <c r="AM81" s="596"/>
       <c r="AO81" s="4"/>
       <c r="AQ81" s="52"/>
       <c r="AR81" s="321"/>
@@ -22457,11 +22420,11 @@
       <c r="AE82" s="221"/>
       <c r="AF82" s="217"/>
       <c r="AG82" s="219"/>
-      <c r="AH82" s="832"/>
+      <c r="AH82" s="714"/>
       <c r="AI82" s="219"/>
-      <c r="AK82" s="629"/>
-      <c r="AL82" s="630"/>
-      <c r="AM82" s="631"/>
+      <c r="AK82" s="628"/>
+      <c r="AL82" s="629"/>
+      <c r="AM82" s="630"/>
       <c r="AO82" s="4"/>
       <c r="AQ82" s="52"/>
       <c r="AR82" s="321"/>
@@ -22582,11 +22545,11 @@
       <c r="AE83" s="221"/>
       <c r="AF83" s="232"/>
       <c r="AG83" s="412"/>
-      <c r="AH83" s="832"/>
+      <c r="AH83" s="714"/>
       <c r="AI83" s="412"/>
-      <c r="AK83" s="629"/>
-      <c r="AL83" s="630"/>
-      <c r="AM83" s="631"/>
+      <c r="AK83" s="628"/>
+      <c r="AL83" s="629"/>
+      <c r="AM83" s="630"/>
       <c r="AO83" s="4"/>
       <c r="AQ83" s="52"/>
       <c r="AR83" s="321"/>
@@ -22703,15 +22666,15 @@
       <c r="AA84" s="378"/>
       <c r="AB84" s="378"/>
       <c r="AC84" s="378"/>
-      <c r="AD84" s="833"/>
+      <c r="AD84" s="715"/>
       <c r="AE84" s="221"/>
       <c r="AF84" s="378"/>
-      <c r="AG84" s="833"/>
-      <c r="AH84" s="832"/>
-      <c r="AI84" s="833"/>
-      <c r="AK84" s="629"/>
-      <c r="AL84" s="630"/>
-      <c r="AM84" s="631"/>
+      <c r="AG84" s="715"/>
+      <c r="AH84" s="714"/>
+      <c r="AI84" s="715"/>
+      <c r="AK84" s="628"/>
+      <c r="AL84" s="629"/>
+      <c r="AM84" s="630"/>
       <c r="AO84" s="4"/>
       <c r="AQ84" s="52"/>
       <c r="AR84" s="321"/>
@@ -22832,11 +22795,11 @@
       <c r="AE85" s="221"/>
       <c r="AF85" s="217"/>
       <c r="AG85" s="219"/>
-      <c r="AH85" s="832"/>
+      <c r="AH85" s="714"/>
       <c r="AI85" s="219"/>
-      <c r="AK85" s="629"/>
-      <c r="AL85" s="630"/>
-      <c r="AM85" s="631"/>
+      <c r="AK85" s="628"/>
+      <c r="AL85" s="629"/>
+      <c r="AM85" s="630"/>
       <c r="AO85" s="4"/>
       <c r="AQ85" s="52"/>
       <c r="AR85" s="321"/>
@@ -22957,11 +22920,11 @@
       <c r="AE86" s="221"/>
       <c r="AF86" s="217"/>
       <c r="AG86" s="219"/>
-      <c r="AH86" s="832"/>
+      <c r="AH86" s="714"/>
       <c r="AI86" s="219"/>
-      <c r="AK86" s="629"/>
-      <c r="AL86" s="630"/>
-      <c r="AM86" s="631"/>
+      <c r="AK86" s="628"/>
+      <c r="AL86" s="629"/>
+      <c r="AM86" s="630"/>
       <c r="AO86" s="4"/>
       <c r="AQ86" s="52"/>
       <c r="AR86" s="321"/>
@@ -23082,11 +23045,11 @@
       <c r="AE87" s="221"/>
       <c r="AF87" s="217"/>
       <c r="AG87" s="219"/>
-      <c r="AH87" s="832"/>
+      <c r="AH87" s="714"/>
       <c r="AI87" s="219"/>
-      <c r="AK87" s="629"/>
-      <c r="AL87" s="630"/>
-      <c r="AM87" s="631"/>
+      <c r="AK87" s="628"/>
+      <c r="AL87" s="629"/>
+      <c r="AM87" s="630"/>
       <c r="AO87" s="4"/>
       <c r="AQ87" s="52"/>
       <c r="AR87" s="321"/>
@@ -23207,11 +23170,11 @@
       <c r="AE88" s="221"/>
       <c r="AF88" s="217"/>
       <c r="AG88" s="219"/>
-      <c r="AH88" s="832"/>
+      <c r="AH88" s="714"/>
       <c r="AI88" s="219"/>
-      <c r="AK88" s="629"/>
-      <c r="AL88" s="630"/>
-      <c r="AM88" s="631"/>
+      <c r="AK88" s="628"/>
+      <c r="AL88" s="629"/>
+      <c r="AM88" s="630"/>
       <c r="AO88" s="4"/>
       <c r="AQ88" s="52"/>
       <c r="AR88" s="321"/>
@@ -23332,11 +23295,11 @@
       <c r="AE89" s="221"/>
       <c r="AF89" s="217"/>
       <c r="AG89" s="219"/>
-      <c r="AH89" s="832"/>
+      <c r="AH89" s="714"/>
       <c r="AI89" s="219"/>
-      <c r="AK89" s="648"/>
-      <c r="AL89" s="649"/>
-      <c r="AM89" s="597"/>
+      <c r="AK89" s="647"/>
+      <c r="AL89" s="648"/>
+      <c r="AM89" s="596"/>
       <c r="AO89" s="4"/>
       <c r="AQ89" s="52"/>
       <c r="AR89" s="321"/>
@@ -23425,38 +23388,38 @@
         <v>0</v>
       </c>
       <c r="J90" s="334"/>
-      <c r="K90" s="682">
+      <c r="K90" s="681">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="L90" s="682"/>
-      <c r="M90" s="682"/>
-      <c r="N90" s="682"/>
-      <c r="O90" s="682"/>
-      <c r="P90" s="680">
+      <c r="L90" s="681"/>
+      <c r="M90" s="681"/>
+      <c r="N90" s="681"/>
+      <c r="O90" s="681"/>
+      <c r="P90" s="679">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="Q90" s="682"/>
-      <c r="R90" s="682"/>
-      <c r="S90" s="708"/>
-      <c r="T90" s="708"/>
-      <c r="U90" s="709">
+      <c r="Q90" s="681"/>
+      <c r="R90" s="681"/>
+      <c r="S90" s="707"/>
+      <c r="T90" s="707"/>
+      <c r="U90" s="708">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V90" s="682"/>
-      <c r="W90" s="682"/>
-      <c r="X90" s="708"/>
-      <c r="Y90" s="682">
+      <c r="V90" s="681"/>
+      <c r="W90" s="681"/>
+      <c r="X90" s="707"/>
+      <c r="Y90" s="681">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Z90" s="682"/>
-      <c r="AA90" s="682"/>
-      <c r="AB90" s="682"/>
-      <c r="AC90" s="682"/>
-      <c r="AD90" s="710"/>
+      <c r="Z90" s="681"/>
+      <c r="AA90" s="681"/>
+      <c r="AB90" s="681"/>
+      <c r="AC90" s="681"/>
+      <c r="AD90" s="709"/>
       <c r="AE90" s="221"/>
       <c r="AF90" s="323"/>
       <c r="AG90" s="347">
@@ -23579,24 +23542,24 @@
         <v>0</v>
       </c>
       <c r="L91" s="335"/>
-      <c r="M91" s="831"/>
-      <c r="N91" s="831"/>
+      <c r="M91" s="713"/>
+      <c r="N91" s="713"/>
       <c r="O91" s="380"/>
       <c r="P91" s="339">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q91" s="335"/>
-      <c r="R91" s="831"/>
-      <c r="S91" s="831"/>
+      <c r="R91" s="713"/>
+      <c r="S91" s="713"/>
       <c r="T91" s="380"/>
       <c r="U91" s="339">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V91" s="335"/>
-      <c r="W91" s="831"/>
-      <c r="X91" s="831"/>
+      <c r="W91" s="713"/>
+      <c r="X91" s="713"/>
       <c r="Y91" s="339">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -23605,15 +23568,15 @@
       <c r="AA91" s="361"/>
       <c r="AB91" s="361"/>
       <c r="AC91" s="361"/>
-      <c r="AD91" s="673"/>
-      <c r="AE91" s="670"/>
-      <c r="AF91" s="711"/>
-      <c r="AG91" s="672"/>
-      <c r="AH91" s="670"/>
-      <c r="AI91" s="673"/>
-      <c r="AK91" s="650"/>
-      <c r="AL91" s="636"/>
-      <c r="AM91" s="651"/>
+      <c r="AD91" s="672"/>
+      <c r="AE91" s="669"/>
+      <c r="AF91" s="710"/>
+      <c r="AG91" s="671"/>
+      <c r="AH91" s="669"/>
+      <c r="AI91" s="672"/>
+      <c r="AK91" s="649"/>
+      <c r="AL91" s="635"/>
+      <c r="AM91" s="650"/>
       <c r="AN91" s="79"/>
       <c r="AO91" s="4"/>
       <c r="AQ91" s="52"/>
@@ -23764,15 +23727,15 @@
         <f>IF([1]COVER!$J$13="F",0,AC93-AC91)</f>
         <v>0</v>
       </c>
-      <c r="AD92" s="675"/>
-      <c r="AE92" s="670"/>
-      <c r="AF92" s="712"/>
-      <c r="AG92" s="674"/>
-      <c r="AH92" s="670"/>
-      <c r="AI92" s="675"/>
-      <c r="AK92" s="635"/>
-      <c r="AL92" s="636"/>
-      <c r="AM92" s="637"/>
+      <c r="AD92" s="674"/>
+      <c r="AE92" s="669"/>
+      <c r="AF92" s="711"/>
+      <c r="AG92" s="673"/>
+      <c r="AH92" s="669"/>
+      <c r="AI92" s="674"/>
+      <c r="AK92" s="634"/>
+      <c r="AL92" s="635"/>
+      <c r="AM92" s="636"/>
       <c r="AO92" s="4"/>
       <c r="AQ92" s="52"/>
       <c r="AR92" s="321"/>
@@ -23955,9 +23918,9 @@
         <f>SUM(AI69,AI73:AI90)</f>
         <v>0</v>
       </c>
-      <c r="AK93" s="652"/>
-      <c r="AL93" s="653"/>
-      <c r="AM93" s="654"/>
+      <c r="AK93" s="651"/>
+      <c r="AL93" s="652"/>
+      <c r="AM93" s="653"/>
       <c r="AO93" s="4"/>
       <c r="AQ93" s="52"/>
       <c r="AR93" s="321"/>
@@ -24141,9 +24104,9 @@
         <f>AI68+AI93</f>
         <v>0</v>
       </c>
-      <c r="AK94" s="655"/>
-      <c r="AL94" s="656"/>
-      <c r="AM94" s="657"/>
+      <c r="AK94" s="654"/>
+      <c r="AL94" s="655"/>
+      <c r="AM94" s="656"/>
       <c r="AO94" s="4"/>
       <c r="AQ94" s="52"/>
       <c r="AR94" s="321"/>
@@ -24326,9 +24289,9 @@
         <f>AI54-AI94</f>
         <v>0</v>
       </c>
-      <c r="AK95" s="602"/>
-      <c r="AL95" s="603"/>
-      <c r="AM95" s="612"/>
+      <c r="AK95" s="601"/>
+      <c r="AL95" s="602"/>
+      <c r="AM95" s="611"/>
       <c r="AO95" s="4"/>
       <c r="AQ95" s="52"/>
       <c r="AR95" s="321"/>
@@ -24425,7 +24388,7 @@
       <c r="N96" s="426">
         <v>0</v>
       </c>
-      <c r="O96" s="706"/>
+      <c r="O96" s="705"/>
       <c r="P96" s="426">
         <f>SUM(Q96:T96)</f>
         <v>0</v>
@@ -24437,7 +24400,7 @@
       <c r="S96" s="428">
         <v>0</v>
       </c>
-      <c r="T96" s="704"/>
+      <c r="T96" s="703"/>
       <c r="U96" s="426">
         <f>SUM(V96:X96)</f>
         <v>0</v>
@@ -24468,12 +24431,12 @@
       </c>
       <c r="AE96" s="26"/>
       <c r="AF96" s="431"/>
-      <c r="AG96" s="627"/>
-      <c r="AH96" s="687"/>
-      <c r="AI96" s="670"/>
-      <c r="AK96" s="658"/>
-      <c r="AL96" s="659"/>
-      <c r="AM96" s="660"/>
+      <c r="AG96" s="626"/>
+      <c r="AH96" s="686"/>
+      <c r="AI96" s="669"/>
+      <c r="AK96" s="657"/>
+      <c r="AL96" s="658"/>
+      <c r="AM96" s="659"/>
       <c r="AO96" s="4"/>
       <c r="AQ96" s="52"/>
       <c r="AR96" s="321"/>
@@ -24564,34 +24527,34 @@
         <v>0</v>
       </c>
       <c r="L97" s="443"/>
-      <c r="M97" s="836">
-        <v>0</v>
-      </c>
-      <c r="N97" s="835">
-        <v>0</v>
-      </c>
-      <c r="O97" s="707"/>
+      <c r="M97" s="445">
+        <v>0</v>
+      </c>
+      <c r="N97" s="444">
+        <v>0</v>
+      </c>
+      <c r="O97" s="706"/>
       <c r="P97" s="377">
         <f>SUM(Q97:T97)</f>
         <v>0</v>
       </c>
       <c r="Q97" s="335"/>
-      <c r="R97" s="834">
-        <v>0</v>
-      </c>
-      <c r="S97" s="835">
-        <v>0</v>
-      </c>
-      <c r="T97" s="670"/>
+      <c r="R97" s="377">
+        <v>0</v>
+      </c>
+      <c r="S97" s="444">
+        <v>0</v>
+      </c>
+      <c r="T97" s="669"/>
       <c r="U97" s="445">
         <f>SUM(V97:X97)</f>
         <v>0</v>
       </c>
       <c r="V97" s="443"/>
-      <c r="W97" s="836">
-        <v>0</v>
-      </c>
-      <c r="X97" s="836">
+      <c r="W97" s="445">
+        <v>0</v>
+      </c>
+      <c r="X97" s="445">
         <f>'[2]For LINE RED'!E21</f>
         <v>0</v>
       </c>
@@ -24609,18 +24572,18 @@
       <c r="AC97" s="377">
         <v>0</v>
       </c>
-      <c r="AD97" s="835">
+      <c r="AD97" s="444">
         <f>-(M97+N97+R97+S97+W97+X97)</f>
         <v>0</v>
       </c>
       <c r="AE97" s="26"/>
       <c r="AF97" s="446"/>
-      <c r="AG97" s="663"/>
-      <c r="AH97" s="687"/>
-      <c r="AI97" s="671"/>
-      <c r="AK97" s="661"/>
-      <c r="AL97" s="662"/>
-      <c r="AM97" s="663"/>
+      <c r="AG97" s="662"/>
+      <c r="AH97" s="686"/>
+      <c r="AI97" s="670"/>
+      <c r="AK97" s="660"/>
+      <c r="AL97" s="661"/>
+      <c r="AM97" s="662"/>
       <c r="AO97" s="4"/>
       <c r="AQ97" s="52"/>
       <c r="AR97" s="321"/>
@@ -24725,7 +24688,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="O98" s="670">
+      <c r="O98" s="669">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -24745,7 +24708,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="T98" s="705">
+      <c r="T98" s="704">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -24791,12 +24754,12 @@
       </c>
       <c r="AE98" s="461"/>
       <c r="AF98" s="446"/>
-      <c r="AG98" s="663"/>
-      <c r="AH98" s="687"/>
-      <c r="AI98" s="671"/>
-      <c r="AK98" s="664"/>
-      <c r="AL98" s="659"/>
-      <c r="AM98" s="665"/>
+      <c r="AG98" s="662"/>
+      <c r="AH98" s="686"/>
+      <c r="AI98" s="670"/>
+      <c r="AK98" s="663"/>
+      <c r="AL98" s="658"/>
+      <c r="AM98" s="664"/>
       <c r="AO98" s="4"/>
       <c r="AQ98" s="52"/>
       <c r="AR98" s="321"/>
@@ -24980,9 +24943,9 @@
         <f>AI95-AI98</f>
         <v>0</v>
       </c>
-      <c r="AK99" s="602"/>
-      <c r="AL99" s="603"/>
-      <c r="AM99" s="612"/>
+      <c r="AK99" s="601"/>
+      <c r="AL99" s="602"/>
+      <c r="AM99" s="611"/>
       <c r="AO99" s="4"/>
       <c r="AQ99" s="52"/>
       <c r="AR99" s="321"/>
@@ -25077,34 +25040,34 @@
         <v>0</v>
       </c>
       <c r="L100" s="323"/>
-      <c r="M100" s="834">
-        <v>0</v>
-      </c>
-      <c r="N100" s="834">
-        <v>0</v>
-      </c>
-      <c r="O100" s="670"/>
+      <c r="M100" s="377">
+        <v>0</v>
+      </c>
+      <c r="N100" s="377">
+        <v>0</v>
+      </c>
+      <c r="O100" s="669"/>
       <c r="P100" s="377">
         <f>SUM(Q100:T100)</f>
         <v>0</v>
       </c>
       <c r="Q100" s="323"/>
-      <c r="R100" s="834">
-        <v>0</v>
-      </c>
-      <c r="S100" s="834">
-        <v>0</v>
-      </c>
-      <c r="T100" s="670"/>
+      <c r="R100" s="377">
+        <v>0</v>
+      </c>
+      <c r="S100" s="377">
+        <v>0</v>
+      </c>
+      <c r="T100" s="669"/>
       <c r="U100" s="377">
         <f>SUM(V100:X100)</f>
         <v>0</v>
       </c>
       <c r="V100" s="323"/>
-      <c r="W100" s="834">
-        <v>0</v>
-      </c>
-      <c r="X100" s="834">
+      <c r="W100" s="377">
+        <v>0</v>
+      </c>
+      <c r="X100" s="377">
         <v>0</v>
       </c>
       <c r="Y100" s="377">
@@ -25121,21 +25084,21 @@
       <c r="AC100" s="377">
         <v>0</v>
       </c>
-      <c r="AD100" s="703">
+      <c r="AD100" s="702">
         <v>0</v>
       </c>
       <c r="AE100" s="26"/>
       <c r="AF100" s="472"/>
-      <c r="AG100" s="834">
+      <c r="AG100" s="377">
         <v>0</v>
       </c>
       <c r="AH100" s="26"/>
-      <c r="AI100" s="834">
-        <v>0</v>
-      </c>
-      <c r="AK100" s="666"/>
-      <c r="AL100" s="623"/>
-      <c r="AM100" s="667"/>
+      <c r="AI100" s="377">
+        <v>0</v>
+      </c>
+      <c r="AK100" s="665"/>
+      <c r="AL100" s="622"/>
+      <c r="AM100" s="666"/>
       <c r="AO100" s="4"/>
       <c r="AQ100" s="52"/>
       <c r="AR100" s="321"/>
@@ -27023,74 +26986,74 @@
       <c r="ET113" s="2"/>
     </row>
     <row r="114" spans="1:150" customFormat="1" ht="18" customHeight="1">
-      <c r="F114" s="713" t="str">
+      <c r="F114" s="719" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH114),"",BH114),IF(ISBLANK(DJ114),"",DJ114))</f>
         <v>Account</v>
       </c>
-      <c r="G114" s="765" t="str">
+      <c r="G114" s="771" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI114),"",BI114),IF(ISBLANK(DK114),"",DK114))</f>
         <v/>
       </c>
-      <c r="H114" s="733" t="s">
+      <c r="H114" s="739" t="s">
         <v>42</v>
       </c>
-      <c r="I114" s="723" t="str">
+      <c r="I114" s="729" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK114),"",BK114),IF(ISBLANK(DM114),"",DM114))</f>
         <v>Grand Total</v>
       </c>
-      <c r="J114" s="776"/>
-      <c r="K114" s="713" t="str">
+      <c r="J114" s="782"/>
+      <c r="K114" s="719" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM114),"",BM114),IF(ISBLANK(DO114),"",DO114))</f>
         <v>Air Freight Forwarding</v>
       </c>
-      <c r="L114" s="714"/>
-      <c r="M114" s="714"/>
-      <c r="N114" s="714"/>
-      <c r="O114" s="723"/>
-      <c r="P114" s="713" t="str">
+      <c r="L114" s="720"/>
+      <c r="M114" s="720"/>
+      <c r="N114" s="720"/>
+      <c r="O114" s="729"/>
+      <c r="P114" s="719" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BR114),"",BR114),IF(ISBLANK(DT114),"",DT114))</f>
         <v>Ocean Freight Forwarding</v>
       </c>
-      <c r="Q114" s="714"/>
-      <c r="R114" s="714"/>
-      <c r="S114" s="714"/>
-      <c r="T114" s="714"/>
-      <c r="U114" s="713" t="str">
+      <c r="Q114" s="720"/>
+      <c r="R114" s="720"/>
+      <c r="S114" s="720"/>
+      <c r="T114" s="720"/>
+      <c r="U114" s="719" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BW114),"",BW114),IF(ISBLANK(DY114),"",DY114))</f>
         <v>SCS</v>
       </c>
-      <c r="V114" s="714"/>
-      <c r="W114" s="714"/>
-      <c r="X114" s="714"/>
-      <c r="Y114" s="717" t="str">
+      <c r="V114" s="720"/>
+      <c r="W114" s="720"/>
+      <c r="X114" s="720"/>
+      <c r="Y114" s="723" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CA114),"",CA114),IF(ISBLANK(EC114),"",EC114))</f>
         <v>Contract Logistics &amp; Transport</v>
       </c>
-      <c r="Z114" s="718"/>
-      <c r="AA114" s="718"/>
-      <c r="AB114" s="719"/>
-      <c r="AC114" s="714" t="str">
+      <c r="Z114" s="724"/>
+      <c r="AA114" s="724"/>
+      <c r="AB114" s="725"/>
+      <c r="AC114" s="720" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE114),"",CE114),IF(ISBLANK(EG114),"",EG114))</f>
         <v>Other business</v>
       </c>
-      <c r="AD114" s="773" t="str">
+      <c r="AD114" s="779" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF114),"",CF114),IF(ISBLANK(EH114),"",EH114))</f>
         <v>Business
 Partner
 (BP)</v>
       </c>
       <c r="AE114" s="111"/>
-      <c r="AF114" s="728" t="str">
+      <c r="AF114" s="734" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH114),"",CH114),IF(ISBLANK(EJ114),"",EJ114))</f>
         <v>Regional Shared Service Center
 (RSSC)</v>
       </c>
-      <c r="AG114" s="728" t="str">
+      <c r="AG114" s="734" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI114),"",CI114),IF(ISBLANK(EK114),"",EK114))</f>
         <v>GHQ arm</v>
       </c>
       <c r="AH114" s="22"/>
-      <c r="AI114" s="742" t="str">
+      <c r="AI114" s="748" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK114),"",CK114),IF(ISBLANK(EM114),"",EM114))</f>
         <v>Global HQ
 (GHQ)</v>
@@ -27102,60 +27065,60 @@
       <c r="BE114" s="1"/>
       <c r="BF114" s="1"/>
       <c r="BG114" s="1"/>
-      <c r="BH114" s="713" t="s">
+      <c r="BH114" s="719" t="s">
         <v>43</v>
       </c>
-      <c r="BI114" s="765"/>
-      <c r="BJ114" s="733" t="s">
+      <c r="BI114" s="771"/>
+      <c r="BJ114" s="739" t="s">
         <v>42</v>
       </c>
-      <c r="BK114" s="723" t="s">
+      <c r="BK114" s="729" t="s">
         <v>44</v>
       </c>
-      <c r="BL114" s="736" t="s">
+      <c r="BL114" s="742" t="s">
         <v>45</v>
       </c>
-      <c r="BM114" s="713" t="s">
+      <c r="BM114" s="719" t="s">
         <v>46</v>
       </c>
-      <c r="BN114" s="714"/>
-      <c r="BO114" s="714"/>
-      <c r="BP114" s="714"/>
-      <c r="BQ114" s="723"/>
-      <c r="BR114" s="713" t="s">
+      <c r="BN114" s="720"/>
+      <c r="BO114" s="720"/>
+      <c r="BP114" s="720"/>
+      <c r="BQ114" s="729"/>
+      <c r="BR114" s="719" t="s">
         <v>47</v>
       </c>
-      <c r="BS114" s="714"/>
-      <c r="BT114" s="714"/>
-      <c r="BU114" s="714"/>
-      <c r="BV114" s="714"/>
-      <c r="BW114" s="713" t="s">
+      <c r="BS114" s="720"/>
+      <c r="BT114" s="720"/>
+      <c r="BU114" s="720"/>
+      <c r="BV114" s="720"/>
+      <c r="BW114" s="719" t="s">
         <v>48</v>
       </c>
-      <c r="BX114" s="714"/>
-      <c r="BY114" s="714"/>
-      <c r="BZ114" s="714"/>
-      <c r="CA114" s="717" t="s">
+      <c r="BX114" s="720"/>
+      <c r="BY114" s="720"/>
+      <c r="BZ114" s="720"/>
+      <c r="CA114" s="723" t="s">
         <v>49</v>
       </c>
-      <c r="CB114" s="718"/>
-      <c r="CC114" s="718"/>
-      <c r="CD114" s="719"/>
+      <c r="CB114" s="724"/>
+      <c r="CC114" s="724"/>
+      <c r="CD114" s="725"/>
       <c r="CE114" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="CF114" s="762" t="s">
+      <c r="CF114" s="768" t="s">
         <v>51</v>
       </c>
       <c r="CG114" s="24"/>
-      <c r="CH114" s="728" t="s">
+      <c r="CH114" s="734" t="s">
         <v>52</v>
       </c>
-      <c r="CI114" s="728" t="s">
+      <c r="CI114" s="734" t="s">
         <v>53</v>
       </c>
       <c r="CJ114" s="24"/>
-      <c r="CK114" s="749" t="s">
+      <c r="CK114" s="755" t="s">
         <v>54</v>
       </c>
       <c r="CM114" s="14"/>
@@ -27173,60 +27136,60 @@
       <c r="DG114" s="1"/>
       <c r="DH114" s="1"/>
       <c r="DI114" s="1"/>
-      <c r="DJ114" s="713" t="s">
+      <c r="DJ114" s="719" t="s">
         <v>406</v>
       </c>
-      <c r="DK114" s="765"/>
-      <c r="DL114" s="769" t="s">
+      <c r="DK114" s="771"/>
+      <c r="DL114" s="775" t="s">
         <v>42</v>
       </c>
-      <c r="DM114" s="723" t="s">
+      <c r="DM114" s="729" t="s">
         <v>407</v>
       </c>
-      <c r="DN114" s="736" t="s">
+      <c r="DN114" s="742" t="s">
         <v>408</v>
       </c>
-      <c r="DO114" s="713" t="s">
+      <c r="DO114" s="719" t="s">
         <v>409</v>
       </c>
-      <c r="DP114" s="714"/>
-      <c r="DQ114" s="714"/>
-      <c r="DR114" s="714"/>
-      <c r="DS114" s="723"/>
-      <c r="DT114" s="714" t="s">
+      <c r="DP114" s="720"/>
+      <c r="DQ114" s="720"/>
+      <c r="DR114" s="720"/>
+      <c r="DS114" s="729"/>
+      <c r="DT114" s="720" t="s">
         <v>410</v>
       </c>
-      <c r="DU114" s="714"/>
-      <c r="DV114" s="714"/>
-      <c r="DW114" s="714"/>
-      <c r="DX114" s="714"/>
-      <c r="DY114" s="713" t="s">
+      <c r="DU114" s="720"/>
+      <c r="DV114" s="720"/>
+      <c r="DW114" s="720"/>
+      <c r="DX114" s="720"/>
+      <c r="DY114" s="719" t="s">
         <v>411</v>
       </c>
-      <c r="DZ114" s="714"/>
-      <c r="EA114" s="714"/>
-      <c r="EB114" s="723"/>
-      <c r="EC114" s="713" t="s">
+      <c r="DZ114" s="720"/>
+      <c r="EA114" s="720"/>
+      <c r="EB114" s="729"/>
+      <c r="EC114" s="719" t="s">
         <v>412</v>
       </c>
-      <c r="ED114" s="714"/>
-      <c r="EE114" s="758"/>
-      <c r="EF114" s="759"/>
-      <c r="EG114" s="733" t="s">
+      <c r="ED114" s="720"/>
+      <c r="EE114" s="764"/>
+      <c r="EF114" s="765"/>
+      <c r="EG114" s="739" t="s">
         <v>413</v>
       </c>
-      <c r="EH114" s="762" t="s">
+      <c r="EH114" s="768" t="s">
         <v>288</v>
       </c>
       <c r="EI114" s="24"/>
-      <c r="EJ114" s="728" t="s">
+      <c r="EJ114" s="734" t="s">
         <v>52</v>
       </c>
-      <c r="EK114" s="728" t="s">
+      <c r="EK114" s="734" t="s">
         <v>53</v>
       </c>
       <c r="EL114" s="24"/>
-      <c r="EM114" s="749" t="s">
+      <c r="EM114" s="755" t="s">
         <v>54</v>
       </c>
       <c r="EO114" s="14"/>
@@ -27237,51 +27200,51 @@
       <c r="ET114" s="2"/>
     </row>
     <row r="115" spans="1:150" customFormat="1" ht="18" customHeight="1">
-      <c r="F115" s="766" t="str">
+      <c r="F115" s="772" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH115),"",BH115),IF(ISBLANK(DJ115),"",DJ115))</f>
         <v/>
       </c>
-      <c r="G115" s="767" t="str">
+      <c r="G115" s="773" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI115),"",BI115),IF(ISBLANK(DK115),"",DK115))</f>
         <v/>
       </c>
-      <c r="H115" s="734"/>
-      <c r="I115" s="724" t="str">
+      <c r="H115" s="740"/>
+      <c r="I115" s="730" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN115),"",BN115),IF(ISBLANK(DL115),"",DL115))</f>
         <v/>
       </c>
-      <c r="J115" s="777"/>
-      <c r="K115" s="715"/>
-      <c r="L115" s="716"/>
-      <c r="M115" s="716"/>
-      <c r="N115" s="716"/>
-      <c r="O115" s="739"/>
-      <c r="P115" s="715"/>
-      <c r="Q115" s="716"/>
-      <c r="R115" s="716"/>
-      <c r="S115" s="716"/>
-      <c r="T115" s="716"/>
-      <c r="U115" s="715"/>
-      <c r="V115" s="716"/>
-      <c r="W115" s="716"/>
-      <c r="X115" s="716"/>
-      <c r="Y115" s="720"/>
-      <c r="Z115" s="721"/>
-      <c r="AA115" s="721"/>
-      <c r="AB115" s="722"/>
-      <c r="AC115" s="772" t="str">
+      <c r="J115" s="783"/>
+      <c r="K115" s="721"/>
+      <c r="L115" s="722"/>
+      <c r="M115" s="722"/>
+      <c r="N115" s="722"/>
+      <c r="O115" s="745"/>
+      <c r="P115" s="721"/>
+      <c r="Q115" s="722"/>
+      <c r="R115" s="722"/>
+      <c r="S115" s="722"/>
+      <c r="T115" s="722"/>
+      <c r="U115" s="721"/>
+      <c r="V115" s="722"/>
+      <c r="W115" s="722"/>
+      <c r="X115" s="722"/>
+      <c r="Y115" s="726"/>
+      <c r="Z115" s="727"/>
+      <c r="AA115" s="727"/>
+      <c r="AB115" s="728"/>
+      <c r="AC115" s="778" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CJ115),"",CJ115),IF(ISBLANK(#REF!),"",#REF!))</f>
         <v/>
       </c>
-      <c r="AD115" s="774" t="str">
+      <c r="AD115" s="780" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK115),"",CK115),IF(ISBLANK(EG115),"",EG115))</f>
         <v/>
       </c>
       <c r="AE115" s="2"/>
-      <c r="AF115" s="729"/>
-      <c r="AG115" s="729"/>
+      <c r="AF115" s="735"/>
+      <c r="AG115" s="735"/>
       <c r="AH115" s="26"/>
-      <c r="AI115" s="743" t="str">
+      <c r="AI115" s="749" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CM115),"",CM115),IF(ISBLANK(EL115),"",EL115))</f>
         <v/>
       </c>
@@ -27292,36 +27255,36 @@
       <c r="BE115" s="1"/>
       <c r="BF115" s="1"/>
       <c r="BG115" s="1"/>
-      <c r="BH115" s="766"/>
-      <c r="BI115" s="767"/>
-      <c r="BJ115" s="734"/>
-      <c r="BK115" s="724"/>
-      <c r="BL115" s="737"/>
-      <c r="BM115" s="715"/>
-      <c r="BN115" s="716"/>
-      <c r="BO115" s="716"/>
-      <c r="BP115" s="716"/>
-      <c r="BQ115" s="739"/>
-      <c r="BR115" s="715"/>
-      <c r="BS115" s="716"/>
-      <c r="BT115" s="716"/>
-      <c r="BU115" s="716"/>
-      <c r="BV115" s="716"/>
-      <c r="BW115" s="715"/>
-      <c r="BX115" s="716"/>
-      <c r="BY115" s="716"/>
-      <c r="BZ115" s="716"/>
-      <c r="CA115" s="720"/>
-      <c r="CB115" s="721"/>
-      <c r="CC115" s="721"/>
-      <c r="CD115" s="722"/>
+      <c r="BH115" s="772"/>
+      <c r="BI115" s="773"/>
+      <c r="BJ115" s="740"/>
+      <c r="BK115" s="730"/>
+      <c r="BL115" s="743"/>
+      <c r="BM115" s="721"/>
+      <c r="BN115" s="722"/>
+      <c r="BO115" s="722"/>
+      <c r="BP115" s="722"/>
+      <c r="BQ115" s="745"/>
+      <c r="BR115" s="721"/>
+      <c r="BS115" s="722"/>
+      <c r="BT115" s="722"/>
+      <c r="BU115" s="722"/>
+      <c r="BV115" s="722"/>
+      <c r="BW115" s="721"/>
+      <c r="BX115" s="722"/>
+      <c r="BY115" s="722"/>
+      <c r="BZ115" s="722"/>
+      <c r="CA115" s="726"/>
+      <c r="CB115" s="727"/>
+      <c r="CC115" s="727"/>
+      <c r="CD115" s="728"/>
       <c r="CE115" s="211"/>
-      <c r="CF115" s="763"/>
+      <c r="CF115" s="769"/>
       <c r="CG115" s="212"/>
-      <c r="CH115" s="729"/>
-      <c r="CI115" s="729"/>
+      <c r="CH115" s="735"/>
+      <c r="CI115" s="735"/>
       <c r="CJ115" s="212"/>
-      <c r="CK115" s="750"/>
+      <c r="CK115" s="756"/>
       <c r="CM115" s="14"/>
       <c r="CN115" s="14"/>
       <c r="CO115" s="2"/>
@@ -27337,36 +27300,36 @@
       <c r="DG115" s="1"/>
       <c r="DH115" s="1"/>
       <c r="DI115" s="1"/>
-      <c r="DJ115" s="766"/>
-      <c r="DK115" s="767"/>
-      <c r="DL115" s="770"/>
-      <c r="DM115" s="724"/>
-      <c r="DN115" s="737"/>
-      <c r="DO115" s="715"/>
-      <c r="DP115" s="716"/>
-      <c r="DQ115" s="716"/>
-      <c r="DR115" s="716"/>
-      <c r="DS115" s="739"/>
-      <c r="DT115" s="716"/>
-      <c r="DU115" s="716"/>
-      <c r="DV115" s="716"/>
-      <c r="DW115" s="716"/>
-      <c r="DX115" s="716"/>
-      <c r="DY115" s="715"/>
-      <c r="DZ115" s="716"/>
-      <c r="EA115" s="716"/>
-      <c r="EB115" s="739"/>
-      <c r="EC115" s="760"/>
-      <c r="ED115" s="761"/>
-      <c r="EE115" s="761"/>
-      <c r="EF115" s="725"/>
-      <c r="EG115" s="740"/>
-      <c r="EH115" s="763"/>
+      <c r="DJ115" s="772"/>
+      <c r="DK115" s="773"/>
+      <c r="DL115" s="776"/>
+      <c r="DM115" s="730"/>
+      <c r="DN115" s="743"/>
+      <c r="DO115" s="721"/>
+      <c r="DP115" s="722"/>
+      <c r="DQ115" s="722"/>
+      <c r="DR115" s="722"/>
+      <c r="DS115" s="745"/>
+      <c r="DT115" s="722"/>
+      <c r="DU115" s="722"/>
+      <c r="DV115" s="722"/>
+      <c r="DW115" s="722"/>
+      <c r="DX115" s="722"/>
+      <c r="DY115" s="721"/>
+      <c r="DZ115" s="722"/>
+      <c r="EA115" s="722"/>
+      <c r="EB115" s="745"/>
+      <c r="EC115" s="766"/>
+      <c r="ED115" s="767"/>
+      <c r="EE115" s="767"/>
+      <c r="EF115" s="731"/>
+      <c r="EG115" s="746"/>
+      <c r="EH115" s="769"/>
       <c r="EI115" s="212"/>
-      <c r="EJ115" s="729"/>
-      <c r="EK115" s="729"/>
+      <c r="EJ115" s="735"/>
+      <c r="EK115" s="735"/>
       <c r="EL115" s="212"/>
-      <c r="EM115" s="750"/>
+      <c r="EM115" s="756"/>
       <c r="EO115" s="14"/>
       <c r="EP115" s="14"/>
       <c r="EQ115" s="2"/>
@@ -27375,21 +27338,21 @@
       <c r="ET115" s="2"/>
     </row>
     <row r="116" spans="1:150" customFormat="1" ht="43.5" customHeight="1">
-      <c r="F116" s="768" t="str">
+      <c r="F116" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH116),"",BH116),IF(ISBLANK(DJ116),"",DJ116))</f>
         <v/>
       </c>
-      <c r="G116" s="767" t="str">
+      <c r="G116" s="773" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI116),"",BI116),IF(ISBLANK(DK116),"",DK116))</f>
         <v/>
       </c>
-      <c r="H116" s="735"/>
-      <c r="I116" s="725" t="str">
+      <c r="H116" s="741"/>
+      <c r="I116" s="731" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN116),"",BN116),IF(ISBLANK(DL116),"",DL116))</f>
         <v>Elimination of 
 Intra-AFF transaction</v>
       </c>
-      <c r="J116" s="778"/>
+      <c r="J116" s="784"/>
       <c r="K116" s="23" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM116),"",BM116),IF(ISBLANK(DO116),"",DO116))</f>
         <v>AFF Total</v>
@@ -27453,19 +27416,19 @@
         <v>Land 
 Transport</v>
       </c>
-      <c r="AC116" s="761" t="str">
+      <c r="AC116" s="767" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CJ116),"",CJ116),IF(ISBLANK(#REF!),"",#REF!))</f>
         <v/>
       </c>
-      <c r="AD116" s="775" t="str">
+      <c r="AD116" s="781" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK116),"",CK116),IF(ISBLANK(EG116),"",EG116))</f>
         <v/>
       </c>
       <c r="AE116" s="2"/>
-      <c r="AF116" s="730"/>
-      <c r="AG116" s="730"/>
+      <c r="AF116" s="736"/>
+      <c r="AG116" s="736"/>
       <c r="AH116" s="26"/>
-      <c r="AI116" s="743" t="str">
+      <c r="AI116" s="749" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CM116),"",CM116),IF(ISBLANK(EL116),"",EL116))</f>
         <v/>
       </c>
@@ -27476,11 +27439,11 @@
       <c r="BE116" s="1"/>
       <c r="BF116" s="1"/>
       <c r="BG116" s="1"/>
-      <c r="BH116" s="768"/>
-      <c r="BI116" s="767"/>
-      <c r="BJ116" s="735"/>
-      <c r="BK116" s="725"/>
-      <c r="BL116" s="738"/>
+      <c r="BH116" s="774"/>
+      <c r="BI116" s="773"/>
+      <c r="BJ116" s="741"/>
+      <c r="BK116" s="731"/>
+      <c r="BL116" s="744"/>
       <c r="BM116" s="23" t="s">
         <v>58</v>
       </c>
@@ -27536,12 +27499,12 @@
         <v>72</v>
       </c>
       <c r="CE116" s="211"/>
-      <c r="CF116" s="764"/>
+      <c r="CF116" s="770"/>
       <c r="CG116" s="212"/>
-      <c r="CH116" s="730"/>
-      <c r="CI116" s="730"/>
+      <c r="CH116" s="736"/>
+      <c r="CI116" s="736"/>
       <c r="CJ116" s="212"/>
-      <c r="CK116" s="751"/>
+      <c r="CK116" s="757"/>
       <c r="CM116" s="14"/>
       <c r="CN116" s="14"/>
       <c r="CO116" s="2"/>
@@ -27557,11 +27520,11 @@
       <c r="DG116" s="1"/>
       <c r="DH116" s="1"/>
       <c r="DI116" s="1"/>
-      <c r="DJ116" s="768"/>
-      <c r="DK116" s="767"/>
-      <c r="DL116" s="771"/>
-      <c r="DM116" s="725"/>
-      <c r="DN116" s="738"/>
+      <c r="DJ116" s="774"/>
+      <c r="DK116" s="773"/>
+      <c r="DL116" s="777"/>
+      <c r="DM116" s="731"/>
+      <c r="DN116" s="744"/>
       <c r="DO116" s="23" t="s">
         <v>415</v>
       </c>
@@ -27616,13 +27579,13 @@
       <c r="EF116" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="EG116" s="741"/>
-      <c r="EH116" s="764"/>
+      <c r="EG116" s="747"/>
+      <c r="EH116" s="770"/>
       <c r="EI116" s="212"/>
-      <c r="EJ116" s="730"/>
-      <c r="EK116" s="730"/>
+      <c r="EJ116" s="736"/>
+      <c r="EK116" s="736"/>
       <c r="EL116" s="212"/>
-      <c r="EM116" s="751"/>
+      <c r="EM116" s="757"/>
       <c r="EO116" s="14"/>
       <c r="EP116" s="14"/>
       <c r="EQ116" s="2"/>
@@ -27635,12 +27598,12 @@
         <v>289</v>
       </c>
       <c r="B117" s="112"/>
-      <c r="F117" s="779" t="str">
+      <c r="F117" s="785" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH117),"",BH117),IF(ISBLANK(DJ117),"",DJ117))</f>
         <v>Interest expense on lease liability in IFRS16
 ( Reclassified to RFC for management accounting purpose )</v>
       </c>
-      <c r="G117" s="780"/>
+      <c r="G117" s="786"/>
       <c r="H117" s="491" t="s">
         <v>290</v>
       </c>
@@ -27649,21 +27612,21 @@
         <v>0</v>
       </c>
       <c r="J117" s="334"/>
-      <c r="K117" s="701">
+      <c r="K117" s="700">
         <f>SUM(L117:O117)</f>
         <v>0</v>
       </c>
-      <c r="L117" s="681"/>
-      <c r="M117" s="701"/>
-      <c r="N117" s="701"/>
+      <c r="L117" s="680"/>
+      <c r="M117" s="700"/>
+      <c r="N117" s="700"/>
       <c r="O117" s="493"/>
-      <c r="P117" s="701">
+      <c r="P117" s="700">
         <f>SUM(Q117:T117)</f>
         <v>0</v>
       </c>
-      <c r="Q117" s="681"/>
-      <c r="R117" s="701"/>
-      <c r="S117" s="701"/>
+      <c r="Q117" s="680"/>
+      <c r="R117" s="700"/>
+      <c r="S117" s="700"/>
       <c r="T117" s="494"/>
       <c r="U117" s="495">
         <f>SUM(V117:X117)</f>
@@ -27680,10 +27643,10 @@
       <c r="AA117" s="496"/>
       <c r="AB117" s="496"/>
       <c r="AC117" s="496"/>
-      <c r="AD117" s="702"/>
+      <c r="AD117" s="701"/>
       <c r="AE117" s="221"/>
       <c r="AF117" s="497"/>
-      <c r="AG117" s="669"/>
+      <c r="AG117" s="668"/>
       <c r="AH117" s="221"/>
       <c r="AI117" s="496"/>
       <c r="AO117" s="4"/>
@@ -27756,12 +27719,12 @@
         <v>292</v>
       </c>
       <c r="B118" s="112"/>
-      <c r="F118" s="781" t="str">
+      <c r="F118" s="787" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH118),"",BH118),IF(ISBLANK(DJ118),"",DJ118))</f>
         <v>Interest expense on lease liability in IFRS16
 ( Reclassified to SGA for management accounting purpose )</v>
       </c>
-      <c r="G118" s="782"/>
+      <c r="G118" s="788"/>
       <c r="H118" s="491" t="s">
         <v>293</v>
       </c>
@@ -27775,16 +27738,16 @@
         <v>0</v>
       </c>
       <c r="L118" s="323"/>
-      <c r="M118" s="837"/>
-      <c r="N118" s="837"/>
+      <c r="M118" s="716"/>
+      <c r="N118" s="716"/>
       <c r="O118" s="502"/>
       <c r="P118" s="503">
         <f>SUM(Q118:T118)</f>
         <v>0</v>
       </c>
       <c r="Q118" s="323"/>
-      <c r="R118" s="837"/>
-      <c r="S118" s="838"/>
+      <c r="R118" s="716"/>
+      <c r="S118" s="717"/>
       <c r="T118" s="502"/>
       <c r="U118" s="503">
         <f>SUM(V118:X118)</f>
@@ -27801,12 +27764,12 @@
       <c r="AA118" s="504"/>
       <c r="AB118" s="504"/>
       <c r="AC118" s="496"/>
-      <c r="AD118" s="838"/>
+      <c r="AD118" s="717"/>
       <c r="AE118" s="221"/>
       <c r="AF118" s="504"/>
-      <c r="AG118" s="837"/>
+      <c r="AG118" s="716"/>
       <c r="AH118" s="221"/>
-      <c r="AI118" s="837"/>
+      <c r="AI118" s="716"/>
       <c r="AO118" s="4"/>
       <c r="AS118" s="1" t="str">
         <f>IF(AND([1]COVER!$J$15=3,AR118=1),CT118,IF(AND([1]COVER!$J$15=2,AR118=1),EV118,""))</f>
@@ -27876,12 +27839,12 @@
       <c r="A119" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F119" s="781" t="str">
+      <c r="F119" s="787" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH119),"",BH119),IF(ISBLANK(DJ119),"",DJ119))</f>
         <v>Allocation of Interest expense on lease liability in IFRS16 booked in BP segment 
 (Reclassified to SGA for management accounting purpose )</v>
       </c>
-      <c r="G119" s="782"/>
+      <c r="G119" s="788"/>
       <c r="H119" s="213" t="s">
         <v>296</v>
       </c>
@@ -27895,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="L119" s="323"/>
-      <c r="M119" s="839">
-        <v>0</v>
-      </c>
-      <c r="N119" s="839">
+      <c r="M119" s="503">
+        <v>0</v>
+      </c>
+      <c r="N119" s="503">
         <v>0</v>
       </c>
       <c r="O119" s="505"/>
@@ -27907,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="Q119" s="323"/>
-      <c r="R119" s="839">
-        <v>0</v>
-      </c>
-      <c r="S119" s="839">
+      <c r="R119" s="503">
+        <v>0</v>
+      </c>
+      <c r="S119" s="503">
         <v>0</v>
       </c>
       <c r="T119" s="505"/>
@@ -27919,10 +27882,10 @@
         <v>0</v>
       </c>
       <c r="V119" s="323"/>
-      <c r="W119" s="839">
-        <v>0</v>
-      </c>
-      <c r="X119" s="839">
+      <c r="W119" s="503">
+        <v>0</v>
+      </c>
+      <c r="X119" s="503">
         <f>'[2]For LINE RED'!E22</f>
         <v>0</v>
       </c>
@@ -27940,15 +27903,15 @@
       <c r="AC119" s="503">
         <v>0</v>
       </c>
-      <c r="AD119" s="840">
+      <c r="AD119" s="718">
         <f>-(M119+N119+R119+S119+W119+X119)</f>
         <v>0</v>
       </c>
       <c r="AE119" s="221"/>
       <c r="AF119" s="506"/>
-      <c r="AG119" s="668"/>
+      <c r="AG119" s="667"/>
       <c r="AH119" s="221"/>
-      <c r="AI119" s="668"/>
+      <c r="AI119" s="667"/>
       <c r="AO119" s="4"/>
       <c r="AS119" s="1" t="str">
         <f>IF(AND([1]COVER!$J$15=3,AR119=1),CT119,IF(AND([1]COVER!$J$15=2,AR119=1),EV119,""))</f>
@@ -28605,116 +28568,116 @@
     </row>
     <row r="132" spans="1:149" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="E132" s="115"/>
-      <c r="F132" s="733" t="str">
+      <c r="F132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH132),"",BH132),IF(ISBLANK(DJ132),"",DJ132))</f>
         <v>Account</v>
       </c>
-      <c r="G132" s="783" t="str">
+      <c r="G132" s="789" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI132),"",BI132),IF(ISBLANK(DK132),"",DK132))</f>
         <v/>
       </c>
-      <c r="H132" s="733" t="s">
+      <c r="H132" s="739" t="s">
         <v>42</v>
       </c>
-      <c r="I132" s="733" t="str">
+      <c r="I132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK132),"",BK132),IF(ISBLANK(DM132),"",DM132))</f>
         <v>Grand Total</v>
       </c>
-      <c r="J132" s="776"/>
-      <c r="K132" s="733" t="str">
+      <c r="J132" s="782"/>
+      <c r="K132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM132),"",BM132),IF(ISBLANK(DO132),"",DO132))</f>
         <v>Air Freight Forwarding</v>
       </c>
-      <c r="L132" s="733" t="str">
+      <c r="L132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN132),"",BN132),IF(ISBLANK(DP132),"",DP132))</f>
         <v/>
       </c>
-      <c r="M132" s="733" t="str">
+      <c r="M132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BO132),"",BO132),IF(ISBLANK(DQ132),"",DQ132))</f>
         <v/>
       </c>
-      <c r="N132" s="733" t="str">
+      <c r="N132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BP132),"",BP132),IF(ISBLANK(DR132),"",DR132))</f>
         <v/>
       </c>
-      <c r="O132" s="733" t="str">
+      <c r="O132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BQ132),"",BQ132),IF(ISBLANK(DS132),"",DS132))</f>
         <v/>
       </c>
-      <c r="P132" s="733" t="str">
+      <c r="P132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BR132),"",BR132),IF(ISBLANK(DT132),"",DT132))</f>
         <v>Ocean Freight Forwarding</v>
       </c>
-      <c r="Q132" s="733" t="str">
+      <c r="Q132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BS132),"",BS132),IF(ISBLANK(DU132),"",DU132))</f>
         <v/>
       </c>
-      <c r="R132" s="733" t="str">
+      <c r="R132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BT132),"",BT132),IF(ISBLANK(DV132),"",DV132))</f>
         <v/>
       </c>
-      <c r="S132" s="733" t="str">
+      <c r="S132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BU132),"",BU132),IF(ISBLANK(DW132),"",DW132))</f>
         <v/>
       </c>
-      <c r="T132" s="733" t="str">
+      <c r="T132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BV132),"",BV132),IF(ISBLANK(DX132),"",DX132))</f>
         <v/>
       </c>
-      <c r="U132" s="733" t="str">
+      <c r="U132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BW132),"",BW132),IF(ISBLANK(DY132),"",DY132))</f>
         <v>SCS</v>
       </c>
-      <c r="V132" s="733" t="str">
+      <c r="V132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BX132),"",BX132),IF(ISBLANK(DZ132),"",DZ132))</f>
         <v/>
       </c>
-      <c r="W132" s="733" t="str">
+      <c r="W132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BY132),"",BY132),IF(ISBLANK(EA132),"",EA132))</f>
         <v/>
       </c>
-      <c r="X132" s="733" t="str">
+      <c r="X132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BZ132),"",BZ132),IF(ISBLANK(EB132),"",EB132))</f>
         <v/>
       </c>
-      <c r="Y132" s="788" t="str">
+      <c r="Y132" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CA132),"",CA132),IF(ISBLANK(EC132),"",EC132))</f>
         <v>Contract Logistics &amp; Transport</v>
       </c>
-      <c r="Z132" s="788" t="str">
+      <c r="Z132" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CB132),"",CB132),IF(ISBLANK(ED132),"",ED132))</f>
         <v/>
       </c>
-      <c r="AA132" s="788" t="str">
+      <c r="AA132" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CC132),"",CC132),IF(ISBLANK(EE132),"",EE132))</f>
         <v/>
       </c>
-      <c r="AB132" s="788" t="str">
+      <c r="AB132" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CD132),"",CD132),IF(ISBLANK(EF132),"",EF132))</f>
         <v/>
       </c>
-      <c r="AC132" s="733" t="str">
+      <c r="AC132" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE132),"",CE132),IF(ISBLANK(EG132),"",EG132))</f>
         <v>Other business</v>
       </c>
-      <c r="AD132" s="726" t="str">
+      <c r="AD132" s="732" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF132),"",CF132),IF(ISBLANK(EH132),"",EH132))</f>
         <v>Business
 Partner
 (BP)</v>
       </c>
       <c r="AE132" s="22"/>
-      <c r="AF132" s="728" t="str">
+      <c r="AF132" s="734" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH132),"",CH132),IF(ISBLANK(EJ132),"",EJ132))</f>
         <v>Regional Shared Service Center
 (RSSC)</v>
       </c>
-      <c r="AG132" s="728" t="str">
+      <c r="AG132" s="734" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI132),"",CI132),IF(ISBLANK(EK132),"",EK132))</f>
         <v>GHQ arm</v>
       </c>
       <c r="AH132" s="22"/>
-      <c r="AI132" s="742" t="str">
+      <c r="AI132" s="748" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK132),"",CK132),IF(ISBLANK(EM132),"",EM132))</f>
         <v>Global HQ
 (GHQ)</v>
@@ -28723,60 +28686,60 @@
       <c r="BE132" s="1"/>
       <c r="BF132" s="1"/>
       <c r="BG132" s="1"/>
-      <c r="BH132" s="713" t="s">
+      <c r="BH132" s="719" t="s">
         <v>43</v>
       </c>
-      <c r="BI132" s="765"/>
-      <c r="BJ132" s="733" t="s">
+      <c r="BI132" s="771"/>
+      <c r="BJ132" s="739" t="s">
         <v>42</v>
       </c>
-      <c r="BK132" s="723" t="s">
+      <c r="BK132" s="729" t="s">
         <v>44</v>
       </c>
-      <c r="BL132" s="736" t="s">
+      <c r="BL132" s="742" t="s">
         <v>45</v>
       </c>
-      <c r="BM132" s="713" t="s">
+      <c r="BM132" s="719" t="s">
         <v>46</v>
       </c>
-      <c r="BN132" s="714"/>
-      <c r="BO132" s="714"/>
-      <c r="BP132" s="714"/>
-      <c r="BQ132" s="723"/>
-      <c r="BR132" s="713" t="s">
+      <c r="BN132" s="720"/>
+      <c r="BO132" s="720"/>
+      <c r="BP132" s="720"/>
+      <c r="BQ132" s="729"/>
+      <c r="BR132" s="719" t="s">
         <v>47</v>
       </c>
-      <c r="BS132" s="714"/>
-      <c r="BT132" s="714"/>
-      <c r="BU132" s="714"/>
-      <c r="BV132" s="714"/>
-      <c r="BW132" s="713" t="s">
+      <c r="BS132" s="720"/>
+      <c r="BT132" s="720"/>
+      <c r="BU132" s="720"/>
+      <c r="BV132" s="720"/>
+      <c r="BW132" s="719" t="s">
         <v>48</v>
       </c>
-      <c r="BX132" s="714"/>
-      <c r="BY132" s="714"/>
-      <c r="BZ132" s="714"/>
-      <c r="CA132" s="717" t="s">
+      <c r="BX132" s="720"/>
+      <c r="BY132" s="720"/>
+      <c r="BZ132" s="720"/>
+      <c r="CA132" s="723" t="s">
         <v>49</v>
       </c>
-      <c r="CB132" s="718"/>
-      <c r="CC132" s="718"/>
-      <c r="CD132" s="719"/>
+      <c r="CB132" s="724"/>
+      <c r="CC132" s="724"/>
+      <c r="CD132" s="725"/>
       <c r="CE132" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="CF132" s="762" t="s">
+      <c r="CF132" s="768" t="s">
         <v>51</v>
       </c>
       <c r="CG132" s="24"/>
-      <c r="CH132" s="728" t="s">
+      <c r="CH132" s="734" t="s">
         <v>52</v>
       </c>
-      <c r="CI132" s="728" t="s">
+      <c r="CI132" s="734" t="s">
         <v>53</v>
       </c>
       <c r="CJ132" s="24"/>
-      <c r="CK132" s="749" t="s">
+      <c r="CK132" s="755" t="s">
         <v>54</v>
       </c>
       <c r="CM132" s="14"/>
@@ -28794,60 +28757,60 @@
       <c r="DG132" s="1"/>
       <c r="DH132" s="1"/>
       <c r="DI132" s="1"/>
-      <c r="DJ132" s="713" t="s">
+      <c r="DJ132" s="719" t="s">
         <v>406</v>
       </c>
-      <c r="DK132" s="765"/>
-      <c r="DL132" s="769" t="s">
+      <c r="DK132" s="771"/>
+      <c r="DL132" s="775" t="s">
         <v>42</v>
       </c>
-      <c r="DM132" s="723" t="s">
+      <c r="DM132" s="729" t="s">
         <v>407</v>
       </c>
-      <c r="DN132" s="736" t="s">
+      <c r="DN132" s="742" t="s">
         <v>408</v>
       </c>
-      <c r="DO132" s="713" t="s">
+      <c r="DO132" s="719" t="s">
         <v>409</v>
       </c>
-      <c r="DP132" s="714"/>
-      <c r="DQ132" s="714"/>
-      <c r="DR132" s="714"/>
-      <c r="DS132" s="723"/>
-      <c r="DT132" s="714" t="s">
+      <c r="DP132" s="720"/>
+      <c r="DQ132" s="720"/>
+      <c r="DR132" s="720"/>
+      <c r="DS132" s="729"/>
+      <c r="DT132" s="720" t="s">
         <v>410</v>
       </c>
-      <c r="DU132" s="714"/>
-      <c r="DV132" s="714"/>
-      <c r="DW132" s="714"/>
-      <c r="DX132" s="714"/>
-      <c r="DY132" s="713" t="s">
+      <c r="DU132" s="720"/>
+      <c r="DV132" s="720"/>
+      <c r="DW132" s="720"/>
+      <c r="DX132" s="720"/>
+      <c r="DY132" s="719" t="s">
         <v>411</v>
       </c>
-      <c r="DZ132" s="714"/>
-      <c r="EA132" s="714"/>
-      <c r="EB132" s="723"/>
-      <c r="EC132" s="713" t="s">
+      <c r="DZ132" s="720"/>
+      <c r="EA132" s="720"/>
+      <c r="EB132" s="729"/>
+      <c r="EC132" s="719" t="s">
         <v>412</v>
       </c>
-      <c r="ED132" s="714"/>
-      <c r="EE132" s="758"/>
-      <c r="EF132" s="759"/>
-      <c r="EG132" s="733" t="s">
+      <c r="ED132" s="720"/>
+      <c r="EE132" s="764"/>
+      <c r="EF132" s="765"/>
+      <c r="EG132" s="739" t="s">
         <v>413</v>
       </c>
-      <c r="EH132" s="762" t="s">
+      <c r="EH132" s="768" t="s">
         <v>288</v>
       </c>
       <c r="EI132" s="24"/>
-      <c r="EJ132" s="728" t="s">
+      <c r="EJ132" s="734" t="s">
         <v>52</v>
       </c>
-      <c r="EK132" s="728" t="s">
+      <c r="EK132" s="734" t="s">
         <v>53</v>
       </c>
       <c r="EL132" s="24"/>
-      <c r="EM132" s="749" t="s">
+      <c r="EM132" s="755" t="s">
         <v>54</v>
       </c>
       <c r="EP132" s="2"/>
@@ -28857,111 +28820,111 @@
     </row>
     <row r="133" spans="1:149" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="E133" s="115"/>
-      <c r="F133" s="784" t="str">
+      <c r="F133" s="790" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH133),"",BH133),IF(ISBLANK(DJ133),"",DJ133))</f>
         <v/>
       </c>
-      <c r="G133" s="784" t="str">
+      <c r="G133" s="790" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI133),"",BI133),IF(ISBLANK(DK133),"",DK133))</f>
         <v/>
       </c>
-      <c r="H133" s="734"/>
-      <c r="I133" s="786" t="str">
+      <c r="H133" s="740"/>
+      <c r="I133" s="792" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK133),"",BK133),IF(ISBLANK(DM133),"",DM133))</f>
         <v/>
       </c>
-      <c r="J133" s="777"/>
-      <c r="K133" s="741" t="str">
+      <c r="J133" s="783"/>
+      <c r="K133" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM133),"",BM133),IF(ISBLANK(DO133),"",DO133))</f>
         <v/>
       </c>
-      <c r="L133" s="741" t="str">
+      <c r="L133" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN133),"",BN133),IF(ISBLANK(DP133),"",DP133))</f>
         <v/>
       </c>
-      <c r="M133" s="741" t="str">
+      <c r="M133" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BO133),"",BO133),IF(ISBLANK(DQ133),"",DQ133))</f>
         <v/>
       </c>
-      <c r="N133" s="741" t="str">
+      <c r="N133" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BP133),"",BP133),IF(ISBLANK(DR133),"",DR133))</f>
         <v/>
       </c>
-      <c r="O133" s="741" t="str">
+      <c r="O133" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BQ133),"",BQ133),IF(ISBLANK(DS133),"",DS133))</f>
         <v/>
       </c>
-      <c r="P133" s="741" t="str">
+      <c r="P133" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BR133),"",BR133),IF(ISBLANK(DT133),"",DT133))</f>
         <v/>
       </c>
-      <c r="Q133" s="741" t="str">
+      <c r="Q133" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BS133),"",BS133),IF(ISBLANK(DU133),"",DU133))</f>
         <v/>
       </c>
-      <c r="R133" s="741" t="str">
+      <c r="R133" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BT133),"",BT133),IF(ISBLANK(DV133),"",DV133))</f>
         <v/>
       </c>
-      <c r="S133" s="741" t="str">
+      <c r="S133" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BU133),"",BU133),IF(ISBLANK(DW133),"",DW133))</f>
         <v/>
       </c>
-      <c r="T133" s="741" t="str">
+      <c r="T133" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BV133),"",BV133),IF(ISBLANK(DX133),"",DX133))</f>
         <v/>
       </c>
-      <c r="U133" s="741" t="str">
+      <c r="U133" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BW133),"",BW133),IF(ISBLANK(DY133),"",DY133))</f>
         <v/>
       </c>
-      <c r="V133" s="741" t="str">
+      <c r="V133" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BX133),"",BX133),IF(ISBLANK(DZ133),"",DZ133))</f>
         <v/>
       </c>
-      <c r="W133" s="741" t="str">
+      <c r="W133" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BY133),"",BY133),IF(ISBLANK(EA133),"",EA133))</f>
         <v/>
       </c>
-      <c r="X133" s="741" t="str">
+      <c r="X133" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BZ133),"",BZ133),IF(ISBLANK(EB133),"",EB133))</f>
         <v/>
       </c>
-      <c r="Y133" s="789" t="str">
+      <c r="Y133" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CA133),"",CA133),IF(ISBLANK(EC133),"",EC133))</f>
         <v/>
       </c>
-      <c r="Z133" s="789" t="str">
+      <c r="Z133" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CB133),"",CB133),IF(ISBLANK(ED133),"",ED133))</f>
         <v/>
       </c>
-      <c r="AA133" s="789" t="str">
+      <c r="AA133" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CC133),"",CC133),IF(ISBLANK(EE133),"",EE133))</f>
         <v/>
       </c>
-      <c r="AB133" s="789" t="str">
+      <c r="AB133" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CD133),"",CD133),IF(ISBLANK(EF133),"",EF133))</f>
         <v/>
       </c>
-      <c r="AC133" s="786" t="str">
+      <c r="AC133" s="792" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE133),"",CE133),IF(ISBLANK(EG133),"",EG133))</f>
         <v/>
       </c>
-      <c r="AD133" s="790" t="str">
+      <c r="AD133" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF133),"",CF133),IF(ISBLANK(EH133),"",EH133))</f>
         <v/>
       </c>
       <c r="AE133" s="26"/>
-      <c r="AF133" s="729" t="str">
+      <c r="AF133" s="735" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH133),"",CH133),IF(ISBLANK(EJ133),"",EJ133))</f>
         <v/>
       </c>
-      <c r="AG133" s="729" t="str">
+      <c r="AG133" s="735" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI133),"",CI133),IF(ISBLANK(EK133),"",EK133))</f>
         <v/>
       </c>
       <c r="AH133" s="26"/>
-      <c r="AI133" s="743" t="str">
+      <c r="AI133" s="749" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK133),"",CK133),IF(ISBLANK(EM133),"",EM133))</f>
         <v/>
       </c>
@@ -28969,36 +28932,36 @@
       <c r="BE133" s="1"/>
       <c r="BF133" s="1"/>
       <c r="BG133" s="1"/>
-      <c r="BH133" s="766"/>
-      <c r="BI133" s="767"/>
-      <c r="BJ133" s="734"/>
-      <c r="BK133" s="724"/>
-      <c r="BL133" s="737"/>
-      <c r="BM133" s="715"/>
-      <c r="BN133" s="716"/>
-      <c r="BO133" s="716"/>
-      <c r="BP133" s="716"/>
-      <c r="BQ133" s="739"/>
-      <c r="BR133" s="715"/>
-      <c r="BS133" s="716"/>
-      <c r="BT133" s="716"/>
-      <c r="BU133" s="716"/>
-      <c r="BV133" s="716"/>
-      <c r="BW133" s="715"/>
-      <c r="BX133" s="716"/>
-      <c r="BY133" s="716"/>
-      <c r="BZ133" s="716"/>
-      <c r="CA133" s="720"/>
-      <c r="CB133" s="721"/>
-      <c r="CC133" s="721"/>
-      <c r="CD133" s="722"/>
+      <c r="BH133" s="772"/>
+      <c r="BI133" s="773"/>
+      <c r="BJ133" s="740"/>
+      <c r="BK133" s="730"/>
+      <c r="BL133" s="743"/>
+      <c r="BM133" s="721"/>
+      <c r="BN133" s="722"/>
+      <c r="BO133" s="722"/>
+      <c r="BP133" s="722"/>
+      <c r="BQ133" s="745"/>
+      <c r="BR133" s="721"/>
+      <c r="BS133" s="722"/>
+      <c r="BT133" s="722"/>
+      <c r="BU133" s="722"/>
+      <c r="BV133" s="722"/>
+      <c r="BW133" s="721"/>
+      <c r="BX133" s="722"/>
+      <c r="BY133" s="722"/>
+      <c r="BZ133" s="722"/>
+      <c r="CA133" s="726"/>
+      <c r="CB133" s="727"/>
+      <c r="CC133" s="727"/>
+      <c r="CD133" s="728"/>
       <c r="CE133" s="211"/>
-      <c r="CF133" s="763"/>
+      <c r="CF133" s="769"/>
       <c r="CG133" s="212"/>
-      <c r="CH133" s="729"/>
-      <c r="CI133" s="729"/>
+      <c r="CH133" s="735"/>
+      <c r="CI133" s="735"/>
       <c r="CJ133" s="212"/>
-      <c r="CK133" s="750"/>
+      <c r="CK133" s="756"/>
       <c r="CM133" s="14"/>
       <c r="CN133" s="14"/>
       <c r="CO133" s="2"/>
@@ -29014,36 +28977,36 @@
       <c r="DG133" s="1"/>
       <c r="DH133" s="1"/>
       <c r="DI133" s="1"/>
-      <c r="DJ133" s="766"/>
-      <c r="DK133" s="767"/>
-      <c r="DL133" s="770"/>
-      <c r="DM133" s="724"/>
-      <c r="DN133" s="737"/>
-      <c r="DO133" s="715"/>
-      <c r="DP133" s="716"/>
-      <c r="DQ133" s="716"/>
-      <c r="DR133" s="716"/>
-      <c r="DS133" s="739"/>
-      <c r="DT133" s="716"/>
-      <c r="DU133" s="716"/>
-      <c r="DV133" s="716"/>
-      <c r="DW133" s="716"/>
-      <c r="DX133" s="716"/>
-      <c r="DY133" s="715"/>
-      <c r="DZ133" s="716"/>
-      <c r="EA133" s="716"/>
-      <c r="EB133" s="739"/>
-      <c r="EC133" s="760"/>
-      <c r="ED133" s="761"/>
-      <c r="EE133" s="761"/>
-      <c r="EF133" s="725"/>
-      <c r="EG133" s="740"/>
-      <c r="EH133" s="763"/>
+      <c r="DJ133" s="772"/>
+      <c r="DK133" s="773"/>
+      <c r="DL133" s="776"/>
+      <c r="DM133" s="730"/>
+      <c r="DN133" s="743"/>
+      <c r="DO133" s="721"/>
+      <c r="DP133" s="722"/>
+      <c r="DQ133" s="722"/>
+      <c r="DR133" s="722"/>
+      <c r="DS133" s="745"/>
+      <c r="DT133" s="722"/>
+      <c r="DU133" s="722"/>
+      <c r="DV133" s="722"/>
+      <c r="DW133" s="722"/>
+      <c r="DX133" s="722"/>
+      <c r="DY133" s="721"/>
+      <c r="DZ133" s="722"/>
+      <c r="EA133" s="722"/>
+      <c r="EB133" s="745"/>
+      <c r="EC133" s="766"/>
+      <c r="ED133" s="767"/>
+      <c r="EE133" s="767"/>
+      <c r="EF133" s="731"/>
+      <c r="EG133" s="746"/>
+      <c r="EH133" s="769"/>
       <c r="EI133" s="212"/>
-      <c r="EJ133" s="729"/>
-      <c r="EK133" s="729"/>
+      <c r="EJ133" s="735"/>
+      <c r="EK133" s="735"/>
       <c r="EL133" s="212"/>
-      <c r="EM133" s="750"/>
+      <c r="EM133" s="756"/>
       <c r="EP133" s="2"/>
       <c r="EQ133" s="2"/>
       <c r="ER133" s="2"/>
@@ -29051,20 +29014,20 @@
     </row>
     <row r="134" spans="1:149" customFormat="1" ht="42.65" hidden="1" customHeight="1">
       <c r="E134" s="115"/>
-      <c r="F134" s="785" t="str">
+      <c r="F134" s="791" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH134),"",BH134),IF(ISBLANK(DJ134),"",DJ134))</f>
         <v/>
       </c>
-      <c r="G134" s="784" t="str">
+      <c r="G134" s="790" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI134),"",BI134),IF(ISBLANK(DK134),"",DK134))</f>
         <v/>
       </c>
-      <c r="H134" s="735"/>
-      <c r="I134" s="787" t="str">
+      <c r="H134" s="741"/>
+      <c r="I134" s="793" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK134),"",BK134),IF(ISBLANK(DM134),"",DM134))</f>
         <v/>
       </c>
-      <c r="J134" s="778"/>
+      <c r="J134" s="784"/>
       <c r="K134" s="23" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM134),"",BM134),IF(ISBLANK(DO134),"",DO134))</f>
         <v>AFF Total</v>
@@ -29128,25 +29091,25 @@
         <v>Land 
 Transport</v>
       </c>
-      <c r="AC134" s="787" t="str">
+      <c r="AC134" s="793" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE134),"",CE134),IF(ISBLANK(EG134),"",EG134))</f>
         <v/>
       </c>
-      <c r="AD134" s="790" t="str">
+      <c r="AD134" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF134),"",CF134),IF(ISBLANK(EH134),"",EH134))</f>
         <v/>
       </c>
       <c r="AE134" s="26"/>
-      <c r="AF134" s="730" t="str">
+      <c r="AF134" s="736" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH134),"",CH134),IF(ISBLANK(EJ134),"",EJ134))</f>
         <v/>
       </c>
-      <c r="AG134" s="730" t="str">
+      <c r="AG134" s="736" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI134),"",CI134),IF(ISBLANK(EK134),"",EK134))</f>
         <v/>
       </c>
       <c r="AH134" s="26"/>
-      <c r="AI134" s="743" t="str">
+      <c r="AI134" s="749" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK134),"",CK134),IF(ISBLANK(EM134),"",EM134))</f>
         <v/>
       </c>
@@ -29154,11 +29117,11 @@
       <c r="BE134" s="1"/>
       <c r="BF134" s="1"/>
       <c r="BG134" s="1"/>
-      <c r="BH134" s="768"/>
-      <c r="BI134" s="767"/>
-      <c r="BJ134" s="735"/>
-      <c r="BK134" s="725"/>
-      <c r="BL134" s="738"/>
+      <c r="BH134" s="774"/>
+      <c r="BI134" s="773"/>
+      <c r="BJ134" s="741"/>
+      <c r="BK134" s="731"/>
+      <c r="BL134" s="744"/>
       <c r="BM134" s="23" t="s">
         <v>58</v>
       </c>
@@ -29214,12 +29177,12 @@
         <v>72</v>
       </c>
       <c r="CE134" s="211"/>
-      <c r="CF134" s="764"/>
+      <c r="CF134" s="770"/>
       <c r="CG134" s="212"/>
-      <c r="CH134" s="730"/>
-      <c r="CI134" s="730"/>
+      <c r="CH134" s="736"/>
+      <c r="CI134" s="736"/>
       <c r="CJ134" s="212"/>
-      <c r="CK134" s="751"/>
+      <c r="CK134" s="757"/>
       <c r="CM134" s="14"/>
       <c r="CN134" s="14"/>
       <c r="CO134" s="2"/>
@@ -29235,11 +29198,11 @@
       <c r="DG134" s="1"/>
       <c r="DH134" s="1"/>
       <c r="DI134" s="1"/>
-      <c r="DJ134" s="768"/>
-      <c r="DK134" s="767"/>
-      <c r="DL134" s="771"/>
-      <c r="DM134" s="725"/>
-      <c r="DN134" s="738"/>
+      <c r="DJ134" s="774"/>
+      <c r="DK134" s="773"/>
+      <c r="DL134" s="777"/>
+      <c r="DM134" s="731"/>
+      <c r="DN134" s="744"/>
       <c r="DO134" s="23" t="s">
         <v>415</v>
       </c>
@@ -29294,13 +29257,13 @@
       <c r="EF134" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="EG134" s="741"/>
-      <c r="EH134" s="764"/>
+      <c r="EG134" s="747"/>
+      <c r="EH134" s="770"/>
       <c r="EI134" s="212"/>
-      <c r="EJ134" s="730"/>
-      <c r="EK134" s="730"/>
+      <c r="EJ134" s="736"/>
+      <c r="EK134" s="736"/>
       <c r="EL134" s="212"/>
-      <c r="EM134" s="751"/>
+      <c r="EM134" s="757"/>
       <c r="EP134" s="2"/>
       <c r="EQ134" s="2"/>
       <c r="ER134" s="2"/>
@@ -29311,12 +29274,12 @@
         <v>313</v>
       </c>
       <c r="E135" s="115"/>
-      <c r="F135" s="791" t="str">
+      <c r="F135" s="797" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH135),"",BH135),IF(ISBLANK(DJ135),"",DJ135))</f>
         <v>Government grants for labor costs
 ( Reclassified to RFC for management accounting purpose )</v>
       </c>
-      <c r="G135" s="791" t="str">
+      <c r="G135" s="797" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI135),"",BI135),IF(ISBLANK(DK135),"",DK135))</f>
         <v/>
       </c>
@@ -29430,12 +29393,12 @@
         <v>318</v>
       </c>
       <c r="E136" s="115"/>
-      <c r="F136" s="792" t="str">
+      <c r="F136" s="798" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH136),"",BH136),IF(ISBLANK(DJ136),"",DJ136))</f>
         <v>Government grants for personnel expenses
 ( Reclassified to SGA for management accounting purpose )</v>
       </c>
-      <c r="G136" s="792" t="str">
+      <c r="G136" s="798" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI136),"",BI136),IF(ISBLANK(DK136),"",DK136))</f>
         <v/>
       </c>
@@ -29549,11 +29512,11 @@
         <v>323</v>
       </c>
       <c r="E137" s="115"/>
-      <c r="F137" s="793" t="str">
+      <c r="F137" s="799" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH137),"",BH137),IF(ISBLANK(DJ137),"",DJ137))</f>
         <v>Total</v>
       </c>
-      <c r="G137" s="793" t="str">
+      <c r="G137" s="799" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI137),"",BI137),IF(ISBLANK(DK137),"",DK137))</f>
         <v/>
       </c>
@@ -29979,116 +29942,116 @@
     </row>
     <row r="147" spans="1:151" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="E147" s="115"/>
-      <c r="F147" s="733" t="str">
+      <c r="F147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH147),"",BH147),IF(ISBLANK(DJ147),"",DJ147))</f>
         <v>Account</v>
       </c>
-      <c r="G147" s="783" t="str">
+      <c r="G147" s="789" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI147),"",BI147),IF(ISBLANK(DK147),"",DK147))</f>
         <v/>
       </c>
-      <c r="H147" s="733" t="s">
+      <c r="H147" s="739" t="s">
         <v>42</v>
       </c>
-      <c r="I147" s="733" t="str">
+      <c r="I147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK147),"",BK147),IF(ISBLANK(DM147),"",DM147))</f>
         <v>Grand Total</v>
       </c>
-      <c r="J147" s="794"/>
-      <c r="K147" s="733" t="str">
+      <c r="J147" s="800"/>
+      <c r="K147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM147),"",BM147),IF(ISBLANK(DO147),"",DO147))</f>
         <v>Air Freight Forwarding</v>
       </c>
-      <c r="L147" s="733" t="str">
+      <c r="L147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN147),"",BN147),IF(ISBLANK(DP147),"",DP147))</f>
         <v/>
       </c>
-      <c r="M147" s="733" t="str">
+      <c r="M147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BO147),"",BO147),IF(ISBLANK(DQ147),"",DQ147))</f>
         <v/>
       </c>
-      <c r="N147" s="733" t="str">
+      <c r="N147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BP147),"",BP147),IF(ISBLANK(DR147),"",DR147))</f>
         <v/>
       </c>
-      <c r="O147" s="733" t="str">
+      <c r="O147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BQ147),"",BQ147),IF(ISBLANK(DS147),"",DS147))</f>
         <v/>
       </c>
-      <c r="P147" s="733" t="str">
+      <c r="P147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BR147),"",BR147),IF(ISBLANK(DT147),"",DT147))</f>
         <v>Ocean Freight Forwarding</v>
       </c>
-      <c r="Q147" s="733" t="str">
+      <c r="Q147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BS147),"",BS147),IF(ISBLANK(DU147),"",DU147))</f>
         <v/>
       </c>
-      <c r="R147" s="733" t="str">
+      <c r="R147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BT147),"",BT147),IF(ISBLANK(DV147),"",DV147))</f>
         <v/>
       </c>
-      <c r="S147" s="733" t="str">
+      <c r="S147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BU147),"",BU147),IF(ISBLANK(DW147),"",DW147))</f>
         <v/>
       </c>
-      <c r="T147" s="733" t="str">
+      <c r="T147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BV147),"",BV147),IF(ISBLANK(DX147),"",DX147))</f>
         <v/>
       </c>
-      <c r="U147" s="733" t="str">
+      <c r="U147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BW147),"",BW147),IF(ISBLANK(DY147),"",DY147))</f>
         <v>SCS</v>
       </c>
-      <c r="V147" s="733" t="str">
+      <c r="V147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BX147),"",BX147),IF(ISBLANK(DZ147),"",DZ147))</f>
         <v/>
       </c>
-      <c r="W147" s="733" t="str">
+      <c r="W147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BY147),"",BY147),IF(ISBLANK(EA147),"",EA147))</f>
         <v/>
       </c>
-      <c r="X147" s="733" t="str">
+      <c r="X147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BZ147),"",BZ147),IF(ISBLANK(EB147),"",EB147))</f>
         <v/>
       </c>
-      <c r="Y147" s="788" t="str">
+      <c r="Y147" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CA147),"",CA147),IF(ISBLANK(EC147),"",EC147))</f>
         <v>Contract Logistics &amp; Transport</v>
       </c>
-      <c r="Z147" s="788" t="str">
+      <c r="Z147" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CB147),"",CB147),IF(ISBLANK(ED147),"",ED147))</f>
         <v/>
       </c>
-      <c r="AA147" s="788" t="str">
+      <c r="AA147" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CC147),"",CC147),IF(ISBLANK(EE147),"",EE147))</f>
         <v/>
       </c>
-      <c r="AB147" s="788" t="str">
+      <c r="AB147" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CD147),"",CD147),IF(ISBLANK(EF147),"",EF147))</f>
         <v/>
       </c>
-      <c r="AC147" s="733" t="str">
+      <c r="AC147" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE147),"",CE147),IF(ISBLANK(EG147),"",EG147))</f>
         <v>Other business</v>
       </c>
-      <c r="AD147" s="726" t="str">
+      <c r="AD147" s="732" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF147),"",CF147),IF(ISBLANK(EH147),"",EH147))</f>
         <v>Business
 Partner
 (BP)</v>
       </c>
       <c r="AE147" s="22"/>
-      <c r="AF147" s="728" t="str">
+      <c r="AF147" s="734" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH147),"",CH147),IF(ISBLANK(EJ147),"",EJ147))</f>
         <v>Regional Shared Service Center
 (RSSC)</v>
       </c>
-      <c r="AG147" s="728" t="str">
+      <c r="AG147" s="734" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI147),"",CI147),IF(ISBLANK(EK147),"",EK147))</f>
         <v>GHQ arm</v>
       </c>
       <c r="AH147" s="22"/>
-      <c r="AI147" s="742" t="str">
+      <c r="AI147" s="748" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK147),"",CK147),IF(ISBLANK(EM147),"",EM147))</f>
         <v>Global HQ
 (GHQ)</v>
@@ -30097,60 +30060,60 @@
       <c r="BE147" s="1"/>
       <c r="BF147" s="1"/>
       <c r="BG147" s="107"/>
-      <c r="BH147" s="713" t="s">
+      <c r="BH147" s="719" t="s">
         <v>43</v>
       </c>
-      <c r="BI147" s="765"/>
-      <c r="BJ147" s="733" t="s">
+      <c r="BI147" s="771"/>
+      <c r="BJ147" s="739" t="s">
         <v>42</v>
       </c>
-      <c r="BK147" s="723" t="s">
+      <c r="BK147" s="729" t="s">
         <v>44</v>
       </c>
-      <c r="BL147" s="736" t="s">
+      <c r="BL147" s="742" t="s">
         <v>45</v>
       </c>
-      <c r="BM147" s="713" t="s">
+      <c r="BM147" s="719" t="s">
         <v>46</v>
       </c>
-      <c r="BN147" s="714"/>
-      <c r="BO147" s="714"/>
-      <c r="BP147" s="714"/>
-      <c r="BQ147" s="723"/>
-      <c r="BR147" s="713" t="s">
+      <c r="BN147" s="720"/>
+      <c r="BO147" s="720"/>
+      <c r="BP147" s="720"/>
+      <c r="BQ147" s="729"/>
+      <c r="BR147" s="719" t="s">
         <v>47</v>
       </c>
-      <c r="BS147" s="714"/>
-      <c r="BT147" s="714"/>
-      <c r="BU147" s="714"/>
-      <c r="BV147" s="714"/>
-      <c r="BW147" s="713" t="s">
+      <c r="BS147" s="720"/>
+      <c r="BT147" s="720"/>
+      <c r="BU147" s="720"/>
+      <c r="BV147" s="720"/>
+      <c r="BW147" s="719" t="s">
         <v>48</v>
       </c>
-      <c r="BX147" s="714"/>
-      <c r="BY147" s="714"/>
-      <c r="BZ147" s="714"/>
-      <c r="CA147" s="717" t="s">
+      <c r="BX147" s="720"/>
+      <c r="BY147" s="720"/>
+      <c r="BZ147" s="720"/>
+      <c r="CA147" s="723" t="s">
         <v>49</v>
       </c>
-      <c r="CB147" s="718"/>
-      <c r="CC147" s="718"/>
-      <c r="CD147" s="719"/>
+      <c r="CB147" s="724"/>
+      <c r="CC147" s="724"/>
+      <c r="CD147" s="725"/>
       <c r="CE147" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="CF147" s="762" t="s">
+      <c r="CF147" s="768" t="s">
         <v>51</v>
       </c>
       <c r="CG147" s="24"/>
-      <c r="CH147" s="728" t="s">
+      <c r="CH147" s="734" t="s">
         <v>52</v>
       </c>
-      <c r="CI147" s="728" t="s">
+      <c r="CI147" s="734" t="s">
         <v>53</v>
       </c>
       <c r="CJ147" s="24"/>
-      <c r="CK147" s="749" t="s">
+      <c r="CK147" s="755" t="s">
         <v>54</v>
       </c>
       <c r="CM147" s="2"/>
@@ -30163,60 +30126,60 @@
       <c r="DB147" s="1"/>
       <c r="DC147" s="1"/>
       <c r="DI147" s="107"/>
-      <c r="DJ147" s="713" t="s">
+      <c r="DJ147" s="719" t="s">
         <v>334</v>
       </c>
-      <c r="DK147" s="765"/>
-      <c r="DL147" s="733" t="s">
+      <c r="DK147" s="771"/>
+      <c r="DL147" s="739" t="s">
         <v>42</v>
       </c>
-      <c r="DM147" s="723" t="s">
+      <c r="DM147" s="729" t="s">
         <v>335</v>
       </c>
-      <c r="DN147" s="736" t="s">
+      <c r="DN147" s="742" t="s">
         <v>336</v>
       </c>
-      <c r="DO147" s="713" t="s">
+      <c r="DO147" s="719" t="s">
         <v>337</v>
       </c>
-      <c r="DP147" s="714"/>
-      <c r="DQ147" s="714"/>
-      <c r="DR147" s="714"/>
-      <c r="DS147" s="723"/>
-      <c r="DT147" s="713" t="s">
+      <c r="DP147" s="720"/>
+      <c r="DQ147" s="720"/>
+      <c r="DR147" s="720"/>
+      <c r="DS147" s="729"/>
+      <c r="DT147" s="719" t="s">
         <v>338</v>
       </c>
-      <c r="DU147" s="714"/>
-      <c r="DV147" s="714"/>
-      <c r="DW147" s="714"/>
-      <c r="DX147" s="714"/>
-      <c r="DY147" s="713" t="s">
+      <c r="DU147" s="720"/>
+      <c r="DV147" s="720"/>
+      <c r="DW147" s="720"/>
+      <c r="DX147" s="720"/>
+      <c r="DY147" s="719" t="s">
         <v>339</v>
       </c>
-      <c r="DZ147" s="714"/>
-      <c r="EA147" s="714"/>
-      <c r="EB147" s="723"/>
-      <c r="EC147" s="713" t="s">
+      <c r="DZ147" s="720"/>
+      <c r="EA147" s="720"/>
+      <c r="EB147" s="729"/>
+      <c r="EC147" s="719" t="s">
         <v>340</v>
       </c>
-      <c r="ED147" s="714"/>
-      <c r="EE147" s="758"/>
-      <c r="EF147" s="759"/>
-      <c r="EG147" s="733" t="s">
+      <c r="ED147" s="720"/>
+      <c r="EE147" s="764"/>
+      <c r="EF147" s="765"/>
+      <c r="EG147" s="739" t="s">
         <v>341</v>
       </c>
-      <c r="EH147" s="762" t="s">
+      <c r="EH147" s="768" t="s">
         <v>288</v>
       </c>
       <c r="EI147" s="24"/>
-      <c r="EJ147" s="728" t="s">
+      <c r="EJ147" s="734" t="s">
         <v>52</v>
       </c>
-      <c r="EK147" s="728" t="s">
+      <c r="EK147" s="734" t="s">
         <v>53</v>
       </c>
       <c r="EL147" s="24"/>
-      <c r="EM147" s="749" t="s">
+      <c r="EM147" s="755" t="s">
         <v>54</v>
       </c>
       <c r="EP147" s="2"/>
@@ -30226,111 +30189,111 @@
     </row>
     <row r="148" spans="1:151" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="E148" s="115"/>
-      <c r="F148" s="784" t="str">
+      <c r="F148" s="790" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH148),"",BH148),IF(ISBLANK(DJ148),"",DJ148))</f>
         <v/>
       </c>
-      <c r="G148" s="784" t="str">
+      <c r="G148" s="790" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI148),"",BI148),IF(ISBLANK(DK148),"",DK148))</f>
         <v/>
       </c>
-      <c r="H148" s="734"/>
-      <c r="I148" s="786" t="str">
+      <c r="H148" s="740"/>
+      <c r="I148" s="792" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK148),"",BK148),IF(ISBLANK(DM148),"",DM148))</f>
         <v/>
       </c>
-      <c r="J148" s="795"/>
-      <c r="K148" s="741" t="str">
+      <c r="J148" s="801"/>
+      <c r="K148" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM148),"",BM148),IF(ISBLANK(DO148),"",DO148))</f>
         <v/>
       </c>
-      <c r="L148" s="741" t="str">
+      <c r="L148" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN148),"",BN148),IF(ISBLANK(DP148),"",DP148))</f>
         <v/>
       </c>
-      <c r="M148" s="741" t="str">
+      <c r="M148" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BO148),"",BO148),IF(ISBLANK(DQ148),"",DQ148))</f>
         <v/>
       </c>
-      <c r="N148" s="741" t="str">
+      <c r="N148" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BP148),"",BP148),IF(ISBLANK(DR148),"",DR148))</f>
         <v/>
       </c>
-      <c r="O148" s="741" t="str">
+      <c r="O148" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BQ148),"",BQ148),IF(ISBLANK(DS148),"",DS148))</f>
         <v/>
       </c>
-      <c r="P148" s="741" t="str">
+      <c r="P148" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BR148),"",BR148),IF(ISBLANK(DT148),"",DT148))</f>
         <v/>
       </c>
-      <c r="Q148" s="741" t="str">
+      <c r="Q148" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BS148),"",BS148),IF(ISBLANK(DU148),"",DU148))</f>
         <v/>
       </c>
-      <c r="R148" s="741" t="str">
+      <c r="R148" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BT148),"",BT148),IF(ISBLANK(DV148),"",DV148))</f>
         <v/>
       </c>
-      <c r="S148" s="741" t="str">
+      <c r="S148" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BU148),"",BU148),IF(ISBLANK(DW148),"",DW148))</f>
         <v/>
       </c>
-      <c r="T148" s="741" t="str">
+      <c r="T148" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BV148),"",BV148),IF(ISBLANK(DX148),"",DX148))</f>
         <v/>
       </c>
-      <c r="U148" s="741" t="str">
+      <c r="U148" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BW148),"",BW148),IF(ISBLANK(DY148),"",DY148))</f>
         <v/>
       </c>
-      <c r="V148" s="741" t="str">
+      <c r="V148" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BX148),"",BX148),IF(ISBLANK(DZ148),"",DZ148))</f>
         <v/>
       </c>
-      <c r="W148" s="741" t="str">
+      <c r="W148" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BY148),"",BY148),IF(ISBLANK(EA148),"",EA148))</f>
         <v/>
       </c>
-      <c r="X148" s="741" t="str">
+      <c r="X148" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BZ148),"",BZ148),IF(ISBLANK(EB148),"",EB148))</f>
         <v/>
       </c>
-      <c r="Y148" s="789" t="str">
+      <c r="Y148" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CA148),"",CA148),IF(ISBLANK(EC148),"",EC148))</f>
         <v/>
       </c>
-      <c r="Z148" s="789" t="str">
+      <c r="Z148" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CB148),"",CB148),IF(ISBLANK(ED148),"",ED148))</f>
         <v/>
       </c>
-      <c r="AA148" s="789" t="str">
+      <c r="AA148" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CC148),"",CC148),IF(ISBLANK(EE148),"",EE148))</f>
         <v/>
       </c>
-      <c r="AB148" s="789" t="str">
+      <c r="AB148" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CD148),"",CD148),IF(ISBLANK(EF148),"",EF148))</f>
         <v/>
       </c>
-      <c r="AC148" s="786" t="str">
+      <c r="AC148" s="792" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE148),"",CE148),IF(ISBLANK(EG148),"",EG148))</f>
         <v/>
       </c>
-      <c r="AD148" s="790" t="str">
+      <c r="AD148" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF148),"",CF148),IF(ISBLANK(EH148),"",EH148))</f>
         <v/>
       </c>
       <c r="AE148" s="26"/>
-      <c r="AF148" s="729" t="str">
+      <c r="AF148" s="735" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH148),"",CH148),IF(ISBLANK(EJ148),"",EJ148))</f>
         <v/>
       </c>
-      <c r="AG148" s="729" t="str">
+      <c r="AG148" s="735" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI148),"",CI148),IF(ISBLANK(EK148),"",EK148))</f>
         <v/>
       </c>
       <c r="AH148" s="26"/>
-      <c r="AI148" s="743" t="str">
+      <c r="AI148" s="749" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK148),"",CK148),IF(ISBLANK(EM148),"",EM148))</f>
         <v/>
       </c>
@@ -30338,36 +30301,36 @@
       <c r="BE148" s="1"/>
       <c r="BF148" s="1"/>
       <c r="BG148" s="107"/>
-      <c r="BH148" s="766"/>
-      <c r="BI148" s="767"/>
-      <c r="BJ148" s="734"/>
-      <c r="BK148" s="724"/>
-      <c r="BL148" s="737"/>
-      <c r="BM148" s="715"/>
-      <c r="BN148" s="716"/>
-      <c r="BO148" s="716"/>
-      <c r="BP148" s="716"/>
-      <c r="BQ148" s="739"/>
-      <c r="BR148" s="715"/>
-      <c r="BS148" s="716"/>
-      <c r="BT148" s="716"/>
-      <c r="BU148" s="716"/>
-      <c r="BV148" s="716"/>
-      <c r="BW148" s="715"/>
-      <c r="BX148" s="716"/>
-      <c r="BY148" s="716"/>
-      <c r="BZ148" s="716"/>
-      <c r="CA148" s="720"/>
-      <c r="CB148" s="721"/>
-      <c r="CC148" s="721"/>
-      <c r="CD148" s="722"/>
+      <c r="BH148" s="772"/>
+      <c r="BI148" s="773"/>
+      <c r="BJ148" s="740"/>
+      <c r="BK148" s="730"/>
+      <c r="BL148" s="743"/>
+      <c r="BM148" s="721"/>
+      <c r="BN148" s="722"/>
+      <c r="BO148" s="722"/>
+      <c r="BP148" s="722"/>
+      <c r="BQ148" s="745"/>
+      <c r="BR148" s="721"/>
+      <c r="BS148" s="722"/>
+      <c r="BT148" s="722"/>
+      <c r="BU148" s="722"/>
+      <c r="BV148" s="722"/>
+      <c r="BW148" s="721"/>
+      <c r="BX148" s="722"/>
+      <c r="BY148" s="722"/>
+      <c r="BZ148" s="722"/>
+      <c r="CA148" s="726"/>
+      <c r="CB148" s="727"/>
+      <c r="CC148" s="727"/>
+      <c r="CD148" s="728"/>
       <c r="CE148" s="211"/>
-      <c r="CF148" s="763"/>
+      <c r="CF148" s="769"/>
       <c r="CG148" s="212"/>
-      <c r="CH148" s="729"/>
-      <c r="CI148" s="729"/>
+      <c r="CH148" s="735"/>
+      <c r="CI148" s="735"/>
       <c r="CJ148" s="212"/>
-      <c r="CK148" s="750"/>
+      <c r="CK148" s="756"/>
       <c r="CM148" s="2"/>
       <c r="CN148" s="2"/>
       <c r="CO148" s="2"/>
@@ -30378,36 +30341,36 @@
       <c r="DB148" s="1"/>
       <c r="DC148" s="1"/>
       <c r="DI148" s="107"/>
-      <c r="DJ148" s="766"/>
-      <c r="DK148" s="767"/>
-      <c r="DL148" s="734"/>
-      <c r="DM148" s="724"/>
-      <c r="DN148" s="737"/>
-      <c r="DO148" s="715"/>
-      <c r="DP148" s="716"/>
-      <c r="DQ148" s="716"/>
-      <c r="DR148" s="716"/>
-      <c r="DS148" s="739"/>
-      <c r="DT148" s="715"/>
-      <c r="DU148" s="716"/>
-      <c r="DV148" s="716"/>
-      <c r="DW148" s="716"/>
-      <c r="DX148" s="716"/>
-      <c r="DY148" s="715"/>
-      <c r="DZ148" s="716"/>
-      <c r="EA148" s="716"/>
-      <c r="EB148" s="739"/>
-      <c r="EC148" s="760"/>
-      <c r="ED148" s="761"/>
-      <c r="EE148" s="761"/>
-      <c r="EF148" s="725"/>
-      <c r="EG148" s="740"/>
-      <c r="EH148" s="763"/>
+      <c r="DJ148" s="772"/>
+      <c r="DK148" s="773"/>
+      <c r="DL148" s="740"/>
+      <c r="DM148" s="730"/>
+      <c r="DN148" s="743"/>
+      <c r="DO148" s="721"/>
+      <c r="DP148" s="722"/>
+      <c r="DQ148" s="722"/>
+      <c r="DR148" s="722"/>
+      <c r="DS148" s="745"/>
+      <c r="DT148" s="721"/>
+      <c r="DU148" s="722"/>
+      <c r="DV148" s="722"/>
+      <c r="DW148" s="722"/>
+      <c r="DX148" s="722"/>
+      <c r="DY148" s="721"/>
+      <c r="DZ148" s="722"/>
+      <c r="EA148" s="722"/>
+      <c r="EB148" s="745"/>
+      <c r="EC148" s="766"/>
+      <c r="ED148" s="767"/>
+      <c r="EE148" s="767"/>
+      <c r="EF148" s="731"/>
+      <c r="EG148" s="746"/>
+      <c r="EH148" s="769"/>
       <c r="EI148" s="212"/>
-      <c r="EJ148" s="729"/>
-      <c r="EK148" s="729"/>
+      <c r="EJ148" s="735"/>
+      <c r="EK148" s="735"/>
       <c r="EL148" s="212"/>
-      <c r="EM148" s="750"/>
+      <c r="EM148" s="756"/>
       <c r="EP148" s="2"/>
       <c r="EQ148" s="2"/>
       <c r="ER148" s="2"/>
@@ -30415,20 +30378,20 @@
     </row>
     <row r="149" spans="1:151" customFormat="1" ht="42" hidden="1" customHeight="1">
       <c r="E149" s="115"/>
-      <c r="F149" s="785" t="str">
+      <c r="F149" s="791" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH149),"",BH149),IF(ISBLANK(DJ149),"",DJ149))</f>
         <v/>
       </c>
-      <c r="G149" s="785" t="str">
+      <c r="G149" s="791" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI149),"",BI149),IF(ISBLANK(DK149),"",DK149))</f>
         <v/>
       </c>
-      <c r="H149" s="735"/>
-      <c r="I149" s="787" t="str">
+      <c r="H149" s="741"/>
+      <c r="I149" s="793" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK149),"",BK149),IF(ISBLANK(DM149),"",DM149))</f>
         <v/>
       </c>
-      <c r="J149" s="796"/>
+      <c r="J149" s="802"/>
       <c r="K149" s="23" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM149),"",BM149),IF(ISBLANK(DO149),"",DO149))</f>
         <v>AFF Total</v>
@@ -30486,25 +30449,25 @@
         <v>Land 
 Transport</v>
       </c>
-      <c r="AC149" s="787" t="str">
+      <c r="AC149" s="793" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE149),"",CE149),IF(ISBLANK(EG149),"",EG149))</f>
         <v/>
       </c>
-      <c r="AD149" s="790" t="str">
+      <c r="AD149" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF149),"",CF149),IF(ISBLANK(EH149),"",EH149))</f>
         <v/>
       </c>
       <c r="AE149" s="26"/>
-      <c r="AF149" s="730" t="str">
+      <c r="AF149" s="736" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH149),"",CH149),IF(ISBLANK(EJ149),"",EJ149))</f>
         <v/>
       </c>
-      <c r="AG149" s="730" t="str">
+      <c r="AG149" s="736" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI149),"",CI149),IF(ISBLANK(EK149),"",EK149))</f>
         <v/>
       </c>
       <c r="AH149" s="26"/>
-      <c r="AI149" s="743" t="str">
+      <c r="AI149" s="749" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK149),"",CK149),IF(ISBLANK(EM149),"",EM149))</f>
         <v/>
       </c>
@@ -30512,11 +30475,11 @@
       <c r="BE149" s="1"/>
       <c r="BF149" s="1"/>
       <c r="BG149" s="107"/>
-      <c r="BH149" s="768"/>
-      <c r="BI149" s="767"/>
-      <c r="BJ149" s="735"/>
-      <c r="BK149" s="725"/>
-      <c r="BL149" s="738"/>
+      <c r="BH149" s="774"/>
+      <c r="BI149" s="773"/>
+      <c r="BJ149" s="741"/>
+      <c r="BK149" s="731"/>
+      <c r="BL149" s="744"/>
       <c r="BM149" s="23" t="s">
         <v>58</v>
       </c>
@@ -30572,12 +30535,12 @@
         <v>72</v>
       </c>
       <c r="CE149" s="211"/>
-      <c r="CF149" s="764"/>
+      <c r="CF149" s="770"/>
       <c r="CG149" s="212"/>
-      <c r="CH149" s="730"/>
-      <c r="CI149" s="730"/>
+      <c r="CH149" s="736"/>
+      <c r="CI149" s="736"/>
       <c r="CJ149" s="212"/>
-      <c r="CK149" s="751"/>
+      <c r="CK149" s="757"/>
       <c r="CM149" s="2"/>
       <c r="CN149" s="2"/>
       <c r="CO149" s="2"/>
@@ -30588,11 +30551,11 @@
       <c r="DB149" s="1"/>
       <c r="DC149" s="1"/>
       <c r="DI149" s="107"/>
-      <c r="DJ149" s="768"/>
-      <c r="DK149" s="767"/>
-      <c r="DL149" s="735"/>
-      <c r="DM149" s="725"/>
-      <c r="DN149" s="738"/>
+      <c r="DJ149" s="774"/>
+      <c r="DK149" s="773"/>
+      <c r="DL149" s="741"/>
+      <c r="DM149" s="731"/>
+      <c r="DN149" s="744"/>
       <c r="DO149" s="23" t="s">
         <v>342</v>
       </c>
@@ -30647,13 +30610,13 @@
       <c r="EF149" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="EG149" s="741"/>
-      <c r="EH149" s="764"/>
+      <c r="EG149" s="747"/>
+      <c r="EH149" s="770"/>
       <c r="EI149" s="212"/>
-      <c r="EJ149" s="730"/>
-      <c r="EK149" s="730"/>
+      <c r="EJ149" s="736"/>
+      <c r="EK149" s="736"/>
       <c r="EL149" s="212"/>
-      <c r="EM149" s="751"/>
+      <c r="EM149" s="757"/>
       <c r="EP149" s="2"/>
       <c r="EQ149" s="2"/>
       <c r="ER149" s="2"/>
@@ -30664,11 +30627,11 @@
         <v>352</v>
       </c>
       <c r="E150" s="115"/>
-      <c r="F150" s="797" t="str">
+      <c r="F150" s="803" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH150),"",BH150),IF(ISBLANK(DJ150),"",DJ150))</f>
         <v>Adjustment of sales revenues (deducted for management accounting purpose)</v>
       </c>
-      <c r="G150" s="797" t="str">
+      <c r="G150" s="803" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI150),"",BI150),IF(ISBLANK(DK150),"",DK150))</f>
         <v/>
       </c>
@@ -30815,11 +30778,11 @@
         <v>358</v>
       </c>
       <c r="E151" s="115"/>
-      <c r="F151" s="798" t="str">
+      <c r="F151" s="804" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH151),"",BH151),IF(ISBLANK(DJ151),"",DJ151))</f>
         <v xml:space="preserve">Adjustment of cost of sales (deducted for management accounting purpose) </v>
       </c>
-      <c r="G151" s="798" t="str">
+      <c r="G151" s="804" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI151),"",BI151),IF(ISBLANK(DK151),"",DK151))</f>
         <v/>
       </c>
@@ -30969,11 +30932,11 @@
         <v>364</v>
       </c>
       <c r="E152" s="115"/>
-      <c r="F152" s="799" t="str">
+      <c r="F152" s="805" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH152),"",BH152),IF(ISBLANK(DJ152),"",DJ152))</f>
         <v>Adjustment of gross profit</v>
       </c>
-      <c r="G152" s="799" t="str">
+      <c r="G152" s="805" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI152),"",BI152),IF(ISBLANK(DK152),"",DK152))</f>
         <v/>
       </c>
@@ -31494,116 +31457,116 @@
     </row>
     <row r="162" spans="1:151" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="E162" s="115"/>
-      <c r="F162" s="733" t="str">
+      <c r="F162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH162),"",BH162),IF(ISBLANK(DJ162),"",DJ162))</f>
         <v>Account</v>
       </c>
-      <c r="G162" s="783" t="str">
+      <c r="G162" s="789" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI162),"",BI162),IF(ISBLANK(DK162),"",DK162))</f>
         <v/>
       </c>
-      <c r="H162" s="733" t="s">
+      <c r="H162" s="739" t="s">
         <v>42</v>
       </c>
-      <c r="I162" s="733" t="str">
+      <c r="I162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK162),"",BK162),IF(ISBLANK(DM162),"",DM162))</f>
         <v>Grand Total</v>
       </c>
-      <c r="J162" s="794"/>
-      <c r="K162" s="733" t="str">
+      <c r="J162" s="800"/>
+      <c r="K162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM162),"",BM162),IF(ISBLANK(DO162),"",DO162))</f>
         <v>Air Freight Forwarding</v>
       </c>
-      <c r="L162" s="733" t="str">
+      <c r="L162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN162),"",BN162),IF(ISBLANK(DP162),"",DP162))</f>
         <v/>
       </c>
-      <c r="M162" s="733" t="str">
+      <c r="M162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BO162),"",BO162),IF(ISBLANK(DQ162),"",DQ162))</f>
         <v/>
       </c>
-      <c r="N162" s="733" t="str">
+      <c r="N162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BP162),"",BP162),IF(ISBLANK(DR162),"",DR162))</f>
         <v/>
       </c>
-      <c r="O162" s="733" t="str">
+      <c r="O162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BQ162),"",BQ162),IF(ISBLANK(DS162),"",DS162))</f>
         <v/>
       </c>
-      <c r="P162" s="733" t="str">
+      <c r="P162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BR162),"",BR162),IF(ISBLANK(DT162),"",DT162))</f>
         <v>Ocean Freight Forwarding</v>
       </c>
-      <c r="Q162" s="733" t="str">
+      <c r="Q162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BS162),"",BS162),IF(ISBLANK(DU162),"",DU162))</f>
         <v/>
       </c>
-      <c r="R162" s="733" t="str">
+      <c r="R162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BT162),"",BT162),IF(ISBLANK(DV162),"",DV162))</f>
         <v/>
       </c>
-      <c r="S162" s="733" t="str">
+      <c r="S162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BU162),"",BU162),IF(ISBLANK(DW162),"",DW162))</f>
         <v/>
       </c>
-      <c r="T162" s="733" t="str">
+      <c r="T162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BV162),"",BV162),IF(ISBLANK(DX162),"",DX162))</f>
         <v/>
       </c>
-      <c r="U162" s="733" t="str">
+      <c r="U162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BW162),"",BW162),IF(ISBLANK(DY162),"",DY162))</f>
         <v>SCS</v>
       </c>
-      <c r="V162" s="733" t="str">
+      <c r="V162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BX162),"",BX162),IF(ISBLANK(DZ162),"",DZ162))</f>
         <v/>
       </c>
-      <c r="W162" s="733" t="str">
+      <c r="W162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BY162),"",BY162),IF(ISBLANK(EA162),"",EA162))</f>
         <v/>
       </c>
-      <c r="X162" s="733" t="str">
+      <c r="X162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BZ162),"",BZ162),IF(ISBLANK(EB162),"",EB162))</f>
         <v/>
       </c>
-      <c r="Y162" s="788" t="str">
+      <c r="Y162" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CA162),"",CA162),IF(ISBLANK(EC162),"",EC162))</f>
         <v>Contract Logistics &amp; Transport</v>
       </c>
-      <c r="Z162" s="788" t="str">
+      <c r="Z162" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CB162),"",CB162),IF(ISBLANK(ED162),"",ED162))</f>
         <v/>
       </c>
-      <c r="AA162" s="788" t="str">
+      <c r="AA162" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CC162),"",CC162),IF(ISBLANK(EE162),"",EE162))</f>
         <v/>
       </c>
-      <c r="AB162" s="788" t="str">
+      <c r="AB162" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CD162),"",CD162),IF(ISBLANK(EF162),"",EF162))</f>
         <v/>
       </c>
-      <c r="AC162" s="733" t="str">
+      <c r="AC162" s="739" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE162),"",CE162),IF(ISBLANK(EG162),"",EG162))</f>
         <v>Other business</v>
       </c>
-      <c r="AD162" s="726" t="str">
+      <c r="AD162" s="732" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF162),"",CF162),IF(ISBLANK(EH162),"",EH162))</f>
         <v>Business
 Partner
 (BP)</v>
       </c>
       <c r="AE162" s="22"/>
-      <c r="AF162" s="728" t="str">
+      <c r="AF162" s="734" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH162),"",CH162),IF(ISBLANK(EJ162),"",EJ162))</f>
         <v>Regional Shared Service Center
 (RSSC)</v>
       </c>
-      <c r="AG162" s="728" t="str">
+      <c r="AG162" s="734" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI162),"",CI162),IF(ISBLANK(EK162),"",EK162))</f>
         <v>GHQ arm</v>
       </c>
       <c r="AH162" s="22"/>
-      <c r="AI162" s="742" t="str">
+      <c r="AI162" s="748" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK162),"",CK162),IF(ISBLANK(EM162),"",EM162))</f>
         <v>Global HQ
 (GHQ)</v>
@@ -31612,60 +31575,60 @@
       <c r="BE162" s="1"/>
       <c r="BF162" s="1"/>
       <c r="BG162" s="107"/>
-      <c r="BH162" s="713" t="s">
+      <c r="BH162" s="719" t="s">
         <v>43</v>
       </c>
-      <c r="BI162" s="765"/>
-      <c r="BJ162" s="733" t="s">
+      <c r="BI162" s="771"/>
+      <c r="BJ162" s="739" t="s">
         <v>42</v>
       </c>
-      <c r="BK162" s="723" t="s">
+      <c r="BK162" s="729" t="s">
         <v>44</v>
       </c>
-      <c r="BL162" s="736" t="s">
+      <c r="BL162" s="742" t="s">
         <v>45</v>
       </c>
-      <c r="BM162" s="713" t="s">
+      <c r="BM162" s="719" t="s">
         <v>46</v>
       </c>
-      <c r="BN162" s="714"/>
-      <c r="BO162" s="714"/>
-      <c r="BP162" s="714"/>
-      <c r="BQ162" s="723"/>
-      <c r="BR162" s="713" t="s">
+      <c r="BN162" s="720"/>
+      <c r="BO162" s="720"/>
+      <c r="BP162" s="720"/>
+      <c r="BQ162" s="729"/>
+      <c r="BR162" s="719" t="s">
         <v>47</v>
       </c>
-      <c r="BS162" s="714"/>
-      <c r="BT162" s="714"/>
-      <c r="BU162" s="714"/>
-      <c r="BV162" s="714"/>
-      <c r="BW162" s="713" t="s">
+      <c r="BS162" s="720"/>
+      <c r="BT162" s="720"/>
+      <c r="BU162" s="720"/>
+      <c r="BV162" s="720"/>
+      <c r="BW162" s="719" t="s">
         <v>48</v>
       </c>
-      <c r="BX162" s="714"/>
-      <c r="BY162" s="714"/>
-      <c r="BZ162" s="714"/>
-      <c r="CA162" s="717" t="s">
+      <c r="BX162" s="720"/>
+      <c r="BY162" s="720"/>
+      <c r="BZ162" s="720"/>
+      <c r="CA162" s="723" t="s">
         <v>49</v>
       </c>
-      <c r="CB162" s="718"/>
-      <c r="CC162" s="718"/>
-      <c r="CD162" s="719"/>
+      <c r="CB162" s="724"/>
+      <c r="CC162" s="724"/>
+      <c r="CD162" s="725"/>
       <c r="CE162" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="CF162" s="762" t="s">
+      <c r="CF162" s="768" t="s">
         <v>51</v>
       </c>
       <c r="CG162" s="24"/>
-      <c r="CH162" s="728" t="s">
+      <c r="CH162" s="734" t="s">
         <v>52</v>
       </c>
-      <c r="CI162" s="728" t="s">
+      <c r="CI162" s="734" t="s">
         <v>53</v>
       </c>
       <c r="CJ162" s="24"/>
-      <c r="CK162" s="749" t="s">
+      <c r="CK162" s="755" t="s">
         <v>54</v>
       </c>
       <c r="CM162" s="2"/>
@@ -31678,60 +31641,60 @@
       <c r="DB162" s="1"/>
       <c r="DC162" s="1"/>
       <c r="DI162" s="107"/>
-      <c r="DJ162" s="713" t="s">
+      <c r="DJ162" s="719" t="s">
         <v>334</v>
       </c>
-      <c r="DK162" s="765"/>
-      <c r="DL162" s="733" t="s">
+      <c r="DK162" s="771"/>
+      <c r="DL162" s="739" t="s">
         <v>42</v>
       </c>
-      <c r="DM162" s="723" t="s">
+      <c r="DM162" s="729" t="s">
         <v>335</v>
       </c>
-      <c r="DN162" s="736" t="s">
+      <c r="DN162" s="742" t="s">
         <v>336</v>
       </c>
-      <c r="DO162" s="713" t="s">
+      <c r="DO162" s="719" t="s">
         <v>337</v>
       </c>
-      <c r="DP162" s="714"/>
-      <c r="DQ162" s="714"/>
-      <c r="DR162" s="714"/>
-      <c r="DS162" s="723"/>
-      <c r="DT162" s="713" t="s">
+      <c r="DP162" s="720"/>
+      <c r="DQ162" s="720"/>
+      <c r="DR162" s="720"/>
+      <c r="DS162" s="729"/>
+      <c r="DT162" s="719" t="s">
         <v>338</v>
       </c>
-      <c r="DU162" s="714"/>
-      <c r="DV162" s="714"/>
-      <c r="DW162" s="714"/>
-      <c r="DX162" s="714"/>
-      <c r="DY162" s="713" t="s">
+      <c r="DU162" s="720"/>
+      <c r="DV162" s="720"/>
+      <c r="DW162" s="720"/>
+      <c r="DX162" s="720"/>
+      <c r="DY162" s="719" t="s">
         <v>339</v>
       </c>
-      <c r="DZ162" s="714"/>
-      <c r="EA162" s="714"/>
-      <c r="EB162" s="723"/>
-      <c r="EC162" s="713" t="s">
+      <c r="DZ162" s="720"/>
+      <c r="EA162" s="720"/>
+      <c r="EB162" s="729"/>
+      <c r="EC162" s="719" t="s">
         <v>340</v>
       </c>
-      <c r="ED162" s="714"/>
-      <c r="EE162" s="758"/>
-      <c r="EF162" s="759"/>
-      <c r="EG162" s="733" t="s">
+      <c r="ED162" s="720"/>
+      <c r="EE162" s="764"/>
+      <c r="EF162" s="765"/>
+      <c r="EG162" s="739" t="s">
         <v>341</v>
       </c>
-      <c r="EH162" s="762" t="s">
+      <c r="EH162" s="768" t="s">
         <v>288</v>
       </c>
       <c r="EI162" s="24"/>
-      <c r="EJ162" s="728" t="s">
+      <c r="EJ162" s="734" t="s">
         <v>52</v>
       </c>
-      <c r="EK162" s="728" t="s">
+      <c r="EK162" s="734" t="s">
         <v>53</v>
       </c>
       <c r="EL162" s="24"/>
-      <c r="EM162" s="749" t="s">
+      <c r="EM162" s="755" t="s">
         <v>54</v>
       </c>
       <c r="EP162" s="2"/>
@@ -31741,111 +31704,111 @@
     </row>
     <row r="163" spans="1:151" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="E163" s="115"/>
-      <c r="F163" s="784" t="str">
+      <c r="F163" s="790" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH163),"",BH163),IF(ISBLANK(DJ163),"",DJ163))</f>
         <v/>
       </c>
-      <c r="G163" s="784" t="str">
+      <c r="G163" s="790" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI163),"",BI163),IF(ISBLANK(DK163),"",DK163))</f>
         <v/>
       </c>
-      <c r="H163" s="734"/>
-      <c r="I163" s="786" t="str">
+      <c r="H163" s="740"/>
+      <c r="I163" s="792" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK163),"",BK163),IF(ISBLANK(DM163),"",DM163))</f>
         <v/>
       </c>
-      <c r="J163" s="795"/>
-      <c r="K163" s="741" t="str">
+      <c r="J163" s="801"/>
+      <c r="K163" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM163),"",BM163),IF(ISBLANK(DO163),"",DO163))</f>
         <v/>
       </c>
-      <c r="L163" s="741" t="str">
+      <c r="L163" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN163),"",BN163),IF(ISBLANK(DP163),"",DP163))</f>
         <v/>
       </c>
-      <c r="M163" s="741" t="str">
+      <c r="M163" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BO163),"",BO163),IF(ISBLANK(DQ163),"",DQ163))</f>
         <v/>
       </c>
-      <c r="N163" s="741" t="str">
+      <c r="N163" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BP163),"",BP163),IF(ISBLANK(DR163),"",DR163))</f>
         <v/>
       </c>
-      <c r="O163" s="741" t="str">
+      <c r="O163" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BQ163),"",BQ163),IF(ISBLANK(DS163),"",DS163))</f>
         <v/>
       </c>
-      <c r="P163" s="741" t="str">
+      <c r="P163" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BR163),"",BR163),IF(ISBLANK(DT163),"",DT163))</f>
         <v/>
       </c>
-      <c r="Q163" s="741" t="str">
+      <c r="Q163" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BS163),"",BS163),IF(ISBLANK(DU163),"",DU163))</f>
         <v/>
       </c>
-      <c r="R163" s="741" t="str">
+      <c r="R163" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BT163),"",BT163),IF(ISBLANK(DV163),"",DV163))</f>
         <v/>
       </c>
-      <c r="S163" s="741" t="str">
+      <c r="S163" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BU163),"",BU163),IF(ISBLANK(DW163),"",DW163))</f>
         <v/>
       </c>
-      <c r="T163" s="741" t="str">
+      <c r="T163" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BV163),"",BV163),IF(ISBLANK(DX163),"",DX163))</f>
         <v/>
       </c>
-      <c r="U163" s="741" t="str">
+      <c r="U163" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BW163),"",BW163),IF(ISBLANK(DY163),"",DY163))</f>
         <v/>
       </c>
-      <c r="V163" s="741" t="str">
+      <c r="V163" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BX163),"",BX163),IF(ISBLANK(DZ163),"",DZ163))</f>
         <v/>
       </c>
-      <c r="W163" s="741" t="str">
+      <c r="W163" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BY163),"",BY163),IF(ISBLANK(EA163),"",EA163))</f>
         <v/>
       </c>
-      <c r="X163" s="741" t="str">
+      <c r="X163" s="747" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BZ163),"",BZ163),IF(ISBLANK(EB163),"",EB163))</f>
         <v/>
       </c>
-      <c r="Y163" s="789" t="str">
+      <c r="Y163" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CA163),"",CA163),IF(ISBLANK(EC163),"",EC163))</f>
         <v/>
       </c>
-      <c r="Z163" s="789" t="str">
+      <c r="Z163" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CB163),"",CB163),IF(ISBLANK(ED163),"",ED163))</f>
         <v/>
       </c>
-      <c r="AA163" s="789" t="str">
+      <c r="AA163" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CC163),"",CC163),IF(ISBLANK(EE163),"",EE163))</f>
         <v/>
       </c>
-      <c r="AB163" s="789" t="str">
+      <c r="AB163" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CD163),"",CD163),IF(ISBLANK(EF163),"",EF163))</f>
         <v/>
       </c>
-      <c r="AC163" s="786" t="str">
+      <c r="AC163" s="792" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE163),"",CE163),IF(ISBLANK(EG163),"",EG163))</f>
         <v/>
       </c>
-      <c r="AD163" s="790" t="str">
+      <c r="AD163" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF163),"",CF163),IF(ISBLANK(EH163),"",EH163))</f>
         <v/>
       </c>
       <c r="AE163" s="26"/>
-      <c r="AF163" s="729" t="str">
+      <c r="AF163" s="735" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH163),"",CH163),IF(ISBLANK(EJ163),"",EJ163))</f>
         <v/>
       </c>
-      <c r="AG163" s="729" t="str">
+      <c r="AG163" s="735" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI163),"",CI163),IF(ISBLANK(EK163),"",EK163))</f>
         <v/>
       </c>
       <c r="AH163" s="26"/>
-      <c r="AI163" s="743" t="str">
+      <c r="AI163" s="749" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK163),"",CK163),IF(ISBLANK(EM163),"",EM163))</f>
         <v/>
       </c>
@@ -31853,36 +31816,36 @@
       <c r="BE163" s="1"/>
       <c r="BF163" s="1"/>
       <c r="BG163" s="107"/>
-      <c r="BH163" s="766"/>
-      <c r="BI163" s="767"/>
-      <c r="BJ163" s="734"/>
-      <c r="BK163" s="724"/>
-      <c r="BL163" s="737"/>
-      <c r="BM163" s="715"/>
-      <c r="BN163" s="716"/>
-      <c r="BO163" s="716"/>
-      <c r="BP163" s="716"/>
-      <c r="BQ163" s="739"/>
-      <c r="BR163" s="715"/>
-      <c r="BS163" s="716"/>
-      <c r="BT163" s="716"/>
-      <c r="BU163" s="716"/>
-      <c r="BV163" s="716"/>
-      <c r="BW163" s="715"/>
-      <c r="BX163" s="716"/>
-      <c r="BY163" s="716"/>
-      <c r="BZ163" s="716"/>
-      <c r="CA163" s="720"/>
-      <c r="CB163" s="721"/>
-      <c r="CC163" s="721"/>
-      <c r="CD163" s="722"/>
+      <c r="BH163" s="772"/>
+      <c r="BI163" s="773"/>
+      <c r="BJ163" s="740"/>
+      <c r="BK163" s="730"/>
+      <c r="BL163" s="743"/>
+      <c r="BM163" s="721"/>
+      <c r="BN163" s="722"/>
+      <c r="BO163" s="722"/>
+      <c r="BP163" s="722"/>
+      <c r="BQ163" s="745"/>
+      <c r="BR163" s="721"/>
+      <c r="BS163" s="722"/>
+      <c r="BT163" s="722"/>
+      <c r="BU163" s="722"/>
+      <c r="BV163" s="722"/>
+      <c r="BW163" s="721"/>
+      <c r="BX163" s="722"/>
+      <c r="BY163" s="722"/>
+      <c r="BZ163" s="722"/>
+      <c r="CA163" s="726"/>
+      <c r="CB163" s="727"/>
+      <c r="CC163" s="727"/>
+      <c r="CD163" s="728"/>
       <c r="CE163" s="211"/>
-      <c r="CF163" s="763"/>
+      <c r="CF163" s="769"/>
       <c r="CG163" s="212"/>
-      <c r="CH163" s="729"/>
-      <c r="CI163" s="729"/>
+      <c r="CH163" s="735"/>
+      <c r="CI163" s="735"/>
       <c r="CJ163" s="212"/>
-      <c r="CK163" s="750"/>
+      <c r="CK163" s="756"/>
       <c r="CM163" s="2"/>
       <c r="CN163" s="2"/>
       <c r="CO163" s="2"/>
@@ -31893,36 +31856,36 @@
       <c r="DB163" s="1"/>
       <c r="DC163" s="1"/>
       <c r="DI163" s="107"/>
-      <c r="DJ163" s="766"/>
-      <c r="DK163" s="767"/>
-      <c r="DL163" s="734"/>
-      <c r="DM163" s="724"/>
-      <c r="DN163" s="737"/>
-      <c r="DO163" s="715"/>
-      <c r="DP163" s="716"/>
-      <c r="DQ163" s="716"/>
-      <c r="DR163" s="716"/>
-      <c r="DS163" s="739"/>
-      <c r="DT163" s="715"/>
-      <c r="DU163" s="716"/>
-      <c r="DV163" s="716"/>
-      <c r="DW163" s="716"/>
-      <c r="DX163" s="716"/>
-      <c r="DY163" s="715"/>
-      <c r="DZ163" s="716"/>
-      <c r="EA163" s="716"/>
-      <c r="EB163" s="739"/>
-      <c r="EC163" s="760"/>
-      <c r="ED163" s="761"/>
-      <c r="EE163" s="761"/>
-      <c r="EF163" s="725"/>
-      <c r="EG163" s="740"/>
-      <c r="EH163" s="763"/>
+      <c r="DJ163" s="772"/>
+      <c r="DK163" s="773"/>
+      <c r="DL163" s="740"/>
+      <c r="DM163" s="730"/>
+      <c r="DN163" s="743"/>
+      <c r="DO163" s="721"/>
+      <c r="DP163" s="722"/>
+      <c r="DQ163" s="722"/>
+      <c r="DR163" s="722"/>
+      <c r="DS163" s="745"/>
+      <c r="DT163" s="721"/>
+      <c r="DU163" s="722"/>
+      <c r="DV163" s="722"/>
+      <c r="DW163" s="722"/>
+      <c r="DX163" s="722"/>
+      <c r="DY163" s="721"/>
+      <c r="DZ163" s="722"/>
+      <c r="EA163" s="722"/>
+      <c r="EB163" s="745"/>
+      <c r="EC163" s="766"/>
+      <c r="ED163" s="767"/>
+      <c r="EE163" s="767"/>
+      <c r="EF163" s="731"/>
+      <c r="EG163" s="746"/>
+      <c r="EH163" s="769"/>
       <c r="EI163" s="212"/>
-      <c r="EJ163" s="729"/>
-      <c r="EK163" s="729"/>
+      <c r="EJ163" s="735"/>
+      <c r="EK163" s="735"/>
       <c r="EL163" s="212"/>
-      <c r="EM163" s="750"/>
+      <c r="EM163" s="756"/>
       <c r="EP163" s="2"/>
       <c r="EQ163" s="2"/>
       <c r="ER163" s="2"/>
@@ -31930,20 +31893,20 @@
     </row>
     <row r="164" spans="1:151" customFormat="1" ht="42" hidden="1" customHeight="1">
       <c r="E164" s="115"/>
-      <c r="F164" s="785" t="str">
+      <c r="F164" s="791" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH164),"",BH164),IF(ISBLANK(DJ164),"",DJ164))</f>
         <v/>
       </c>
-      <c r="G164" s="785" t="str">
+      <c r="G164" s="791" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI164),"",BI164),IF(ISBLANK(DK164),"",DK164))</f>
         <v/>
       </c>
-      <c r="H164" s="735"/>
-      <c r="I164" s="787" t="str">
+      <c r="H164" s="741"/>
+      <c r="I164" s="793" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK164),"",BK164),IF(ISBLANK(DM164),"",DM164))</f>
         <v/>
       </c>
-      <c r="J164" s="796"/>
+      <c r="J164" s="802"/>
       <c r="K164" s="23" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM164),"",BM164),IF(ISBLANK(DO164),"",DO164))</f>
         <v>AFF Total</v>
@@ -32001,25 +31964,25 @@
         <v>Land 
 Transport</v>
       </c>
-      <c r="AC164" s="787" t="str">
+      <c r="AC164" s="793" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE164),"",CE164),IF(ISBLANK(EG164),"",EG164))</f>
         <v/>
       </c>
-      <c r="AD164" s="790" t="str">
+      <c r="AD164" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF164),"",CF164),IF(ISBLANK(EH164),"",EH164))</f>
         <v/>
       </c>
       <c r="AE164" s="26"/>
-      <c r="AF164" s="730" t="str">
+      <c r="AF164" s="736" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH164),"",CH164),IF(ISBLANK(EJ164),"",EJ164))</f>
         <v/>
       </c>
-      <c r="AG164" s="730" t="str">
+      <c r="AG164" s="736" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI164),"",CI164),IF(ISBLANK(EK164),"",EK164))</f>
         <v/>
       </c>
       <c r="AH164" s="26"/>
-      <c r="AI164" s="743" t="str">
+      <c r="AI164" s="749" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK164),"",CK164),IF(ISBLANK(EM164),"",EM164))</f>
         <v/>
       </c>
@@ -32027,11 +31990,11 @@
       <c r="BE164" s="1"/>
       <c r="BF164" s="1"/>
       <c r="BG164" s="107"/>
-      <c r="BH164" s="768"/>
-      <c r="BI164" s="767"/>
-      <c r="BJ164" s="735"/>
-      <c r="BK164" s="725"/>
-      <c r="BL164" s="738"/>
+      <c r="BH164" s="774"/>
+      <c r="BI164" s="773"/>
+      <c r="BJ164" s="741"/>
+      <c r="BK164" s="731"/>
+      <c r="BL164" s="744"/>
       <c r="BM164" s="23" t="s">
         <v>58</v>
       </c>
@@ -32087,12 +32050,12 @@
         <v>72</v>
       </c>
       <c r="CE164" s="211"/>
-      <c r="CF164" s="764"/>
+      <c r="CF164" s="770"/>
       <c r="CG164" s="212"/>
-      <c r="CH164" s="730"/>
-      <c r="CI164" s="730"/>
+      <c r="CH164" s="736"/>
+      <c r="CI164" s="736"/>
       <c r="CJ164" s="212"/>
-      <c r="CK164" s="751"/>
+      <c r="CK164" s="757"/>
       <c r="CM164" s="2"/>
       <c r="CN164" s="2"/>
       <c r="CO164" s="2"/>
@@ -32103,11 +32066,11 @@
       <c r="DB164" s="1"/>
       <c r="DC164" s="1"/>
       <c r="DI164" s="107"/>
-      <c r="DJ164" s="768"/>
-      <c r="DK164" s="767"/>
-      <c r="DL164" s="735"/>
-      <c r="DM164" s="725"/>
-      <c r="DN164" s="738"/>
+      <c r="DJ164" s="774"/>
+      <c r="DK164" s="773"/>
+      <c r="DL164" s="741"/>
+      <c r="DM164" s="731"/>
+      <c r="DN164" s="744"/>
       <c r="DO164" s="23" t="s">
         <v>342</v>
       </c>
@@ -32162,13 +32125,13 @@
       <c r="EF164" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="EG164" s="741"/>
-      <c r="EH164" s="764"/>
+      <c r="EG164" s="747"/>
+      <c r="EH164" s="770"/>
       <c r="EI164" s="212"/>
-      <c r="EJ164" s="730"/>
-      <c r="EK164" s="730"/>
+      <c r="EJ164" s="736"/>
+      <c r="EK164" s="736"/>
       <c r="EL164" s="212"/>
-      <c r="EM164" s="751"/>
+      <c r="EM164" s="757"/>
       <c r="EP164" s="2"/>
       <c r="EQ164" s="2"/>
       <c r="ER164" s="2"/>
@@ -32179,11 +32142,11 @@
         <v>372</v>
       </c>
       <c r="E165" s="115"/>
-      <c r="F165" s="797" t="str">
+      <c r="F165" s="803" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH165),"",BH165),IF(ISBLANK(DJ165),"",DJ165))</f>
         <v>&lt;For YLJP only&gt;</v>
       </c>
-      <c r="G165" s="797" t="str">
+      <c r="G165" s="803" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI165),"",BI165),IF(ISBLANK(DK165),"",DK165))</f>
         <v/>
       </c>
@@ -32330,11 +32293,11 @@
         <v>376</v>
       </c>
       <c r="E166" s="115"/>
-      <c r="F166" s="798" t="str">
+      <c r="F166" s="804" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH166),"",BH166),IF(ISBLANK(DJ166),"",DJ166))</f>
         <v>&lt;For YLJP only&gt;</v>
       </c>
-      <c r="G166" s="798" t="str">
+      <c r="G166" s="804" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI166),"",BI166),IF(ISBLANK(DK166),"",DK166))</f>
         <v/>
       </c>
@@ -32484,11 +32447,11 @@
         <v>379</v>
       </c>
       <c r="E167" s="115"/>
-      <c r="F167" s="799" t="str">
+      <c r="F167" s="805" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH167),"",BH167),IF(ISBLANK(DJ167),"",DJ167))</f>
         <v>&lt;For YLJP only&gt;</v>
       </c>
-      <c r="G167" s="799" t="str">
+      <c r="G167" s="805" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI167),"",BI167),IF(ISBLANK(DK167),"",DK167))</f>
         <v/>
       </c>
@@ -33068,71 +33031,71 @@
       <c r="EO175" s="1"/>
     </row>
     <row r="176" spans="1:151" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="AK176" s="803" t="s">
+      <c r="AK176" s="809" t="s">
         <v>550</v>
       </c>
-      <c r="AL176" s="803" t="s">
+      <c r="AL176" s="809" t="s">
         <v>551</v>
       </c>
-      <c r="AM176" s="806" t="s">
+      <c r="AM176" s="812" t="s">
         <v>552</v>
       </c>
       <c r="AO176" s="2"/>
-      <c r="AQ176" s="809" t="s">
+      <c r="AQ176" s="815" t="s">
         <v>553</v>
       </c>
-      <c r="AR176" s="812" t="s">
+      <c r="AR176" s="818" t="s">
         <v>554</v>
       </c>
-      <c r="AS176" s="762" t="s">
+      <c r="AS176" s="768" t="s">
         <v>552</v>
       </c>
       <c r="AT176" s="133"/>
-      <c r="AV176" s="800" t="s">
+      <c r="AV176" s="806" t="s">
         <v>553</v>
       </c>
-      <c r="AW176" s="803" t="s">
+      <c r="AW176" s="809" t="s">
         <v>551</v>
       </c>
-      <c r="AX176" s="762" t="s">
+      <c r="AX176" s="768" t="s">
         <v>552</v>
       </c>
       <c r="AY176" s="134"/>
-      <c r="BA176" s="800" t="s">
+      <c r="BA176" s="806" t="s">
         <v>553</v>
       </c>
-      <c r="BB176" s="803" t="s">
+      <c r="BB176" s="809" t="s">
         <v>551</v>
       </c>
-      <c r="BC176" s="762" t="s">
+      <c r="BC176" s="768" t="s">
         <v>552</v>
       </c>
       <c r="BD176" s="134"/>
-      <c r="BF176" s="800" t="s">
+      <c r="BF176" s="806" t="s">
         <v>553</v>
       </c>
-      <c r="BG176" s="803" t="s">
+      <c r="BG176" s="809" t="s">
         <v>551</v>
       </c>
-      <c r="BH176" s="762"/>
+      <c r="BH176" s="768"/>
       <c r="BI176" s="134"/>
-      <c r="BK176" s="800" t="s">
+      <c r="BK176" s="806" t="s">
         <v>553</v>
       </c>
-      <c r="BL176" s="803" t="s">
+      <c r="BL176" s="809" t="s">
         <v>551</v>
       </c>
-      <c r="BM176" s="762" t="s">
+      <c r="BM176" s="768" t="s">
         <v>552</v>
       </c>
       <c r="BN176" s="134"/>
-      <c r="BP176" s="800" t="s">
+      <c r="BP176" s="806" t="s">
         <v>553</v>
       </c>
-      <c r="BQ176" s="803" t="s">
+      <c r="BQ176" s="809" t="s">
         <v>551</v>
       </c>
-      <c r="BR176" s="762" t="s">
+      <c r="BR176" s="768" t="s">
         <v>552</v>
       </c>
       <c r="BS176" s="134"/>
@@ -33178,33 +33141,33 @@
       <c r="EO176" s="1"/>
     </row>
     <row r="177" spans="37:145" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="AK177" s="804"/>
-      <c r="AL177" s="804"/>
-      <c r="AM177" s="807"/>
+      <c r="AK177" s="810"/>
+      <c r="AL177" s="810"/>
+      <c r="AM177" s="813"/>
       <c r="AO177" s="2"/>
-      <c r="AQ177" s="810"/>
-      <c r="AR177" s="813"/>
-      <c r="AS177" s="763"/>
+      <c r="AQ177" s="816"/>
+      <c r="AR177" s="819"/>
+      <c r="AS177" s="769"/>
       <c r="AT177" s="133"/>
-      <c r="AV177" s="801"/>
-      <c r="AW177" s="804"/>
-      <c r="AX177" s="763"/>
+      <c r="AV177" s="807"/>
+      <c r="AW177" s="810"/>
+      <c r="AX177" s="769"/>
       <c r="AY177" s="134"/>
-      <c r="BA177" s="801"/>
-      <c r="BB177" s="804"/>
-      <c r="BC177" s="763"/>
+      <c r="BA177" s="807"/>
+      <c r="BB177" s="810"/>
+      <c r="BC177" s="769"/>
       <c r="BD177" s="134"/>
-      <c r="BF177" s="801"/>
-      <c r="BG177" s="804"/>
-      <c r="BH177" s="763"/>
+      <c r="BF177" s="807"/>
+      <c r="BG177" s="810"/>
+      <c r="BH177" s="769"/>
       <c r="BI177" s="134"/>
-      <c r="BK177" s="801"/>
-      <c r="BL177" s="804"/>
-      <c r="BM177" s="763"/>
+      <c r="BK177" s="807"/>
+      <c r="BL177" s="810"/>
+      <c r="BM177" s="769"/>
       <c r="BN177" s="134"/>
-      <c r="BP177" s="801"/>
-      <c r="BQ177" s="804"/>
-      <c r="BR177" s="763"/>
+      <c r="BP177" s="807"/>
+      <c r="BQ177" s="810"/>
+      <c r="BR177" s="769"/>
       <c r="BS177" s="134"/>
       <c r="BU177" s="1"/>
       <c r="BV177" s="1"/>
@@ -33242,35 +33205,35 @@
       <c r="EO177" s="1"/>
     </row>
     <row r="178" spans="37:145" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="AK178" s="805"/>
-      <c r="AL178" s="805"/>
-      <c r="AM178" s="808"/>
+      <c r="AK178" s="811"/>
+      <c r="AL178" s="811"/>
+      <c r="AM178" s="814"/>
       <c r="AO178" s="2"/>
-      <c r="AQ178" s="811"/>
-      <c r="AR178" s="814"/>
-      <c r="AS178" s="764"/>
+      <c r="AQ178" s="817"/>
+      <c r="AR178" s="820"/>
+      <c r="AS178" s="770"/>
       <c r="AT178" s="133"/>
-      <c r="AV178" s="802"/>
-      <c r="AW178" s="805"/>
-      <c r="AX178" s="764"/>
+      <c r="AV178" s="808"/>
+      <c r="AW178" s="811"/>
+      <c r="AX178" s="770"/>
       <c r="AY178" s="134"/>
-      <c r="BA178" s="802"/>
-      <c r="BB178" s="805"/>
-      <c r="BC178" s="764"/>
+      <c r="BA178" s="808"/>
+      <c r="BB178" s="811"/>
+      <c r="BC178" s="770"/>
       <c r="BD178" s="134"/>
-      <c r="BF178" s="802"/>
-      <c r="BG178" s="805"/>
-      <c r="BH178" s="764"/>
+      <c r="BF178" s="808"/>
+      <c r="BG178" s="811"/>
+      <c r="BH178" s="770"/>
       <c r="BI178" s="134"/>
-      <c r="BK178" s="802"/>
-      <c r="BL178" s="805"/>
-      <c r="BM178" s="764"/>
+      <c r="BK178" s="808"/>
+      <c r="BL178" s="811"/>
+      <c r="BM178" s="770"/>
       <c r="BN178" s="134"/>
-      <c r="BP178" s="802"/>
-      <c r="BQ178" s="805"/>
-      <c r="BR178" s="764"/>
+      <c r="BP178" s="808"/>
+      <c r="BQ178" s="811"/>
+      <c r="BR178" s="770"/>
       <c r="BS178" s="134"/>
-      <c r="BT178" s="815"/>
+      <c r="BT178" s="821"/>
       <c r="BU178" s="562" t="s">
         <v>556</v>
       </c>
@@ -33289,12 +33252,12 @@
       <c r="BZ178" s="562" t="s">
         <v>560</v>
       </c>
-      <c r="CA178" s="816" t="s">
+      <c r="CA178" s="822" t="s">
         <v>561</v>
       </c>
-      <c r="CB178" s="816"/>
-      <c r="CC178" s="816"/>
-      <c r="CD178" s="816"/>
+      <c r="CB178" s="822"/>
+      <c r="CC178" s="822"/>
+      <c r="CD178" s="822"/>
       <c r="CE178" s="2"/>
       <c r="CF178" s="2"/>
       <c r="CG178" s="563"/>
@@ -33352,7 +33315,7 @@
       <c r="BQ179" s="135"/>
       <c r="BR179" s="564"/>
       <c r="BS179" s="134"/>
-      <c r="BT179" s="815"/>
+      <c r="BT179" s="821"/>
       <c r="BU179" s="565" t="s">
         <v>562</v>
       </c>
@@ -33369,12 +33332,12 @@
         <v>383</v>
       </c>
       <c r="BZ179" s="562"/>
-      <c r="CA179" s="817" t="s">
+      <c r="CA179" s="823" t="s">
         <v>564</v>
       </c>
-      <c r="CB179" s="818"/>
-      <c r="CC179" s="818"/>
-      <c r="CD179" s="819"/>
+      <c r="CB179" s="824"/>
+      <c r="CC179" s="824"/>
+      <c r="CD179" s="825"/>
       <c r="CE179" s="2"/>
       <c r="CF179" s="2"/>
       <c r="CG179" s="563"/>
@@ -33432,7 +33395,7 @@
       <c r="BQ180" s="139"/>
       <c r="BR180" s="566"/>
       <c r="BS180" s="134"/>
-      <c r="BT180" s="815"/>
+      <c r="BT180" s="821"/>
       <c r="BU180" s="565" t="s">
         <v>562</v>
       </c>
@@ -33449,12 +33412,12 @@
         <v>26</v>
       </c>
       <c r="BZ180" s="562"/>
-      <c r="CA180" s="817" t="s">
+      <c r="CA180" s="823" t="s">
         <v>565</v>
       </c>
-      <c r="CB180" s="818"/>
-      <c r="CC180" s="818"/>
-      <c r="CD180" s="819"/>
+      <c r="CB180" s="824"/>
+      <c r="CC180" s="824"/>
+      <c r="CD180" s="825"/>
       <c r="CE180" s="2"/>
       <c r="CF180" s="2"/>
       <c r="CG180" s="563"/>
@@ -33562,12 +33525,12 @@
       <c r="BZ181" s="562" t="s">
         <v>384</v>
       </c>
-      <c r="CA181" s="817" t="s">
+      <c r="CA181" s="823" t="s">
         <v>568</v>
       </c>
-      <c r="CB181" s="818"/>
-      <c r="CC181" s="818"/>
-      <c r="CD181" s="819"/>
+      <c r="CB181" s="824"/>
+      <c r="CC181" s="824"/>
+      <c r="CD181" s="825"/>
       <c r="CE181" s="2"/>
       <c r="CF181" s="2"/>
       <c r="CG181" s="563"/>
@@ -33641,12 +33604,12 @@
       <c r="BZ182" s="562" t="s">
         <v>385</v>
       </c>
-      <c r="CA182" s="817" t="s">
+      <c r="CA182" s="823" t="s">
         <v>569</v>
       </c>
-      <c r="CB182" s="818"/>
-      <c r="CC182" s="818"/>
-      <c r="CD182" s="819"/>
+      <c r="CB182" s="824"/>
+      <c r="CC182" s="824"/>
+      <c r="CD182" s="825"/>
       <c r="CE182" s="2"/>
       <c r="CF182" s="2"/>
       <c r="CG182" s="563"/>
@@ -33720,12 +33683,12 @@
       <c r="BZ183" s="562" t="s">
         <v>386</v>
       </c>
-      <c r="CA183" s="817" t="s">
+      <c r="CA183" s="823" t="s">
         <v>570</v>
       </c>
-      <c r="CB183" s="818"/>
-      <c r="CC183" s="818"/>
-      <c r="CD183" s="819"/>
+      <c r="CB183" s="824"/>
+      <c r="CC183" s="824"/>
+      <c r="CD183" s="825"/>
       <c r="CE183" s="2"/>
       <c r="CF183" s="2"/>
       <c r="CG183" s="563"/>
@@ -33799,12 +33762,12 @@
       <c r="BZ184" s="562" t="s">
         <v>268</v>
       </c>
-      <c r="CA184" s="817" t="s">
+      <c r="CA184" s="823" t="s">
         <v>571</v>
       </c>
-      <c r="CB184" s="818"/>
-      <c r="CC184" s="818"/>
-      <c r="CD184" s="819"/>
+      <c r="CB184" s="824"/>
+      <c r="CC184" s="824"/>
+      <c r="CD184" s="825"/>
       <c r="CE184" s="2"/>
       <c r="CF184" s="2"/>
       <c r="CG184" s="563"/>
@@ -33870,10 +33833,10 @@
       <c r="BZ185" s="573" t="s">
         <v>387</v>
       </c>
-      <c r="CA185" s="822"/>
-      <c r="CB185" s="823"/>
-      <c r="CC185" s="823"/>
-      <c r="CD185" s="824"/>
+      <c r="CA185" s="828"/>
+      <c r="CB185" s="829"/>
+      <c r="CC185" s="829"/>
+      <c r="CD185" s="830"/>
       <c r="CE185" s="2"/>
       <c r="CF185" s="2"/>
       <c r="CG185" s="563"/>
@@ -33947,12 +33910,12 @@
       <c r="BZ186" s="575" t="s">
         <v>572</v>
       </c>
-      <c r="CA186" s="825" t="s">
+      <c r="CA186" s="831" t="s">
         <v>573</v>
       </c>
-      <c r="CB186" s="815"/>
-      <c r="CC186" s="815"/>
-      <c r="CD186" s="826"/>
+      <c r="CB186" s="821"/>
+      <c r="CC186" s="821"/>
+      <c r="CD186" s="832"/>
       <c r="CE186" s="2"/>
       <c r="CF186" s="2"/>
       <c r="CG186" s="563"/>
@@ -34018,10 +33981,10 @@
       <c r="BZ187" s="578" t="s">
         <v>388</v>
       </c>
-      <c r="CA187" s="827"/>
-      <c r="CB187" s="828"/>
-      <c r="CC187" s="828"/>
-      <c r="CD187" s="829"/>
+      <c r="CA187" s="833"/>
+      <c r="CB187" s="834"/>
+      <c r="CC187" s="834"/>
+      <c r="CD187" s="835"/>
       <c r="CE187" s="2"/>
       <c r="CF187" s="2"/>
       <c r="CG187" s="563"/>
@@ -34085,10 +34048,10 @@
       <c r="BX188" s="562"/>
       <c r="BY188" s="562"/>
       <c r="BZ188" s="562"/>
-      <c r="CA188" s="817"/>
-      <c r="CB188" s="818"/>
-      <c r="CC188" s="818"/>
-      <c r="CD188" s="819"/>
+      <c r="CA188" s="823"/>
+      <c r="CB188" s="824"/>
+      <c r="CC188" s="824"/>
+      <c r="CD188" s="825"/>
       <c r="CE188" s="2"/>
       <c r="CF188" s="2"/>
       <c r="CG188" s="563"/>
@@ -34152,10 +34115,10 @@
       <c r="BX189" s="562"/>
       <c r="BY189" s="562"/>
       <c r="BZ189" s="562"/>
-      <c r="CA189" s="817"/>
-      <c r="CB189" s="818"/>
-      <c r="CC189" s="818"/>
-      <c r="CD189" s="819"/>
+      <c r="CA189" s="823"/>
+      <c r="CB189" s="824"/>
+      <c r="CC189" s="824"/>
+      <c r="CD189" s="825"/>
       <c r="CE189" s="2"/>
       <c r="CF189" s="2"/>
       <c r="CG189" s="563"/>
@@ -34219,10 +34182,10 @@
       <c r="BX190" s="562"/>
       <c r="BY190" s="562"/>
       <c r="BZ190" s="562"/>
-      <c r="CA190" s="817"/>
-      <c r="CB190" s="818"/>
-      <c r="CC190" s="818"/>
-      <c r="CD190" s="819"/>
+      <c r="CA190" s="823"/>
+      <c r="CB190" s="824"/>
+      <c r="CC190" s="824"/>
+      <c r="CD190" s="825"/>
       <c r="CE190" s="2"/>
       <c r="CF190" s="2"/>
       <c r="CG190" s="563"/>
@@ -34286,10 +34249,10 @@
       <c r="BX191" s="562"/>
       <c r="BY191" s="562"/>
       <c r="BZ191" s="562"/>
-      <c r="CA191" s="817"/>
-      <c r="CB191" s="818"/>
-      <c r="CC191" s="818"/>
-      <c r="CD191" s="819"/>
+      <c r="CA191" s="823"/>
+      <c r="CB191" s="824"/>
+      <c r="CC191" s="824"/>
+      <c r="CD191" s="825"/>
       <c r="CE191" s="2"/>
       <c r="CF191" s="2"/>
       <c r="CG191" s="563"/>
@@ -38687,56 +38650,56 @@
       <c r="DJ243" s="1"/>
     </row>
     <row r="244" spans="37:118" customFormat="1" ht="13.5" customHeight="1">
-      <c r="AK244" s="815"/>
-      <c r="AL244" s="815"/>
-      <c r="AM244" s="820"/>
+      <c r="AK244" s="821"/>
+      <c r="AL244" s="821"/>
+      <c r="AM244" s="826"/>
       <c r="AO244" s="2"/>
-      <c r="AQ244" s="821"/>
-      <c r="AR244" s="821"/>
-      <c r="AS244" s="820"/>
+      <c r="AQ244" s="827"/>
+      <c r="AR244" s="827"/>
+      <c r="AS244" s="826"/>
       <c r="AT244" s="2"/>
-      <c r="AU244" s="815"/>
-      <c r="AV244" s="815"/>
-      <c r="AW244" s="820"/>
-      <c r="AX244" s="815"/>
-      <c r="AY244" s="815"/>
-      <c r="AZ244" s="820"/>
-      <c r="BB244" s="815"/>
-      <c r="BC244" s="815"/>
-      <c r="BD244" s="820"/>
-      <c r="BF244" s="815"/>
-      <c r="BG244" s="815"/>
-      <c r="BH244" s="820"/>
-      <c r="BI244" s="815"/>
-      <c r="BJ244" s="815"/>
-      <c r="BK244" s="820"/>
+      <c r="AU244" s="821"/>
+      <c r="AV244" s="821"/>
+      <c r="AW244" s="826"/>
+      <c r="AX244" s="821"/>
+      <c r="AY244" s="821"/>
+      <c r="AZ244" s="826"/>
+      <c r="BB244" s="821"/>
+      <c r="BC244" s="821"/>
+      <c r="BD244" s="826"/>
+      <c r="BF244" s="821"/>
+      <c r="BG244" s="821"/>
+      <c r="BH244" s="826"/>
+      <c r="BI244" s="821"/>
+      <c r="BJ244" s="821"/>
+      <c r="BK244" s="826"/>
       <c r="BL244" s="1"/>
-      <c r="BM244" s="815"/>
+      <c r="BM244" s="821"/>
       <c r="BN244" s="595"/>
-      <c r="BP244" s="815"/>
-      <c r="BQ244" s="815"/>
-      <c r="BR244" s="820"/>
-      <c r="BW244" s="820"/>
-      <c r="CB244" s="820"/>
-      <c r="CD244" s="815"/>
-      <c r="CE244" s="820"/>
-      <c r="CF244" s="815"/>
-      <c r="CG244" s="815"/>
-      <c r="CH244" s="820"/>
-      <c r="CI244" s="820"/>
-      <c r="CK244" s="815"/>
-      <c r="CL244" s="815"/>
+      <c r="BP244" s="821"/>
+      <c r="BQ244" s="821"/>
+      <c r="BR244" s="826"/>
+      <c r="BW244" s="826"/>
+      <c r="CB244" s="826"/>
+      <c r="CD244" s="821"/>
+      <c r="CE244" s="826"/>
+      <c r="CF244" s="821"/>
+      <c r="CG244" s="821"/>
+      <c r="CH244" s="826"/>
+      <c r="CI244" s="826"/>
+      <c r="CK244" s="821"/>
+      <c r="CL244" s="821"/>
       <c r="CM244" s="2"/>
-      <c r="CN244" s="815"/>
-      <c r="CO244" s="815"/>
-      <c r="CP244" s="820"/>
+      <c r="CN244" s="821"/>
+      <c r="CO244" s="821"/>
+      <c r="CP244" s="826"/>
       <c r="CQ244" s="2"/>
-      <c r="CR244" s="815"/>
-      <c r="CS244" s="815"/>
-      <c r="CT244" s="820"/>
-      <c r="CU244" s="815"/>
-      <c r="CV244" s="815"/>
-      <c r="CW244" s="820"/>
+      <c r="CR244" s="821"/>
+      <c r="CS244" s="821"/>
+      <c r="CT244" s="826"/>
+      <c r="CU244" s="821"/>
+      <c r="CV244" s="821"/>
+      <c r="CW244" s="826"/>
       <c r="CY244" s="1"/>
       <c r="CZ244" s="1"/>
       <c r="DA244" s="1"/>
@@ -38751,56 +38714,56 @@
       <c r="DJ244" s="1"/>
     </row>
     <row r="245" spans="37:118" customFormat="1" ht="13.5" customHeight="1">
-      <c r="AK245" s="815"/>
-      <c r="AL245" s="815"/>
-      <c r="AM245" s="772"/>
+      <c r="AK245" s="821"/>
+      <c r="AL245" s="821"/>
+      <c r="AM245" s="778"/>
       <c r="AO245" s="2"/>
-      <c r="AQ245" s="821"/>
-      <c r="AR245" s="821"/>
-      <c r="AS245" s="772"/>
+      <c r="AQ245" s="827"/>
+      <c r="AR245" s="827"/>
+      <c r="AS245" s="778"/>
       <c r="AT245" s="2"/>
-      <c r="AU245" s="815"/>
-      <c r="AV245" s="815"/>
-      <c r="AW245" s="772"/>
-      <c r="AX245" s="815"/>
-      <c r="AY245" s="815"/>
-      <c r="AZ245" s="772"/>
-      <c r="BB245" s="815"/>
-      <c r="BC245" s="815"/>
-      <c r="BD245" s="772"/>
-      <c r="BF245" s="815"/>
-      <c r="BG245" s="815"/>
-      <c r="BH245" s="772"/>
-      <c r="BI245" s="815"/>
-      <c r="BJ245" s="815"/>
-      <c r="BK245" s="772"/>
+      <c r="AU245" s="821"/>
+      <c r="AV245" s="821"/>
+      <c r="AW245" s="778"/>
+      <c r="AX245" s="821"/>
+      <c r="AY245" s="821"/>
+      <c r="AZ245" s="778"/>
+      <c r="BB245" s="821"/>
+      <c r="BC245" s="821"/>
+      <c r="BD245" s="778"/>
+      <c r="BF245" s="821"/>
+      <c r="BG245" s="821"/>
+      <c r="BH245" s="778"/>
+      <c r="BI245" s="821"/>
+      <c r="BJ245" s="821"/>
+      <c r="BK245" s="778"/>
       <c r="BL245" s="1"/>
-      <c r="BM245" s="815"/>
+      <c r="BM245" s="821"/>
       <c r="BN245" s="595"/>
-      <c r="BP245" s="815"/>
-      <c r="BQ245" s="815"/>
-      <c r="BR245" s="772"/>
-      <c r="BW245" s="820"/>
-      <c r="CB245" s="820"/>
-      <c r="CD245" s="815"/>
-      <c r="CE245" s="820"/>
-      <c r="CF245" s="815"/>
-      <c r="CG245" s="815"/>
-      <c r="CH245" s="772"/>
-      <c r="CI245" s="772"/>
-      <c r="CK245" s="815"/>
-      <c r="CL245" s="815"/>
+      <c r="BP245" s="821"/>
+      <c r="BQ245" s="821"/>
+      <c r="BR245" s="778"/>
+      <c r="BW245" s="826"/>
+      <c r="CB245" s="826"/>
+      <c r="CD245" s="821"/>
+      <c r="CE245" s="826"/>
+      <c r="CF245" s="821"/>
+      <c r="CG245" s="821"/>
+      <c r="CH245" s="778"/>
+      <c r="CI245" s="778"/>
+      <c r="CK245" s="821"/>
+      <c r="CL245" s="821"/>
       <c r="CM245" s="2"/>
-      <c r="CN245" s="815"/>
-      <c r="CO245" s="815"/>
-      <c r="CP245" s="772"/>
+      <c r="CN245" s="821"/>
+      <c r="CO245" s="821"/>
+      <c r="CP245" s="778"/>
       <c r="CQ245" s="2"/>
-      <c r="CR245" s="815"/>
-      <c r="CS245" s="815"/>
-      <c r="CT245" s="772"/>
-      <c r="CU245" s="815"/>
-      <c r="CV245" s="815"/>
-      <c r="CW245" s="772"/>
+      <c r="CR245" s="821"/>
+      <c r="CS245" s="821"/>
+      <c r="CT245" s="778"/>
+      <c r="CU245" s="821"/>
+      <c r="CV245" s="821"/>
+      <c r="CW245" s="778"/>
       <c r="CY245" s="1"/>
       <c r="CZ245" s="1"/>
       <c r="DA245" s="1"/>
@@ -38815,56 +38778,56 @@
       <c r="DJ245" s="1"/>
     </row>
     <row r="246" spans="37:118" customFormat="1" ht="13.5" customHeight="1">
-      <c r="AK246" s="815"/>
-      <c r="AL246" s="815"/>
-      <c r="AM246" s="772"/>
+      <c r="AK246" s="821"/>
+      <c r="AL246" s="821"/>
+      <c r="AM246" s="778"/>
       <c r="AO246" s="2"/>
-      <c r="AQ246" s="821"/>
-      <c r="AR246" s="821"/>
-      <c r="AS246" s="772"/>
+      <c r="AQ246" s="827"/>
+      <c r="AR246" s="827"/>
+      <c r="AS246" s="778"/>
       <c r="AT246" s="2"/>
-      <c r="AU246" s="815"/>
-      <c r="AV246" s="815"/>
-      <c r="AW246" s="772"/>
-      <c r="AX246" s="815"/>
-      <c r="AY246" s="815"/>
-      <c r="AZ246" s="772"/>
-      <c r="BB246" s="815"/>
-      <c r="BC246" s="815"/>
-      <c r="BD246" s="772"/>
-      <c r="BF246" s="815"/>
-      <c r="BG246" s="815"/>
-      <c r="BH246" s="772"/>
-      <c r="BI246" s="815"/>
-      <c r="BJ246" s="815"/>
-      <c r="BK246" s="772"/>
+      <c r="AU246" s="821"/>
+      <c r="AV246" s="821"/>
+      <c r="AW246" s="778"/>
+      <c r="AX246" s="821"/>
+      <c r="AY246" s="821"/>
+      <c r="AZ246" s="778"/>
+      <c r="BB246" s="821"/>
+      <c r="BC246" s="821"/>
+      <c r="BD246" s="778"/>
+      <c r="BF246" s="821"/>
+      <c r="BG246" s="821"/>
+      <c r="BH246" s="778"/>
+      <c r="BI246" s="821"/>
+      <c r="BJ246" s="821"/>
+      <c r="BK246" s="778"/>
       <c r="BL246" s="1"/>
-      <c r="BM246" s="815"/>
+      <c r="BM246" s="821"/>
       <c r="BN246" s="595"/>
-      <c r="BP246" s="815"/>
-      <c r="BQ246" s="815"/>
-      <c r="BR246" s="772"/>
-      <c r="BW246" s="820"/>
-      <c r="CB246" s="820"/>
-      <c r="CD246" s="815"/>
-      <c r="CE246" s="820"/>
-      <c r="CF246" s="815"/>
-      <c r="CG246" s="815"/>
-      <c r="CH246" s="772"/>
-      <c r="CI246" s="772"/>
-      <c r="CK246" s="815"/>
-      <c r="CL246" s="815"/>
+      <c r="BP246" s="821"/>
+      <c r="BQ246" s="821"/>
+      <c r="BR246" s="778"/>
+      <c r="BW246" s="826"/>
+      <c r="CB246" s="826"/>
+      <c r="CD246" s="821"/>
+      <c r="CE246" s="826"/>
+      <c r="CF246" s="821"/>
+      <c r="CG246" s="821"/>
+      <c r="CH246" s="778"/>
+      <c r="CI246" s="778"/>
+      <c r="CK246" s="821"/>
+      <c r="CL246" s="821"/>
       <c r="CM246" s="2"/>
-      <c r="CN246" s="815"/>
-      <c r="CO246" s="815"/>
-      <c r="CP246" s="772"/>
+      <c r="CN246" s="821"/>
+      <c r="CO246" s="821"/>
+      <c r="CP246" s="778"/>
       <c r="CQ246" s="2"/>
-      <c r="CR246" s="815"/>
-      <c r="CS246" s="815"/>
-      <c r="CT246" s="772"/>
-      <c r="CU246" s="815"/>
-      <c r="CV246" s="815"/>
-      <c r="CW246" s="772"/>
+      <c r="CR246" s="821"/>
+      <c r="CS246" s="821"/>
+      <c r="CT246" s="778"/>
+      <c r="CU246" s="821"/>
+      <c r="CV246" s="821"/>
+      <c r="CW246" s="778"/>
       <c r="CY246" s="1"/>
       <c r="CZ246" s="1"/>
       <c r="DA246" s="1"/>
@@ -41120,352 +41083,352 @@
     <mergeCell ref="P18:T19"/>
   </mergeCells>
   <conditionalFormatting sqref="F117:F118">
-    <cfRule type="expression" dxfId="84" priority="1">
+    <cfRule type="expression" dxfId="83" priority="1">
       <formula>$AR117&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:F120">
-    <cfRule type="expression" dxfId="83" priority="2">
+    <cfRule type="expression" dxfId="82" priority="2">
       <formula>$AR27&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:H119">
-    <cfRule type="expression" dxfId="82" priority="5">
+    <cfRule type="expression" dxfId="81" priority="5">
       <formula>$I$119&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="expression" dxfId="81" priority="6">
+    <cfRule type="expression" dxfId="80" priority="6">
       <formula>$I$98&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100">
-    <cfRule type="expression" dxfId="80" priority="7">
+    <cfRule type="expression" dxfId="79" priority="7">
       <formula>$I$100&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109:I110">
-    <cfRule type="expression" dxfId="79" priority="8">
+    <cfRule type="expression" dxfId="78" priority="8">
       <formula>I$110&lt;&gt;"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="expression" dxfId="78" priority="4">
+    <cfRule type="expression" dxfId="77" priority="4">
       <formula>$AR27&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="expression" dxfId="77" priority="26">
+    <cfRule type="expression" dxfId="76" priority="26">
       <formula>I$136&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="13">
+    <cfRule type="expression" dxfId="75" priority="13">
       <formula>I$135&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I147">
-    <cfRule type="expression" dxfId="75" priority="51">
+    <cfRule type="expression" dxfId="74" priority="51">
       <formula>I$136&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="52">
+    <cfRule type="expression" dxfId="73" priority="52">
       <formula>I$135&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I162">
-    <cfRule type="expression" dxfId="73" priority="53">
-      <formula>I$136&lt;0</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="72" priority="54">
       <formula>I$135&lt;0</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="71" priority="53">
+      <formula>I$136&lt;0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107:J108">
-    <cfRule type="expression" dxfId="71" priority="55">
+    <cfRule type="expression" dxfId="70" priority="55">
       <formula>I$108&lt;&gt;"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="70" priority="62">
+    <cfRule type="expression" dxfId="69" priority="62">
       <formula>J$21&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J114">
-    <cfRule type="expression" dxfId="69" priority="67">
+    <cfRule type="expression" dxfId="68" priority="67">
       <formula>J$21&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K134">
-    <cfRule type="expression" dxfId="68" priority="29">
+    <cfRule type="expression" dxfId="67" priority="29">
       <formula>I$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K149">
-    <cfRule type="expression" dxfId="67" priority="38">
+    <cfRule type="expression" dxfId="66" priority="38">
       <formula>I$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K164">
-    <cfRule type="expression" dxfId="66" priority="72">
+    <cfRule type="expression" dxfId="65" priority="72">
       <formula>K$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="expression" dxfId="65" priority="63">
+    <cfRule type="expression" dxfId="64" priority="63">
       <formula>J$21&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L116">
-    <cfRule type="expression" dxfId="64" priority="68">
+    <cfRule type="expression" dxfId="63" priority="68">
       <formula>J$21&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L107:O108">
-    <cfRule type="expression" dxfId="63" priority="56">
+    <cfRule type="expression" dxfId="62" priority="56">
       <formula>I$108&lt;&gt;"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M134:N134">
-    <cfRule type="expression" dxfId="62" priority="30">
+    <cfRule type="expression" dxfId="61" priority="30">
       <formula>I$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149:N149">
-    <cfRule type="expression" dxfId="61" priority="39">
+    <cfRule type="expression" dxfId="60" priority="39">
       <formula>I$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M164:N164">
-    <cfRule type="expression" dxfId="60" priority="46">
+    <cfRule type="expression" dxfId="59" priority="46">
       <formula>I$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109:O110">
-    <cfRule type="expression" dxfId="59" priority="9">
+    <cfRule type="expression" dxfId="58" priority="9">
       <formula>I$110&lt;&gt;"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P134">
-    <cfRule type="expression" dxfId="58" priority="31">
+    <cfRule type="expression" dxfId="57" priority="31">
       <formula>I$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P149">
-    <cfRule type="expression" dxfId="57" priority="40">
+    <cfRule type="expression" dxfId="56" priority="40">
       <formula>I$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P164">
-    <cfRule type="expression" dxfId="56" priority="47">
+    <cfRule type="expression" dxfId="55" priority="47">
       <formula>I$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="expression" dxfId="55" priority="64">
+    <cfRule type="expression" dxfId="54" priority="64">
       <formula>J$21&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q116">
-    <cfRule type="expression" dxfId="54" priority="69">
+    <cfRule type="expression" dxfId="53" priority="69">
       <formula>J$21&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q107:T108">
-    <cfRule type="expression" dxfId="53" priority="57">
+    <cfRule type="expression" dxfId="52" priority="57">
       <formula>I$108&lt;&gt;"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R134:S134">
-    <cfRule type="expression" dxfId="52" priority="32">
+    <cfRule type="expression" dxfId="51" priority="32">
       <formula>I$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R149:S149">
-    <cfRule type="expression" dxfId="51" priority="41">
+    <cfRule type="expression" dxfId="50" priority="41">
       <formula>I$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R164:S164">
-    <cfRule type="expression" dxfId="50" priority="48">
+    <cfRule type="expression" dxfId="49" priority="48">
       <formula>I$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R109:T110">
-    <cfRule type="expression" dxfId="49" priority="10">
+    <cfRule type="expression" dxfId="48" priority="10">
       <formula>I$110&lt;&gt;"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U134">
-    <cfRule type="expression" dxfId="48" priority="16">
-      <formula>I$135&lt;0</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="47" priority="33">
       <formula>I$136&lt;0</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="46" priority="16">
+      <formula>I$135&lt;0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U149">
-    <cfRule type="expression" dxfId="46" priority="73">
-      <formula>U$136&lt;0</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="45" priority="74">
       <formula>U$135&lt;0</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="44" priority="73">
+      <formula>U$136&lt;0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U164">
-    <cfRule type="expression" dxfId="44" priority="76">
+    <cfRule type="expression" dxfId="43" priority="76">
       <formula>U$135&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="75">
+    <cfRule type="expression" dxfId="42" priority="75">
       <formula>U$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="expression" dxfId="42" priority="65">
+    <cfRule type="expression" dxfId="41" priority="65">
       <formula>J$21&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V116">
-    <cfRule type="expression" dxfId="41" priority="70">
+    <cfRule type="expression" dxfId="40" priority="70">
       <formula>J$21&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V107:X108">
-    <cfRule type="expression" dxfId="40" priority="58">
+    <cfRule type="expression" dxfId="39" priority="58">
       <formula>I$108&lt;&gt;"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W109:X110">
-    <cfRule type="expression" dxfId="39" priority="11">
+    <cfRule type="expression" dxfId="38" priority="11">
       <formula>I$110&lt;&gt;"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W134:Y134">
-    <cfRule type="expression" dxfId="38" priority="17">
-      <formula>I$135&lt;0</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="37" priority="34">
       <formula>I$136&lt;0</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="36" priority="17">
+      <formula>I$135&lt;0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W149:Y149">
-    <cfRule type="expression" dxfId="36" priority="42">
+    <cfRule type="expression" dxfId="35" priority="42">
       <formula>I$136&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="21">
+    <cfRule type="expression" dxfId="34" priority="21">
       <formula>I$135&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W164:Y164">
-    <cfRule type="expression" dxfId="34" priority="49">
-      <formula>I$136&lt;0</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="33" priority="77">
       <formula>W$135&lt;0</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="32" priority="49">
+      <formula>I$136&lt;0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z20">
-    <cfRule type="expression" dxfId="32" priority="66">
+    <cfRule type="expression" dxfId="31" priority="66">
       <formula>J$21&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z116">
-    <cfRule type="expression" dxfId="31" priority="71">
+    <cfRule type="expression" dxfId="30" priority="71">
       <formula>J$21&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z107:AD108">
-    <cfRule type="expression" dxfId="30" priority="59">
+    <cfRule type="expression" dxfId="29" priority="59">
       <formula>I$108&lt;&gt;"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA134:AB134">
-    <cfRule type="expression" dxfId="29" priority="35">
+    <cfRule type="expression" dxfId="28" priority="35">
       <formula>I$136&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="18">
+    <cfRule type="expression" dxfId="27" priority="18">
       <formula>I$135&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA149:AB149">
-    <cfRule type="expression" dxfId="27" priority="43">
+    <cfRule type="expression" dxfId="26" priority="43">
       <formula>I$136&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="25" priority="22">
       <formula>I$135&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA164:AB164">
-    <cfRule type="expression" dxfId="25" priority="50">
-      <formula>I$136&lt;0</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="24" priority="25">
       <formula>I$135&lt;0</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="23" priority="50">
+      <formula>I$136&lt;0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA109:AC110">
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>I$110&lt;&gt;"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC132">
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="21" priority="14">
       <formula>I$135&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC147">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>I$135&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC162">
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>I$135&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC132:AD132">
-    <cfRule type="expression" dxfId="19" priority="27">
+    <cfRule type="expression" dxfId="18" priority="27">
       <formula>I$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC147:AD147">
-    <cfRule type="expression" dxfId="18" priority="36">
+    <cfRule type="expression" dxfId="17" priority="36">
       <formula>I$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC162:AD162">
-    <cfRule type="expression" dxfId="17" priority="44">
+    <cfRule type="expression" dxfId="16" priority="44">
       <formula>I$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF107:AG108">
-    <cfRule type="expression" dxfId="16" priority="60">
+    <cfRule type="expression" dxfId="15" priority="60">
       <formula>I$108&lt;&gt;"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI107:AI108">
-    <cfRule type="expression" dxfId="15" priority="61">
+    <cfRule type="expression" dxfId="14" priority="61">
       <formula>I$108&lt;&gt;"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI132">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>I$135&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="28">
+    <cfRule type="expression" dxfId="12" priority="28">
       <formula>I$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI147">
-    <cfRule type="expression" dxfId="12" priority="20">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>I$135&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="37">
+    <cfRule type="expression" dxfId="10" priority="37">
       <formula>I$136&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI162">
-    <cfRule type="expression" dxfId="10" priority="45">
+    <cfRule type="expression" dxfId="9" priority="45">
       <formula>I$136&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="24">
+    <cfRule type="expression" dxfId="8" priority="24">
       <formula>I$135&lt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/BAP_System/Templates/Template_Report.xlsx
+++ b/BAP_System/Templates/Template_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YLID-891277.YLID\source\repos\Hasan-bawawi\BAP_YLID\BAP_System\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ECD3C6-89F6-4149-8CC9-1371C52178AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F41FB8-E55A-4E9F-823D-8622DA885EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC08ACA1-4939-4722-B220-55A3A0227BB7}"/>
   </bookViews>
@@ -10790,18 +10790,211 @@
     <xf numFmtId="164" fontId="45" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="45" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="164" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="173" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="174" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="178" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="157" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="185" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="186" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="155" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="148" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="154" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="134" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="243" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10820,330 +11013,137 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="240" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="240" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="241" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="240" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="240" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="241" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="134" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="243" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="155" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="148" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="154" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="164" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="173" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="174" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="178" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="157" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="185" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="186" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12176,7 +12176,7 @@
   <dimension ref="A1:FX285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -13375,84 +13375,84 @@
       <c r="ES17" s="11"/>
     </row>
     <row r="18" spans="1:152" customFormat="1" ht="18" customHeight="1">
-      <c r="F18" s="719" t="str">
+      <c r="F18" s="763" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH18),"",BH18),IF(ISBLANK(DJ18),"",DJ18))</f>
         <v>Account</v>
       </c>
-      <c r="G18" s="729"/>
-      <c r="H18" s="739" t="s">
+      <c r="G18" s="765"/>
+      <c r="H18" s="774" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="729" t="str">
+      <c r="I18" s="765" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK18),"",BK18),IF(ISBLANK(DM18),"",DM18))</f>
         <v>Grand Total</v>
       </c>
-      <c r="J18" s="742" t="str">
+      <c r="J18" s="784" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BL18),"",BL18),IF(ISBLANK(DN18),"",DN18))</f>
         <v>Elimination of
 Inter-business 
 transaction</v>
       </c>
-      <c r="K18" s="719" t="str">
+      <c r="K18" s="763" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM18),"",BM18),IF(ISBLANK(DO18),"",DO18))</f>
         <v>Air Freight Forwarding</v>
       </c>
-      <c r="L18" s="720"/>
-      <c r="M18" s="720"/>
-      <c r="N18" s="720"/>
-      <c r="O18" s="729"/>
-      <c r="P18" s="719" t="str">
+      <c r="L18" s="764"/>
+      <c r="M18" s="764"/>
+      <c r="N18" s="764"/>
+      <c r="O18" s="765"/>
+      <c r="P18" s="763" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BR18),"",BR18),IF(ISBLANK(DT18),"",DT18))</f>
         <v>Ocean Freight Forwarding</v>
       </c>
-      <c r="Q18" s="720"/>
-      <c r="R18" s="720"/>
-      <c r="S18" s="720"/>
-      <c r="T18" s="720"/>
-      <c r="U18" s="719" t="str">
+      <c r="Q18" s="764"/>
+      <c r="R18" s="764"/>
+      <c r="S18" s="764"/>
+      <c r="T18" s="764"/>
+      <c r="U18" s="763" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BW18),"",BW18),IF(ISBLANK(DY18),"",DY18))</f>
         <v>SCS</v>
       </c>
-      <c r="V18" s="720"/>
-      <c r="W18" s="720"/>
-      <c r="X18" s="720"/>
-      <c r="Y18" s="723" t="str">
+      <c r="V18" s="764"/>
+      <c r="W18" s="764"/>
+      <c r="X18" s="764"/>
+      <c r="Y18" s="787" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CA18),"",CA18),IF(ISBLANK(EC18),"",EC18))</f>
         <v>Contract Logistics &amp; Transport</v>
       </c>
-      <c r="Z18" s="724"/>
-      <c r="AA18" s="724"/>
-      <c r="AB18" s="725"/>
-      <c r="AC18" s="729" t="str">
+      <c r="Z18" s="788"/>
+      <c r="AA18" s="788"/>
+      <c r="AB18" s="789"/>
+      <c r="AC18" s="765" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE18),"",CE18),IF(ISBLANK(EG18),"",EG18))</f>
         <v>Other business</v>
       </c>
-      <c r="AD18" s="732" t="s">
+      <c r="AD18" s="799" t="s">
         <v>607</v>
       </c>
       <c r="AE18" s="22"/>
-      <c r="AF18" s="734" t="str">
+      <c r="AF18" s="754" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH18),"",CH18),IF(ISBLANK(EJ18),"",EJ18))</f>
         <v>Regional Shared Service Center
 (RSSC)</v>
       </c>
-      <c r="AG18" s="734" t="str">
+      <c r="AG18" s="754" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI18),"",CI18),IF(ISBLANK(EK18),"",EK18))</f>
         <v>GHQ arm</v>
       </c>
       <c r="AH18" s="22"/>
-      <c r="AI18" s="748" t="s">
+      <c r="AI18" s="793" t="s">
         <v>608</v>
       </c>
-      <c r="AK18" s="739" t="str">
+      <c r="AK18" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CM18),"",CM18),IF(ISBLANK(EO18),"",EO18))</f>
         <v>A/C name</v>
       </c>
-      <c r="AL18" s="739" t="str">
+      <c r="AL18" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CN18),"",CN18),IF(ISBLANK(EP18),"",EP18))</f>
         <v>Code</v>
       </c>
-      <c r="AM18" s="750" t="str">
+      <c r="AM18" s="829" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CO18),"",CO18),IF(ISBLANK(EQ18),"",EQ18))</f>
         <v>Amount</v>
       </c>
@@ -13460,69 +13460,69 @@
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
       <c r="BG18" s="1"/>
-      <c r="BH18" s="719" t="s">
+      <c r="BH18" s="763" t="s">
         <v>43</v>
       </c>
-      <c r="BI18" s="729"/>
-      <c r="BJ18" s="739" t="s">
+      <c r="BI18" s="765"/>
+      <c r="BJ18" s="774" t="s">
         <v>42</v>
       </c>
-      <c r="BK18" s="729" t="s">
+      <c r="BK18" s="765" t="s">
         <v>44</v>
       </c>
-      <c r="BL18" s="742" t="s">
+      <c r="BL18" s="784" t="s">
         <v>45</v>
       </c>
-      <c r="BM18" s="719" t="s">
+      <c r="BM18" s="763" t="s">
         <v>46</v>
       </c>
-      <c r="BN18" s="720"/>
-      <c r="BO18" s="720"/>
-      <c r="BP18" s="720"/>
-      <c r="BQ18" s="729"/>
-      <c r="BR18" s="719" t="s">
+      <c r="BN18" s="764"/>
+      <c r="BO18" s="764"/>
+      <c r="BP18" s="764"/>
+      <c r="BQ18" s="765"/>
+      <c r="BR18" s="763" t="s">
         <v>47</v>
       </c>
-      <c r="BS18" s="720"/>
-      <c r="BT18" s="720"/>
-      <c r="BU18" s="720"/>
-      <c r="BV18" s="720"/>
-      <c r="BW18" s="719" t="s">
+      <c r="BS18" s="764"/>
+      <c r="BT18" s="764"/>
+      <c r="BU18" s="764"/>
+      <c r="BV18" s="764"/>
+      <c r="BW18" s="763" t="s">
         <v>48</v>
       </c>
-      <c r="BX18" s="720"/>
-      <c r="BY18" s="720"/>
-      <c r="BZ18" s="720"/>
-      <c r="CA18" s="723" t="s">
+      <c r="BX18" s="764"/>
+      <c r="BY18" s="764"/>
+      <c r="BZ18" s="764"/>
+      <c r="CA18" s="787" t="s">
         <v>49</v>
       </c>
-      <c r="CB18" s="724"/>
-      <c r="CC18" s="724"/>
-      <c r="CD18" s="725"/>
+      <c r="CB18" s="788"/>
+      <c r="CC18" s="788"/>
+      <c r="CD18" s="789"/>
       <c r="CE18" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="CF18" s="768" t="s">
+      <c r="CF18" s="741" t="s">
         <v>51</v>
       </c>
       <c r="CG18" s="24"/>
-      <c r="CH18" s="734" t="s">
+      <c r="CH18" s="754" t="s">
         <v>52</v>
       </c>
-      <c r="CI18" s="734" t="s">
+      <c r="CI18" s="754" t="s">
         <v>53</v>
       </c>
       <c r="CJ18" s="24"/>
-      <c r="CK18" s="755" t="s">
+      <c r="CK18" s="757" t="s">
         <v>54</v>
       </c>
-      <c r="CM18" s="739" t="s">
+      <c r="CM18" s="774" t="s">
         <v>55</v>
       </c>
-      <c r="CN18" s="739" t="s">
+      <c r="CN18" s="774" t="s">
         <v>42</v>
       </c>
-      <c r="CO18" s="758" t="s">
+      <c r="CO18" s="823" t="s">
         <v>56</v>
       </c>
       <c r="CP18" s="2"/>
@@ -13538,69 +13538,69 @@
       <c r="DG18" s="1"/>
       <c r="DH18" s="1"/>
       <c r="DI18" s="1"/>
-      <c r="DJ18" s="719" t="s">
+      <c r="DJ18" s="763" t="s">
         <v>406</v>
       </c>
-      <c r="DK18" s="771"/>
-      <c r="DL18" s="775" t="s">
+      <c r="DK18" s="777"/>
+      <c r="DL18" s="810" t="s">
         <v>42</v>
       </c>
-      <c r="DM18" s="729" t="s">
+      <c r="DM18" s="765" t="s">
         <v>407</v>
       </c>
-      <c r="DN18" s="742" t="s">
+      <c r="DN18" s="784" t="s">
         <v>408</v>
       </c>
-      <c r="DO18" s="719" t="s">
+      <c r="DO18" s="763" t="s">
         <v>409</v>
       </c>
-      <c r="DP18" s="720"/>
-      <c r="DQ18" s="720"/>
-      <c r="DR18" s="720"/>
-      <c r="DS18" s="729"/>
-      <c r="DT18" s="720" t="s">
+      <c r="DP18" s="764"/>
+      <c r="DQ18" s="764"/>
+      <c r="DR18" s="764"/>
+      <c r="DS18" s="765"/>
+      <c r="DT18" s="764" t="s">
         <v>410</v>
       </c>
-      <c r="DU18" s="720"/>
-      <c r="DV18" s="720"/>
-      <c r="DW18" s="720"/>
-      <c r="DX18" s="720"/>
-      <c r="DY18" s="719" t="s">
+      <c r="DU18" s="764"/>
+      <c r="DV18" s="764"/>
+      <c r="DW18" s="764"/>
+      <c r="DX18" s="764"/>
+      <c r="DY18" s="763" t="s">
         <v>411</v>
       </c>
-      <c r="DZ18" s="720"/>
-      <c r="EA18" s="720"/>
-      <c r="EB18" s="729"/>
-      <c r="EC18" s="719" t="s">
+      <c r="DZ18" s="764"/>
+      <c r="EA18" s="764"/>
+      <c r="EB18" s="765"/>
+      <c r="EC18" s="763" t="s">
         <v>412</v>
       </c>
-      <c r="ED18" s="720"/>
-      <c r="EE18" s="764"/>
-      <c r="EF18" s="765"/>
-      <c r="EG18" s="739" t="s">
+      <c r="ED18" s="764"/>
+      <c r="EE18" s="769"/>
+      <c r="EF18" s="770"/>
+      <c r="EG18" s="774" t="s">
         <v>413</v>
       </c>
-      <c r="EH18" s="768" t="s">
+      <c r="EH18" s="741" t="s">
         <v>414</v>
       </c>
       <c r="EI18" s="24"/>
-      <c r="EJ18" s="734" t="s">
+      <c r="EJ18" s="754" t="s">
         <v>52</v>
       </c>
-      <c r="EK18" s="734" t="s">
+      <c r="EK18" s="754" t="s">
         <v>53</v>
       </c>
       <c r="EL18" s="24"/>
-      <c r="EM18" s="755" t="s">
+      <c r="EM18" s="757" t="s">
         <v>54</v>
       </c>
-      <c r="EO18" s="739" t="s">
+      <c r="EO18" s="774" t="s">
         <v>55</v>
       </c>
-      <c r="EP18" s="739" t="s">
+      <c r="EP18" s="774" t="s">
         <v>42</v>
       </c>
-      <c r="EQ18" s="758" t="s">
+      <c r="EQ18" s="823" t="s">
         <v>56</v>
       </c>
       <c r="ER18" s="2"/>
@@ -13608,91 +13608,91 @@
       <c r="ET18" s="2"/>
     </row>
     <row r="19" spans="1:152" customFormat="1" ht="18" customHeight="1">
-      <c r="F19" s="737"/>
-      <c r="G19" s="738"/>
-      <c r="H19" s="740"/>
-      <c r="I19" s="730" t="str">
+      <c r="F19" s="835"/>
+      <c r="G19" s="836"/>
+      <c r="H19" s="781"/>
+      <c r="I19" s="783" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN19),"",BN19),IF(ISBLANK(DL19),"",DL19))</f>
         <v/>
       </c>
-      <c r="J19" s="743" t="str">
+      <c r="J19" s="785" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BO19),"",BO19),IF(ISBLANK(DM19),"",DM19))</f>
         <v/>
       </c>
-      <c r="K19" s="721"/>
-      <c r="L19" s="722"/>
-      <c r="M19" s="722"/>
-      <c r="N19" s="722"/>
-      <c r="O19" s="745"/>
-      <c r="P19" s="721"/>
-      <c r="Q19" s="722"/>
-      <c r="R19" s="722"/>
-      <c r="S19" s="722"/>
-      <c r="T19" s="722"/>
-      <c r="U19" s="721"/>
-      <c r="V19" s="722"/>
-      <c r="W19" s="722"/>
-      <c r="X19" s="722"/>
-      <c r="Y19" s="726"/>
-      <c r="Z19" s="727"/>
-      <c r="AA19" s="727"/>
-      <c r="AB19" s="728"/>
-      <c r="AC19" s="730" t="str">
+      <c r="K19" s="766"/>
+      <c r="L19" s="767"/>
+      <c r="M19" s="767"/>
+      <c r="N19" s="767"/>
+      <c r="O19" s="768"/>
+      <c r="P19" s="766"/>
+      <c r="Q19" s="767"/>
+      <c r="R19" s="767"/>
+      <c r="S19" s="767"/>
+      <c r="T19" s="767"/>
+      <c r="U19" s="766"/>
+      <c r="V19" s="767"/>
+      <c r="W19" s="767"/>
+      <c r="X19" s="767"/>
+      <c r="Y19" s="790"/>
+      <c r="Z19" s="791"/>
+      <c r="AA19" s="791"/>
+      <c r="AB19" s="792"/>
+      <c r="AC19" s="783" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CJ19),"",CJ19),IF(ISBLANK(#REF!),"",#REF!))</f>
         <v/>
       </c>
-      <c r="AD19" s="733" t="str">
+      <c r="AD19" s="834" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK19),"",CK19),IF(ISBLANK(EG19),"",EG19))</f>
         <v/>
       </c>
       <c r="AE19" s="26"/>
-      <c r="AF19" s="735"/>
-      <c r="AG19" s="735"/>
+      <c r="AF19" s="755"/>
+      <c r="AG19" s="755"/>
       <c r="AH19" s="26"/>
-      <c r="AI19" s="749" t="str">
+      <c r="AI19" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CM19),"",CM19),IF(ISBLANK(EL19),"",EL19))</f>
         <v/>
       </c>
-      <c r="AK19" s="746"/>
-      <c r="AL19" s="746"/>
-      <c r="AM19" s="751"/>
+      <c r="AK19" s="775"/>
+      <c r="AL19" s="775"/>
+      <c r="AM19" s="830"/>
       <c r="AO19" s="4"/>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
       <c r="BG19" s="1"/>
-      <c r="BH19" s="753"/>
-      <c r="BI19" s="754"/>
-      <c r="BJ19" s="740"/>
-      <c r="BK19" s="730"/>
-      <c r="BL19" s="743"/>
-      <c r="BM19" s="721"/>
-      <c r="BN19" s="722"/>
-      <c r="BO19" s="722"/>
-      <c r="BP19" s="722"/>
-      <c r="BQ19" s="745"/>
-      <c r="BR19" s="721"/>
-      <c r="BS19" s="722"/>
-      <c r="BT19" s="722"/>
-      <c r="BU19" s="722"/>
-      <c r="BV19" s="722"/>
-      <c r="BW19" s="721"/>
-      <c r="BX19" s="722"/>
-      <c r="BY19" s="722"/>
-      <c r="BZ19" s="722"/>
-      <c r="CA19" s="726"/>
-      <c r="CB19" s="727"/>
-      <c r="CC19" s="727"/>
-      <c r="CD19" s="728"/>
+      <c r="BH19" s="832"/>
+      <c r="BI19" s="833"/>
+      <c r="BJ19" s="781"/>
+      <c r="BK19" s="783"/>
+      <c r="BL19" s="785"/>
+      <c r="BM19" s="766"/>
+      <c r="BN19" s="767"/>
+      <c r="BO19" s="767"/>
+      <c r="BP19" s="767"/>
+      <c r="BQ19" s="768"/>
+      <c r="BR19" s="766"/>
+      <c r="BS19" s="767"/>
+      <c r="BT19" s="767"/>
+      <c r="BU19" s="767"/>
+      <c r="BV19" s="767"/>
+      <c r="BW19" s="766"/>
+      <c r="BX19" s="767"/>
+      <c r="BY19" s="767"/>
+      <c r="BZ19" s="767"/>
+      <c r="CA19" s="790"/>
+      <c r="CB19" s="791"/>
+      <c r="CC19" s="791"/>
+      <c r="CD19" s="792"/>
       <c r="CE19" s="211"/>
-      <c r="CF19" s="769"/>
+      <c r="CF19" s="742"/>
       <c r="CG19" s="212"/>
-      <c r="CH19" s="735"/>
-      <c r="CI19" s="735"/>
+      <c r="CH19" s="755"/>
+      <c r="CI19" s="755"/>
       <c r="CJ19" s="212"/>
-      <c r="CK19" s="756"/>
-      <c r="CM19" s="746"/>
-      <c r="CN19" s="746"/>
-      <c r="CO19" s="759"/>
+      <c r="CK19" s="758"/>
+      <c r="CM19" s="775"/>
+      <c r="CN19" s="775"/>
+      <c r="CO19" s="824"/>
       <c r="CP19" s="2"/>
       <c r="CQ19" s="2"/>
       <c r="CY19" s="1"/>
@@ -13706,56 +13706,56 @@
       <c r="DG19" s="1"/>
       <c r="DH19" s="1"/>
       <c r="DI19" s="1"/>
-      <c r="DJ19" s="772"/>
-      <c r="DK19" s="773"/>
-      <c r="DL19" s="776"/>
-      <c r="DM19" s="730"/>
-      <c r="DN19" s="743"/>
-      <c r="DO19" s="721"/>
-      <c r="DP19" s="722"/>
-      <c r="DQ19" s="722"/>
-      <c r="DR19" s="722"/>
-      <c r="DS19" s="745"/>
-      <c r="DT19" s="722"/>
-      <c r="DU19" s="722"/>
-      <c r="DV19" s="722"/>
-      <c r="DW19" s="722"/>
-      <c r="DX19" s="722"/>
-      <c r="DY19" s="721"/>
-      <c r="DZ19" s="722"/>
-      <c r="EA19" s="722"/>
-      <c r="EB19" s="745"/>
-      <c r="EC19" s="766"/>
-      <c r="ED19" s="767"/>
-      <c r="EE19" s="767"/>
-      <c r="EF19" s="731"/>
-      <c r="EG19" s="746"/>
-      <c r="EH19" s="769"/>
+      <c r="DJ19" s="778"/>
+      <c r="DK19" s="779"/>
+      <c r="DL19" s="811"/>
+      <c r="DM19" s="783"/>
+      <c r="DN19" s="785"/>
+      <c r="DO19" s="766"/>
+      <c r="DP19" s="767"/>
+      <c r="DQ19" s="767"/>
+      <c r="DR19" s="767"/>
+      <c r="DS19" s="768"/>
+      <c r="DT19" s="767"/>
+      <c r="DU19" s="767"/>
+      <c r="DV19" s="767"/>
+      <c r="DW19" s="767"/>
+      <c r="DX19" s="767"/>
+      <c r="DY19" s="766"/>
+      <c r="DZ19" s="767"/>
+      <c r="EA19" s="767"/>
+      <c r="EB19" s="768"/>
+      <c r="EC19" s="771"/>
+      <c r="ED19" s="772"/>
+      <c r="EE19" s="772"/>
+      <c r="EF19" s="773"/>
+      <c r="EG19" s="775"/>
+      <c r="EH19" s="742"/>
       <c r="EI19" s="212"/>
-      <c r="EJ19" s="735"/>
-      <c r="EK19" s="735"/>
+      <c r="EJ19" s="755"/>
+      <c r="EK19" s="755"/>
       <c r="EL19" s="212"/>
-      <c r="EM19" s="756"/>
-      <c r="EO19" s="746"/>
-      <c r="EP19" s="746"/>
-      <c r="EQ19" s="759"/>
+      <c r="EM19" s="758"/>
+      <c r="EO19" s="775"/>
+      <c r="EP19" s="775"/>
+      <c r="EQ19" s="824"/>
       <c r="ER19" s="2"/>
       <c r="ES19" s="2"/>
       <c r="ET19" s="2"/>
     </row>
     <row r="20" spans="1:152" customFormat="1" ht="43.5" customHeight="1">
-      <c r="F20" s="761" t="str">
+      <c r="F20" s="826" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH20),"",BH20),IF(ISBLANK(DJ20),"",DJ20))</f>
         <v>&lt;NOTE&gt; FOR FINANCIAL ACCOUNTING PURPOSE  (INPUT TAB)                                                                      "Reclassified fixed costs in IFF" are to be reported, if any</v>
       </c>
-      <c r="G20" s="762"/>
-      <c r="H20" s="741"/>
-      <c r="I20" s="731" t="str">
+      <c r="G20" s="827"/>
+      <c r="H20" s="782"/>
+      <c r="I20" s="773" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN20),"",BN20),IF(ISBLANK(DL20),"",DL20))</f>
         <v>Elimination of 
 Intra-AFF transaction</v>
       </c>
-      <c r="J20" s="744" t="str">
+      <c r="J20" s="786" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BO20),"",BO20),IF(ISBLANK(DM20),"",DM20))</f>
         <v>Export</v>
       </c>
@@ -13836,36 +13836,36 @@
         <v>Land 
 Transport</v>
       </c>
-      <c r="AC20" s="731" t="str">
+      <c r="AC20" s="773" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CJ20),"",CJ20),IF(ISBLANK(#REF!),"",#REF!))</f>
         <v/>
       </c>
-      <c r="AD20" s="733" t="str">
+      <c r="AD20" s="834" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK20),"",CK20),IF(ISBLANK(EG20),"",EG20))</f>
         <v/>
       </c>
       <c r="AE20" s="26"/>
-      <c r="AF20" s="736"/>
-      <c r="AG20" s="736"/>
+      <c r="AF20" s="756"/>
+      <c r="AG20" s="756"/>
       <c r="AH20" s="26"/>
-      <c r="AI20" s="749" t="str">
+      <c r="AI20" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CM20),"",CM20),IF(ISBLANK(EL20),"",EL20))</f>
         <v/>
       </c>
-      <c r="AK20" s="747"/>
-      <c r="AL20" s="747"/>
-      <c r="AM20" s="752"/>
+      <c r="AK20" s="776"/>
+      <c r="AL20" s="776"/>
+      <c r="AM20" s="831"/>
       <c r="AO20" s="4"/>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
       <c r="BG20" s="1"/>
-      <c r="BH20" s="763" t="s">
+      <c r="BH20" s="828" t="s">
         <v>57</v>
       </c>
-      <c r="BI20" s="745"/>
-      <c r="BJ20" s="741"/>
-      <c r="BK20" s="731"/>
-      <c r="BL20" s="744"/>
+      <c r="BI20" s="768"/>
+      <c r="BJ20" s="782"/>
+      <c r="BK20" s="773"/>
+      <c r="BL20" s="786"/>
       <c r="BM20" s="23" t="s">
         <v>58</v>
       </c>
@@ -13921,15 +13921,15 @@
         <v>72</v>
       </c>
       <c r="CE20" s="211"/>
-      <c r="CF20" s="770"/>
+      <c r="CF20" s="743"/>
       <c r="CG20" s="212"/>
-      <c r="CH20" s="736"/>
-      <c r="CI20" s="736"/>
+      <c r="CH20" s="756"/>
+      <c r="CI20" s="756"/>
       <c r="CJ20" s="212"/>
-      <c r="CK20" s="757"/>
-      <c r="CM20" s="747"/>
-      <c r="CN20" s="747"/>
-      <c r="CO20" s="760"/>
+      <c r="CK20" s="759"/>
+      <c r="CM20" s="776"/>
+      <c r="CN20" s="776"/>
+      <c r="CO20" s="825"/>
       <c r="CP20" s="2"/>
       <c r="CQ20" s="2"/>
       <c r="CY20" s="1"/>
@@ -13943,11 +13943,11 @@
       <c r="DG20" s="1"/>
       <c r="DH20" s="1"/>
       <c r="DI20" s="1"/>
-      <c r="DJ20" s="774"/>
-      <c r="DK20" s="773"/>
-      <c r="DL20" s="777"/>
-      <c r="DM20" s="731"/>
-      <c r="DN20" s="744"/>
+      <c r="DJ20" s="780"/>
+      <c r="DK20" s="779"/>
+      <c r="DL20" s="812"/>
+      <c r="DM20" s="773"/>
+      <c r="DN20" s="786"/>
       <c r="DO20" s="23" t="s">
         <v>415</v>
       </c>
@@ -14002,16 +14002,16 @@
       <c r="EF20" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="EG20" s="747"/>
-      <c r="EH20" s="770"/>
+      <c r="EG20" s="776"/>
+      <c r="EH20" s="743"/>
       <c r="EI20" s="212"/>
-      <c r="EJ20" s="736"/>
-      <c r="EK20" s="736"/>
+      <c r="EJ20" s="756"/>
+      <c r="EK20" s="756"/>
       <c r="EL20" s="212"/>
-      <c r="EM20" s="757"/>
-      <c r="EO20" s="747"/>
-      <c r="EP20" s="747"/>
-      <c r="EQ20" s="760"/>
+      <c r="EM20" s="759"/>
+      <c r="EO20" s="776"/>
+      <c r="EP20" s="776"/>
+      <c r="EQ20" s="825"/>
       <c r="ER20" s="2"/>
       <c r="ES20" s="2"/>
       <c r="ET20" s="2"/>
@@ -14169,7 +14169,7 @@
       </c>
       <c r="L22" s="230"/>
       <c r="M22" s="596"/>
-      <c r="N22" s="836"/>
+      <c r="N22" s="719"/>
       <c r="O22" s="232"/>
       <c r="P22" s="229">
         <f t="shared" si="2"/>
@@ -26986,74 +26986,74 @@
       <c r="ET113" s="2"/>
     </row>
     <row r="114" spans="1:150" customFormat="1" ht="18" customHeight="1">
-      <c r="F114" s="719" t="str">
+      <c r="F114" s="763" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH114),"",BH114),IF(ISBLANK(DJ114),"",DJ114))</f>
         <v>Account</v>
       </c>
-      <c r="G114" s="771" t="str">
+      <c r="G114" s="777" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI114),"",BI114),IF(ISBLANK(DK114),"",DK114))</f>
         <v/>
       </c>
-      <c r="H114" s="739" t="s">
+      <c r="H114" s="774" t="s">
         <v>42</v>
       </c>
-      <c r="I114" s="729" t="str">
+      <c r="I114" s="765" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK114),"",BK114),IF(ISBLANK(DM114),"",DM114))</f>
         <v>Grand Total</v>
       </c>
-      <c r="J114" s="782"/>
-      <c r="K114" s="719" t="str">
+      <c r="J114" s="817"/>
+      <c r="K114" s="763" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM114),"",BM114),IF(ISBLANK(DO114),"",DO114))</f>
         <v>Air Freight Forwarding</v>
       </c>
-      <c r="L114" s="720"/>
-      <c r="M114" s="720"/>
-      <c r="N114" s="720"/>
-      <c r="O114" s="729"/>
-      <c r="P114" s="719" t="str">
+      <c r="L114" s="764"/>
+      <c r="M114" s="764"/>
+      <c r="N114" s="764"/>
+      <c r="O114" s="765"/>
+      <c r="P114" s="763" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BR114),"",BR114),IF(ISBLANK(DT114),"",DT114))</f>
         <v>Ocean Freight Forwarding</v>
       </c>
-      <c r="Q114" s="720"/>
-      <c r="R114" s="720"/>
-      <c r="S114" s="720"/>
-      <c r="T114" s="720"/>
-      <c r="U114" s="719" t="str">
+      <c r="Q114" s="764"/>
+      <c r="R114" s="764"/>
+      <c r="S114" s="764"/>
+      <c r="T114" s="764"/>
+      <c r="U114" s="763" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BW114),"",BW114),IF(ISBLANK(DY114),"",DY114))</f>
         <v>SCS</v>
       </c>
-      <c r="V114" s="720"/>
-      <c r="W114" s="720"/>
-      <c r="X114" s="720"/>
-      <c r="Y114" s="723" t="str">
+      <c r="V114" s="764"/>
+      <c r="W114" s="764"/>
+      <c r="X114" s="764"/>
+      <c r="Y114" s="787" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CA114),"",CA114),IF(ISBLANK(EC114),"",EC114))</f>
         <v>Contract Logistics &amp; Transport</v>
       </c>
-      <c r="Z114" s="724"/>
-      <c r="AA114" s="724"/>
-      <c r="AB114" s="725"/>
-      <c r="AC114" s="720" t="str">
+      <c r="Z114" s="788"/>
+      <c r="AA114" s="788"/>
+      <c r="AB114" s="789"/>
+      <c r="AC114" s="764" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE114),"",CE114),IF(ISBLANK(EG114),"",EG114))</f>
         <v>Other business</v>
       </c>
-      <c r="AD114" s="779" t="str">
+      <c r="AD114" s="820" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF114),"",CF114),IF(ISBLANK(EH114),"",EH114))</f>
         <v>Business
 Partner
 (BP)</v>
       </c>
       <c r="AE114" s="111"/>
-      <c r="AF114" s="734" t="str">
+      <c r="AF114" s="754" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH114),"",CH114),IF(ISBLANK(EJ114),"",EJ114))</f>
         <v>Regional Shared Service Center
 (RSSC)</v>
       </c>
-      <c r="AG114" s="734" t="str">
+      <c r="AG114" s="754" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI114),"",CI114),IF(ISBLANK(EK114),"",EK114))</f>
         <v>GHQ arm</v>
       </c>
       <c r="AH114" s="22"/>
-      <c r="AI114" s="748" t="str">
+      <c r="AI114" s="793" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK114),"",CK114),IF(ISBLANK(EM114),"",EM114))</f>
         <v>Global HQ
 (GHQ)</v>
@@ -27065,60 +27065,60 @@
       <c r="BE114" s="1"/>
       <c r="BF114" s="1"/>
       <c r="BG114" s="1"/>
-      <c r="BH114" s="719" t="s">
+      <c r="BH114" s="763" t="s">
         <v>43</v>
       </c>
-      <c r="BI114" s="771"/>
-      <c r="BJ114" s="739" t="s">
+      <c r="BI114" s="777"/>
+      <c r="BJ114" s="774" t="s">
         <v>42</v>
       </c>
-      <c r="BK114" s="729" t="s">
+      <c r="BK114" s="765" t="s">
         <v>44</v>
       </c>
-      <c r="BL114" s="742" t="s">
+      <c r="BL114" s="784" t="s">
         <v>45</v>
       </c>
-      <c r="BM114" s="719" t="s">
+      <c r="BM114" s="763" t="s">
         <v>46</v>
       </c>
-      <c r="BN114" s="720"/>
-      <c r="BO114" s="720"/>
-      <c r="BP114" s="720"/>
-      <c r="BQ114" s="729"/>
-      <c r="BR114" s="719" t="s">
+      <c r="BN114" s="764"/>
+      <c r="BO114" s="764"/>
+      <c r="BP114" s="764"/>
+      <c r="BQ114" s="765"/>
+      <c r="BR114" s="763" t="s">
         <v>47</v>
       </c>
-      <c r="BS114" s="720"/>
-      <c r="BT114" s="720"/>
-      <c r="BU114" s="720"/>
-      <c r="BV114" s="720"/>
-      <c r="BW114" s="719" t="s">
+      <c r="BS114" s="764"/>
+      <c r="BT114" s="764"/>
+      <c r="BU114" s="764"/>
+      <c r="BV114" s="764"/>
+      <c r="BW114" s="763" t="s">
         <v>48</v>
       </c>
-      <c r="BX114" s="720"/>
-      <c r="BY114" s="720"/>
-      <c r="BZ114" s="720"/>
-      <c r="CA114" s="723" t="s">
+      <c r="BX114" s="764"/>
+      <c r="BY114" s="764"/>
+      <c r="BZ114" s="764"/>
+      <c r="CA114" s="787" t="s">
         <v>49</v>
       </c>
-      <c r="CB114" s="724"/>
-      <c r="CC114" s="724"/>
-      <c r="CD114" s="725"/>
+      <c r="CB114" s="788"/>
+      <c r="CC114" s="788"/>
+      <c r="CD114" s="789"/>
       <c r="CE114" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="CF114" s="768" t="s">
+      <c r="CF114" s="741" t="s">
         <v>51</v>
       </c>
       <c r="CG114" s="24"/>
-      <c r="CH114" s="734" t="s">
+      <c r="CH114" s="754" t="s">
         <v>52</v>
       </c>
-      <c r="CI114" s="734" t="s">
+      <c r="CI114" s="754" t="s">
         <v>53</v>
       </c>
       <c r="CJ114" s="24"/>
-      <c r="CK114" s="755" t="s">
+      <c r="CK114" s="757" t="s">
         <v>54</v>
       </c>
       <c r="CM114" s="14"/>
@@ -27136,60 +27136,60 @@
       <c r="DG114" s="1"/>
       <c r="DH114" s="1"/>
       <c r="DI114" s="1"/>
-      <c r="DJ114" s="719" t="s">
+      <c r="DJ114" s="763" t="s">
         <v>406</v>
       </c>
-      <c r="DK114" s="771"/>
-      <c r="DL114" s="775" t="s">
+      <c r="DK114" s="777"/>
+      <c r="DL114" s="810" t="s">
         <v>42</v>
       </c>
-      <c r="DM114" s="729" t="s">
+      <c r="DM114" s="765" t="s">
         <v>407</v>
       </c>
-      <c r="DN114" s="742" t="s">
+      <c r="DN114" s="784" t="s">
         <v>408</v>
       </c>
-      <c r="DO114" s="719" t="s">
+      <c r="DO114" s="763" t="s">
         <v>409</v>
       </c>
-      <c r="DP114" s="720"/>
-      <c r="DQ114" s="720"/>
-      <c r="DR114" s="720"/>
-      <c r="DS114" s="729"/>
-      <c r="DT114" s="720" t="s">
+      <c r="DP114" s="764"/>
+      <c r="DQ114" s="764"/>
+      <c r="DR114" s="764"/>
+      <c r="DS114" s="765"/>
+      <c r="DT114" s="764" t="s">
         <v>410</v>
       </c>
-      <c r="DU114" s="720"/>
-      <c r="DV114" s="720"/>
-      <c r="DW114" s="720"/>
-      <c r="DX114" s="720"/>
-      <c r="DY114" s="719" t="s">
+      <c r="DU114" s="764"/>
+      <c r="DV114" s="764"/>
+      <c r="DW114" s="764"/>
+      <c r="DX114" s="764"/>
+      <c r="DY114" s="763" t="s">
         <v>411</v>
       </c>
-      <c r="DZ114" s="720"/>
-      <c r="EA114" s="720"/>
-      <c r="EB114" s="729"/>
-      <c r="EC114" s="719" t="s">
+      <c r="DZ114" s="764"/>
+      <c r="EA114" s="764"/>
+      <c r="EB114" s="765"/>
+      <c r="EC114" s="763" t="s">
         <v>412</v>
       </c>
-      <c r="ED114" s="720"/>
-      <c r="EE114" s="764"/>
-      <c r="EF114" s="765"/>
-      <c r="EG114" s="739" t="s">
+      <c r="ED114" s="764"/>
+      <c r="EE114" s="769"/>
+      <c r="EF114" s="770"/>
+      <c r="EG114" s="774" t="s">
         <v>413</v>
       </c>
-      <c r="EH114" s="768" t="s">
+      <c r="EH114" s="741" t="s">
         <v>288</v>
       </c>
       <c r="EI114" s="24"/>
-      <c r="EJ114" s="734" t="s">
+      <c r="EJ114" s="754" t="s">
         <v>52</v>
       </c>
-      <c r="EK114" s="734" t="s">
+      <c r="EK114" s="754" t="s">
         <v>53</v>
       </c>
       <c r="EL114" s="24"/>
-      <c r="EM114" s="755" t="s">
+      <c r="EM114" s="757" t="s">
         <v>54</v>
       </c>
       <c r="EO114" s="14"/>
@@ -27200,51 +27200,51 @@
       <c r="ET114" s="2"/>
     </row>
     <row r="115" spans="1:150" customFormat="1" ht="18" customHeight="1">
-      <c r="F115" s="772" t="str">
+      <c r="F115" s="778" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH115),"",BH115),IF(ISBLANK(DJ115),"",DJ115))</f>
         <v/>
       </c>
-      <c r="G115" s="773" t="str">
+      <c r="G115" s="779" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI115),"",BI115),IF(ISBLANK(DK115),"",DK115))</f>
         <v/>
       </c>
-      <c r="H115" s="740"/>
-      <c r="I115" s="730" t="str">
+      <c r="H115" s="781"/>
+      <c r="I115" s="783" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN115),"",BN115),IF(ISBLANK(DL115),"",DL115))</f>
         <v/>
       </c>
-      <c r="J115" s="783"/>
-      <c r="K115" s="721"/>
-      <c r="L115" s="722"/>
-      <c r="M115" s="722"/>
-      <c r="N115" s="722"/>
-      <c r="O115" s="745"/>
-      <c r="P115" s="721"/>
-      <c r="Q115" s="722"/>
-      <c r="R115" s="722"/>
-      <c r="S115" s="722"/>
-      <c r="T115" s="722"/>
-      <c r="U115" s="721"/>
-      <c r="V115" s="722"/>
-      <c r="W115" s="722"/>
-      <c r="X115" s="722"/>
-      <c r="Y115" s="726"/>
-      <c r="Z115" s="727"/>
-      <c r="AA115" s="727"/>
-      <c r="AB115" s="728"/>
-      <c r="AC115" s="778" t="str">
+      <c r="J115" s="818"/>
+      <c r="K115" s="766"/>
+      <c r="L115" s="767"/>
+      <c r="M115" s="767"/>
+      <c r="N115" s="767"/>
+      <c r="O115" s="768"/>
+      <c r="P115" s="766"/>
+      <c r="Q115" s="767"/>
+      <c r="R115" s="767"/>
+      <c r="S115" s="767"/>
+      <c r="T115" s="767"/>
+      <c r="U115" s="766"/>
+      <c r="V115" s="767"/>
+      <c r="W115" s="767"/>
+      <c r="X115" s="767"/>
+      <c r="Y115" s="790"/>
+      <c r="Z115" s="791"/>
+      <c r="AA115" s="791"/>
+      <c r="AB115" s="792"/>
+      <c r="AC115" s="722" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CJ115),"",CJ115),IF(ISBLANK(#REF!),"",#REF!))</f>
         <v/>
       </c>
-      <c r="AD115" s="780" t="str">
+      <c r="AD115" s="821" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK115),"",CK115),IF(ISBLANK(EG115),"",EG115))</f>
         <v/>
       </c>
       <c r="AE115" s="2"/>
-      <c r="AF115" s="735"/>
-      <c r="AG115" s="735"/>
+      <c r="AF115" s="755"/>
+      <c r="AG115" s="755"/>
       <c r="AH115" s="26"/>
-      <c r="AI115" s="749" t="str">
+      <c r="AI115" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CM115),"",CM115),IF(ISBLANK(EL115),"",EL115))</f>
         <v/>
       </c>
@@ -27255,36 +27255,36 @@
       <c r="BE115" s="1"/>
       <c r="BF115" s="1"/>
       <c r="BG115" s="1"/>
-      <c r="BH115" s="772"/>
-      <c r="BI115" s="773"/>
-      <c r="BJ115" s="740"/>
-      <c r="BK115" s="730"/>
-      <c r="BL115" s="743"/>
-      <c r="BM115" s="721"/>
-      <c r="BN115" s="722"/>
-      <c r="BO115" s="722"/>
-      <c r="BP115" s="722"/>
-      <c r="BQ115" s="745"/>
-      <c r="BR115" s="721"/>
-      <c r="BS115" s="722"/>
-      <c r="BT115" s="722"/>
-      <c r="BU115" s="722"/>
-      <c r="BV115" s="722"/>
-      <c r="BW115" s="721"/>
-      <c r="BX115" s="722"/>
-      <c r="BY115" s="722"/>
-      <c r="BZ115" s="722"/>
-      <c r="CA115" s="726"/>
-      <c r="CB115" s="727"/>
-      <c r="CC115" s="727"/>
-      <c r="CD115" s="728"/>
+      <c r="BH115" s="778"/>
+      <c r="BI115" s="779"/>
+      <c r="BJ115" s="781"/>
+      <c r="BK115" s="783"/>
+      <c r="BL115" s="785"/>
+      <c r="BM115" s="766"/>
+      <c r="BN115" s="767"/>
+      <c r="BO115" s="767"/>
+      <c r="BP115" s="767"/>
+      <c r="BQ115" s="768"/>
+      <c r="BR115" s="766"/>
+      <c r="BS115" s="767"/>
+      <c r="BT115" s="767"/>
+      <c r="BU115" s="767"/>
+      <c r="BV115" s="767"/>
+      <c r="BW115" s="766"/>
+      <c r="BX115" s="767"/>
+      <c r="BY115" s="767"/>
+      <c r="BZ115" s="767"/>
+      <c r="CA115" s="790"/>
+      <c r="CB115" s="791"/>
+      <c r="CC115" s="791"/>
+      <c r="CD115" s="792"/>
       <c r="CE115" s="211"/>
-      <c r="CF115" s="769"/>
+      <c r="CF115" s="742"/>
       <c r="CG115" s="212"/>
-      <c r="CH115" s="735"/>
-      <c r="CI115" s="735"/>
+      <c r="CH115" s="755"/>
+      <c r="CI115" s="755"/>
       <c r="CJ115" s="212"/>
-      <c r="CK115" s="756"/>
+      <c r="CK115" s="758"/>
       <c r="CM115" s="14"/>
       <c r="CN115" s="14"/>
       <c r="CO115" s="2"/>
@@ -27300,36 +27300,36 @@
       <c r="DG115" s="1"/>
       <c r="DH115" s="1"/>
       <c r="DI115" s="1"/>
-      <c r="DJ115" s="772"/>
-      <c r="DK115" s="773"/>
-      <c r="DL115" s="776"/>
-      <c r="DM115" s="730"/>
-      <c r="DN115" s="743"/>
-      <c r="DO115" s="721"/>
-      <c r="DP115" s="722"/>
-      <c r="DQ115" s="722"/>
-      <c r="DR115" s="722"/>
-      <c r="DS115" s="745"/>
-      <c r="DT115" s="722"/>
-      <c r="DU115" s="722"/>
-      <c r="DV115" s="722"/>
-      <c r="DW115" s="722"/>
-      <c r="DX115" s="722"/>
-      <c r="DY115" s="721"/>
-      <c r="DZ115" s="722"/>
-      <c r="EA115" s="722"/>
-      <c r="EB115" s="745"/>
-      <c r="EC115" s="766"/>
-      <c r="ED115" s="767"/>
-      <c r="EE115" s="767"/>
-      <c r="EF115" s="731"/>
-      <c r="EG115" s="746"/>
-      <c r="EH115" s="769"/>
+      <c r="DJ115" s="778"/>
+      <c r="DK115" s="779"/>
+      <c r="DL115" s="811"/>
+      <c r="DM115" s="783"/>
+      <c r="DN115" s="785"/>
+      <c r="DO115" s="766"/>
+      <c r="DP115" s="767"/>
+      <c r="DQ115" s="767"/>
+      <c r="DR115" s="767"/>
+      <c r="DS115" s="768"/>
+      <c r="DT115" s="767"/>
+      <c r="DU115" s="767"/>
+      <c r="DV115" s="767"/>
+      <c r="DW115" s="767"/>
+      <c r="DX115" s="767"/>
+      <c r="DY115" s="766"/>
+      <c r="DZ115" s="767"/>
+      <c r="EA115" s="767"/>
+      <c r="EB115" s="768"/>
+      <c r="EC115" s="771"/>
+      <c r="ED115" s="772"/>
+      <c r="EE115" s="772"/>
+      <c r="EF115" s="773"/>
+      <c r="EG115" s="775"/>
+      <c r="EH115" s="742"/>
       <c r="EI115" s="212"/>
-      <c r="EJ115" s="735"/>
-      <c r="EK115" s="735"/>
+      <c r="EJ115" s="755"/>
+      <c r="EK115" s="755"/>
       <c r="EL115" s="212"/>
-      <c r="EM115" s="756"/>
+      <c r="EM115" s="758"/>
       <c r="EO115" s="14"/>
       <c r="EP115" s="14"/>
       <c r="EQ115" s="2"/>
@@ -27338,21 +27338,21 @@
       <c r="ET115" s="2"/>
     </row>
     <row r="116" spans="1:150" customFormat="1" ht="43.5" customHeight="1">
-      <c r="F116" s="774" t="str">
+      <c r="F116" s="780" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH116),"",BH116),IF(ISBLANK(DJ116),"",DJ116))</f>
         <v/>
       </c>
-      <c r="G116" s="773" t="str">
+      <c r="G116" s="779" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI116),"",BI116),IF(ISBLANK(DK116),"",DK116))</f>
         <v/>
       </c>
-      <c r="H116" s="741"/>
-      <c r="I116" s="731" t="str">
+      <c r="H116" s="782"/>
+      <c r="I116" s="773" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN116),"",BN116),IF(ISBLANK(DL116),"",DL116))</f>
         <v>Elimination of 
 Intra-AFF transaction</v>
       </c>
-      <c r="J116" s="784"/>
+      <c r="J116" s="819"/>
       <c r="K116" s="23" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM116),"",BM116),IF(ISBLANK(DO116),"",DO116))</f>
         <v>AFF Total</v>
@@ -27416,19 +27416,19 @@
         <v>Land 
 Transport</v>
       </c>
-      <c r="AC116" s="767" t="str">
+      <c r="AC116" s="772" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CJ116),"",CJ116),IF(ISBLANK(#REF!),"",#REF!))</f>
         <v/>
       </c>
-      <c r="AD116" s="781" t="str">
+      <c r="AD116" s="822" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK116),"",CK116),IF(ISBLANK(EG116),"",EG116))</f>
         <v/>
       </c>
       <c r="AE116" s="2"/>
-      <c r="AF116" s="736"/>
-      <c r="AG116" s="736"/>
+      <c r="AF116" s="756"/>
+      <c r="AG116" s="756"/>
       <c r="AH116" s="26"/>
-      <c r="AI116" s="749" t="str">
+      <c r="AI116" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CM116),"",CM116),IF(ISBLANK(EL116),"",EL116))</f>
         <v/>
       </c>
@@ -27439,11 +27439,11 @@
       <c r="BE116" s="1"/>
       <c r="BF116" s="1"/>
       <c r="BG116" s="1"/>
-      <c r="BH116" s="774"/>
-      <c r="BI116" s="773"/>
-      <c r="BJ116" s="741"/>
-      <c r="BK116" s="731"/>
-      <c r="BL116" s="744"/>
+      <c r="BH116" s="780"/>
+      <c r="BI116" s="779"/>
+      <c r="BJ116" s="782"/>
+      <c r="BK116" s="773"/>
+      <c r="BL116" s="786"/>
       <c r="BM116" s="23" t="s">
         <v>58</v>
       </c>
@@ -27499,12 +27499,12 @@
         <v>72</v>
       </c>
       <c r="CE116" s="211"/>
-      <c r="CF116" s="770"/>
+      <c r="CF116" s="743"/>
       <c r="CG116" s="212"/>
-      <c r="CH116" s="736"/>
-      <c r="CI116" s="736"/>
+      <c r="CH116" s="756"/>
+      <c r="CI116" s="756"/>
       <c r="CJ116" s="212"/>
-      <c r="CK116" s="757"/>
+      <c r="CK116" s="759"/>
       <c r="CM116" s="14"/>
       <c r="CN116" s="14"/>
       <c r="CO116" s="2"/>
@@ -27520,11 +27520,11 @@
       <c r="DG116" s="1"/>
       <c r="DH116" s="1"/>
       <c r="DI116" s="1"/>
-      <c r="DJ116" s="774"/>
-      <c r="DK116" s="773"/>
-      <c r="DL116" s="777"/>
-      <c r="DM116" s="731"/>
-      <c r="DN116" s="744"/>
+      <c r="DJ116" s="780"/>
+      <c r="DK116" s="779"/>
+      <c r="DL116" s="812"/>
+      <c r="DM116" s="773"/>
+      <c r="DN116" s="786"/>
       <c r="DO116" s="23" t="s">
         <v>415</v>
       </c>
@@ -27579,13 +27579,13 @@
       <c r="EF116" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="EG116" s="747"/>
-      <c r="EH116" s="770"/>
+      <c r="EG116" s="776"/>
+      <c r="EH116" s="743"/>
       <c r="EI116" s="212"/>
-      <c r="EJ116" s="736"/>
-      <c r="EK116" s="736"/>
+      <c r="EJ116" s="756"/>
+      <c r="EK116" s="756"/>
       <c r="EL116" s="212"/>
-      <c r="EM116" s="757"/>
+      <c r="EM116" s="759"/>
       <c r="EO116" s="14"/>
       <c r="EP116" s="14"/>
       <c r="EQ116" s="2"/>
@@ -27598,12 +27598,12 @@
         <v>289</v>
       </c>
       <c r="B117" s="112"/>
-      <c r="F117" s="785" t="str">
+      <c r="F117" s="813" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH117),"",BH117),IF(ISBLANK(DJ117),"",DJ117))</f>
         <v>Interest expense on lease liability in IFRS16
 ( Reclassified to RFC for management accounting purpose )</v>
       </c>
-      <c r="G117" s="786"/>
+      <c r="G117" s="814"/>
       <c r="H117" s="491" t="s">
         <v>290</v>
       </c>
@@ -27719,12 +27719,12 @@
         <v>292</v>
       </c>
       <c r="B118" s="112"/>
-      <c r="F118" s="787" t="str">
+      <c r="F118" s="815" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH118),"",BH118),IF(ISBLANK(DJ118),"",DJ118))</f>
         <v>Interest expense on lease liability in IFRS16
 ( Reclassified to SGA for management accounting purpose )</v>
       </c>
-      <c r="G118" s="788"/>
+      <c r="G118" s="816"/>
       <c r="H118" s="491" t="s">
         <v>293</v>
       </c>
@@ -27839,12 +27839,12 @@
       <c r="A119" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F119" s="787" t="str">
+      <c r="F119" s="815" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH119),"",BH119),IF(ISBLANK(DJ119),"",DJ119))</f>
         <v>Allocation of Interest expense on lease liability in IFRS16 booked in BP segment 
 (Reclassified to SGA for management accounting purpose )</v>
       </c>
-      <c r="G119" s="788"/>
+      <c r="G119" s="816"/>
       <c r="H119" s="213" t="s">
         <v>296</v>
       </c>
@@ -28568,116 +28568,116 @@
     </row>
     <row r="132" spans="1:149" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="E132" s="115"/>
-      <c r="F132" s="739" t="str">
+      <c r="F132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH132),"",BH132),IF(ISBLANK(DJ132),"",DJ132))</f>
         <v>Account</v>
       </c>
-      <c r="G132" s="789" t="str">
+      <c r="G132" s="801" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI132),"",BI132),IF(ISBLANK(DK132),"",DK132))</f>
         <v/>
       </c>
-      <c r="H132" s="739" t="s">
+      <c r="H132" s="774" t="s">
         <v>42</v>
       </c>
-      <c r="I132" s="739" t="str">
+      <c r="I132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK132),"",BK132),IF(ISBLANK(DM132),"",DM132))</f>
         <v>Grand Total</v>
       </c>
-      <c r="J132" s="782"/>
-      <c r="K132" s="739" t="str">
+      <c r="J132" s="817"/>
+      <c r="K132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM132),"",BM132),IF(ISBLANK(DO132),"",DO132))</f>
         <v>Air Freight Forwarding</v>
       </c>
-      <c r="L132" s="739" t="str">
+      <c r="L132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN132),"",BN132),IF(ISBLANK(DP132),"",DP132))</f>
         <v/>
       </c>
-      <c r="M132" s="739" t="str">
+      <c r="M132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BO132),"",BO132),IF(ISBLANK(DQ132),"",DQ132))</f>
         <v/>
       </c>
-      <c r="N132" s="739" t="str">
+      <c r="N132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BP132),"",BP132),IF(ISBLANK(DR132),"",DR132))</f>
         <v/>
       </c>
-      <c r="O132" s="739" t="str">
+      <c r="O132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BQ132),"",BQ132),IF(ISBLANK(DS132),"",DS132))</f>
         <v/>
       </c>
-      <c r="P132" s="739" t="str">
+      <c r="P132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BR132),"",BR132),IF(ISBLANK(DT132),"",DT132))</f>
         <v>Ocean Freight Forwarding</v>
       </c>
-      <c r="Q132" s="739" t="str">
+      <c r="Q132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BS132),"",BS132),IF(ISBLANK(DU132),"",DU132))</f>
         <v/>
       </c>
-      <c r="R132" s="739" t="str">
+      <c r="R132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BT132),"",BT132),IF(ISBLANK(DV132),"",DV132))</f>
         <v/>
       </c>
-      <c r="S132" s="739" t="str">
+      <c r="S132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BU132),"",BU132),IF(ISBLANK(DW132),"",DW132))</f>
         <v/>
       </c>
-      <c r="T132" s="739" t="str">
+      <c r="T132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BV132),"",BV132),IF(ISBLANK(DX132),"",DX132))</f>
         <v/>
       </c>
-      <c r="U132" s="739" t="str">
+      <c r="U132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BW132),"",BW132),IF(ISBLANK(DY132),"",DY132))</f>
         <v>SCS</v>
       </c>
-      <c r="V132" s="739" t="str">
+      <c r="V132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BX132),"",BX132),IF(ISBLANK(DZ132),"",DZ132))</f>
         <v/>
       </c>
-      <c r="W132" s="739" t="str">
+      <c r="W132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BY132),"",BY132),IF(ISBLANK(EA132),"",EA132))</f>
         <v/>
       </c>
-      <c r="X132" s="739" t="str">
+      <c r="X132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BZ132),"",BZ132),IF(ISBLANK(EB132),"",EB132))</f>
         <v/>
       </c>
-      <c r="Y132" s="794" t="str">
+      <c r="Y132" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CA132),"",CA132),IF(ISBLANK(EC132),"",EC132))</f>
         <v>Contract Logistics &amp; Transport</v>
       </c>
-      <c r="Z132" s="794" t="str">
+      <c r="Z132" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CB132),"",CB132),IF(ISBLANK(ED132),"",ED132))</f>
         <v/>
       </c>
-      <c r="AA132" s="794" t="str">
+      <c r="AA132" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CC132),"",CC132),IF(ISBLANK(EE132),"",EE132))</f>
         <v/>
       </c>
-      <c r="AB132" s="794" t="str">
+      <c r="AB132" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CD132),"",CD132),IF(ISBLANK(EF132),"",EF132))</f>
         <v/>
       </c>
-      <c r="AC132" s="739" t="str">
+      <c r="AC132" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE132),"",CE132),IF(ISBLANK(EG132),"",EG132))</f>
         <v>Other business</v>
       </c>
-      <c r="AD132" s="732" t="str">
+      <c r="AD132" s="799" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF132),"",CF132),IF(ISBLANK(EH132),"",EH132))</f>
         <v>Business
 Partner
 (BP)</v>
       </c>
       <c r="AE132" s="22"/>
-      <c r="AF132" s="734" t="str">
+      <c r="AF132" s="754" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH132),"",CH132),IF(ISBLANK(EJ132),"",EJ132))</f>
         <v>Regional Shared Service Center
 (RSSC)</v>
       </c>
-      <c r="AG132" s="734" t="str">
+      <c r="AG132" s="754" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI132),"",CI132),IF(ISBLANK(EK132),"",EK132))</f>
         <v>GHQ arm</v>
       </c>
       <c r="AH132" s="22"/>
-      <c r="AI132" s="748" t="str">
+      <c r="AI132" s="793" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK132),"",CK132),IF(ISBLANK(EM132),"",EM132))</f>
         <v>Global HQ
 (GHQ)</v>
@@ -28686,60 +28686,60 @@
       <c r="BE132" s="1"/>
       <c r="BF132" s="1"/>
       <c r="BG132" s="1"/>
-      <c r="BH132" s="719" t="s">
+      <c r="BH132" s="763" t="s">
         <v>43</v>
       </c>
-      <c r="BI132" s="771"/>
-      <c r="BJ132" s="739" t="s">
+      <c r="BI132" s="777"/>
+      <c r="BJ132" s="774" t="s">
         <v>42</v>
       </c>
-      <c r="BK132" s="729" t="s">
+      <c r="BK132" s="765" t="s">
         <v>44</v>
       </c>
-      <c r="BL132" s="742" t="s">
+      <c r="BL132" s="784" t="s">
         <v>45</v>
       </c>
-      <c r="BM132" s="719" t="s">
+      <c r="BM132" s="763" t="s">
         <v>46</v>
       </c>
-      <c r="BN132" s="720"/>
-      <c r="BO132" s="720"/>
-      <c r="BP132" s="720"/>
-      <c r="BQ132" s="729"/>
-      <c r="BR132" s="719" t="s">
+      <c r="BN132" s="764"/>
+      <c r="BO132" s="764"/>
+      <c r="BP132" s="764"/>
+      <c r="BQ132" s="765"/>
+      <c r="BR132" s="763" t="s">
         <v>47</v>
       </c>
-      <c r="BS132" s="720"/>
-      <c r="BT132" s="720"/>
-      <c r="BU132" s="720"/>
-      <c r="BV132" s="720"/>
-      <c r="BW132" s="719" t="s">
+      <c r="BS132" s="764"/>
+      <c r="BT132" s="764"/>
+      <c r="BU132" s="764"/>
+      <c r="BV132" s="764"/>
+      <c r="BW132" s="763" t="s">
         <v>48</v>
       </c>
-      <c r="BX132" s="720"/>
-      <c r="BY132" s="720"/>
-      <c r="BZ132" s="720"/>
-      <c r="CA132" s="723" t="s">
+      <c r="BX132" s="764"/>
+      <c r="BY132" s="764"/>
+      <c r="BZ132" s="764"/>
+      <c r="CA132" s="787" t="s">
         <v>49</v>
       </c>
-      <c r="CB132" s="724"/>
-      <c r="CC132" s="724"/>
-      <c r="CD132" s="725"/>
+      <c r="CB132" s="788"/>
+      <c r="CC132" s="788"/>
+      <c r="CD132" s="789"/>
       <c r="CE132" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="CF132" s="768" t="s">
+      <c r="CF132" s="741" t="s">
         <v>51</v>
       </c>
       <c r="CG132" s="24"/>
-      <c r="CH132" s="734" t="s">
+      <c r="CH132" s="754" t="s">
         <v>52</v>
       </c>
-      <c r="CI132" s="734" t="s">
+      <c r="CI132" s="754" t="s">
         <v>53</v>
       </c>
       <c r="CJ132" s="24"/>
-      <c r="CK132" s="755" t="s">
+      <c r="CK132" s="757" t="s">
         <v>54</v>
       </c>
       <c r="CM132" s="14"/>
@@ -28757,60 +28757,60 @@
       <c r="DG132" s="1"/>
       <c r="DH132" s="1"/>
       <c r="DI132" s="1"/>
-      <c r="DJ132" s="719" t="s">
+      <c r="DJ132" s="763" t="s">
         <v>406</v>
       </c>
-      <c r="DK132" s="771"/>
-      <c r="DL132" s="775" t="s">
+      <c r="DK132" s="777"/>
+      <c r="DL132" s="810" t="s">
         <v>42</v>
       </c>
-      <c r="DM132" s="729" t="s">
+      <c r="DM132" s="765" t="s">
         <v>407</v>
       </c>
-      <c r="DN132" s="742" t="s">
+      <c r="DN132" s="784" t="s">
         <v>408</v>
       </c>
-      <c r="DO132" s="719" t="s">
+      <c r="DO132" s="763" t="s">
         <v>409</v>
       </c>
-      <c r="DP132" s="720"/>
-      <c r="DQ132" s="720"/>
-      <c r="DR132" s="720"/>
-      <c r="DS132" s="729"/>
-      <c r="DT132" s="720" t="s">
+      <c r="DP132" s="764"/>
+      <c r="DQ132" s="764"/>
+      <c r="DR132" s="764"/>
+      <c r="DS132" s="765"/>
+      <c r="DT132" s="764" t="s">
         <v>410</v>
       </c>
-      <c r="DU132" s="720"/>
-      <c r="DV132" s="720"/>
-      <c r="DW132" s="720"/>
-      <c r="DX132" s="720"/>
-      <c r="DY132" s="719" t="s">
+      <c r="DU132" s="764"/>
+      <c r="DV132" s="764"/>
+      <c r="DW132" s="764"/>
+      <c r="DX132" s="764"/>
+      <c r="DY132" s="763" t="s">
         <v>411</v>
       </c>
-      <c r="DZ132" s="720"/>
-      <c r="EA132" s="720"/>
-      <c r="EB132" s="729"/>
-      <c r="EC132" s="719" t="s">
+      <c r="DZ132" s="764"/>
+      <c r="EA132" s="764"/>
+      <c r="EB132" s="765"/>
+      <c r="EC132" s="763" t="s">
         <v>412</v>
       </c>
-      <c r="ED132" s="720"/>
-      <c r="EE132" s="764"/>
-      <c r="EF132" s="765"/>
-      <c r="EG132" s="739" t="s">
+      <c r="ED132" s="764"/>
+      <c r="EE132" s="769"/>
+      <c r="EF132" s="770"/>
+      <c r="EG132" s="774" t="s">
         <v>413</v>
       </c>
-      <c r="EH132" s="768" t="s">
+      <c r="EH132" s="741" t="s">
         <v>288</v>
       </c>
       <c r="EI132" s="24"/>
-      <c r="EJ132" s="734" t="s">
+      <c r="EJ132" s="754" t="s">
         <v>52</v>
       </c>
-      <c r="EK132" s="734" t="s">
+      <c r="EK132" s="754" t="s">
         <v>53</v>
       </c>
       <c r="EL132" s="24"/>
-      <c r="EM132" s="755" t="s">
+      <c r="EM132" s="757" t="s">
         <v>54</v>
       </c>
       <c r="EP132" s="2"/>
@@ -28820,111 +28820,111 @@
     </row>
     <row r="133" spans="1:149" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="E133" s="115"/>
-      <c r="F133" s="790" t="str">
+      <c r="F133" s="802" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH133),"",BH133),IF(ISBLANK(DJ133),"",DJ133))</f>
         <v/>
       </c>
-      <c r="G133" s="790" t="str">
+      <c r="G133" s="802" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI133),"",BI133),IF(ISBLANK(DK133),"",DK133))</f>
         <v/>
       </c>
-      <c r="H133" s="740"/>
-      <c r="I133" s="792" t="str">
+      <c r="H133" s="781"/>
+      <c r="I133" s="797" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK133),"",BK133),IF(ISBLANK(DM133),"",DM133))</f>
         <v/>
       </c>
-      <c r="J133" s="783"/>
-      <c r="K133" s="747" t="str">
+      <c r="J133" s="818"/>
+      <c r="K133" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM133),"",BM133),IF(ISBLANK(DO133),"",DO133))</f>
         <v/>
       </c>
-      <c r="L133" s="747" t="str">
+      <c r="L133" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN133),"",BN133),IF(ISBLANK(DP133),"",DP133))</f>
         <v/>
       </c>
-      <c r="M133" s="747" t="str">
+      <c r="M133" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BO133),"",BO133),IF(ISBLANK(DQ133),"",DQ133))</f>
         <v/>
       </c>
-      <c r="N133" s="747" t="str">
+      <c r="N133" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BP133),"",BP133),IF(ISBLANK(DR133),"",DR133))</f>
         <v/>
       </c>
-      <c r="O133" s="747" t="str">
+      <c r="O133" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BQ133),"",BQ133),IF(ISBLANK(DS133),"",DS133))</f>
         <v/>
       </c>
-      <c r="P133" s="747" t="str">
+      <c r="P133" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BR133),"",BR133),IF(ISBLANK(DT133),"",DT133))</f>
         <v/>
       </c>
-      <c r="Q133" s="747" t="str">
+      <c r="Q133" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BS133),"",BS133),IF(ISBLANK(DU133),"",DU133))</f>
         <v/>
       </c>
-      <c r="R133" s="747" t="str">
+      <c r="R133" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BT133),"",BT133),IF(ISBLANK(DV133),"",DV133))</f>
         <v/>
       </c>
-      <c r="S133" s="747" t="str">
+      <c r="S133" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BU133),"",BU133),IF(ISBLANK(DW133),"",DW133))</f>
         <v/>
       </c>
-      <c r="T133" s="747" t="str">
+      <c r="T133" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BV133),"",BV133),IF(ISBLANK(DX133),"",DX133))</f>
         <v/>
       </c>
-      <c r="U133" s="747" t="str">
+      <c r="U133" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BW133),"",BW133),IF(ISBLANK(DY133),"",DY133))</f>
         <v/>
       </c>
-      <c r="V133" s="747" t="str">
+      <c r="V133" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BX133),"",BX133),IF(ISBLANK(DZ133),"",DZ133))</f>
         <v/>
       </c>
-      <c r="W133" s="747" t="str">
+      <c r="W133" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BY133),"",BY133),IF(ISBLANK(EA133),"",EA133))</f>
         <v/>
       </c>
-      <c r="X133" s="747" t="str">
+      <c r="X133" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BZ133),"",BZ133),IF(ISBLANK(EB133),"",EB133))</f>
         <v/>
       </c>
-      <c r="Y133" s="795" t="str">
+      <c r="Y133" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CA133),"",CA133),IF(ISBLANK(EC133),"",EC133))</f>
         <v/>
       </c>
-      <c r="Z133" s="795" t="str">
+      <c r="Z133" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CB133),"",CB133),IF(ISBLANK(ED133),"",ED133))</f>
         <v/>
       </c>
-      <c r="AA133" s="795" t="str">
+      <c r="AA133" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CC133),"",CC133),IF(ISBLANK(EE133),"",EE133))</f>
         <v/>
       </c>
-      <c r="AB133" s="795" t="str">
+      <c r="AB133" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CD133),"",CD133),IF(ISBLANK(EF133),"",EF133))</f>
         <v/>
       </c>
-      <c r="AC133" s="792" t="str">
+      <c r="AC133" s="797" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE133),"",CE133),IF(ISBLANK(EG133),"",EG133))</f>
         <v/>
       </c>
-      <c r="AD133" s="796" t="str">
+      <c r="AD133" s="800" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF133),"",CF133),IF(ISBLANK(EH133),"",EH133))</f>
         <v/>
       </c>
       <c r="AE133" s="26"/>
-      <c r="AF133" s="735" t="str">
+      <c r="AF133" s="755" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH133),"",CH133),IF(ISBLANK(EJ133),"",EJ133))</f>
         <v/>
       </c>
-      <c r="AG133" s="735" t="str">
+      <c r="AG133" s="755" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI133),"",CI133),IF(ISBLANK(EK133),"",EK133))</f>
         <v/>
       </c>
       <c r="AH133" s="26"/>
-      <c r="AI133" s="749" t="str">
+      <c r="AI133" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK133),"",CK133),IF(ISBLANK(EM133),"",EM133))</f>
         <v/>
       </c>
@@ -28932,36 +28932,36 @@
       <c r="BE133" s="1"/>
       <c r="BF133" s="1"/>
       <c r="BG133" s="1"/>
-      <c r="BH133" s="772"/>
-      <c r="BI133" s="773"/>
-      <c r="BJ133" s="740"/>
-      <c r="BK133" s="730"/>
-      <c r="BL133" s="743"/>
-      <c r="BM133" s="721"/>
-      <c r="BN133" s="722"/>
-      <c r="BO133" s="722"/>
-      <c r="BP133" s="722"/>
-      <c r="BQ133" s="745"/>
-      <c r="BR133" s="721"/>
-      <c r="BS133" s="722"/>
-      <c r="BT133" s="722"/>
-      <c r="BU133" s="722"/>
-      <c r="BV133" s="722"/>
-      <c r="BW133" s="721"/>
-      <c r="BX133" s="722"/>
-      <c r="BY133" s="722"/>
-      <c r="BZ133" s="722"/>
-      <c r="CA133" s="726"/>
-      <c r="CB133" s="727"/>
-      <c r="CC133" s="727"/>
-      <c r="CD133" s="728"/>
+      <c r="BH133" s="778"/>
+      <c r="BI133" s="779"/>
+      <c r="BJ133" s="781"/>
+      <c r="BK133" s="783"/>
+      <c r="BL133" s="785"/>
+      <c r="BM133" s="766"/>
+      <c r="BN133" s="767"/>
+      <c r="BO133" s="767"/>
+      <c r="BP133" s="767"/>
+      <c r="BQ133" s="768"/>
+      <c r="BR133" s="766"/>
+      <c r="BS133" s="767"/>
+      <c r="BT133" s="767"/>
+      <c r="BU133" s="767"/>
+      <c r="BV133" s="767"/>
+      <c r="BW133" s="766"/>
+      <c r="BX133" s="767"/>
+      <c r="BY133" s="767"/>
+      <c r="BZ133" s="767"/>
+      <c r="CA133" s="790"/>
+      <c r="CB133" s="791"/>
+      <c r="CC133" s="791"/>
+      <c r="CD133" s="792"/>
       <c r="CE133" s="211"/>
-      <c r="CF133" s="769"/>
+      <c r="CF133" s="742"/>
       <c r="CG133" s="212"/>
-      <c r="CH133" s="735"/>
-      <c r="CI133" s="735"/>
+      <c r="CH133" s="755"/>
+      <c r="CI133" s="755"/>
       <c r="CJ133" s="212"/>
-      <c r="CK133" s="756"/>
+      <c r="CK133" s="758"/>
       <c r="CM133" s="14"/>
       <c r="CN133" s="14"/>
       <c r="CO133" s="2"/>
@@ -28977,36 +28977,36 @@
       <c r="DG133" s="1"/>
       <c r="DH133" s="1"/>
       <c r="DI133" s="1"/>
-      <c r="DJ133" s="772"/>
-      <c r="DK133" s="773"/>
-      <c r="DL133" s="776"/>
-      <c r="DM133" s="730"/>
-      <c r="DN133" s="743"/>
-      <c r="DO133" s="721"/>
-      <c r="DP133" s="722"/>
-      <c r="DQ133" s="722"/>
-      <c r="DR133" s="722"/>
-      <c r="DS133" s="745"/>
-      <c r="DT133" s="722"/>
-      <c r="DU133" s="722"/>
-      <c r="DV133" s="722"/>
-      <c r="DW133" s="722"/>
-      <c r="DX133" s="722"/>
-      <c r="DY133" s="721"/>
-      <c r="DZ133" s="722"/>
-      <c r="EA133" s="722"/>
-      <c r="EB133" s="745"/>
-      <c r="EC133" s="766"/>
-      <c r="ED133" s="767"/>
-      <c r="EE133" s="767"/>
-      <c r="EF133" s="731"/>
-      <c r="EG133" s="746"/>
-      <c r="EH133" s="769"/>
+      <c r="DJ133" s="778"/>
+      <c r="DK133" s="779"/>
+      <c r="DL133" s="811"/>
+      <c r="DM133" s="783"/>
+      <c r="DN133" s="785"/>
+      <c r="DO133" s="766"/>
+      <c r="DP133" s="767"/>
+      <c r="DQ133" s="767"/>
+      <c r="DR133" s="767"/>
+      <c r="DS133" s="768"/>
+      <c r="DT133" s="767"/>
+      <c r="DU133" s="767"/>
+      <c r="DV133" s="767"/>
+      <c r="DW133" s="767"/>
+      <c r="DX133" s="767"/>
+      <c r="DY133" s="766"/>
+      <c r="DZ133" s="767"/>
+      <c r="EA133" s="767"/>
+      <c r="EB133" s="768"/>
+      <c r="EC133" s="771"/>
+      <c r="ED133" s="772"/>
+      <c r="EE133" s="772"/>
+      <c r="EF133" s="773"/>
+      <c r="EG133" s="775"/>
+      <c r="EH133" s="742"/>
       <c r="EI133" s="212"/>
-      <c r="EJ133" s="735"/>
-      <c r="EK133" s="735"/>
+      <c r="EJ133" s="755"/>
+      <c r="EK133" s="755"/>
       <c r="EL133" s="212"/>
-      <c r="EM133" s="756"/>
+      <c r="EM133" s="758"/>
       <c r="EP133" s="2"/>
       <c r="EQ133" s="2"/>
       <c r="ER133" s="2"/>
@@ -29014,20 +29014,20 @@
     </row>
     <row r="134" spans="1:149" customFormat="1" ht="42.65" hidden="1" customHeight="1">
       <c r="E134" s="115"/>
-      <c r="F134" s="791" t="str">
+      <c r="F134" s="803" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH134),"",BH134),IF(ISBLANK(DJ134),"",DJ134))</f>
         <v/>
       </c>
-      <c r="G134" s="790" t="str">
+      <c r="G134" s="802" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI134),"",BI134),IF(ISBLANK(DK134),"",DK134))</f>
         <v/>
       </c>
-      <c r="H134" s="741"/>
-      <c r="I134" s="793" t="str">
+      <c r="H134" s="782"/>
+      <c r="I134" s="798" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK134),"",BK134),IF(ISBLANK(DM134),"",DM134))</f>
         <v/>
       </c>
-      <c r="J134" s="784"/>
+      <c r="J134" s="819"/>
       <c r="K134" s="23" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM134),"",BM134),IF(ISBLANK(DO134),"",DO134))</f>
         <v>AFF Total</v>
@@ -29091,25 +29091,25 @@
         <v>Land 
 Transport</v>
       </c>
-      <c r="AC134" s="793" t="str">
+      <c r="AC134" s="798" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE134),"",CE134),IF(ISBLANK(EG134),"",EG134))</f>
         <v/>
       </c>
-      <c r="AD134" s="796" t="str">
+      <c r="AD134" s="800" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF134),"",CF134),IF(ISBLANK(EH134),"",EH134))</f>
         <v/>
       </c>
       <c r="AE134" s="26"/>
-      <c r="AF134" s="736" t="str">
+      <c r="AF134" s="756" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH134),"",CH134),IF(ISBLANK(EJ134),"",EJ134))</f>
         <v/>
       </c>
-      <c r="AG134" s="736" t="str">
+      <c r="AG134" s="756" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI134),"",CI134),IF(ISBLANK(EK134),"",EK134))</f>
         <v/>
       </c>
       <c r="AH134" s="26"/>
-      <c r="AI134" s="749" t="str">
+      <c r="AI134" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK134),"",CK134),IF(ISBLANK(EM134),"",EM134))</f>
         <v/>
       </c>
@@ -29117,11 +29117,11 @@
       <c r="BE134" s="1"/>
       <c r="BF134" s="1"/>
       <c r="BG134" s="1"/>
-      <c r="BH134" s="774"/>
-      <c r="BI134" s="773"/>
-      <c r="BJ134" s="741"/>
-      <c r="BK134" s="731"/>
-      <c r="BL134" s="744"/>
+      <c r="BH134" s="780"/>
+      <c r="BI134" s="779"/>
+      <c r="BJ134" s="782"/>
+      <c r="BK134" s="773"/>
+      <c r="BL134" s="786"/>
       <c r="BM134" s="23" t="s">
         <v>58</v>
       </c>
@@ -29177,12 +29177,12 @@
         <v>72</v>
       </c>
       <c r="CE134" s="211"/>
-      <c r="CF134" s="770"/>
+      <c r="CF134" s="743"/>
       <c r="CG134" s="212"/>
-      <c r="CH134" s="736"/>
-      <c r="CI134" s="736"/>
+      <c r="CH134" s="756"/>
+      <c r="CI134" s="756"/>
       <c r="CJ134" s="212"/>
-      <c r="CK134" s="757"/>
+      <c r="CK134" s="759"/>
       <c r="CM134" s="14"/>
       <c r="CN134" s="14"/>
       <c r="CO134" s="2"/>
@@ -29198,11 +29198,11 @@
       <c r="DG134" s="1"/>
       <c r="DH134" s="1"/>
       <c r="DI134" s="1"/>
-      <c r="DJ134" s="774"/>
-      <c r="DK134" s="773"/>
-      <c r="DL134" s="777"/>
-      <c r="DM134" s="731"/>
-      <c r="DN134" s="744"/>
+      <c r="DJ134" s="780"/>
+      <c r="DK134" s="779"/>
+      <c r="DL134" s="812"/>
+      <c r="DM134" s="773"/>
+      <c r="DN134" s="786"/>
       <c r="DO134" s="23" t="s">
         <v>415</v>
       </c>
@@ -29257,13 +29257,13 @@
       <c r="EF134" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="EG134" s="747"/>
-      <c r="EH134" s="770"/>
+      <c r="EG134" s="776"/>
+      <c r="EH134" s="743"/>
       <c r="EI134" s="212"/>
-      <c r="EJ134" s="736"/>
-      <c r="EK134" s="736"/>
+      <c r="EJ134" s="756"/>
+      <c r="EK134" s="756"/>
       <c r="EL134" s="212"/>
-      <c r="EM134" s="757"/>
+      <c r="EM134" s="759"/>
       <c r="EP134" s="2"/>
       <c r="EQ134" s="2"/>
       <c r="ER134" s="2"/>
@@ -29274,12 +29274,12 @@
         <v>313</v>
       </c>
       <c r="E135" s="115"/>
-      <c r="F135" s="797" t="str">
+      <c r="F135" s="807" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH135),"",BH135),IF(ISBLANK(DJ135),"",DJ135))</f>
         <v>Government grants for labor costs
 ( Reclassified to RFC for management accounting purpose )</v>
       </c>
-      <c r="G135" s="797" t="str">
+      <c r="G135" s="807" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI135),"",BI135),IF(ISBLANK(DK135),"",DK135))</f>
         <v/>
       </c>
@@ -29393,12 +29393,12 @@
         <v>318</v>
       </c>
       <c r="E136" s="115"/>
-      <c r="F136" s="798" t="str">
+      <c r="F136" s="808" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH136),"",BH136),IF(ISBLANK(DJ136),"",DJ136))</f>
         <v>Government grants for personnel expenses
 ( Reclassified to SGA for management accounting purpose )</v>
       </c>
-      <c r="G136" s="798" t="str">
+      <c r="G136" s="808" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI136),"",BI136),IF(ISBLANK(DK136),"",DK136))</f>
         <v/>
       </c>
@@ -29512,11 +29512,11 @@
         <v>323</v>
       </c>
       <c r="E137" s="115"/>
-      <c r="F137" s="799" t="str">
+      <c r="F137" s="809" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH137),"",BH137),IF(ISBLANK(DJ137),"",DJ137))</f>
         <v>Total</v>
       </c>
-      <c r="G137" s="799" t="str">
+      <c r="G137" s="809" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI137),"",BI137),IF(ISBLANK(DK137),"",DK137))</f>
         <v/>
       </c>
@@ -29942,116 +29942,116 @@
     </row>
     <row r="147" spans="1:151" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="E147" s="115"/>
-      <c r="F147" s="739" t="str">
+      <c r="F147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH147),"",BH147),IF(ISBLANK(DJ147),"",DJ147))</f>
         <v>Account</v>
       </c>
-      <c r="G147" s="789" t="str">
+      <c r="G147" s="801" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI147),"",BI147),IF(ISBLANK(DK147),"",DK147))</f>
         <v/>
       </c>
-      <c r="H147" s="739" t="s">
+      <c r="H147" s="774" t="s">
         <v>42</v>
       </c>
-      <c r="I147" s="739" t="str">
+      <c r="I147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK147),"",BK147),IF(ISBLANK(DM147),"",DM147))</f>
         <v>Grand Total</v>
       </c>
-      <c r="J147" s="800"/>
-      <c r="K147" s="739" t="str">
+      <c r="J147" s="804"/>
+      <c r="K147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM147),"",BM147),IF(ISBLANK(DO147),"",DO147))</f>
         <v>Air Freight Forwarding</v>
       </c>
-      <c r="L147" s="739" t="str">
+      <c r="L147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN147),"",BN147),IF(ISBLANK(DP147),"",DP147))</f>
         <v/>
       </c>
-      <c r="M147" s="739" t="str">
+      <c r="M147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BO147),"",BO147),IF(ISBLANK(DQ147),"",DQ147))</f>
         <v/>
       </c>
-      <c r="N147" s="739" t="str">
+      <c r="N147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BP147),"",BP147),IF(ISBLANK(DR147),"",DR147))</f>
         <v/>
       </c>
-      <c r="O147" s="739" t="str">
+      <c r="O147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BQ147),"",BQ147),IF(ISBLANK(DS147),"",DS147))</f>
         <v/>
       </c>
-      <c r="P147" s="739" t="str">
+      <c r="P147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BR147),"",BR147),IF(ISBLANK(DT147),"",DT147))</f>
         <v>Ocean Freight Forwarding</v>
       </c>
-      <c r="Q147" s="739" t="str">
+      <c r="Q147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BS147),"",BS147),IF(ISBLANK(DU147),"",DU147))</f>
         <v/>
       </c>
-      <c r="R147" s="739" t="str">
+      <c r="R147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BT147),"",BT147),IF(ISBLANK(DV147),"",DV147))</f>
         <v/>
       </c>
-      <c r="S147" s="739" t="str">
+      <c r="S147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BU147),"",BU147),IF(ISBLANK(DW147),"",DW147))</f>
         <v/>
       </c>
-      <c r="T147" s="739" t="str">
+      <c r="T147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BV147),"",BV147),IF(ISBLANK(DX147),"",DX147))</f>
         <v/>
       </c>
-      <c r="U147" s="739" t="str">
+      <c r="U147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BW147),"",BW147),IF(ISBLANK(DY147),"",DY147))</f>
         <v>SCS</v>
       </c>
-      <c r="V147" s="739" t="str">
+      <c r="V147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BX147),"",BX147),IF(ISBLANK(DZ147),"",DZ147))</f>
         <v/>
       </c>
-      <c r="W147" s="739" t="str">
+      <c r="W147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BY147),"",BY147),IF(ISBLANK(EA147),"",EA147))</f>
         <v/>
       </c>
-      <c r="X147" s="739" t="str">
+      <c r="X147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BZ147),"",BZ147),IF(ISBLANK(EB147),"",EB147))</f>
         <v/>
       </c>
-      <c r="Y147" s="794" t="str">
+      <c r="Y147" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CA147),"",CA147),IF(ISBLANK(EC147),"",EC147))</f>
         <v>Contract Logistics &amp; Transport</v>
       </c>
-      <c r="Z147" s="794" t="str">
+      <c r="Z147" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CB147),"",CB147),IF(ISBLANK(ED147),"",ED147))</f>
         <v/>
       </c>
-      <c r="AA147" s="794" t="str">
+      <c r="AA147" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CC147),"",CC147),IF(ISBLANK(EE147),"",EE147))</f>
         <v/>
       </c>
-      <c r="AB147" s="794" t="str">
+      <c r="AB147" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CD147),"",CD147),IF(ISBLANK(EF147),"",EF147))</f>
         <v/>
       </c>
-      <c r="AC147" s="739" t="str">
+      <c r="AC147" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE147),"",CE147),IF(ISBLANK(EG147),"",EG147))</f>
         <v>Other business</v>
       </c>
-      <c r="AD147" s="732" t="str">
+      <c r="AD147" s="799" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF147),"",CF147),IF(ISBLANK(EH147),"",EH147))</f>
         <v>Business
 Partner
 (BP)</v>
       </c>
       <c r="AE147" s="22"/>
-      <c r="AF147" s="734" t="str">
+      <c r="AF147" s="754" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH147),"",CH147),IF(ISBLANK(EJ147),"",EJ147))</f>
         <v>Regional Shared Service Center
 (RSSC)</v>
       </c>
-      <c r="AG147" s="734" t="str">
+      <c r="AG147" s="754" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI147),"",CI147),IF(ISBLANK(EK147),"",EK147))</f>
         <v>GHQ arm</v>
       </c>
       <c r="AH147" s="22"/>
-      <c r="AI147" s="748" t="str">
+      <c r="AI147" s="793" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK147),"",CK147),IF(ISBLANK(EM147),"",EM147))</f>
         <v>Global HQ
 (GHQ)</v>
@@ -30060,60 +30060,60 @@
       <c r="BE147" s="1"/>
       <c r="BF147" s="1"/>
       <c r="BG147" s="107"/>
-      <c r="BH147" s="719" t="s">
+      <c r="BH147" s="763" t="s">
         <v>43</v>
       </c>
-      <c r="BI147" s="771"/>
-      <c r="BJ147" s="739" t="s">
+      <c r="BI147" s="777"/>
+      <c r="BJ147" s="774" t="s">
         <v>42</v>
       </c>
-      <c r="BK147" s="729" t="s">
+      <c r="BK147" s="765" t="s">
         <v>44</v>
       </c>
-      <c r="BL147" s="742" t="s">
+      <c r="BL147" s="784" t="s">
         <v>45</v>
       </c>
-      <c r="BM147" s="719" t="s">
+      <c r="BM147" s="763" t="s">
         <v>46</v>
       </c>
-      <c r="BN147" s="720"/>
-      <c r="BO147" s="720"/>
-      <c r="BP147" s="720"/>
-      <c r="BQ147" s="729"/>
-      <c r="BR147" s="719" t="s">
+      <c r="BN147" s="764"/>
+      <c r="BO147" s="764"/>
+      <c r="BP147" s="764"/>
+      <c r="BQ147" s="765"/>
+      <c r="BR147" s="763" t="s">
         <v>47</v>
       </c>
-      <c r="BS147" s="720"/>
-      <c r="BT147" s="720"/>
-      <c r="BU147" s="720"/>
-      <c r="BV147" s="720"/>
-      <c r="BW147" s="719" t="s">
+      <c r="BS147" s="764"/>
+      <c r="BT147" s="764"/>
+      <c r="BU147" s="764"/>
+      <c r="BV147" s="764"/>
+      <c r="BW147" s="763" t="s">
         <v>48</v>
       </c>
-      <c r="BX147" s="720"/>
-      <c r="BY147" s="720"/>
-      <c r="BZ147" s="720"/>
-      <c r="CA147" s="723" t="s">
+      <c r="BX147" s="764"/>
+      <c r="BY147" s="764"/>
+      <c r="BZ147" s="764"/>
+      <c r="CA147" s="787" t="s">
         <v>49</v>
       </c>
-      <c r="CB147" s="724"/>
-      <c r="CC147" s="724"/>
-      <c r="CD147" s="725"/>
+      <c r="CB147" s="788"/>
+      <c r="CC147" s="788"/>
+      <c r="CD147" s="789"/>
       <c r="CE147" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="CF147" s="768" t="s">
+      <c r="CF147" s="741" t="s">
         <v>51</v>
       </c>
       <c r="CG147" s="24"/>
-      <c r="CH147" s="734" t="s">
+      <c r="CH147" s="754" t="s">
         <v>52</v>
       </c>
-      <c r="CI147" s="734" t="s">
+      <c r="CI147" s="754" t="s">
         <v>53</v>
       </c>
       <c r="CJ147" s="24"/>
-      <c r="CK147" s="755" t="s">
+      <c r="CK147" s="757" t="s">
         <v>54</v>
       </c>
       <c r="CM147" s="2"/>
@@ -30126,60 +30126,60 @@
       <c r="DB147" s="1"/>
       <c r="DC147" s="1"/>
       <c r="DI147" s="107"/>
-      <c r="DJ147" s="719" t="s">
+      <c r="DJ147" s="763" t="s">
         <v>334</v>
       </c>
-      <c r="DK147" s="771"/>
-      <c r="DL147" s="739" t="s">
+      <c r="DK147" s="777"/>
+      <c r="DL147" s="774" t="s">
         <v>42</v>
       </c>
-      <c r="DM147" s="729" t="s">
+      <c r="DM147" s="765" t="s">
         <v>335</v>
       </c>
-      <c r="DN147" s="742" t="s">
+      <c r="DN147" s="784" t="s">
         <v>336</v>
       </c>
-      <c r="DO147" s="719" t="s">
+      <c r="DO147" s="763" t="s">
         <v>337</v>
       </c>
-      <c r="DP147" s="720"/>
-      <c r="DQ147" s="720"/>
-      <c r="DR147" s="720"/>
-      <c r="DS147" s="729"/>
-      <c r="DT147" s="719" t="s">
+      <c r="DP147" s="764"/>
+      <c r="DQ147" s="764"/>
+      <c r="DR147" s="764"/>
+      <c r="DS147" s="765"/>
+      <c r="DT147" s="763" t="s">
         <v>338</v>
       </c>
-      <c r="DU147" s="720"/>
-      <c r="DV147" s="720"/>
-      <c r="DW147" s="720"/>
-      <c r="DX147" s="720"/>
-      <c r="DY147" s="719" t="s">
+      <c r="DU147" s="764"/>
+      <c r="DV147" s="764"/>
+      <c r="DW147" s="764"/>
+      <c r="DX147" s="764"/>
+      <c r="DY147" s="763" t="s">
         <v>339</v>
       </c>
-      <c r="DZ147" s="720"/>
-      <c r="EA147" s="720"/>
-      <c r="EB147" s="729"/>
-      <c r="EC147" s="719" t="s">
+      <c r="DZ147" s="764"/>
+      <c r="EA147" s="764"/>
+      <c r="EB147" s="765"/>
+      <c r="EC147" s="763" t="s">
         <v>340</v>
       </c>
-      <c r="ED147" s="720"/>
-      <c r="EE147" s="764"/>
-      <c r="EF147" s="765"/>
-      <c r="EG147" s="739" t="s">
+      <c r="ED147" s="764"/>
+      <c r="EE147" s="769"/>
+      <c r="EF147" s="770"/>
+      <c r="EG147" s="774" t="s">
         <v>341</v>
       </c>
-      <c r="EH147" s="768" t="s">
+      <c r="EH147" s="741" t="s">
         <v>288</v>
       </c>
       <c r="EI147" s="24"/>
-      <c r="EJ147" s="734" t="s">
+      <c r="EJ147" s="754" t="s">
         <v>52</v>
       </c>
-      <c r="EK147" s="734" t="s">
+      <c r="EK147" s="754" t="s">
         <v>53</v>
       </c>
       <c r="EL147" s="24"/>
-      <c r="EM147" s="755" t="s">
+      <c r="EM147" s="757" t="s">
         <v>54</v>
       </c>
       <c r="EP147" s="2"/>
@@ -30189,111 +30189,111 @@
     </row>
     <row r="148" spans="1:151" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="E148" s="115"/>
-      <c r="F148" s="790" t="str">
+      <c r="F148" s="802" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH148),"",BH148),IF(ISBLANK(DJ148),"",DJ148))</f>
         <v/>
       </c>
-      <c r="G148" s="790" t="str">
+      <c r="G148" s="802" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI148),"",BI148),IF(ISBLANK(DK148),"",DK148))</f>
         <v/>
       </c>
-      <c r="H148" s="740"/>
-      <c r="I148" s="792" t="str">
+      <c r="H148" s="781"/>
+      <c r="I148" s="797" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK148),"",BK148),IF(ISBLANK(DM148),"",DM148))</f>
         <v/>
       </c>
-      <c r="J148" s="801"/>
-      <c r="K148" s="747" t="str">
+      <c r="J148" s="805"/>
+      <c r="K148" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM148),"",BM148),IF(ISBLANK(DO148),"",DO148))</f>
         <v/>
       </c>
-      <c r="L148" s="747" t="str">
+      <c r="L148" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN148),"",BN148),IF(ISBLANK(DP148),"",DP148))</f>
         <v/>
       </c>
-      <c r="M148" s="747" t="str">
+      <c r="M148" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BO148),"",BO148),IF(ISBLANK(DQ148),"",DQ148))</f>
         <v/>
       </c>
-      <c r="N148" s="747" t="str">
+      <c r="N148" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BP148),"",BP148),IF(ISBLANK(DR148),"",DR148))</f>
         <v/>
       </c>
-      <c r="O148" s="747" t="str">
+      <c r="O148" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BQ148),"",BQ148),IF(ISBLANK(DS148),"",DS148))</f>
         <v/>
       </c>
-      <c r="P148" s="747" t="str">
+      <c r="P148" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BR148),"",BR148),IF(ISBLANK(DT148),"",DT148))</f>
         <v/>
       </c>
-      <c r="Q148" s="747" t="str">
+      <c r="Q148" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BS148),"",BS148),IF(ISBLANK(DU148),"",DU148))</f>
         <v/>
       </c>
-      <c r="R148" s="747" t="str">
+      <c r="R148" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BT148),"",BT148),IF(ISBLANK(DV148),"",DV148))</f>
         <v/>
       </c>
-      <c r="S148" s="747" t="str">
+      <c r="S148" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BU148),"",BU148),IF(ISBLANK(DW148),"",DW148))</f>
         <v/>
       </c>
-      <c r="T148" s="747" t="str">
+      <c r="T148" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BV148),"",BV148),IF(ISBLANK(DX148),"",DX148))</f>
         <v/>
       </c>
-      <c r="U148" s="747" t="str">
+      <c r="U148" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BW148),"",BW148),IF(ISBLANK(DY148),"",DY148))</f>
         <v/>
       </c>
-      <c r="V148" s="747" t="str">
+      <c r="V148" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BX148),"",BX148),IF(ISBLANK(DZ148),"",DZ148))</f>
         <v/>
       </c>
-      <c r="W148" s="747" t="str">
+      <c r="W148" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BY148),"",BY148),IF(ISBLANK(EA148),"",EA148))</f>
         <v/>
       </c>
-      <c r="X148" s="747" t="str">
+      <c r="X148" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BZ148),"",BZ148),IF(ISBLANK(EB148),"",EB148))</f>
         <v/>
       </c>
-      <c r="Y148" s="795" t="str">
+      <c r="Y148" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CA148),"",CA148),IF(ISBLANK(EC148),"",EC148))</f>
         <v/>
       </c>
-      <c r="Z148" s="795" t="str">
+      <c r="Z148" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CB148),"",CB148),IF(ISBLANK(ED148),"",ED148))</f>
         <v/>
       </c>
-      <c r="AA148" s="795" t="str">
+      <c r="AA148" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CC148),"",CC148),IF(ISBLANK(EE148),"",EE148))</f>
         <v/>
       </c>
-      <c r="AB148" s="795" t="str">
+      <c r="AB148" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CD148),"",CD148),IF(ISBLANK(EF148),"",EF148))</f>
         <v/>
       </c>
-      <c r="AC148" s="792" t="str">
+      <c r="AC148" s="797" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE148),"",CE148),IF(ISBLANK(EG148),"",EG148))</f>
         <v/>
       </c>
-      <c r="AD148" s="796" t="str">
+      <c r="AD148" s="800" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF148),"",CF148),IF(ISBLANK(EH148),"",EH148))</f>
         <v/>
       </c>
       <c r="AE148" s="26"/>
-      <c r="AF148" s="735" t="str">
+      <c r="AF148" s="755" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH148),"",CH148),IF(ISBLANK(EJ148),"",EJ148))</f>
         <v/>
       </c>
-      <c r="AG148" s="735" t="str">
+      <c r="AG148" s="755" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI148),"",CI148),IF(ISBLANK(EK148),"",EK148))</f>
         <v/>
       </c>
       <c r="AH148" s="26"/>
-      <c r="AI148" s="749" t="str">
+      <c r="AI148" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK148),"",CK148),IF(ISBLANK(EM148),"",EM148))</f>
         <v/>
       </c>
@@ -30301,36 +30301,36 @@
       <c r="BE148" s="1"/>
       <c r="BF148" s="1"/>
       <c r="BG148" s="107"/>
-      <c r="BH148" s="772"/>
-      <c r="BI148" s="773"/>
-      <c r="BJ148" s="740"/>
-      <c r="BK148" s="730"/>
-      <c r="BL148" s="743"/>
-      <c r="BM148" s="721"/>
-      <c r="BN148" s="722"/>
-      <c r="BO148" s="722"/>
-      <c r="BP148" s="722"/>
-      <c r="BQ148" s="745"/>
-      <c r="BR148" s="721"/>
-      <c r="BS148" s="722"/>
-      <c r="BT148" s="722"/>
-      <c r="BU148" s="722"/>
-      <c r="BV148" s="722"/>
-      <c r="BW148" s="721"/>
-      <c r="BX148" s="722"/>
-      <c r="BY148" s="722"/>
-      <c r="BZ148" s="722"/>
-      <c r="CA148" s="726"/>
-      <c r="CB148" s="727"/>
-      <c r="CC148" s="727"/>
-      <c r="CD148" s="728"/>
+      <c r="BH148" s="778"/>
+      <c r="BI148" s="779"/>
+      <c r="BJ148" s="781"/>
+      <c r="BK148" s="783"/>
+      <c r="BL148" s="785"/>
+      <c r="BM148" s="766"/>
+      <c r="BN148" s="767"/>
+      <c r="BO148" s="767"/>
+      <c r="BP148" s="767"/>
+      <c r="BQ148" s="768"/>
+      <c r="BR148" s="766"/>
+      <c r="BS148" s="767"/>
+      <c r="BT148" s="767"/>
+      <c r="BU148" s="767"/>
+      <c r="BV148" s="767"/>
+      <c r="BW148" s="766"/>
+      <c r="BX148" s="767"/>
+      <c r="BY148" s="767"/>
+      <c r="BZ148" s="767"/>
+      <c r="CA148" s="790"/>
+      <c r="CB148" s="791"/>
+      <c r="CC148" s="791"/>
+      <c r="CD148" s="792"/>
       <c r="CE148" s="211"/>
-      <c r="CF148" s="769"/>
+      <c r="CF148" s="742"/>
       <c r="CG148" s="212"/>
-      <c r="CH148" s="735"/>
-      <c r="CI148" s="735"/>
+      <c r="CH148" s="755"/>
+      <c r="CI148" s="755"/>
       <c r="CJ148" s="212"/>
-      <c r="CK148" s="756"/>
+      <c r="CK148" s="758"/>
       <c r="CM148" s="2"/>
       <c r="CN148" s="2"/>
       <c r="CO148" s="2"/>
@@ -30341,36 +30341,36 @@
       <c r="DB148" s="1"/>
       <c r="DC148" s="1"/>
       <c r="DI148" s="107"/>
-      <c r="DJ148" s="772"/>
-      <c r="DK148" s="773"/>
-      <c r="DL148" s="740"/>
-      <c r="DM148" s="730"/>
-      <c r="DN148" s="743"/>
-      <c r="DO148" s="721"/>
-      <c r="DP148" s="722"/>
-      <c r="DQ148" s="722"/>
-      <c r="DR148" s="722"/>
-      <c r="DS148" s="745"/>
-      <c r="DT148" s="721"/>
-      <c r="DU148" s="722"/>
-      <c r="DV148" s="722"/>
-      <c r="DW148" s="722"/>
-      <c r="DX148" s="722"/>
-      <c r="DY148" s="721"/>
-      <c r="DZ148" s="722"/>
-      <c r="EA148" s="722"/>
-      <c r="EB148" s="745"/>
-      <c r="EC148" s="766"/>
-      <c r="ED148" s="767"/>
-      <c r="EE148" s="767"/>
-      <c r="EF148" s="731"/>
-      <c r="EG148" s="746"/>
-      <c r="EH148" s="769"/>
+      <c r="DJ148" s="778"/>
+      <c r="DK148" s="779"/>
+      <c r="DL148" s="781"/>
+      <c r="DM148" s="783"/>
+      <c r="DN148" s="785"/>
+      <c r="DO148" s="766"/>
+      <c r="DP148" s="767"/>
+      <c r="DQ148" s="767"/>
+      <c r="DR148" s="767"/>
+      <c r="DS148" s="768"/>
+      <c r="DT148" s="766"/>
+      <c r="DU148" s="767"/>
+      <c r="DV148" s="767"/>
+      <c r="DW148" s="767"/>
+      <c r="DX148" s="767"/>
+      <c r="DY148" s="766"/>
+      <c r="DZ148" s="767"/>
+      <c r="EA148" s="767"/>
+      <c r="EB148" s="768"/>
+      <c r="EC148" s="771"/>
+      <c r="ED148" s="772"/>
+      <c r="EE148" s="772"/>
+      <c r="EF148" s="773"/>
+      <c r="EG148" s="775"/>
+      <c r="EH148" s="742"/>
       <c r="EI148" s="212"/>
-      <c r="EJ148" s="735"/>
-      <c r="EK148" s="735"/>
+      <c r="EJ148" s="755"/>
+      <c r="EK148" s="755"/>
       <c r="EL148" s="212"/>
-      <c r="EM148" s="756"/>
+      <c r="EM148" s="758"/>
       <c r="EP148" s="2"/>
       <c r="EQ148" s="2"/>
       <c r="ER148" s="2"/>
@@ -30378,20 +30378,20 @@
     </row>
     <row r="149" spans="1:151" customFormat="1" ht="42" hidden="1" customHeight="1">
       <c r="E149" s="115"/>
-      <c r="F149" s="791" t="str">
+      <c r="F149" s="803" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH149),"",BH149),IF(ISBLANK(DJ149),"",DJ149))</f>
         <v/>
       </c>
-      <c r="G149" s="791" t="str">
+      <c r="G149" s="803" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI149),"",BI149),IF(ISBLANK(DK149),"",DK149))</f>
         <v/>
       </c>
-      <c r="H149" s="741"/>
-      <c r="I149" s="793" t="str">
+      <c r="H149" s="782"/>
+      <c r="I149" s="798" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK149),"",BK149),IF(ISBLANK(DM149),"",DM149))</f>
         <v/>
       </c>
-      <c r="J149" s="802"/>
+      <c r="J149" s="806"/>
       <c r="K149" s="23" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM149),"",BM149),IF(ISBLANK(DO149),"",DO149))</f>
         <v>AFF Total</v>
@@ -30449,25 +30449,25 @@
         <v>Land 
 Transport</v>
       </c>
-      <c r="AC149" s="793" t="str">
+      <c r="AC149" s="798" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE149),"",CE149),IF(ISBLANK(EG149),"",EG149))</f>
         <v/>
       </c>
-      <c r="AD149" s="796" t="str">
+      <c r="AD149" s="800" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF149),"",CF149),IF(ISBLANK(EH149),"",EH149))</f>
         <v/>
       </c>
       <c r="AE149" s="26"/>
-      <c r="AF149" s="736" t="str">
+      <c r="AF149" s="756" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH149),"",CH149),IF(ISBLANK(EJ149),"",EJ149))</f>
         <v/>
       </c>
-      <c r="AG149" s="736" t="str">
+      <c r="AG149" s="756" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI149),"",CI149),IF(ISBLANK(EK149),"",EK149))</f>
         <v/>
       </c>
       <c r="AH149" s="26"/>
-      <c r="AI149" s="749" t="str">
+      <c r="AI149" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK149),"",CK149),IF(ISBLANK(EM149),"",EM149))</f>
         <v/>
       </c>
@@ -30475,11 +30475,11 @@
       <c r="BE149" s="1"/>
       <c r="BF149" s="1"/>
       <c r="BG149" s="107"/>
-      <c r="BH149" s="774"/>
-      <c r="BI149" s="773"/>
-      <c r="BJ149" s="741"/>
-      <c r="BK149" s="731"/>
-      <c r="BL149" s="744"/>
+      <c r="BH149" s="780"/>
+      <c r="BI149" s="779"/>
+      <c r="BJ149" s="782"/>
+      <c r="BK149" s="773"/>
+      <c r="BL149" s="786"/>
       <c r="BM149" s="23" t="s">
         <v>58</v>
       </c>
@@ -30535,12 +30535,12 @@
         <v>72</v>
       </c>
       <c r="CE149" s="211"/>
-      <c r="CF149" s="770"/>
+      <c r="CF149" s="743"/>
       <c r="CG149" s="212"/>
-      <c r="CH149" s="736"/>
-      <c r="CI149" s="736"/>
+      <c r="CH149" s="756"/>
+      <c r="CI149" s="756"/>
       <c r="CJ149" s="212"/>
-      <c r="CK149" s="757"/>
+      <c r="CK149" s="759"/>
       <c r="CM149" s="2"/>
       <c r="CN149" s="2"/>
       <c r="CO149" s="2"/>
@@ -30551,11 +30551,11 @@
       <c r="DB149" s="1"/>
       <c r="DC149" s="1"/>
       <c r="DI149" s="107"/>
-      <c r="DJ149" s="774"/>
-      <c r="DK149" s="773"/>
-      <c r="DL149" s="741"/>
-      <c r="DM149" s="731"/>
-      <c r="DN149" s="744"/>
+      <c r="DJ149" s="780"/>
+      <c r="DK149" s="779"/>
+      <c r="DL149" s="782"/>
+      <c r="DM149" s="773"/>
+      <c r="DN149" s="786"/>
       <c r="DO149" s="23" t="s">
         <v>342</v>
       </c>
@@ -30610,13 +30610,13 @@
       <c r="EF149" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="EG149" s="747"/>
-      <c r="EH149" s="770"/>
+      <c r="EG149" s="776"/>
+      <c r="EH149" s="743"/>
       <c r="EI149" s="212"/>
-      <c r="EJ149" s="736"/>
-      <c r="EK149" s="736"/>
+      <c r="EJ149" s="756"/>
+      <c r="EK149" s="756"/>
       <c r="EL149" s="212"/>
-      <c r="EM149" s="757"/>
+      <c r="EM149" s="759"/>
       <c r="EP149" s="2"/>
       <c r="EQ149" s="2"/>
       <c r="ER149" s="2"/>
@@ -30627,11 +30627,11 @@
         <v>352</v>
       </c>
       <c r="E150" s="115"/>
-      <c r="F150" s="803" t="str">
+      <c r="F150" s="760" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH150),"",BH150),IF(ISBLANK(DJ150),"",DJ150))</f>
         <v>Adjustment of sales revenues (deducted for management accounting purpose)</v>
       </c>
-      <c r="G150" s="803" t="str">
+      <c r="G150" s="760" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI150),"",BI150),IF(ISBLANK(DK150),"",DK150))</f>
         <v/>
       </c>
@@ -30778,11 +30778,11 @@
         <v>358</v>
       </c>
       <c r="E151" s="115"/>
-      <c r="F151" s="804" t="str">
+      <c r="F151" s="761" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH151),"",BH151),IF(ISBLANK(DJ151),"",DJ151))</f>
         <v xml:space="preserve">Adjustment of cost of sales (deducted for management accounting purpose) </v>
       </c>
-      <c r="G151" s="804" t="str">
+      <c r="G151" s="761" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI151),"",BI151),IF(ISBLANK(DK151),"",DK151))</f>
         <v/>
       </c>
@@ -30932,11 +30932,11 @@
         <v>364</v>
       </c>
       <c r="E152" s="115"/>
-      <c r="F152" s="805" t="str">
+      <c r="F152" s="762" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH152),"",BH152),IF(ISBLANK(DJ152),"",DJ152))</f>
         <v>Adjustment of gross profit</v>
       </c>
-      <c r="G152" s="805" t="str">
+      <c r="G152" s="762" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI152),"",BI152),IF(ISBLANK(DK152),"",DK152))</f>
         <v/>
       </c>
@@ -31457,116 +31457,116 @@
     </row>
     <row r="162" spans="1:151" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="E162" s="115"/>
-      <c r="F162" s="739" t="str">
+      <c r="F162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH162),"",BH162),IF(ISBLANK(DJ162),"",DJ162))</f>
         <v>Account</v>
       </c>
-      <c r="G162" s="789" t="str">
+      <c r="G162" s="801" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI162),"",BI162),IF(ISBLANK(DK162),"",DK162))</f>
         <v/>
       </c>
-      <c r="H162" s="739" t="s">
+      <c r="H162" s="774" t="s">
         <v>42</v>
       </c>
-      <c r="I162" s="739" t="str">
+      <c r="I162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK162),"",BK162),IF(ISBLANK(DM162),"",DM162))</f>
         <v>Grand Total</v>
       </c>
-      <c r="J162" s="800"/>
-      <c r="K162" s="739" t="str">
+      <c r="J162" s="804"/>
+      <c r="K162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM162),"",BM162),IF(ISBLANK(DO162),"",DO162))</f>
         <v>Air Freight Forwarding</v>
       </c>
-      <c r="L162" s="739" t="str">
+      <c r="L162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN162),"",BN162),IF(ISBLANK(DP162),"",DP162))</f>
         <v/>
       </c>
-      <c r="M162" s="739" t="str">
+      <c r="M162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BO162),"",BO162),IF(ISBLANK(DQ162),"",DQ162))</f>
         <v/>
       </c>
-      <c r="N162" s="739" t="str">
+      <c r="N162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BP162),"",BP162),IF(ISBLANK(DR162),"",DR162))</f>
         <v/>
       </c>
-      <c r="O162" s="739" t="str">
+      <c r="O162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BQ162),"",BQ162),IF(ISBLANK(DS162),"",DS162))</f>
         <v/>
       </c>
-      <c r="P162" s="739" t="str">
+      <c r="P162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BR162),"",BR162),IF(ISBLANK(DT162),"",DT162))</f>
         <v>Ocean Freight Forwarding</v>
       </c>
-      <c r="Q162" s="739" t="str">
+      <c r="Q162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BS162),"",BS162),IF(ISBLANK(DU162),"",DU162))</f>
         <v/>
       </c>
-      <c r="R162" s="739" t="str">
+      <c r="R162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BT162),"",BT162),IF(ISBLANK(DV162),"",DV162))</f>
         <v/>
       </c>
-      <c r="S162" s="739" t="str">
+      <c r="S162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BU162),"",BU162),IF(ISBLANK(DW162),"",DW162))</f>
         <v/>
       </c>
-      <c r="T162" s="739" t="str">
+      <c r="T162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BV162),"",BV162),IF(ISBLANK(DX162),"",DX162))</f>
         <v/>
       </c>
-      <c r="U162" s="739" t="str">
+      <c r="U162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BW162),"",BW162),IF(ISBLANK(DY162),"",DY162))</f>
         <v>SCS</v>
       </c>
-      <c r="V162" s="739" t="str">
+      <c r="V162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BX162),"",BX162),IF(ISBLANK(DZ162),"",DZ162))</f>
         <v/>
       </c>
-      <c r="W162" s="739" t="str">
+      <c r="W162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BY162),"",BY162),IF(ISBLANK(EA162),"",EA162))</f>
         <v/>
       </c>
-      <c r="X162" s="739" t="str">
+      <c r="X162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BZ162),"",BZ162),IF(ISBLANK(EB162),"",EB162))</f>
         <v/>
       </c>
-      <c r="Y162" s="794" t="str">
+      <c r="Y162" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CA162),"",CA162),IF(ISBLANK(EC162),"",EC162))</f>
         <v>Contract Logistics &amp; Transport</v>
       </c>
-      <c r="Z162" s="794" t="str">
+      <c r="Z162" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CB162),"",CB162),IF(ISBLANK(ED162),"",ED162))</f>
         <v/>
       </c>
-      <c r="AA162" s="794" t="str">
+      <c r="AA162" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CC162),"",CC162),IF(ISBLANK(EE162),"",EE162))</f>
         <v/>
       </c>
-      <c r="AB162" s="794" t="str">
+      <c r="AB162" s="795" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CD162),"",CD162),IF(ISBLANK(EF162),"",EF162))</f>
         <v/>
       </c>
-      <c r="AC162" s="739" t="str">
+      <c r="AC162" s="774" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE162),"",CE162),IF(ISBLANK(EG162),"",EG162))</f>
         <v>Other business</v>
       </c>
-      <c r="AD162" s="732" t="str">
+      <c r="AD162" s="799" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF162),"",CF162),IF(ISBLANK(EH162),"",EH162))</f>
         <v>Business
 Partner
 (BP)</v>
       </c>
       <c r="AE162" s="22"/>
-      <c r="AF162" s="734" t="str">
+      <c r="AF162" s="754" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH162),"",CH162),IF(ISBLANK(EJ162),"",EJ162))</f>
         <v>Regional Shared Service Center
 (RSSC)</v>
       </c>
-      <c r="AG162" s="734" t="str">
+      <c r="AG162" s="754" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI162),"",CI162),IF(ISBLANK(EK162),"",EK162))</f>
         <v>GHQ arm</v>
       </c>
       <c r="AH162" s="22"/>
-      <c r="AI162" s="748" t="str">
+      <c r="AI162" s="793" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK162),"",CK162),IF(ISBLANK(EM162),"",EM162))</f>
         <v>Global HQ
 (GHQ)</v>
@@ -31575,60 +31575,60 @@
       <c r="BE162" s="1"/>
       <c r="BF162" s="1"/>
       <c r="BG162" s="107"/>
-      <c r="BH162" s="719" t="s">
+      <c r="BH162" s="763" t="s">
         <v>43</v>
       </c>
-      <c r="BI162" s="771"/>
-      <c r="BJ162" s="739" t="s">
+      <c r="BI162" s="777"/>
+      <c r="BJ162" s="774" t="s">
         <v>42</v>
       </c>
-      <c r="BK162" s="729" t="s">
+      <c r="BK162" s="765" t="s">
         <v>44</v>
       </c>
-      <c r="BL162" s="742" t="s">
+      <c r="BL162" s="784" t="s">
         <v>45</v>
       </c>
-      <c r="BM162" s="719" t="s">
+      <c r="BM162" s="763" t="s">
         <v>46</v>
       </c>
-      <c r="BN162" s="720"/>
-      <c r="BO162" s="720"/>
-      <c r="BP162" s="720"/>
-      <c r="BQ162" s="729"/>
-      <c r="BR162" s="719" t="s">
+      <c r="BN162" s="764"/>
+      <c r="BO162" s="764"/>
+      <c r="BP162" s="764"/>
+      <c r="BQ162" s="765"/>
+      <c r="BR162" s="763" t="s">
         <v>47</v>
       </c>
-      <c r="BS162" s="720"/>
-      <c r="BT162" s="720"/>
-      <c r="BU162" s="720"/>
-      <c r="BV162" s="720"/>
-      <c r="BW162" s="719" t="s">
+      <c r="BS162" s="764"/>
+      <c r="BT162" s="764"/>
+      <c r="BU162" s="764"/>
+      <c r="BV162" s="764"/>
+      <c r="BW162" s="763" t="s">
         <v>48</v>
       </c>
-      <c r="BX162" s="720"/>
-      <c r="BY162" s="720"/>
-      <c r="BZ162" s="720"/>
-      <c r="CA162" s="723" t="s">
+      <c r="BX162" s="764"/>
+      <c r="BY162" s="764"/>
+      <c r="BZ162" s="764"/>
+      <c r="CA162" s="787" t="s">
         <v>49</v>
       </c>
-      <c r="CB162" s="724"/>
-      <c r="CC162" s="724"/>
-      <c r="CD162" s="725"/>
+      <c r="CB162" s="788"/>
+      <c r="CC162" s="788"/>
+      <c r="CD162" s="789"/>
       <c r="CE162" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="CF162" s="768" t="s">
+      <c r="CF162" s="741" t="s">
         <v>51</v>
       </c>
       <c r="CG162" s="24"/>
-      <c r="CH162" s="734" t="s">
+      <c r="CH162" s="754" t="s">
         <v>52</v>
       </c>
-      <c r="CI162" s="734" t="s">
+      <c r="CI162" s="754" t="s">
         <v>53</v>
       </c>
       <c r="CJ162" s="24"/>
-      <c r="CK162" s="755" t="s">
+      <c r="CK162" s="757" t="s">
         <v>54</v>
       </c>
       <c r="CM162" s="2"/>
@@ -31641,60 +31641,60 @@
       <c r="DB162" s="1"/>
       <c r="DC162" s="1"/>
       <c r="DI162" s="107"/>
-      <c r="DJ162" s="719" t="s">
+      <c r="DJ162" s="763" t="s">
         <v>334</v>
       </c>
-      <c r="DK162" s="771"/>
-      <c r="DL162" s="739" t="s">
+      <c r="DK162" s="777"/>
+      <c r="DL162" s="774" t="s">
         <v>42</v>
       </c>
-      <c r="DM162" s="729" t="s">
+      <c r="DM162" s="765" t="s">
         <v>335</v>
       </c>
-      <c r="DN162" s="742" t="s">
+      <c r="DN162" s="784" t="s">
         <v>336</v>
       </c>
-      <c r="DO162" s="719" t="s">
+      <c r="DO162" s="763" t="s">
         <v>337</v>
       </c>
-      <c r="DP162" s="720"/>
-      <c r="DQ162" s="720"/>
-      <c r="DR162" s="720"/>
-      <c r="DS162" s="729"/>
-      <c r="DT162" s="719" t="s">
+      <c r="DP162" s="764"/>
+      <c r="DQ162" s="764"/>
+      <c r="DR162" s="764"/>
+      <c r="DS162" s="765"/>
+      <c r="DT162" s="763" t="s">
         <v>338</v>
       </c>
-      <c r="DU162" s="720"/>
-      <c r="DV162" s="720"/>
-      <c r="DW162" s="720"/>
-      <c r="DX162" s="720"/>
-      <c r="DY162" s="719" t="s">
+      <c r="DU162" s="764"/>
+      <c r="DV162" s="764"/>
+      <c r="DW162" s="764"/>
+      <c r="DX162" s="764"/>
+      <c r="DY162" s="763" t="s">
         <v>339</v>
       </c>
-      <c r="DZ162" s="720"/>
-      <c r="EA162" s="720"/>
-      <c r="EB162" s="729"/>
-      <c r="EC162" s="719" t="s">
+      <c r="DZ162" s="764"/>
+      <c r="EA162" s="764"/>
+      <c r="EB162" s="765"/>
+      <c r="EC162" s="763" t="s">
         <v>340</v>
       </c>
-      <c r="ED162" s="720"/>
-      <c r="EE162" s="764"/>
-      <c r="EF162" s="765"/>
-      <c r="EG162" s="739" t="s">
+      <c r="ED162" s="764"/>
+      <c r="EE162" s="769"/>
+      <c r="EF162" s="770"/>
+      <c r="EG162" s="774" t="s">
         <v>341</v>
       </c>
-      <c r="EH162" s="768" t="s">
+      <c r="EH162" s="741" t="s">
         <v>288</v>
       </c>
       <c r="EI162" s="24"/>
-      <c r="EJ162" s="734" t="s">
+      <c r="EJ162" s="754" t="s">
         <v>52</v>
       </c>
-      <c r="EK162" s="734" t="s">
+      <c r="EK162" s="754" t="s">
         <v>53</v>
       </c>
       <c r="EL162" s="24"/>
-      <c r="EM162" s="755" t="s">
+      <c r="EM162" s="757" t="s">
         <v>54</v>
       </c>
       <c r="EP162" s="2"/>
@@ -31704,111 +31704,111 @@
     </row>
     <row r="163" spans="1:151" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="E163" s="115"/>
-      <c r="F163" s="790" t="str">
+      <c r="F163" s="802" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH163),"",BH163),IF(ISBLANK(DJ163),"",DJ163))</f>
         <v/>
       </c>
-      <c r="G163" s="790" t="str">
+      <c r="G163" s="802" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI163),"",BI163),IF(ISBLANK(DK163),"",DK163))</f>
         <v/>
       </c>
-      <c r="H163" s="740"/>
-      <c r="I163" s="792" t="str">
+      <c r="H163" s="781"/>
+      <c r="I163" s="797" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK163),"",BK163),IF(ISBLANK(DM163),"",DM163))</f>
         <v/>
       </c>
-      <c r="J163" s="801"/>
-      <c r="K163" s="747" t="str">
+      <c r="J163" s="805"/>
+      <c r="K163" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM163),"",BM163),IF(ISBLANK(DO163),"",DO163))</f>
         <v/>
       </c>
-      <c r="L163" s="747" t="str">
+      <c r="L163" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BN163),"",BN163),IF(ISBLANK(DP163),"",DP163))</f>
         <v/>
       </c>
-      <c r="M163" s="747" t="str">
+      <c r="M163" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BO163),"",BO163),IF(ISBLANK(DQ163),"",DQ163))</f>
         <v/>
       </c>
-      <c r="N163" s="747" t="str">
+      <c r="N163" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BP163),"",BP163),IF(ISBLANK(DR163),"",DR163))</f>
         <v/>
       </c>
-      <c r="O163" s="747" t="str">
+      <c r="O163" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BQ163),"",BQ163),IF(ISBLANK(DS163),"",DS163))</f>
         <v/>
       </c>
-      <c r="P163" s="747" t="str">
+      <c r="P163" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BR163),"",BR163),IF(ISBLANK(DT163),"",DT163))</f>
         <v/>
       </c>
-      <c r="Q163" s="747" t="str">
+      <c r="Q163" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BS163),"",BS163),IF(ISBLANK(DU163),"",DU163))</f>
         <v/>
       </c>
-      <c r="R163" s="747" t="str">
+      <c r="R163" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BT163),"",BT163),IF(ISBLANK(DV163),"",DV163))</f>
         <v/>
       </c>
-      <c r="S163" s="747" t="str">
+      <c r="S163" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BU163),"",BU163),IF(ISBLANK(DW163),"",DW163))</f>
         <v/>
       </c>
-      <c r="T163" s="747" t="str">
+      <c r="T163" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BV163),"",BV163),IF(ISBLANK(DX163),"",DX163))</f>
         <v/>
       </c>
-      <c r="U163" s="747" t="str">
+      <c r="U163" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BW163),"",BW163),IF(ISBLANK(DY163),"",DY163))</f>
         <v/>
       </c>
-      <c r="V163" s="747" t="str">
+      <c r="V163" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BX163),"",BX163),IF(ISBLANK(DZ163),"",DZ163))</f>
         <v/>
       </c>
-      <c r="W163" s="747" t="str">
+      <c r="W163" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BY163),"",BY163),IF(ISBLANK(EA163),"",EA163))</f>
         <v/>
       </c>
-      <c r="X163" s="747" t="str">
+      <c r="X163" s="776" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BZ163),"",BZ163),IF(ISBLANK(EB163),"",EB163))</f>
         <v/>
       </c>
-      <c r="Y163" s="795" t="str">
+      <c r="Y163" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CA163),"",CA163),IF(ISBLANK(EC163),"",EC163))</f>
         <v/>
       </c>
-      <c r="Z163" s="795" t="str">
+      <c r="Z163" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CB163),"",CB163),IF(ISBLANK(ED163),"",ED163))</f>
         <v/>
       </c>
-      <c r="AA163" s="795" t="str">
+      <c r="AA163" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CC163),"",CC163),IF(ISBLANK(EE163),"",EE163))</f>
         <v/>
       </c>
-      <c r="AB163" s="795" t="str">
+      <c r="AB163" s="796" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CD163),"",CD163),IF(ISBLANK(EF163),"",EF163))</f>
         <v/>
       </c>
-      <c r="AC163" s="792" t="str">
+      <c r="AC163" s="797" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE163),"",CE163),IF(ISBLANK(EG163),"",EG163))</f>
         <v/>
       </c>
-      <c r="AD163" s="796" t="str">
+      <c r="AD163" s="800" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF163),"",CF163),IF(ISBLANK(EH163),"",EH163))</f>
         <v/>
       </c>
       <c r="AE163" s="26"/>
-      <c r="AF163" s="735" t="str">
+      <c r="AF163" s="755" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH163),"",CH163),IF(ISBLANK(EJ163),"",EJ163))</f>
         <v/>
       </c>
-      <c r="AG163" s="735" t="str">
+      <c r="AG163" s="755" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI163),"",CI163),IF(ISBLANK(EK163),"",EK163))</f>
         <v/>
       </c>
       <c r="AH163" s="26"/>
-      <c r="AI163" s="749" t="str">
+      <c r="AI163" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK163),"",CK163),IF(ISBLANK(EM163),"",EM163))</f>
         <v/>
       </c>
@@ -31816,36 +31816,36 @@
       <c r="BE163" s="1"/>
       <c r="BF163" s="1"/>
       <c r="BG163" s="107"/>
-      <c r="BH163" s="772"/>
-      <c r="BI163" s="773"/>
-      <c r="BJ163" s="740"/>
-      <c r="BK163" s="730"/>
-      <c r="BL163" s="743"/>
-      <c r="BM163" s="721"/>
-      <c r="BN163" s="722"/>
-      <c r="BO163" s="722"/>
-      <c r="BP163" s="722"/>
-      <c r="BQ163" s="745"/>
-      <c r="BR163" s="721"/>
-      <c r="BS163" s="722"/>
-      <c r="BT163" s="722"/>
-      <c r="BU163" s="722"/>
-      <c r="BV163" s="722"/>
-      <c r="BW163" s="721"/>
-      <c r="BX163" s="722"/>
-      <c r="BY163" s="722"/>
-      <c r="BZ163" s="722"/>
-      <c r="CA163" s="726"/>
-      <c r="CB163" s="727"/>
-      <c r="CC163" s="727"/>
-      <c r="CD163" s="728"/>
+      <c r="BH163" s="778"/>
+      <c r="BI163" s="779"/>
+      <c r="BJ163" s="781"/>
+      <c r="BK163" s="783"/>
+      <c r="BL163" s="785"/>
+      <c r="BM163" s="766"/>
+      <c r="BN163" s="767"/>
+      <c r="BO163" s="767"/>
+      <c r="BP163" s="767"/>
+      <c r="BQ163" s="768"/>
+      <c r="BR163" s="766"/>
+      <c r="BS163" s="767"/>
+      <c r="BT163" s="767"/>
+      <c r="BU163" s="767"/>
+      <c r="BV163" s="767"/>
+      <c r="BW163" s="766"/>
+      <c r="BX163" s="767"/>
+      <c r="BY163" s="767"/>
+      <c r="BZ163" s="767"/>
+      <c r="CA163" s="790"/>
+      <c r="CB163" s="791"/>
+      <c r="CC163" s="791"/>
+      <c r="CD163" s="792"/>
       <c r="CE163" s="211"/>
-      <c r="CF163" s="769"/>
+      <c r="CF163" s="742"/>
       <c r="CG163" s="212"/>
-      <c r="CH163" s="735"/>
-      <c r="CI163" s="735"/>
+      <c r="CH163" s="755"/>
+      <c r="CI163" s="755"/>
       <c r="CJ163" s="212"/>
-      <c r="CK163" s="756"/>
+      <c r="CK163" s="758"/>
       <c r="CM163" s="2"/>
       <c r="CN163" s="2"/>
       <c r="CO163" s="2"/>
@@ -31856,36 +31856,36 @@
       <c r="DB163" s="1"/>
       <c r="DC163" s="1"/>
       <c r="DI163" s="107"/>
-      <c r="DJ163" s="772"/>
-      <c r="DK163" s="773"/>
-      <c r="DL163" s="740"/>
-      <c r="DM163" s="730"/>
-      <c r="DN163" s="743"/>
-      <c r="DO163" s="721"/>
-      <c r="DP163" s="722"/>
-      <c r="DQ163" s="722"/>
-      <c r="DR163" s="722"/>
-      <c r="DS163" s="745"/>
-      <c r="DT163" s="721"/>
-      <c r="DU163" s="722"/>
-      <c r="DV163" s="722"/>
-      <c r="DW163" s="722"/>
-      <c r="DX163" s="722"/>
-      <c r="DY163" s="721"/>
-      <c r="DZ163" s="722"/>
-      <c r="EA163" s="722"/>
-      <c r="EB163" s="745"/>
-      <c r="EC163" s="766"/>
-      <c r="ED163" s="767"/>
-      <c r="EE163" s="767"/>
-      <c r="EF163" s="731"/>
-      <c r="EG163" s="746"/>
-      <c r="EH163" s="769"/>
+      <c r="DJ163" s="778"/>
+      <c r="DK163" s="779"/>
+      <c r="DL163" s="781"/>
+      <c r="DM163" s="783"/>
+      <c r="DN163" s="785"/>
+      <c r="DO163" s="766"/>
+      <c r="DP163" s="767"/>
+      <c r="DQ163" s="767"/>
+      <c r="DR163" s="767"/>
+      <c r="DS163" s="768"/>
+      <c r="DT163" s="766"/>
+      <c r="DU163" s="767"/>
+      <c r="DV163" s="767"/>
+      <c r="DW163" s="767"/>
+      <c r="DX163" s="767"/>
+      <c r="DY163" s="766"/>
+      <c r="DZ163" s="767"/>
+      <c r="EA163" s="767"/>
+      <c r="EB163" s="768"/>
+      <c r="EC163" s="771"/>
+      <c r="ED163" s="772"/>
+      <c r="EE163" s="772"/>
+      <c r="EF163" s="773"/>
+      <c r="EG163" s="775"/>
+      <c r="EH163" s="742"/>
       <c r="EI163" s="212"/>
-      <c r="EJ163" s="735"/>
-      <c r="EK163" s="735"/>
+      <c r="EJ163" s="755"/>
+      <c r="EK163" s="755"/>
       <c r="EL163" s="212"/>
-      <c r="EM163" s="756"/>
+      <c r="EM163" s="758"/>
       <c r="EP163" s="2"/>
       <c r="EQ163" s="2"/>
       <c r="ER163" s="2"/>
@@ -31893,20 +31893,20 @@
     </row>
     <row r="164" spans="1:151" customFormat="1" ht="42" hidden="1" customHeight="1">
       <c r="E164" s="115"/>
-      <c r="F164" s="791" t="str">
+      <c r="F164" s="803" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH164),"",BH164),IF(ISBLANK(DJ164),"",DJ164))</f>
         <v/>
       </c>
-      <c r="G164" s="791" t="str">
+      <c r="G164" s="803" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI164),"",BI164),IF(ISBLANK(DK164),"",DK164))</f>
         <v/>
       </c>
-      <c r="H164" s="741"/>
-      <c r="I164" s="793" t="str">
+      <c r="H164" s="782"/>
+      <c r="I164" s="798" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BK164),"",BK164),IF(ISBLANK(DM164),"",DM164))</f>
         <v/>
       </c>
-      <c r="J164" s="802"/>
+      <c r="J164" s="806"/>
       <c r="K164" s="23" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BM164),"",BM164),IF(ISBLANK(DO164),"",DO164))</f>
         <v>AFF Total</v>
@@ -31964,25 +31964,25 @@
         <v>Land 
 Transport</v>
       </c>
-      <c r="AC164" s="793" t="str">
+      <c r="AC164" s="798" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CE164),"",CE164),IF(ISBLANK(EG164),"",EG164))</f>
         <v/>
       </c>
-      <c r="AD164" s="796" t="str">
+      <c r="AD164" s="800" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CF164),"",CF164),IF(ISBLANK(EH164),"",EH164))</f>
         <v/>
       </c>
       <c r="AE164" s="26"/>
-      <c r="AF164" s="736" t="str">
+      <c r="AF164" s="756" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CH164),"",CH164),IF(ISBLANK(EJ164),"",EJ164))</f>
         <v/>
       </c>
-      <c r="AG164" s="736" t="str">
+      <c r="AG164" s="756" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CI164),"",CI164),IF(ISBLANK(EK164),"",EK164))</f>
         <v/>
       </c>
       <c r="AH164" s="26"/>
-      <c r="AI164" s="749" t="str">
+      <c r="AI164" s="794" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(CK164),"",CK164),IF(ISBLANK(EM164),"",EM164))</f>
         <v/>
       </c>
@@ -31990,11 +31990,11 @@
       <c r="BE164" s="1"/>
       <c r="BF164" s="1"/>
       <c r="BG164" s="107"/>
-      <c r="BH164" s="774"/>
-      <c r="BI164" s="773"/>
-      <c r="BJ164" s="741"/>
-      <c r="BK164" s="731"/>
-      <c r="BL164" s="744"/>
+      <c r="BH164" s="780"/>
+      <c r="BI164" s="779"/>
+      <c r="BJ164" s="782"/>
+      <c r="BK164" s="773"/>
+      <c r="BL164" s="786"/>
       <c r="BM164" s="23" t="s">
         <v>58</v>
       </c>
@@ -32050,12 +32050,12 @@
         <v>72</v>
       </c>
       <c r="CE164" s="211"/>
-      <c r="CF164" s="770"/>
+      <c r="CF164" s="743"/>
       <c r="CG164" s="212"/>
-      <c r="CH164" s="736"/>
-      <c r="CI164" s="736"/>
+      <c r="CH164" s="756"/>
+      <c r="CI164" s="756"/>
       <c r="CJ164" s="212"/>
-      <c r="CK164" s="757"/>
+      <c r="CK164" s="759"/>
       <c r="CM164" s="2"/>
       <c r="CN164" s="2"/>
       <c r="CO164" s="2"/>
@@ -32066,11 +32066,11 @@
       <c r="DB164" s="1"/>
       <c r="DC164" s="1"/>
       <c r="DI164" s="107"/>
-      <c r="DJ164" s="774"/>
-      <c r="DK164" s="773"/>
-      <c r="DL164" s="741"/>
-      <c r="DM164" s="731"/>
-      <c r="DN164" s="744"/>
+      <c r="DJ164" s="780"/>
+      <c r="DK164" s="779"/>
+      <c r="DL164" s="782"/>
+      <c r="DM164" s="773"/>
+      <c r="DN164" s="786"/>
       <c r="DO164" s="23" t="s">
         <v>342</v>
       </c>
@@ -32125,13 +32125,13 @@
       <c r="EF164" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="EG164" s="747"/>
-      <c r="EH164" s="770"/>
+      <c r="EG164" s="776"/>
+      <c r="EH164" s="743"/>
       <c r="EI164" s="212"/>
-      <c r="EJ164" s="736"/>
-      <c r="EK164" s="736"/>
+      <c r="EJ164" s="756"/>
+      <c r="EK164" s="756"/>
       <c r="EL164" s="212"/>
-      <c r="EM164" s="757"/>
+      <c r="EM164" s="759"/>
       <c r="EP164" s="2"/>
       <c r="EQ164" s="2"/>
       <c r="ER164" s="2"/>
@@ -32142,11 +32142,11 @@
         <v>372</v>
       </c>
       <c r="E165" s="115"/>
-      <c r="F165" s="803" t="str">
+      <c r="F165" s="760" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH165),"",BH165),IF(ISBLANK(DJ165),"",DJ165))</f>
         <v>&lt;For YLJP only&gt;</v>
       </c>
-      <c r="G165" s="803" t="str">
+      <c r="G165" s="760" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI165),"",BI165),IF(ISBLANK(DK165),"",DK165))</f>
         <v/>
       </c>
@@ -32293,11 +32293,11 @@
         <v>376</v>
       </c>
       <c r="E166" s="115"/>
-      <c r="F166" s="804" t="str">
+      <c r="F166" s="761" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH166),"",BH166),IF(ISBLANK(DJ166),"",DJ166))</f>
         <v>&lt;For YLJP only&gt;</v>
       </c>
-      <c r="G166" s="804" t="str">
+      <c r="G166" s="761" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI166),"",BI166),IF(ISBLANK(DK166),"",DK166))</f>
         <v/>
       </c>
@@ -32447,11 +32447,11 @@
         <v>379</v>
       </c>
       <c r="E167" s="115"/>
-      <c r="F167" s="805" t="str">
+      <c r="F167" s="762" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BH167),"",BH167),IF(ISBLANK(DJ167),"",DJ167))</f>
         <v>&lt;For YLJP only&gt;</v>
       </c>
-      <c r="G167" s="805" t="str">
+      <c r="G167" s="762" t="str">
         <f>IF([1]COVER!$J$15=3,IF(ISBLANK(BI167),"",BI167),IF(ISBLANK(DK167),"",DK167))</f>
         <v/>
       </c>
@@ -33031,71 +33031,71 @@
       <c r="EO175" s="1"/>
     </row>
     <row r="176" spans="1:151" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="AK176" s="809" t="s">
+      <c r="AK176" s="738" t="s">
         <v>550</v>
       </c>
-      <c r="AL176" s="809" t="s">
+      <c r="AL176" s="738" t="s">
         <v>551</v>
       </c>
-      <c r="AM176" s="812" t="s">
+      <c r="AM176" s="745" t="s">
         <v>552</v>
       </c>
       <c r="AO176" s="2"/>
-      <c r="AQ176" s="815" t="s">
+      <c r="AQ176" s="748" t="s">
         <v>553</v>
       </c>
-      <c r="AR176" s="818" t="s">
+      <c r="AR176" s="751" t="s">
         <v>554</v>
       </c>
-      <c r="AS176" s="768" t="s">
+      <c r="AS176" s="741" t="s">
         <v>552</v>
       </c>
       <c r="AT176" s="133"/>
-      <c r="AV176" s="806" t="s">
+      <c r="AV176" s="735" t="s">
         <v>553</v>
       </c>
-      <c r="AW176" s="809" t="s">
+      <c r="AW176" s="738" t="s">
         <v>551</v>
       </c>
-      <c r="AX176" s="768" t="s">
+      <c r="AX176" s="741" t="s">
         <v>552</v>
       </c>
       <c r="AY176" s="134"/>
-      <c r="BA176" s="806" t="s">
+      <c r="BA176" s="735" t="s">
         <v>553</v>
       </c>
-      <c r="BB176" s="809" t="s">
+      <c r="BB176" s="738" t="s">
         <v>551</v>
       </c>
-      <c r="BC176" s="768" t="s">
+      <c r="BC176" s="741" t="s">
         <v>552</v>
       </c>
       <c r="BD176" s="134"/>
-      <c r="BF176" s="806" t="s">
+      <c r="BF176" s="735" t="s">
         <v>553</v>
       </c>
-      <c r="BG176" s="809" t="s">
+      <c r="BG176" s="738" t="s">
         <v>551</v>
       </c>
-      <c r="BH176" s="768"/>
+      <c r="BH176" s="741"/>
       <c r="BI176" s="134"/>
-      <c r="BK176" s="806" t="s">
+      <c r="BK176" s="735" t="s">
         <v>553</v>
       </c>
-      <c r="BL176" s="809" t="s">
+      <c r="BL176" s="738" t="s">
         <v>551</v>
       </c>
-      <c r="BM176" s="768" t="s">
+      <c r="BM176" s="741" t="s">
         <v>552</v>
       </c>
       <c r="BN176" s="134"/>
-      <c r="BP176" s="806" t="s">
+      <c r="BP176" s="735" t="s">
         <v>553</v>
       </c>
-      <c r="BQ176" s="809" t="s">
+      <c r="BQ176" s="738" t="s">
         <v>551</v>
       </c>
-      <c r="BR176" s="768" t="s">
+      <c r="BR176" s="741" t="s">
         <v>552</v>
       </c>
       <c r="BS176" s="134"/>
@@ -33141,33 +33141,33 @@
       <c r="EO176" s="1"/>
     </row>
     <row r="177" spans="37:145" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="AK177" s="810"/>
-      <c r="AL177" s="810"/>
-      <c r="AM177" s="813"/>
+      <c r="AK177" s="739"/>
+      <c r="AL177" s="739"/>
+      <c r="AM177" s="746"/>
       <c r="AO177" s="2"/>
-      <c r="AQ177" s="816"/>
-      <c r="AR177" s="819"/>
-      <c r="AS177" s="769"/>
+      <c r="AQ177" s="749"/>
+      <c r="AR177" s="752"/>
+      <c r="AS177" s="742"/>
       <c r="AT177" s="133"/>
-      <c r="AV177" s="807"/>
-      <c r="AW177" s="810"/>
-      <c r="AX177" s="769"/>
+      <c r="AV177" s="736"/>
+      <c r="AW177" s="739"/>
+      <c r="AX177" s="742"/>
       <c r="AY177" s="134"/>
-      <c r="BA177" s="807"/>
-      <c r="BB177" s="810"/>
-      <c r="BC177" s="769"/>
+      <c r="BA177" s="736"/>
+      <c r="BB177" s="739"/>
+      <c r="BC177" s="742"/>
       <c r="BD177" s="134"/>
-      <c r="BF177" s="807"/>
-      <c r="BG177" s="810"/>
-      <c r="BH177" s="769"/>
+      <c r="BF177" s="736"/>
+      <c r="BG177" s="739"/>
+      <c r="BH177" s="742"/>
       <c r="BI177" s="134"/>
-      <c r="BK177" s="807"/>
-      <c r="BL177" s="810"/>
-      <c r="BM177" s="769"/>
+      <c r="BK177" s="736"/>
+      <c r="BL177" s="739"/>
+      <c r="BM177" s="742"/>
       <c r="BN177" s="134"/>
-      <c r="BP177" s="807"/>
-      <c r="BQ177" s="810"/>
-      <c r="BR177" s="769"/>
+      <c r="BP177" s="736"/>
+      <c r="BQ177" s="739"/>
+      <c r="BR177" s="742"/>
       <c r="BS177" s="134"/>
       <c r="BU177" s="1"/>
       <c r="BV177" s="1"/>
@@ -33205,35 +33205,35 @@
       <c r="EO177" s="1"/>
     </row>
     <row r="178" spans="37:145" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="AK178" s="811"/>
-      <c r="AL178" s="811"/>
-      <c r="AM178" s="814"/>
+      <c r="AK178" s="740"/>
+      <c r="AL178" s="740"/>
+      <c r="AM178" s="747"/>
       <c r="AO178" s="2"/>
-      <c r="AQ178" s="817"/>
-      <c r="AR178" s="820"/>
-      <c r="AS178" s="770"/>
+      <c r="AQ178" s="750"/>
+      <c r="AR178" s="753"/>
+      <c r="AS178" s="743"/>
       <c r="AT178" s="133"/>
-      <c r="AV178" s="808"/>
-      <c r="AW178" s="811"/>
-      <c r="AX178" s="770"/>
+      <c r="AV178" s="737"/>
+      <c r="AW178" s="740"/>
+      <c r="AX178" s="743"/>
       <c r="AY178" s="134"/>
-      <c r="BA178" s="808"/>
-      <c r="BB178" s="811"/>
-      <c r="BC178" s="770"/>
+      <c r="BA178" s="737"/>
+      <c r="BB178" s="740"/>
+      <c r="BC178" s="743"/>
       <c r="BD178" s="134"/>
-      <c r="BF178" s="808"/>
-      <c r="BG178" s="811"/>
-      <c r="BH178" s="770"/>
+      <c r="BF178" s="737"/>
+      <c r="BG178" s="740"/>
+      <c r="BH178" s="743"/>
       <c r="BI178" s="134"/>
-      <c r="BK178" s="808"/>
-      <c r="BL178" s="811"/>
-      <c r="BM178" s="770"/>
+      <c r="BK178" s="737"/>
+      <c r="BL178" s="740"/>
+      <c r="BM178" s="743"/>
       <c r="BN178" s="134"/>
-      <c r="BP178" s="808"/>
-      <c r="BQ178" s="811"/>
-      <c r="BR178" s="770"/>
+      <c r="BP178" s="737"/>
+      <c r="BQ178" s="740"/>
+      <c r="BR178" s="743"/>
       <c r="BS178" s="134"/>
-      <c r="BT178" s="821"/>
+      <c r="BT178" s="720"/>
       <c r="BU178" s="562" t="s">
         <v>556</v>
       </c>
@@ -33252,12 +33252,12 @@
       <c r="BZ178" s="562" t="s">
         <v>560</v>
       </c>
-      <c r="CA178" s="822" t="s">
+      <c r="CA178" s="744" t="s">
         <v>561</v>
       </c>
-      <c r="CB178" s="822"/>
-      <c r="CC178" s="822"/>
-      <c r="CD178" s="822"/>
+      <c r="CB178" s="744"/>
+      <c r="CC178" s="744"/>
+      <c r="CD178" s="744"/>
       <c r="CE178" s="2"/>
       <c r="CF178" s="2"/>
       <c r="CG178" s="563"/>
@@ -33315,7 +33315,7 @@
       <c r="BQ179" s="135"/>
       <c r="BR179" s="564"/>
       <c r="BS179" s="134"/>
-      <c r="BT179" s="821"/>
+      <c r="BT179" s="720"/>
       <c r="BU179" s="565" t="s">
         <v>562</v>
       </c>
@@ -33332,12 +33332,12 @@
         <v>383</v>
       </c>
       <c r="BZ179" s="562"/>
-      <c r="CA179" s="823" t="s">
+      <c r="CA179" s="724" t="s">
         <v>564</v>
       </c>
-      <c r="CB179" s="824"/>
-      <c r="CC179" s="824"/>
-      <c r="CD179" s="825"/>
+      <c r="CB179" s="725"/>
+      <c r="CC179" s="725"/>
+      <c r="CD179" s="726"/>
       <c r="CE179" s="2"/>
       <c r="CF179" s="2"/>
       <c r="CG179" s="563"/>
@@ -33395,7 +33395,7 @@
       <c r="BQ180" s="139"/>
       <c r="BR180" s="566"/>
       <c r="BS180" s="134"/>
-      <c r="BT180" s="821"/>
+      <c r="BT180" s="720"/>
       <c r="BU180" s="565" t="s">
         <v>562</v>
       </c>
@@ -33412,12 +33412,12 @@
         <v>26</v>
       </c>
       <c r="BZ180" s="562"/>
-      <c r="CA180" s="823" t="s">
+      <c r="CA180" s="724" t="s">
         <v>565</v>
       </c>
-      <c r="CB180" s="824"/>
-      <c r="CC180" s="824"/>
-      <c r="CD180" s="825"/>
+      <c r="CB180" s="725"/>
+      <c r="CC180" s="725"/>
+      <c r="CD180" s="726"/>
       <c r="CE180" s="2"/>
       <c r="CF180" s="2"/>
       <c r="CG180" s="563"/>
@@ -33525,12 +33525,12 @@
       <c r="BZ181" s="562" t="s">
         <v>384</v>
       </c>
-      <c r="CA181" s="823" t="s">
+      <c r="CA181" s="724" t="s">
         <v>568</v>
       </c>
-      <c r="CB181" s="824"/>
-      <c r="CC181" s="824"/>
-      <c r="CD181" s="825"/>
+      <c r="CB181" s="725"/>
+      <c r="CC181" s="725"/>
+      <c r="CD181" s="726"/>
       <c r="CE181" s="2"/>
       <c r="CF181" s="2"/>
       <c r="CG181" s="563"/>
@@ -33604,12 +33604,12 @@
       <c r="BZ182" s="562" t="s">
         <v>385</v>
       </c>
-      <c r="CA182" s="823" t="s">
+      <c r="CA182" s="724" t="s">
         <v>569</v>
       </c>
-      <c r="CB182" s="824"/>
-      <c r="CC182" s="824"/>
-      <c r="CD182" s="825"/>
+      <c r="CB182" s="725"/>
+      <c r="CC182" s="725"/>
+      <c r="CD182" s="726"/>
       <c r="CE182" s="2"/>
       <c r="CF182" s="2"/>
       <c r="CG182" s="563"/>
@@ -33683,12 +33683,12 @@
       <c r="BZ183" s="562" t="s">
         <v>386</v>
       </c>
-      <c r="CA183" s="823" t="s">
+      <c r="CA183" s="724" t="s">
         <v>570</v>
       </c>
-      <c r="CB183" s="824"/>
-      <c r="CC183" s="824"/>
-      <c r="CD183" s="825"/>
+      <c r="CB183" s="725"/>
+      <c r="CC183" s="725"/>
+      <c r="CD183" s="726"/>
       <c r="CE183" s="2"/>
       <c r="CF183" s="2"/>
       <c r="CG183" s="563"/>
@@ -33762,12 +33762,12 @@
       <c r="BZ184" s="562" t="s">
         <v>268</v>
       </c>
-      <c r="CA184" s="823" t="s">
+      <c r="CA184" s="724" t="s">
         <v>571</v>
       </c>
-      <c r="CB184" s="824"/>
-      <c r="CC184" s="824"/>
-      <c r="CD184" s="825"/>
+      <c r="CB184" s="725"/>
+      <c r="CC184" s="725"/>
+      <c r="CD184" s="726"/>
       <c r="CE184" s="2"/>
       <c r="CF184" s="2"/>
       <c r="CG184" s="563"/>
@@ -33833,10 +33833,10 @@
       <c r="BZ185" s="573" t="s">
         <v>387</v>
       </c>
-      <c r="CA185" s="828"/>
-      <c r="CB185" s="829"/>
-      <c r="CC185" s="829"/>
-      <c r="CD185" s="830"/>
+      <c r="CA185" s="727"/>
+      <c r="CB185" s="728"/>
+      <c r="CC185" s="728"/>
+      <c r="CD185" s="729"/>
       <c r="CE185" s="2"/>
       <c r="CF185" s="2"/>
       <c r="CG185" s="563"/>
@@ -33910,12 +33910,12 @@
       <c r="BZ186" s="575" t="s">
         <v>572</v>
       </c>
-      <c r="CA186" s="831" t="s">
+      <c r="CA186" s="730" t="s">
         <v>573</v>
       </c>
-      <c r="CB186" s="821"/>
-      <c r="CC186" s="821"/>
-      <c r="CD186" s="832"/>
+      <c r="CB186" s="720"/>
+      <c r="CC186" s="720"/>
+      <c r="CD186" s="731"/>
       <c r="CE186" s="2"/>
       <c r="CF186" s="2"/>
       <c r="CG186" s="563"/>
@@ -33981,10 +33981,10 @@
       <c r="BZ187" s="578" t="s">
         <v>388</v>
       </c>
-      <c r="CA187" s="833"/>
-      <c r="CB187" s="834"/>
-      <c r="CC187" s="834"/>
-      <c r="CD187" s="835"/>
+      <c r="CA187" s="732"/>
+      <c r="CB187" s="733"/>
+      <c r="CC187" s="733"/>
+      <c r="CD187" s="734"/>
       <c r="CE187" s="2"/>
       <c r="CF187" s="2"/>
       <c r="CG187" s="563"/>
@@ -34048,10 +34048,10 @@
       <c r="BX188" s="562"/>
       <c r="BY188" s="562"/>
       <c r="BZ188" s="562"/>
-      <c r="CA188" s="823"/>
-      <c r="CB188" s="824"/>
-      <c r="CC188" s="824"/>
-      <c r="CD188" s="825"/>
+      <c r="CA188" s="724"/>
+      <c r="CB188" s="725"/>
+      <c r="CC188" s="725"/>
+      <c r="CD188" s="726"/>
       <c r="CE188" s="2"/>
       <c r="CF188" s="2"/>
       <c r="CG188" s="563"/>
@@ -34115,10 +34115,10 @@
       <c r="BX189" s="562"/>
       <c r="BY189" s="562"/>
       <c r="BZ189" s="562"/>
-      <c r="CA189" s="823"/>
-      <c r="CB189" s="824"/>
-      <c r="CC189" s="824"/>
-      <c r="CD189" s="825"/>
+      <c r="CA189" s="724"/>
+      <c r="CB189" s="725"/>
+      <c r="CC189" s="725"/>
+      <c r="CD189" s="726"/>
       <c r="CE189" s="2"/>
       <c r="CF189" s="2"/>
       <c r="CG189" s="563"/>
@@ -34182,10 +34182,10 @@
       <c r="BX190" s="562"/>
       <c r="BY190" s="562"/>
       <c r="BZ190" s="562"/>
-      <c r="CA190" s="823"/>
-      <c r="CB190" s="824"/>
-      <c r="CC190" s="824"/>
-      <c r="CD190" s="825"/>
+      <c r="CA190" s="724"/>
+      <c r="CB190" s="725"/>
+      <c r="CC190" s="725"/>
+      <c r="CD190" s="726"/>
       <c r="CE190" s="2"/>
       <c r="CF190" s="2"/>
       <c r="CG190" s="563"/>
@@ -34249,10 +34249,10 @@
       <c r="BX191" s="562"/>
       <c r="BY191" s="562"/>
       <c r="BZ191" s="562"/>
-      <c r="CA191" s="823"/>
-      <c r="CB191" s="824"/>
-      <c r="CC191" s="824"/>
-      <c r="CD191" s="825"/>
+      <c r="CA191" s="724"/>
+      <c r="CB191" s="725"/>
+      <c r="CC191" s="725"/>
+      <c r="CD191" s="726"/>
       <c r="CE191" s="2"/>
       <c r="CF191" s="2"/>
       <c r="CG191" s="563"/>
@@ -38650,56 +38650,56 @@
       <c r="DJ243" s="1"/>
     </row>
     <row r="244" spans="37:118" customFormat="1" ht="13.5" customHeight="1">
-      <c r="AK244" s="821"/>
-      <c r="AL244" s="821"/>
-      <c r="AM244" s="826"/>
+      <c r="AK244" s="720"/>
+      <c r="AL244" s="720"/>
+      <c r="AM244" s="721"/>
       <c r="AO244" s="2"/>
-      <c r="AQ244" s="827"/>
-      <c r="AR244" s="827"/>
-      <c r="AS244" s="826"/>
+      <c r="AQ244" s="723"/>
+      <c r="AR244" s="723"/>
+      <c r="AS244" s="721"/>
       <c r="AT244" s="2"/>
-      <c r="AU244" s="821"/>
-      <c r="AV244" s="821"/>
-      <c r="AW244" s="826"/>
-      <c r="AX244" s="821"/>
-      <c r="AY244" s="821"/>
-      <c r="AZ244" s="826"/>
-      <c r="BB244" s="821"/>
-      <c r="BC244" s="821"/>
-      <c r="BD244" s="826"/>
-      <c r="BF244" s="821"/>
-      <c r="BG244" s="821"/>
-      <c r="BH244" s="826"/>
-      <c r="BI244" s="821"/>
-      <c r="BJ244" s="821"/>
-      <c r="BK244" s="826"/>
+      <c r="AU244" s="720"/>
+      <c r="AV244" s="720"/>
+      <c r="AW244" s="721"/>
+      <c r="AX244" s="720"/>
+      <c r="AY244" s="720"/>
+      <c r="AZ244" s="721"/>
+      <c r="BB244" s="720"/>
+      <c r="BC244" s="720"/>
+      <c r="BD244" s="721"/>
+      <c r="BF244" s="720"/>
+      <c r="BG244" s="720"/>
+      <c r="BH244" s="721"/>
+      <c r="BI244" s="720"/>
+      <c r="BJ244" s="720"/>
+      <c r="BK244" s="721"/>
       <c r="BL244" s="1"/>
-      <c r="BM244" s="821"/>
+      <c r="BM244" s="720"/>
       <c r="BN244" s="595"/>
-      <c r="BP244" s="821"/>
-      <c r="BQ244" s="821"/>
-      <c r="BR244" s="826"/>
-      <c r="BW244" s="826"/>
-      <c r="CB244" s="826"/>
-      <c r="CD244" s="821"/>
-      <c r="CE244" s="826"/>
-      <c r="CF244" s="821"/>
-      <c r="CG244" s="821"/>
-      <c r="CH244" s="826"/>
-      <c r="CI244" s="826"/>
-      <c r="CK244" s="821"/>
-      <c r="CL244" s="821"/>
+      <c r="BP244" s="720"/>
+      <c r="BQ244" s="720"/>
+      <c r="BR244" s="721"/>
+      <c r="BW244" s="721"/>
+      <c r="CB244" s="721"/>
+      <c r="CD244" s="720"/>
+      <c r="CE244" s="721"/>
+      <c r="CF244" s="720"/>
+      <c r="CG244" s="720"/>
+      <c r="CH244" s="721"/>
+      <c r="CI244" s="721"/>
+      <c r="CK244" s="720"/>
+      <c r="CL244" s="720"/>
       <c r="CM244" s="2"/>
-      <c r="CN244" s="821"/>
-      <c r="CO244" s="821"/>
-      <c r="CP244" s="826"/>
+      <c r="CN244" s="720"/>
+      <c r="CO244" s="720"/>
+      <c r="CP244" s="721"/>
       <c r="CQ244" s="2"/>
-      <c r="CR244" s="821"/>
-      <c r="CS244" s="821"/>
-      <c r="CT244" s="826"/>
-      <c r="CU244" s="821"/>
-      <c r="CV244" s="821"/>
-      <c r="CW244" s="826"/>
+      <c r="CR244" s="720"/>
+      <c r="CS244" s="720"/>
+      <c r="CT244" s="721"/>
+      <c r="CU244" s="720"/>
+      <c r="CV244" s="720"/>
+      <c r="CW244" s="721"/>
       <c r="CY244" s="1"/>
       <c r="CZ244" s="1"/>
       <c r="DA244" s="1"/>
@@ -38714,56 +38714,56 @@
       <c r="DJ244" s="1"/>
     </row>
     <row r="245" spans="37:118" customFormat="1" ht="13.5" customHeight="1">
-      <c r="AK245" s="821"/>
-      <c r="AL245" s="821"/>
-      <c r="AM245" s="778"/>
+      <c r="AK245" s="720"/>
+      <c r="AL245" s="720"/>
+      <c r="AM245" s="722"/>
       <c r="AO245" s="2"/>
-      <c r="AQ245" s="827"/>
-      <c r="AR245" s="827"/>
-      <c r="AS245" s="778"/>
+      <c r="AQ245" s="723"/>
+      <c r="AR245" s="723"/>
+      <c r="AS245" s="722"/>
       <c r="AT245" s="2"/>
-      <c r="AU245" s="821"/>
-      <c r="AV245" s="821"/>
-      <c r="AW245" s="778"/>
-      <c r="AX245" s="821"/>
-      <c r="AY245" s="821"/>
-      <c r="AZ245" s="778"/>
-      <c r="BB245" s="821"/>
-      <c r="BC245" s="821"/>
-      <c r="BD245" s="778"/>
-      <c r="BF245" s="821"/>
-      <c r="BG245" s="821"/>
-      <c r="BH245" s="778"/>
-      <c r="BI245" s="821"/>
-      <c r="BJ245" s="821"/>
-      <c r="BK245" s="778"/>
+      <c r="AU245" s="720"/>
+      <c r="AV245" s="720"/>
+      <c r="AW245" s="722"/>
+      <c r="AX245" s="720"/>
+      <c r="AY245" s="720"/>
+      <c r="AZ245" s="722"/>
+      <c r="BB245" s="720"/>
+      <c r="BC245" s="720"/>
+      <c r="BD245" s="722"/>
+      <c r="BF245" s="720"/>
+      <c r="BG245" s="720"/>
+      <c r="BH245" s="722"/>
+      <c r="BI245" s="720"/>
+      <c r="BJ245" s="720"/>
+      <c r="BK245" s="722"/>
       <c r="BL245" s="1"/>
-      <c r="BM245" s="821"/>
+      <c r="BM245" s="720"/>
       <c r="BN245" s="595"/>
-      <c r="BP245" s="821"/>
-      <c r="BQ245" s="821"/>
-      <c r="BR245" s="778"/>
-      <c r="BW245" s="826"/>
-      <c r="CB245" s="826"/>
-      <c r="CD245" s="821"/>
-      <c r="CE245" s="826"/>
-      <c r="CF245" s="821"/>
-      <c r="CG245" s="821"/>
-      <c r="CH245" s="778"/>
-      <c r="CI245" s="778"/>
-      <c r="CK245" s="821"/>
-      <c r="CL245" s="821"/>
+      <c r="BP245" s="720"/>
+      <c r="BQ245" s="720"/>
+      <c r="BR245" s="722"/>
+      <c r="BW245" s="721"/>
+      <c r="CB245" s="721"/>
+      <c r="CD245" s="720"/>
+      <c r="CE245" s="721"/>
+      <c r="CF245" s="720"/>
+      <c r="CG245" s="720"/>
+      <c r="CH245" s="722"/>
+      <c r="CI245" s="722"/>
+      <c r="CK245" s="720"/>
+      <c r="CL245" s="720"/>
       <c r="CM245" s="2"/>
-      <c r="CN245" s="821"/>
-      <c r="CO245" s="821"/>
-      <c r="CP245" s="778"/>
+      <c r="CN245" s="720"/>
+      <c r="CO245" s="720"/>
+      <c r="CP245" s="722"/>
       <c r="CQ245" s="2"/>
-      <c r="CR245" s="821"/>
-      <c r="CS245" s="821"/>
-      <c r="CT245" s="778"/>
-      <c r="CU245" s="821"/>
-      <c r="CV245" s="821"/>
-      <c r="CW245" s="778"/>
+      <c r="CR245" s="720"/>
+      <c r="CS245" s="720"/>
+      <c r="CT245" s="722"/>
+      <c r="CU245" s="720"/>
+      <c r="CV245" s="720"/>
+      <c r="CW245" s="722"/>
       <c r="CY245" s="1"/>
       <c r="CZ245" s="1"/>
       <c r="DA245" s="1"/>
@@ -38778,56 +38778,56 @@
       <c r="DJ245" s="1"/>
     </row>
     <row r="246" spans="37:118" customFormat="1" ht="13.5" customHeight="1">
-      <c r="AK246" s="821"/>
-      <c r="AL246" s="821"/>
-      <c r="AM246" s="778"/>
+      <c r="AK246" s="720"/>
+      <c r="AL246" s="720"/>
+      <c r="AM246" s="722"/>
       <c r="AO246" s="2"/>
-      <c r="AQ246" s="827"/>
-      <c r="AR246" s="827"/>
-      <c r="AS246" s="778"/>
+      <c r="AQ246" s="723"/>
+      <c r="AR246" s="723"/>
+      <c r="AS246" s="722"/>
       <c r="AT246" s="2"/>
-      <c r="AU246" s="821"/>
-      <c r="AV246" s="821"/>
-      <c r="AW246" s="778"/>
-      <c r="AX246" s="821"/>
-      <c r="AY246" s="821"/>
-      <c r="AZ246" s="778"/>
-      <c r="BB246" s="821"/>
-      <c r="BC246" s="821"/>
-      <c r="BD246" s="778"/>
-      <c r="BF246" s="821"/>
-      <c r="BG246" s="821"/>
-      <c r="BH246" s="778"/>
-      <c r="BI246" s="821"/>
-      <c r="BJ246" s="821"/>
-      <c r="BK246" s="778"/>
+      <c r="AU246" s="720"/>
+      <c r="AV246" s="720"/>
+      <c r="AW246" s="722"/>
+      <c r="AX246" s="720"/>
+      <c r="AY246" s="720"/>
+      <c r="AZ246" s="722"/>
+      <c r="BB246" s="720"/>
+      <c r="BC246" s="720"/>
+      <c r="BD246" s="722"/>
+      <c r="BF246" s="720"/>
+      <c r="BG246" s="720"/>
+      <c r="BH246" s="722"/>
+      <c r="BI246" s="720"/>
+      <c r="BJ246" s="720"/>
+      <c r="BK246" s="722"/>
       <c r="BL246" s="1"/>
-      <c r="BM246" s="821"/>
+      <c r="BM246" s="720"/>
       <c r="BN246" s="595"/>
-      <c r="BP246" s="821"/>
-      <c r="BQ246" s="821"/>
-      <c r="BR246" s="778"/>
-      <c r="BW246" s="826"/>
-      <c r="CB246" s="826"/>
-      <c r="CD246" s="821"/>
-      <c r="CE246" s="826"/>
-      <c r="CF246" s="821"/>
-      <c r="CG246" s="821"/>
-      <c r="CH246" s="778"/>
-      <c r="CI246" s="778"/>
-      <c r="CK246" s="821"/>
-      <c r="CL246" s="821"/>
+      <c r="BP246" s="720"/>
+      <c r="BQ246" s="720"/>
+      <c r="BR246" s="722"/>
+      <c r="BW246" s="721"/>
+      <c r="CB246" s="721"/>
+      <c r="CD246" s="720"/>
+      <c r="CE246" s="721"/>
+      <c r="CF246" s="720"/>
+      <c r="CG246" s="720"/>
+      <c r="CH246" s="722"/>
+      <c r="CI246" s="722"/>
+      <c r="CK246" s="720"/>
+      <c r="CL246" s="720"/>
       <c r="CM246" s="2"/>
-      <c r="CN246" s="821"/>
-      <c r="CO246" s="821"/>
-      <c r="CP246" s="778"/>
+      <c r="CN246" s="720"/>
+      <c r="CO246" s="720"/>
+      <c r="CP246" s="722"/>
       <c r="CQ246" s="2"/>
-      <c r="CR246" s="821"/>
-      <c r="CS246" s="821"/>
-      <c r="CT246" s="778"/>
-      <c r="CU246" s="821"/>
-      <c r="CV246" s="821"/>
-      <c r="CW246" s="778"/>
+      <c r="CR246" s="720"/>
+      <c r="CS246" s="720"/>
+      <c r="CT246" s="722"/>
+      <c r="CU246" s="720"/>
+      <c r="CV246" s="720"/>
+      <c r="CW246" s="722"/>
       <c r="CY246" s="1"/>
       <c r="CZ246" s="1"/>
       <c r="DA246" s="1"/>
@@ -40788,37 +40788,244 @@
     </row>
   </sheetData>
   <mergeCells count="293">
-    <mergeCell ref="CU244:CU246"/>
-    <mergeCell ref="CV244:CV246"/>
-    <mergeCell ref="CW244:CW246"/>
-    <mergeCell ref="CN244:CN246"/>
-    <mergeCell ref="CO244:CO246"/>
-    <mergeCell ref="CP244:CP246"/>
-    <mergeCell ref="CR244:CR246"/>
-    <mergeCell ref="CS244:CS246"/>
-    <mergeCell ref="CT244:CT246"/>
-    <mergeCell ref="CF244:CF246"/>
-    <mergeCell ref="CG244:CG246"/>
-    <mergeCell ref="CH244:CH246"/>
-    <mergeCell ref="CI244:CI246"/>
-    <mergeCell ref="CK244:CK246"/>
-    <mergeCell ref="CL244:CL246"/>
-    <mergeCell ref="BQ244:BQ246"/>
-    <mergeCell ref="BR244:BR246"/>
-    <mergeCell ref="BW244:BW246"/>
-    <mergeCell ref="CB244:CB246"/>
-    <mergeCell ref="CD244:CD246"/>
-    <mergeCell ref="CE244:CE246"/>
-    <mergeCell ref="BJ244:BJ246"/>
-    <mergeCell ref="BK244:BK246"/>
-    <mergeCell ref="BM244:BM246"/>
-    <mergeCell ref="BP244:BP246"/>
-    <mergeCell ref="AZ244:AZ246"/>
-    <mergeCell ref="BB244:BB246"/>
-    <mergeCell ref="BC244:BC246"/>
-    <mergeCell ref="BD244:BD246"/>
-    <mergeCell ref="BF244:BF246"/>
-    <mergeCell ref="BG244:BG246"/>
+    <mergeCell ref="U18:X19"/>
+    <mergeCell ref="Y18:AB19"/>
+    <mergeCell ref="AC18:AC20"/>
+    <mergeCell ref="AD18:AD20"/>
+    <mergeCell ref="AF18:AF20"/>
+    <mergeCell ref="AG18:AG20"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:O19"/>
+    <mergeCell ref="P18:T19"/>
+    <mergeCell ref="CN18:CN20"/>
+    <mergeCell ref="BK18:BK20"/>
+    <mergeCell ref="BL18:BL20"/>
+    <mergeCell ref="BM18:BQ19"/>
+    <mergeCell ref="BR18:BV19"/>
+    <mergeCell ref="BW18:BZ19"/>
+    <mergeCell ref="CA18:CD19"/>
+    <mergeCell ref="AI18:AI20"/>
+    <mergeCell ref="AK18:AK20"/>
+    <mergeCell ref="AL18:AL20"/>
+    <mergeCell ref="AM18:AM20"/>
+    <mergeCell ref="BH18:BI19"/>
+    <mergeCell ref="BJ18:BJ20"/>
+    <mergeCell ref="EK18:EK20"/>
+    <mergeCell ref="EM18:EM20"/>
+    <mergeCell ref="EO18:EO20"/>
+    <mergeCell ref="EP18:EP20"/>
+    <mergeCell ref="EQ18:EQ20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="BH20:BI20"/>
+    <mergeCell ref="DT18:DX19"/>
+    <mergeCell ref="DY18:EB19"/>
+    <mergeCell ref="EC18:EF19"/>
+    <mergeCell ref="EG18:EG20"/>
+    <mergeCell ref="EH18:EH20"/>
+    <mergeCell ref="EJ18:EJ20"/>
+    <mergeCell ref="CO18:CO20"/>
+    <mergeCell ref="DJ18:DK20"/>
+    <mergeCell ref="DL18:DL20"/>
+    <mergeCell ref="DM18:DM20"/>
+    <mergeCell ref="DN18:DN20"/>
+    <mergeCell ref="DO18:DS19"/>
+    <mergeCell ref="CF18:CF20"/>
+    <mergeCell ref="CH18:CH20"/>
+    <mergeCell ref="CI18:CI20"/>
+    <mergeCell ref="CK18:CK20"/>
+    <mergeCell ref="CM18:CM20"/>
+    <mergeCell ref="U114:X115"/>
+    <mergeCell ref="Y114:AB115"/>
+    <mergeCell ref="AC114:AC116"/>
+    <mergeCell ref="AD114:AD116"/>
+    <mergeCell ref="AF114:AF116"/>
+    <mergeCell ref="AG114:AG116"/>
+    <mergeCell ref="F114:G116"/>
+    <mergeCell ref="H114:H116"/>
+    <mergeCell ref="I114:I116"/>
+    <mergeCell ref="J114:J116"/>
+    <mergeCell ref="K114:O115"/>
+    <mergeCell ref="P114:T115"/>
+    <mergeCell ref="CA114:CD115"/>
+    <mergeCell ref="CF114:CF116"/>
+    <mergeCell ref="CH114:CH116"/>
+    <mergeCell ref="CI114:CI116"/>
+    <mergeCell ref="AI114:AI116"/>
+    <mergeCell ref="BH114:BI116"/>
+    <mergeCell ref="BJ114:BJ116"/>
+    <mergeCell ref="BK114:BK116"/>
+    <mergeCell ref="BL114:BL116"/>
+    <mergeCell ref="BM114:BQ115"/>
+    <mergeCell ref="EK114:EK116"/>
+    <mergeCell ref="EM114:EM116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F132:G134"/>
+    <mergeCell ref="H132:H134"/>
+    <mergeCell ref="I132:I134"/>
+    <mergeCell ref="J132:J134"/>
+    <mergeCell ref="K132:O133"/>
+    <mergeCell ref="DT114:DX115"/>
+    <mergeCell ref="DY114:EB115"/>
+    <mergeCell ref="EC114:EF115"/>
+    <mergeCell ref="EG114:EG116"/>
+    <mergeCell ref="EH114:EH116"/>
+    <mergeCell ref="EJ114:EJ116"/>
+    <mergeCell ref="CK114:CK116"/>
+    <mergeCell ref="DJ114:DK116"/>
+    <mergeCell ref="DL114:DL116"/>
+    <mergeCell ref="DM114:DM116"/>
+    <mergeCell ref="DN114:DN116"/>
+    <mergeCell ref="DO114:DS115"/>
+    <mergeCell ref="BR114:BV115"/>
+    <mergeCell ref="BW114:BZ115"/>
+    <mergeCell ref="AG132:AG134"/>
+    <mergeCell ref="AI132:AI134"/>
+    <mergeCell ref="BH132:BI134"/>
+    <mergeCell ref="BJ132:BJ134"/>
+    <mergeCell ref="BK132:BK134"/>
+    <mergeCell ref="BL132:BL134"/>
+    <mergeCell ref="P132:T133"/>
+    <mergeCell ref="U132:X133"/>
+    <mergeCell ref="Y132:AB133"/>
+    <mergeCell ref="AC132:AC134"/>
+    <mergeCell ref="AD132:AD134"/>
+    <mergeCell ref="AF132:AF134"/>
+    <mergeCell ref="EJ132:EJ134"/>
+    <mergeCell ref="EK132:EK134"/>
+    <mergeCell ref="EM132:EM134"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="DO132:DS133"/>
+    <mergeCell ref="DT132:DX133"/>
+    <mergeCell ref="DY132:EB133"/>
+    <mergeCell ref="EC132:EF133"/>
+    <mergeCell ref="EG132:EG134"/>
+    <mergeCell ref="EH132:EH134"/>
+    <mergeCell ref="CI132:CI134"/>
+    <mergeCell ref="CK132:CK134"/>
+    <mergeCell ref="DJ132:DK134"/>
+    <mergeCell ref="DL132:DL134"/>
+    <mergeCell ref="DM132:DM134"/>
+    <mergeCell ref="DN132:DN134"/>
+    <mergeCell ref="BM132:BQ133"/>
+    <mergeCell ref="BR132:BV133"/>
+    <mergeCell ref="BW132:BZ133"/>
+    <mergeCell ref="CA132:CD133"/>
+    <mergeCell ref="CF132:CF134"/>
+    <mergeCell ref="CH132:CH134"/>
+    <mergeCell ref="U147:X148"/>
+    <mergeCell ref="Y147:AB148"/>
+    <mergeCell ref="AC147:AC149"/>
+    <mergeCell ref="AD147:AD149"/>
+    <mergeCell ref="AF147:AF149"/>
+    <mergeCell ref="AG147:AG149"/>
+    <mergeCell ref="F147:G149"/>
+    <mergeCell ref="H147:H149"/>
+    <mergeCell ref="I147:I149"/>
+    <mergeCell ref="J147:J149"/>
+    <mergeCell ref="K147:O148"/>
+    <mergeCell ref="P147:T148"/>
+    <mergeCell ref="CA147:CD148"/>
+    <mergeCell ref="CF147:CF149"/>
+    <mergeCell ref="CH147:CH149"/>
+    <mergeCell ref="CI147:CI149"/>
+    <mergeCell ref="AI147:AI149"/>
+    <mergeCell ref="BH147:BI149"/>
+    <mergeCell ref="BJ147:BJ149"/>
+    <mergeCell ref="BK147:BK149"/>
+    <mergeCell ref="BL147:BL149"/>
+    <mergeCell ref="BM147:BQ148"/>
+    <mergeCell ref="EK147:EK149"/>
+    <mergeCell ref="EM147:EM149"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="F162:G164"/>
+    <mergeCell ref="H162:H164"/>
+    <mergeCell ref="I162:I164"/>
+    <mergeCell ref="J162:J164"/>
+    <mergeCell ref="K162:O163"/>
+    <mergeCell ref="DT147:DX148"/>
+    <mergeCell ref="DY147:EB148"/>
+    <mergeCell ref="EC147:EF148"/>
+    <mergeCell ref="EG147:EG149"/>
+    <mergeCell ref="EH147:EH149"/>
+    <mergeCell ref="EJ147:EJ149"/>
+    <mergeCell ref="CK147:CK149"/>
+    <mergeCell ref="DJ147:DK149"/>
+    <mergeCell ref="DL147:DL149"/>
+    <mergeCell ref="DM147:DM149"/>
+    <mergeCell ref="DN147:DN149"/>
+    <mergeCell ref="DO147:DS148"/>
+    <mergeCell ref="BR147:BV148"/>
+    <mergeCell ref="BW147:BZ148"/>
+    <mergeCell ref="AG162:AG164"/>
+    <mergeCell ref="AI162:AI164"/>
+    <mergeCell ref="BH162:BI164"/>
+    <mergeCell ref="BJ162:BJ164"/>
+    <mergeCell ref="BK162:BK164"/>
+    <mergeCell ref="BL162:BL164"/>
+    <mergeCell ref="P162:T163"/>
+    <mergeCell ref="U162:X163"/>
+    <mergeCell ref="Y162:AB163"/>
+    <mergeCell ref="AC162:AC164"/>
+    <mergeCell ref="AD162:AD164"/>
+    <mergeCell ref="AF162:AF164"/>
+    <mergeCell ref="EJ162:EJ164"/>
+    <mergeCell ref="EK162:EK164"/>
+    <mergeCell ref="EM162:EM164"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="DO162:DS163"/>
+    <mergeCell ref="DT162:DX163"/>
+    <mergeCell ref="DY162:EB163"/>
+    <mergeCell ref="EC162:EF163"/>
+    <mergeCell ref="EG162:EG164"/>
+    <mergeCell ref="EH162:EH164"/>
+    <mergeCell ref="CI162:CI164"/>
+    <mergeCell ref="CK162:CK164"/>
+    <mergeCell ref="DJ162:DK164"/>
+    <mergeCell ref="DL162:DL164"/>
+    <mergeCell ref="DM162:DM164"/>
+    <mergeCell ref="DN162:DN164"/>
+    <mergeCell ref="BM162:BQ163"/>
+    <mergeCell ref="BR162:BV163"/>
+    <mergeCell ref="BW162:BZ163"/>
+    <mergeCell ref="CA162:CD163"/>
+    <mergeCell ref="CF162:CF164"/>
+    <mergeCell ref="CH162:CH164"/>
+    <mergeCell ref="AV176:AV178"/>
+    <mergeCell ref="AW176:AW178"/>
+    <mergeCell ref="AX176:AX178"/>
+    <mergeCell ref="BA176:BA178"/>
+    <mergeCell ref="BB176:BB178"/>
+    <mergeCell ref="BC176:BC178"/>
+    <mergeCell ref="AK176:AK178"/>
+    <mergeCell ref="AL176:AL178"/>
+    <mergeCell ref="AM176:AM178"/>
+    <mergeCell ref="AQ176:AQ178"/>
+    <mergeCell ref="AR176:AR178"/>
+    <mergeCell ref="AS176:AS178"/>
+    <mergeCell ref="BP176:BP178"/>
+    <mergeCell ref="BQ176:BQ178"/>
+    <mergeCell ref="BR176:BR178"/>
+    <mergeCell ref="BT178:BT180"/>
+    <mergeCell ref="CA178:CD178"/>
+    <mergeCell ref="CA179:CD179"/>
+    <mergeCell ref="CA180:CD180"/>
+    <mergeCell ref="BF176:BF178"/>
+    <mergeCell ref="BG176:BG178"/>
+    <mergeCell ref="BH176:BH178"/>
+    <mergeCell ref="BK176:BK178"/>
+    <mergeCell ref="BL176:BL178"/>
+    <mergeCell ref="BM176:BM178"/>
     <mergeCell ref="AK244:AK246"/>
     <mergeCell ref="AL244:AL246"/>
     <mergeCell ref="AM244:AM246"/>
@@ -40843,244 +41050,37 @@
     <mergeCell ref="CA191:CD191"/>
     <mergeCell ref="BH244:BH246"/>
     <mergeCell ref="BI244:BI246"/>
-    <mergeCell ref="BP176:BP178"/>
-    <mergeCell ref="BQ176:BQ178"/>
-    <mergeCell ref="BR176:BR178"/>
-    <mergeCell ref="BT178:BT180"/>
-    <mergeCell ref="CA178:CD178"/>
-    <mergeCell ref="CA179:CD179"/>
-    <mergeCell ref="CA180:CD180"/>
-    <mergeCell ref="BF176:BF178"/>
-    <mergeCell ref="BG176:BG178"/>
-    <mergeCell ref="BH176:BH178"/>
-    <mergeCell ref="BK176:BK178"/>
-    <mergeCell ref="BL176:BL178"/>
-    <mergeCell ref="BM176:BM178"/>
-    <mergeCell ref="AV176:AV178"/>
-    <mergeCell ref="AW176:AW178"/>
-    <mergeCell ref="AX176:AX178"/>
-    <mergeCell ref="BA176:BA178"/>
-    <mergeCell ref="BB176:BB178"/>
-    <mergeCell ref="BC176:BC178"/>
-    <mergeCell ref="AK176:AK178"/>
-    <mergeCell ref="AL176:AL178"/>
-    <mergeCell ref="AM176:AM178"/>
-    <mergeCell ref="AQ176:AQ178"/>
-    <mergeCell ref="AR176:AR178"/>
-    <mergeCell ref="AS176:AS178"/>
-    <mergeCell ref="EJ162:EJ164"/>
-    <mergeCell ref="EK162:EK164"/>
-    <mergeCell ref="EM162:EM164"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="DO162:DS163"/>
-    <mergeCell ref="DT162:DX163"/>
-    <mergeCell ref="DY162:EB163"/>
-    <mergeCell ref="EC162:EF163"/>
-    <mergeCell ref="EG162:EG164"/>
-    <mergeCell ref="EH162:EH164"/>
-    <mergeCell ref="CI162:CI164"/>
-    <mergeCell ref="CK162:CK164"/>
-    <mergeCell ref="DJ162:DK164"/>
-    <mergeCell ref="DL162:DL164"/>
-    <mergeCell ref="DM162:DM164"/>
-    <mergeCell ref="DN162:DN164"/>
-    <mergeCell ref="BM162:BQ163"/>
-    <mergeCell ref="BR162:BV163"/>
-    <mergeCell ref="BW162:BZ163"/>
-    <mergeCell ref="CA162:CD163"/>
-    <mergeCell ref="CF162:CF164"/>
-    <mergeCell ref="CH162:CH164"/>
-    <mergeCell ref="AG162:AG164"/>
-    <mergeCell ref="AI162:AI164"/>
-    <mergeCell ref="BH162:BI164"/>
-    <mergeCell ref="BJ162:BJ164"/>
-    <mergeCell ref="BK162:BK164"/>
-    <mergeCell ref="BL162:BL164"/>
-    <mergeCell ref="P162:T163"/>
-    <mergeCell ref="U162:X163"/>
-    <mergeCell ref="Y162:AB163"/>
-    <mergeCell ref="AC162:AC164"/>
-    <mergeCell ref="AD162:AD164"/>
-    <mergeCell ref="AF162:AF164"/>
-    <mergeCell ref="EK147:EK149"/>
-    <mergeCell ref="EM147:EM149"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="F162:G164"/>
-    <mergeCell ref="H162:H164"/>
-    <mergeCell ref="I162:I164"/>
-    <mergeCell ref="J162:J164"/>
-    <mergeCell ref="K162:O163"/>
-    <mergeCell ref="DT147:DX148"/>
-    <mergeCell ref="DY147:EB148"/>
-    <mergeCell ref="EC147:EF148"/>
-    <mergeCell ref="EG147:EG149"/>
-    <mergeCell ref="EH147:EH149"/>
-    <mergeCell ref="EJ147:EJ149"/>
-    <mergeCell ref="CK147:CK149"/>
-    <mergeCell ref="DJ147:DK149"/>
-    <mergeCell ref="DL147:DL149"/>
-    <mergeCell ref="DM147:DM149"/>
-    <mergeCell ref="DN147:DN149"/>
-    <mergeCell ref="DO147:DS148"/>
-    <mergeCell ref="BR147:BV148"/>
-    <mergeCell ref="BW147:BZ148"/>
-    <mergeCell ref="CA147:CD148"/>
-    <mergeCell ref="CF147:CF149"/>
-    <mergeCell ref="CH147:CH149"/>
-    <mergeCell ref="CI147:CI149"/>
-    <mergeCell ref="AI147:AI149"/>
-    <mergeCell ref="BH147:BI149"/>
-    <mergeCell ref="BJ147:BJ149"/>
-    <mergeCell ref="BK147:BK149"/>
-    <mergeCell ref="BL147:BL149"/>
-    <mergeCell ref="BM147:BQ148"/>
-    <mergeCell ref="U147:X148"/>
-    <mergeCell ref="Y147:AB148"/>
-    <mergeCell ref="AC147:AC149"/>
-    <mergeCell ref="AD147:AD149"/>
-    <mergeCell ref="AF147:AF149"/>
-    <mergeCell ref="AG147:AG149"/>
-    <mergeCell ref="F147:G149"/>
-    <mergeCell ref="H147:H149"/>
-    <mergeCell ref="I147:I149"/>
-    <mergeCell ref="J147:J149"/>
-    <mergeCell ref="K147:O148"/>
-    <mergeCell ref="P147:T148"/>
-    <mergeCell ref="EJ132:EJ134"/>
-    <mergeCell ref="EK132:EK134"/>
-    <mergeCell ref="EM132:EM134"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="DO132:DS133"/>
-    <mergeCell ref="DT132:DX133"/>
-    <mergeCell ref="DY132:EB133"/>
-    <mergeCell ref="EC132:EF133"/>
-    <mergeCell ref="EG132:EG134"/>
-    <mergeCell ref="EH132:EH134"/>
-    <mergeCell ref="CI132:CI134"/>
-    <mergeCell ref="CK132:CK134"/>
-    <mergeCell ref="DJ132:DK134"/>
-    <mergeCell ref="DL132:DL134"/>
-    <mergeCell ref="DM132:DM134"/>
-    <mergeCell ref="DN132:DN134"/>
-    <mergeCell ref="BM132:BQ133"/>
-    <mergeCell ref="BR132:BV133"/>
-    <mergeCell ref="BW132:BZ133"/>
-    <mergeCell ref="CA132:CD133"/>
-    <mergeCell ref="CF132:CF134"/>
-    <mergeCell ref="CH132:CH134"/>
-    <mergeCell ref="AG132:AG134"/>
-    <mergeCell ref="AI132:AI134"/>
-    <mergeCell ref="BH132:BI134"/>
-    <mergeCell ref="BJ132:BJ134"/>
-    <mergeCell ref="BK132:BK134"/>
-    <mergeCell ref="BL132:BL134"/>
-    <mergeCell ref="P132:T133"/>
-    <mergeCell ref="U132:X133"/>
-    <mergeCell ref="Y132:AB133"/>
-    <mergeCell ref="AC132:AC134"/>
-    <mergeCell ref="AD132:AD134"/>
-    <mergeCell ref="AF132:AF134"/>
-    <mergeCell ref="EK114:EK116"/>
-    <mergeCell ref="EM114:EM116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="F132:G134"/>
-    <mergeCell ref="H132:H134"/>
-    <mergeCell ref="I132:I134"/>
-    <mergeCell ref="J132:J134"/>
-    <mergeCell ref="K132:O133"/>
-    <mergeCell ref="DT114:DX115"/>
-    <mergeCell ref="DY114:EB115"/>
-    <mergeCell ref="EC114:EF115"/>
-    <mergeCell ref="EG114:EG116"/>
-    <mergeCell ref="EH114:EH116"/>
-    <mergeCell ref="EJ114:EJ116"/>
-    <mergeCell ref="CK114:CK116"/>
-    <mergeCell ref="DJ114:DK116"/>
-    <mergeCell ref="DL114:DL116"/>
-    <mergeCell ref="DM114:DM116"/>
-    <mergeCell ref="DN114:DN116"/>
-    <mergeCell ref="DO114:DS115"/>
-    <mergeCell ref="BR114:BV115"/>
-    <mergeCell ref="BW114:BZ115"/>
-    <mergeCell ref="CA114:CD115"/>
-    <mergeCell ref="CF114:CF116"/>
-    <mergeCell ref="CH114:CH116"/>
-    <mergeCell ref="CI114:CI116"/>
-    <mergeCell ref="AI114:AI116"/>
-    <mergeCell ref="BH114:BI116"/>
-    <mergeCell ref="BJ114:BJ116"/>
-    <mergeCell ref="BK114:BK116"/>
-    <mergeCell ref="BL114:BL116"/>
-    <mergeCell ref="BM114:BQ115"/>
-    <mergeCell ref="U114:X115"/>
-    <mergeCell ref="Y114:AB115"/>
-    <mergeCell ref="AC114:AC116"/>
-    <mergeCell ref="AD114:AD116"/>
-    <mergeCell ref="AF114:AF116"/>
-    <mergeCell ref="AG114:AG116"/>
-    <mergeCell ref="F114:G116"/>
-    <mergeCell ref="H114:H116"/>
-    <mergeCell ref="I114:I116"/>
-    <mergeCell ref="J114:J116"/>
-    <mergeCell ref="K114:O115"/>
-    <mergeCell ref="P114:T115"/>
-    <mergeCell ref="EK18:EK20"/>
-    <mergeCell ref="EM18:EM20"/>
-    <mergeCell ref="EO18:EO20"/>
-    <mergeCell ref="EP18:EP20"/>
-    <mergeCell ref="EQ18:EQ20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="BH20:BI20"/>
-    <mergeCell ref="DT18:DX19"/>
-    <mergeCell ref="DY18:EB19"/>
-    <mergeCell ref="EC18:EF19"/>
-    <mergeCell ref="EG18:EG20"/>
-    <mergeCell ref="EH18:EH20"/>
-    <mergeCell ref="EJ18:EJ20"/>
-    <mergeCell ref="CO18:CO20"/>
-    <mergeCell ref="DJ18:DK20"/>
-    <mergeCell ref="DL18:DL20"/>
-    <mergeCell ref="DM18:DM20"/>
-    <mergeCell ref="DN18:DN20"/>
-    <mergeCell ref="DO18:DS19"/>
-    <mergeCell ref="CF18:CF20"/>
-    <mergeCell ref="CH18:CH20"/>
-    <mergeCell ref="CI18:CI20"/>
-    <mergeCell ref="CK18:CK20"/>
-    <mergeCell ref="CM18:CM20"/>
-    <mergeCell ref="CN18:CN20"/>
-    <mergeCell ref="BK18:BK20"/>
-    <mergeCell ref="BL18:BL20"/>
-    <mergeCell ref="BM18:BQ19"/>
-    <mergeCell ref="BR18:BV19"/>
-    <mergeCell ref="BW18:BZ19"/>
-    <mergeCell ref="CA18:CD19"/>
-    <mergeCell ref="AI18:AI20"/>
-    <mergeCell ref="AK18:AK20"/>
-    <mergeCell ref="AL18:AL20"/>
-    <mergeCell ref="AM18:AM20"/>
-    <mergeCell ref="BH18:BI19"/>
-    <mergeCell ref="BJ18:BJ20"/>
-    <mergeCell ref="U18:X19"/>
-    <mergeCell ref="Y18:AB19"/>
-    <mergeCell ref="AC18:AC20"/>
-    <mergeCell ref="AD18:AD20"/>
-    <mergeCell ref="AF18:AF20"/>
-    <mergeCell ref="AG18:AG20"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:O19"/>
-    <mergeCell ref="P18:T19"/>
+    <mergeCell ref="BJ244:BJ246"/>
+    <mergeCell ref="BK244:BK246"/>
+    <mergeCell ref="BM244:BM246"/>
+    <mergeCell ref="BP244:BP246"/>
+    <mergeCell ref="AZ244:AZ246"/>
+    <mergeCell ref="BB244:BB246"/>
+    <mergeCell ref="BC244:BC246"/>
+    <mergeCell ref="BD244:BD246"/>
+    <mergeCell ref="BF244:BF246"/>
+    <mergeCell ref="BG244:BG246"/>
+    <mergeCell ref="CF244:CF246"/>
+    <mergeCell ref="CG244:CG246"/>
+    <mergeCell ref="CH244:CH246"/>
+    <mergeCell ref="CI244:CI246"/>
+    <mergeCell ref="CK244:CK246"/>
+    <mergeCell ref="CL244:CL246"/>
+    <mergeCell ref="BQ244:BQ246"/>
+    <mergeCell ref="BR244:BR246"/>
+    <mergeCell ref="BW244:BW246"/>
+    <mergeCell ref="CB244:CB246"/>
+    <mergeCell ref="CD244:CD246"/>
+    <mergeCell ref="CE244:CE246"/>
+    <mergeCell ref="CU244:CU246"/>
+    <mergeCell ref="CV244:CV246"/>
+    <mergeCell ref="CW244:CW246"/>
+    <mergeCell ref="CN244:CN246"/>
+    <mergeCell ref="CO244:CO246"/>
+    <mergeCell ref="CP244:CP246"/>
+    <mergeCell ref="CR244:CR246"/>
+    <mergeCell ref="CS244:CS246"/>
+    <mergeCell ref="CT244:CT246"/>
   </mergeCells>
   <conditionalFormatting sqref="F117:F118">
     <cfRule type="expression" dxfId="83" priority="1">
